--- a/00_Docs/00_Zeitplanung/DIPL_Ertragssteuerung_PV_Zeitplanung.xlsx
+++ b/00_Docs/00_Zeitplanung/DIPL_Ertragssteuerung_PV_Zeitplanung.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\gitRepos\DIPL_Ertragssteuerung_PV\00_Docs\00_Zeitplanung\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5975D9CB-0531-49C2-82D4-3143D01CC55C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFF5819F-3100-40F5-BC1B-0AB69A87D561}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Ist_Stand" sheetId="2" r:id="rId1"/>
+    <sheet name="Soll_Stand" sheetId="2" r:id="rId1"/>
+    <sheet name="Ist_Stand" sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="51">
   <si>
     <t>Zeitplanung PV-Ertragssteuerung</t>
   </si>
@@ -180,6 +181,15 @@
   </si>
   <si>
     <t>Summe der Stunden</t>
+  </si>
+  <si>
+    <t>…..... Geplant Nicht Erledigt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">…..... Erledigt </t>
+  </si>
+  <si>
+    <t>… Realer Verlauf</t>
   </si>
 </sst>
 </file>
@@ -233,21 +243,21 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="8.5"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -281,6 +291,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF5050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -552,7 +568,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -622,18 +638,45 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -647,45 +690,24 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="14" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -694,8 +716,9 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFF5050"/>
+      <color rgb="FF66FF33"/>
       <color rgb="FF0099FF"/>
-      <color rgb="FF66FF33"/>
       <color rgb="FF00CC00"/>
       <color rgb="FFFFFF66"/>
     </mruColors>
@@ -976,25 +999,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF1054C7-560E-4B32-AF8E-02ADAE84D38F}">
   <dimension ref="A1:AK36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AE2" sqref="AE2"/>
+    <sheetView topLeftCell="A3" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AJ14" sqref="AJ14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="8" max="37" width="4.33203125" customWidth="1"/>
+    <col min="8" max="36" width="4.33203125" customWidth="1"/>
+    <col min="37" max="37" width="5.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
@@ -1009,14 +1033,14 @@
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
       <c r="U1" s="14"/>
-      <c r="V1" s="46" t="s">
+      <c r="V1" s="63" t="s">
         <v>25</v>
       </c>
-      <c r="W1" s="46"/>
-      <c r="X1" s="46"/>
-      <c r="Y1" s="46"/>
-      <c r="Z1" s="46"/>
-      <c r="AA1" s="46"/>
+      <c r="W1" s="63"/>
+      <c r="X1" s="63"/>
+      <c r="Y1" s="63"/>
+      <c r="Z1" s="63"/>
+      <c r="AA1" s="63"/>
       <c r="AB1" s="1"/>
       <c r="AC1" s="1"/>
       <c r="AD1" s="1"/>
@@ -1029,13 +1053,13 @@
       <c r="AK1" s="1"/>
     </row>
     <row r="2" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="47"/>
-      <c r="B2" s="47"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47"/>
+      <c r="A2" s="62"/>
+      <c r="B2" s="62"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
@@ -1050,14 +1074,14 @@
       <c r="S2" s="1"/>
       <c r="T2" s="1"/>
       <c r="U2" s="15"/>
-      <c r="V2" s="46" t="s">
+      <c r="V2" s="63" t="s">
         <v>15</v>
       </c>
-      <c r="W2" s="46"/>
-      <c r="X2" s="46"/>
-      <c r="Y2" s="46"/>
-      <c r="Z2" s="46"/>
-      <c r="AA2" s="46"/>
+      <c r="W2" s="63"/>
+      <c r="X2" s="63"/>
+      <c r="Y2" s="63"/>
+      <c r="Z2" s="63"/>
+      <c r="AA2" s="63"/>
       <c r="AB2" s="1"/>
       <c r="AC2" s="1"/>
       <c r="AD2" s="1"/>
@@ -1070,13 +1094,13 @@
       <c r="AK2" s="1"/>
     </row>
     <row r="3" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="47"/>
-      <c r="B3" s="47"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
+      <c r="A3" s="62"/>
+      <c r="B3" s="62"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="62"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
@@ -1091,14 +1115,14 @@
       <c r="S3" s="1"/>
       <c r="T3" s="1"/>
       <c r="U3" s="17"/>
-      <c r="V3" s="46" t="s">
+      <c r="V3" s="63" t="s">
         <v>26</v>
       </c>
-      <c r="W3" s="46"/>
-      <c r="X3" s="46"/>
-      <c r="Y3" s="46"/>
-      <c r="Z3" s="46"/>
-      <c r="AA3" s="46"/>
+      <c r="W3" s="63"/>
+      <c r="X3" s="63"/>
+      <c r="Y3" s="63"/>
+      <c r="Z3" s="63"/>
+      <c r="AA3" s="63"/>
       <c r="AB3" s="1"/>
       <c r="AC3" s="1"/>
       <c r="AD3" s="1"/>
@@ -1118,10 +1142,10 @@
       <c r="E4" s="12"/>
       <c r="F4" s="12"/>
       <c r="G4" s="12"/>
-      <c r="H4" s="60">
+      <c r="H4" s="64">
         <v>45910</v>
       </c>
-      <c r="I4" s="60"/>
+      <c r="I4" s="64"/>
       <c r="J4" s="16"/>
       <c r="K4" s="12"/>
       <c r="L4" s="12"/>
@@ -1154,71 +1178,71 @@
       <c r="AK4" s="61"/>
     </row>
     <row r="5" spans="1:37" ht="17.399999999999999" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="44" t="s">
+      <c r="A5" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="44"/>
-      <c r="C5" s="44"/>
-      <c r="D5" s="48"/>
-      <c r="E5" s="44" t="s">
+      <c r="B5" s="53"/>
+      <c r="C5" s="53"/>
+      <c r="D5" s="57"/>
+      <c r="E5" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="44"/>
-      <c r="G5" s="44"/>
-      <c r="H5" s="49" t="s">
+      <c r="F5" s="53"/>
+      <c r="G5" s="53"/>
+      <c r="H5" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="50"/>
-      <c r="J5" s="50"/>
-      <c r="K5" s="51" t="s">
+      <c r="I5" s="59"/>
+      <c r="J5" s="59"/>
+      <c r="K5" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="L5" s="44"/>
-      <c r="M5" s="44"/>
-      <c r="N5" s="45"/>
-      <c r="O5" s="44" t="s">
+      <c r="L5" s="53"/>
+      <c r="M5" s="53"/>
+      <c r="N5" s="54"/>
+      <c r="O5" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="P5" s="44"/>
-      <c r="Q5" s="44"/>
-      <c r="R5" s="44"/>
-      <c r="S5" s="45"/>
-      <c r="T5" s="44" t="s">
+      <c r="P5" s="53"/>
+      <c r="Q5" s="53"/>
+      <c r="R5" s="53"/>
+      <c r="S5" s="54"/>
+      <c r="T5" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="U5" s="44"/>
-      <c r="V5" s="44"/>
-      <c r="W5" s="45"/>
-      <c r="X5" s="44" t="s">
+      <c r="U5" s="53"/>
+      <c r="V5" s="53"/>
+      <c r="W5" s="54"/>
+      <c r="X5" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="Y5" s="44"/>
-      <c r="Z5" s="44"/>
-      <c r="AA5" s="45"/>
-      <c r="AB5" s="44" t="s">
+      <c r="Y5" s="53"/>
+      <c r="Z5" s="53"/>
+      <c r="AA5" s="54"/>
+      <c r="AB5" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="AC5" s="44"/>
-      <c r="AD5" s="44"/>
-      <c r="AE5" s="45"/>
-      <c r="AF5" s="44" t="s">
+      <c r="AC5" s="53"/>
+      <c r="AD5" s="53"/>
+      <c r="AE5" s="54"/>
+      <c r="AF5" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="AG5" s="44"/>
-      <c r="AH5" s="44"/>
-      <c r="AI5" s="44"/>
-      <c r="AJ5" s="45"/>
+      <c r="AG5" s="53"/>
+      <c r="AH5" s="53"/>
+      <c r="AI5" s="53"/>
+      <c r="AJ5" s="54"/>
       <c r="AK5" s="5" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:37" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="54" t="s">
+      <c r="A6" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="54"/>
-      <c r="C6" s="54"/>
-      <c r="D6" s="55"/>
+      <c r="B6" s="55"/>
+      <c r="C6" s="55"/>
+      <c r="D6" s="56"/>
       <c r="E6" s="18" t="s">
         <v>3</v>
       </c>
@@ -1320,12 +1344,12 @@
       </c>
     </row>
     <row r="7" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="56" t="s">
+      <c r="A7" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="56"/>
-      <c r="C7" s="56"/>
-      <c r="D7" s="57"/>
+      <c r="B7" s="51"/>
+      <c r="C7" s="51"/>
+      <c r="D7" s="52"/>
       <c r="E7" s="20">
         <v>2</v>
       </c>
@@ -1367,12 +1391,12 @@
       <c r="AK7" s="3"/>
     </row>
     <row r="8" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="58" t="s">
+      <c r="A8" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="58"/>
-      <c r="C8" s="58"/>
-      <c r="D8" s="59"/>
+      <c r="B8" s="44"/>
+      <c r="C8" s="44"/>
+      <c r="D8" s="45"/>
       <c r="E8" s="2">
         <v>11</v>
       </c>
@@ -1414,12 +1438,12 @@
       <c r="AK8" s="3"/>
     </row>
     <row r="9" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="58" t="s">
+      <c r="A9" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="58"/>
-      <c r="C9" s="58"/>
-      <c r="D9" s="59"/>
+      <c r="B9" s="44"/>
+      <c r="C9" s="44"/>
+      <c r="D9" s="45"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2">
         <v>4</v>
@@ -1457,12 +1481,12 @@
       <c r="AK9" s="3"/>
     </row>
     <row r="10" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="58" t="s">
+      <c r="A10" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="58"/>
-      <c r="C10" s="58"/>
-      <c r="D10" s="59"/>
+      <c r="B10" s="44"/>
+      <c r="C10" s="44"/>
+      <c r="D10" s="45"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="19">
@@ -1500,12 +1524,12 @@
       <c r="AK10" s="3"/>
     </row>
     <row r="11" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="58" t="s">
+      <c r="A11" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="58"/>
-      <c r="C11" s="58"/>
-      <c r="D11" s="59"/>
+      <c r="B11" s="44"/>
+      <c r="C11" s="44"/>
+      <c r="D11" s="45"/>
       <c r="E11" s="2">
         <v>3</v>
       </c>
@@ -1545,12 +1569,12 @@
       <c r="AK11" s="3"/>
     </row>
     <row r="12" spans="1:37" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="52" t="s">
+      <c r="A12" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="52"/>
-      <c r="C12" s="52"/>
-      <c r="D12" s="53"/>
+      <c r="B12" s="46"/>
+      <c r="C12" s="46"/>
+      <c r="D12" s="47"/>
       <c r="E12" s="32">
         <f>E7+E8+E9+E10+E11</f>
         <v>16</v>
@@ -1595,12 +1619,12 @@
       <c r="AK12" s="24"/>
     </row>
     <row r="13" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A13" s="58" t="s">
+      <c r="A13" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="58"/>
-      <c r="C13" s="58"/>
-      <c r="D13" s="59"/>
+      <c r="B13" s="44"/>
+      <c r="C13" s="44"/>
+      <c r="D13" s="45"/>
       <c r="E13" s="18">
         <v>2</v>
       </c>
@@ -1642,12 +1666,12 @@
       <c r="AK13" s="3"/>
     </row>
     <row r="14" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="58" t="s">
+      <c r="A14" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="58"/>
-      <c r="C14" s="58"/>
-      <c r="D14" s="59"/>
+      <c r="B14" s="44"/>
+      <c r="C14" s="44"/>
+      <c r="D14" s="45"/>
       <c r="E14" s="2">
         <v>2</v>
       </c>
@@ -1689,12 +1713,12 @@
       <c r="AK14" s="3"/>
     </row>
     <row r="15" spans="1:37" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="52" t="s">
+      <c r="A15" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="B15" s="52"/>
-      <c r="C15" s="52"/>
-      <c r="D15" s="53"/>
+      <c r="B15" s="46"/>
+      <c r="C15" s="46"/>
+      <c r="D15" s="47"/>
       <c r="E15" s="32">
         <f>E13+E14</f>
         <v>4</v>
@@ -1739,12 +1763,12 @@
       <c r="AK15" s="24"/>
     </row>
     <row r="16" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A16" s="58" t="s">
+      <c r="A16" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="B16" s="58"/>
-      <c r="C16" s="58"/>
-      <c r="D16" s="59"/>
+      <c r="B16" s="44"/>
+      <c r="C16" s="44"/>
+      <c r="D16" s="45"/>
       <c r="E16" s="2">
         <v>3</v>
       </c>
@@ -1786,12 +1810,12 @@
       <c r="AK16" s="3"/>
     </row>
     <row r="17" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A17" s="58" t="s">
+      <c r="A17" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="58"/>
-      <c r="C17" s="58"/>
-      <c r="D17" s="59"/>
+      <c r="B17" s="44"/>
+      <c r="C17" s="44"/>
+      <c r="D17" s="45"/>
       <c r="E17" s="2">
         <v>4</v>
       </c>
@@ -1831,12 +1855,12 @@
       <c r="AK17" s="3"/>
     </row>
     <row r="18" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A18" s="58" t="s">
+      <c r="A18" s="44" t="s">
         <v>28</v>
       </c>
-      <c r="B18" s="58"/>
-      <c r="C18" s="58"/>
-      <c r="D18" s="59"/>
+      <c r="B18" s="44"/>
+      <c r="C18" s="44"/>
+      <c r="D18" s="45"/>
       <c r="E18" s="2">
         <v>10</v>
       </c>
@@ -1878,12 +1902,12 @@
       <c r="AK18" s="3"/>
     </row>
     <row r="19" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A19" s="58" t="s">
+      <c r="A19" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="58"/>
-      <c r="C19" s="58"/>
-      <c r="D19" s="59"/>
+      <c r="B19" s="44"/>
+      <c r="C19" s="44"/>
+      <c r="D19" s="45"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
       <c r="G19" s="19">
@@ -1921,12 +1945,12 @@
       <c r="AK19" s="3"/>
     </row>
     <row r="20" spans="1:37" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="62" t="s">
+      <c r="A20" s="50" t="s">
         <v>43</v>
       </c>
-      <c r="B20" s="62"/>
-      <c r="C20" s="62"/>
-      <c r="D20" s="62"/>
+      <c r="B20" s="50"/>
+      <c r="C20" s="50"/>
+      <c r="D20" s="50"/>
       <c r="E20" s="34">
         <f>E16+E17+E18+E19</f>
         <v>17</v>
@@ -1971,12 +1995,12 @@
       <c r="AK20" s="24"/>
     </row>
     <row r="21" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A21" s="56" t="s">
+      <c r="A21" s="51" t="s">
         <v>41</v>
       </c>
-      <c r="B21" s="56"/>
-      <c r="C21" s="56"/>
-      <c r="D21" s="57"/>
+      <c r="B21" s="51"/>
+      <c r="C21" s="51"/>
+      <c r="D21" s="52"/>
       <c r="E21" s="18">
         <v>13</v>
       </c>
@@ -2016,12 +2040,12 @@
       <c r="AK21" s="3"/>
     </row>
     <row r="22" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A22" s="58" t="s">
+      <c r="A22" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="B22" s="58"/>
-      <c r="C22" s="58"/>
-      <c r="D22" s="59"/>
+      <c r="B22" s="44"/>
+      <c r="C22" s="44"/>
+      <c r="D22" s="45"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
       <c r="G22" s="19">
@@ -2059,12 +2083,12 @@
       <c r="AK22" s="3"/>
     </row>
     <row r="23" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A23" s="58" t="s">
+      <c r="A23" s="44" t="s">
         <v>32</v>
       </c>
-      <c r="B23" s="58"/>
-      <c r="C23" s="58"/>
-      <c r="D23" s="59"/>
+      <c r="B23" s="44"/>
+      <c r="C23" s="44"/>
+      <c r="D23" s="45"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
       <c r="G23" s="19">
@@ -2102,12 +2126,12 @@
       <c r="AK23" s="3"/>
     </row>
     <row r="24" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A24" s="58" t="s">
+      <c r="A24" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="B24" s="58"/>
-      <c r="C24" s="58"/>
-      <c r="D24" s="59"/>
+      <c r="B24" s="44"/>
+      <c r="C24" s="44"/>
+      <c r="D24" s="45"/>
       <c r="E24" s="2">
         <v>20</v>
       </c>
@@ -2147,12 +2171,12 @@
       <c r="AK24" s="3"/>
     </row>
     <row r="25" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A25" s="58" t="s">
+      <c r="A25" s="44" t="s">
         <v>34</v>
       </c>
-      <c r="B25" s="58"/>
-      <c r="C25" s="58"/>
-      <c r="D25" s="59"/>
+      <c r="B25" s="44"/>
+      <c r="C25" s="44"/>
+      <c r="D25" s="45"/>
       <c r="E25" s="2">
         <v>5</v>
       </c>
@@ -2194,12 +2218,12 @@
       <c r="AK25" s="3"/>
     </row>
     <row r="26" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A26" s="58" t="s">
+      <c r="A26" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="B26" s="58"/>
-      <c r="C26" s="58"/>
-      <c r="D26" s="59"/>
+      <c r="B26" s="44"/>
+      <c r="C26" s="44"/>
+      <c r="D26" s="45"/>
       <c r="E26" s="2">
         <v>40</v>
       </c>
@@ -2241,12 +2265,12 @@
       <c r="AK26" s="3"/>
     </row>
     <row r="27" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A27" s="58" t="s">
+      <c r="A27" s="44" t="s">
         <v>35</v>
       </c>
-      <c r="B27" s="58"/>
-      <c r="C27" s="58"/>
-      <c r="D27" s="59"/>
+      <c r="B27" s="44"/>
+      <c r="C27" s="44"/>
+      <c r="D27" s="45"/>
       <c r="E27" s="2">
         <v>5</v>
       </c>
@@ -2288,12 +2312,12 @@
       <c r="AK27" s="3"/>
     </row>
     <row r="28" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A28" s="58" t="s">
+      <c r="A28" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="B28" s="58"/>
-      <c r="C28" s="58"/>
-      <c r="D28" s="59"/>
+      <c r="B28" s="44"/>
+      <c r="C28" s="44"/>
+      <c r="D28" s="45"/>
       <c r="E28" s="2">
         <v>5</v>
       </c>
@@ -2335,12 +2359,12 @@
       <c r="AK28" s="3"/>
     </row>
     <row r="29" spans="1:37" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="52" t="s">
+      <c r="A29" s="46" t="s">
         <v>40</v>
       </c>
-      <c r="B29" s="52"/>
-      <c r="C29" s="52"/>
-      <c r="D29" s="53"/>
+      <c r="B29" s="46"/>
+      <c r="C29" s="46"/>
+      <c r="D29" s="47"/>
       <c r="E29" s="32">
         <f>E21+E22+E23+E24+E25+E26+E27+E28</f>
         <v>88</v>
@@ -2385,12 +2409,12 @@
       <c r="AK29" s="24"/>
     </row>
     <row r="30" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A30" s="58" t="s">
+      <c r="A30" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="B30" s="58"/>
-      <c r="C30" s="58"/>
-      <c r="D30" s="59"/>
+      <c r="B30" s="44"/>
+      <c r="C30" s="44"/>
+      <c r="D30" s="45"/>
       <c r="E30" s="2">
         <v>15</v>
       </c>
@@ -2432,12 +2456,12 @@
       <c r="AK30" s="3"/>
     </row>
     <row r="31" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A31" s="58" t="s">
+      <c r="A31" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="B31" s="58"/>
-      <c r="C31" s="58"/>
-      <c r="D31" s="59"/>
+      <c r="B31" s="44"/>
+      <c r="C31" s="44"/>
+      <c r="D31" s="45"/>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
       <c r="G31" s="2">
@@ -2475,12 +2499,12 @@
       <c r="AK31" s="3"/>
     </row>
     <row r="32" spans="1:37" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="52" t="s">
+      <c r="A32" s="46" t="s">
         <v>39</v>
       </c>
-      <c r="B32" s="52"/>
-      <c r="C32" s="52"/>
-      <c r="D32" s="53"/>
+      <c r="B32" s="46"/>
+      <c r="C32" s="46"/>
+      <c r="D32" s="47"/>
       <c r="E32" s="34">
         <f>E30+E31</f>
         <v>15</v>
@@ -2525,12 +2549,12 @@
       <c r="AK32" s="24"/>
     </row>
     <row r="33" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A33" s="58" t="s">
+      <c r="A33" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="B33" s="58"/>
-      <c r="C33" s="58"/>
-      <c r="D33" s="59"/>
+      <c r="B33" s="44"/>
+      <c r="C33" s="44"/>
+      <c r="D33" s="45"/>
       <c r="E33" s="2">
         <v>40</v>
       </c>
@@ -2572,12 +2596,12 @@
       <c r="AK33" s="3"/>
     </row>
     <row r="34" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A34" s="58" t="s">
+      <c r="A34" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="B34" s="58"/>
-      <c r="C34" s="58"/>
-      <c r="D34" s="59"/>
+      <c r="B34" s="44"/>
+      <c r="C34" s="44"/>
+      <c r="D34" s="45"/>
       <c r="E34" s="2">
         <v>5</v>
       </c>
@@ -2619,12 +2643,12 @@
       <c r="AK34" s="3"/>
     </row>
     <row r="35" spans="1:37" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="52" t="s">
+      <c r="A35" s="46" t="s">
         <v>46</v>
       </c>
-      <c r="B35" s="52"/>
-      <c r="C35" s="52"/>
-      <c r="D35" s="53"/>
+      <c r="B35" s="46"/>
+      <c r="C35" s="46"/>
+      <c r="D35" s="47"/>
       <c r="E35" s="34">
         <f>E33+E34</f>
         <v>45</v>
@@ -2669,12 +2693,12 @@
       <c r="AK35" s="36"/>
     </row>
     <row r="36" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A36" s="63" t="s">
+      <c r="A36" s="48" t="s">
         <v>47</v>
       </c>
-      <c r="B36" s="63"/>
-      <c r="C36" s="63"/>
-      <c r="D36" s="64"/>
+      <c r="B36" s="48"/>
+      <c r="C36" s="48"/>
+      <c r="D36" s="49"/>
       <c r="E36" s="35">
         <f>E12+E15+E20+E29+E32+E35</f>
         <v>185</v>
@@ -2720,16 +2744,27 @@
     </row>
   </sheetData>
   <mergeCells count="46">
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A34:D34"/>
-    <mergeCell ref="A35:D35"/>
-    <mergeCell ref="A36:D36"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="A29:D29"/>
-    <mergeCell ref="A30:D30"/>
-    <mergeCell ref="A31:D31"/>
-    <mergeCell ref="A32:D32"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="AJ4:AK4"/>
+    <mergeCell ref="A1:G3"/>
+    <mergeCell ref="V1:AA1"/>
+    <mergeCell ref="V2:AA2"/>
+    <mergeCell ref="V3:AA3"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="K5:N5"/>
+    <mergeCell ref="X5:AA5"/>
+    <mergeCell ref="AB5:AE5"/>
+    <mergeCell ref="AF5:AJ5"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="O5:S5"/>
+    <mergeCell ref="T5:W5"/>
     <mergeCell ref="A12:D12"/>
     <mergeCell ref="A13:D13"/>
     <mergeCell ref="A26:D26"/>
@@ -2745,6 +2780,1800 @@
     <mergeCell ref="A24:D24"/>
     <mergeCell ref="A25:D25"/>
     <mergeCell ref="A14:D14"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A34:D34"/>
+    <mergeCell ref="A35:D35"/>
+    <mergeCell ref="A36:D36"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="A29:D29"/>
+    <mergeCell ref="A30:D30"/>
+    <mergeCell ref="A31:D31"/>
+    <mergeCell ref="A32:D32"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CB8DCAA-6D0A-4CAB-9084-21E2434B6494}">
+  <dimension ref="A1:AK36"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M15" sqref="M15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="8" max="36" width="4.33203125" customWidth="1"/>
+    <col min="37" max="37" width="5.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="62" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="67"/>
+      <c r="N1" s="63" t="s">
+        <v>50</v>
+      </c>
+      <c r="O1" s="63"/>
+      <c r="P1" s="63"/>
+      <c r="Q1" s="63"/>
+      <c r="R1" s="63"/>
+      <c r="S1" s="63"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="14"/>
+      <c r="V1" s="63" t="s">
+        <v>49</v>
+      </c>
+      <c r="W1" s="63"/>
+      <c r="X1" s="63"/>
+      <c r="Y1" s="63"/>
+      <c r="Z1" s="63"/>
+      <c r="AA1" s="63"/>
+      <c r="AB1" s="1"/>
+      <c r="AC1" s="66"/>
+      <c r="AD1" s="66"/>
+      <c r="AE1" s="66"/>
+      <c r="AF1" s="66"/>
+      <c r="AG1" s="66"/>
+      <c r="AH1" s="66"/>
+      <c r="AI1" s="1"/>
+      <c r="AJ1" s="1"/>
+      <c r="AK1" s="1"/>
+    </row>
+    <row r="2" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="62"/>
+      <c r="B2" s="62"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="65"/>
+      <c r="O2" s="65"/>
+      <c r="P2" s="65"/>
+      <c r="Q2" s="65"/>
+      <c r="R2" s="65"/>
+      <c r="S2" s="65"/>
+      <c r="T2" s="1"/>
+      <c r="U2" s="15"/>
+      <c r="V2" s="63" t="s">
+        <v>15</v>
+      </c>
+      <c r="W2" s="63"/>
+      <c r="X2" s="63"/>
+      <c r="Y2" s="63"/>
+      <c r="Z2" s="63"/>
+      <c r="AA2" s="63"/>
+      <c r="AB2" s="1"/>
+      <c r="AC2" s="1"/>
+      <c r="AD2" s="1"/>
+      <c r="AE2" s="1"/>
+      <c r="AF2" s="1"/>
+      <c r="AG2" s="1"/>
+      <c r="AH2" s="1"/>
+      <c r="AI2" s="1"/>
+      <c r="AJ2" s="1"/>
+      <c r="AK2" s="1"/>
+    </row>
+    <row r="3" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="62"/>
+      <c r="B3" s="62"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="65"/>
+      <c r="O3" s="65"/>
+      <c r="P3" s="65"/>
+      <c r="Q3" s="65"/>
+      <c r="R3" s="65"/>
+      <c r="S3" s="65"/>
+      <c r="T3" s="1"/>
+      <c r="U3" s="17"/>
+      <c r="V3" s="63" t="s">
+        <v>48</v>
+      </c>
+      <c r="W3" s="63"/>
+      <c r="X3" s="63"/>
+      <c r="Y3" s="63"/>
+      <c r="Z3" s="63"/>
+      <c r="AA3" s="63"/>
+      <c r="AB3" s="1"/>
+      <c r="AC3" s="1"/>
+      <c r="AD3" s="1"/>
+      <c r="AE3" s="1"/>
+      <c r="AF3" s="1"/>
+      <c r="AG3" s="1"/>
+      <c r="AH3" s="1"/>
+      <c r="AI3" s="1"/>
+      <c r="AJ3" s="1"/>
+      <c r="AK3" s="1"/>
+    </row>
+    <row r="4" spans="1:37" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="12"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="64">
+        <v>45910</v>
+      </c>
+      <c r="I4" s="64"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="12"/>
+      <c r="M4" s="12"/>
+      <c r="N4" s="12"/>
+      <c r="O4" s="12"/>
+      <c r="P4" s="12"/>
+      <c r="Q4" s="12"/>
+      <c r="R4" s="12"/>
+      <c r="S4" s="12"/>
+      <c r="T4" s="12"/>
+      <c r="U4" s="12"/>
+      <c r="V4" s="12"/>
+      <c r="W4" s="12"/>
+      <c r="X4" s="12"/>
+      <c r="Y4" s="12"/>
+      <c r="Z4" s="12"/>
+      <c r="AA4" s="12"/>
+      <c r="AB4" s="12"/>
+      <c r="AC4" s="12"/>
+      <c r="AD4" s="12"/>
+      <c r="AE4" s="12"/>
+      <c r="AF4" s="12"/>
+      <c r="AG4" s="12"/>
+      <c r="AH4" s="12"/>
+      <c r="AI4" s="12"/>
+      <c r="AJ4" s="61">
+        <v>46119</v>
+      </c>
+      <c r="AK4" s="61"/>
+    </row>
+    <row r="5" spans="1:37" ht="17.399999999999999" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="53" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="53"/>
+      <c r="C5" s="53"/>
+      <c r="D5" s="57"/>
+      <c r="E5" s="53" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5" s="53"/>
+      <c r="G5" s="53"/>
+      <c r="H5" s="58" t="s">
+        <v>7</v>
+      </c>
+      <c r="I5" s="59"/>
+      <c r="J5" s="59"/>
+      <c r="K5" s="60" t="s">
+        <v>6</v>
+      </c>
+      <c r="L5" s="53"/>
+      <c r="M5" s="53"/>
+      <c r="N5" s="54"/>
+      <c r="O5" s="53" t="s">
+        <v>8</v>
+      </c>
+      <c r="P5" s="53"/>
+      <c r="Q5" s="53"/>
+      <c r="R5" s="53"/>
+      <c r="S5" s="54"/>
+      <c r="T5" s="53" t="s">
+        <v>9</v>
+      </c>
+      <c r="U5" s="53"/>
+      <c r="V5" s="53"/>
+      <c r="W5" s="54"/>
+      <c r="X5" s="53" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y5" s="53"/>
+      <c r="Z5" s="53"/>
+      <c r="AA5" s="54"/>
+      <c r="AB5" s="53" t="s">
+        <v>11</v>
+      </c>
+      <c r="AC5" s="53"/>
+      <c r="AD5" s="53"/>
+      <c r="AE5" s="54"/>
+      <c r="AF5" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="AG5" s="53"/>
+      <c r="AH5" s="53"/>
+      <c r="AI5" s="53"/>
+      <c r="AJ5" s="54"/>
+      <c r="AK5" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:37" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="55" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="55"/>
+      <c r="C6" s="55"/>
+      <c r="D6" s="56"/>
+      <c r="E6" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G6" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="H6" s="6">
+        <v>37</v>
+      </c>
+      <c r="I6" s="7">
+        <v>38</v>
+      </c>
+      <c r="J6" s="8">
+        <v>39</v>
+      </c>
+      <c r="K6" s="7">
+        <v>40</v>
+      </c>
+      <c r="L6" s="7">
+        <v>41</v>
+      </c>
+      <c r="M6" s="7">
+        <v>42</v>
+      </c>
+      <c r="N6" s="8">
+        <v>43</v>
+      </c>
+      <c r="O6" s="7">
+        <v>44</v>
+      </c>
+      <c r="P6" s="7">
+        <v>45</v>
+      </c>
+      <c r="Q6" s="7">
+        <v>46</v>
+      </c>
+      <c r="R6" s="7">
+        <v>47</v>
+      </c>
+      <c r="S6" s="8">
+        <v>48</v>
+      </c>
+      <c r="T6" s="7">
+        <v>49</v>
+      </c>
+      <c r="U6" s="7">
+        <v>50</v>
+      </c>
+      <c r="V6" s="7">
+        <v>51</v>
+      </c>
+      <c r="W6" s="8">
+        <v>52</v>
+      </c>
+      <c r="X6" s="7">
+        <v>1</v>
+      </c>
+      <c r="Y6" s="7">
+        <v>2</v>
+      </c>
+      <c r="Z6" s="7">
+        <v>3</v>
+      </c>
+      <c r="AA6" s="8">
+        <v>4</v>
+      </c>
+      <c r="AB6" s="7">
+        <v>5</v>
+      </c>
+      <c r="AC6" s="7">
+        <v>6</v>
+      </c>
+      <c r="AD6" s="7">
+        <v>7</v>
+      </c>
+      <c r="AE6" s="8">
+        <v>8</v>
+      </c>
+      <c r="AF6" s="9">
+        <v>9</v>
+      </c>
+      <c r="AG6" s="9">
+        <v>10</v>
+      </c>
+      <c r="AH6" s="9">
+        <v>11</v>
+      </c>
+      <c r="AI6" s="9">
+        <v>12</v>
+      </c>
+      <c r="AJ6" s="10">
+        <v>13</v>
+      </c>
+      <c r="AK6" s="11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="51"/>
+      <c r="C7" s="51"/>
+      <c r="D7" s="52"/>
+      <c r="E7" s="20">
+        <v>2</v>
+      </c>
+      <c r="F7" s="21">
+        <v>2</v>
+      </c>
+      <c r="G7" s="22">
+        <v>2</v>
+      </c>
+      <c r="H7" s="29"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="25"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="25"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="25"/>
+      <c r="T7" s="1"/>
+      <c r="U7" s="1"/>
+      <c r="V7" s="1"/>
+      <c r="W7" s="13"/>
+      <c r="X7" s="28"/>
+      <c r="Y7" s="1"/>
+      <c r="Z7" s="1"/>
+      <c r="AA7" s="25"/>
+      <c r="AB7" s="1"/>
+      <c r="AC7" s="1"/>
+      <c r="AD7" s="1"/>
+      <c r="AE7" s="25"/>
+      <c r="AF7" s="1"/>
+      <c r="AG7" s="1"/>
+      <c r="AH7" s="1"/>
+      <c r="AI7" s="1"/>
+      <c r="AJ7" s="25"/>
+      <c r="AK7" s="3"/>
+    </row>
+    <row r="8" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="44" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="44"/>
+      <c r="C8" s="44"/>
+      <c r="D8" s="45"/>
+      <c r="E8" s="2">
+        <v>11</v>
+      </c>
+      <c r="F8" s="2">
+        <v>9</v>
+      </c>
+      <c r="G8" s="19">
+        <v>12</v>
+      </c>
+      <c r="H8" s="29"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="30"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="26"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1"/>
+      <c r="S8" s="26"/>
+      <c r="T8" s="1"/>
+      <c r="U8" s="1"/>
+      <c r="V8" s="1"/>
+      <c r="W8" s="26"/>
+      <c r="X8" s="1"/>
+      <c r="Y8" s="1"/>
+      <c r="Z8" s="1"/>
+      <c r="AA8" s="26"/>
+      <c r="AB8" s="1"/>
+      <c r="AC8" s="1"/>
+      <c r="AD8" s="1"/>
+      <c r="AE8" s="26"/>
+      <c r="AF8" s="1"/>
+      <c r="AG8" s="1"/>
+      <c r="AH8" s="1"/>
+      <c r="AI8" s="1"/>
+      <c r="AJ8" s="26"/>
+      <c r="AK8" s="3"/>
+    </row>
+    <row r="9" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="44" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="44"/>
+      <c r="C9" s="44"/>
+      <c r="D9" s="45"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2">
+        <v>4</v>
+      </c>
+      <c r="G9" s="19"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="30"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="26"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1"/>
+      <c r="S9" s="26"/>
+      <c r="T9" s="1"/>
+      <c r="U9" s="1"/>
+      <c r="V9" s="1"/>
+      <c r="W9" s="26"/>
+      <c r="X9" s="1"/>
+      <c r="Y9" s="1"/>
+      <c r="Z9" s="1"/>
+      <c r="AA9" s="26"/>
+      <c r="AB9" s="1"/>
+      <c r="AC9" s="1"/>
+      <c r="AD9" s="1"/>
+      <c r="AE9" s="26"/>
+      <c r="AF9" s="1"/>
+      <c r="AG9" s="1"/>
+      <c r="AH9" s="1"/>
+      <c r="AI9" s="1"/>
+      <c r="AJ9" s="26"/>
+      <c r="AK9" s="3"/>
+    </row>
+    <row r="10" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="44" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="44"/>
+      <c r="C10" s="44"/>
+      <c r="D10" s="45"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="19">
+        <v>2</v>
+      </c>
+      <c r="H10" s="4"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="30"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="26"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1"/>
+      <c r="S10" s="26"/>
+      <c r="T10" s="1"/>
+      <c r="U10" s="1"/>
+      <c r="V10" s="1"/>
+      <c r="W10" s="26"/>
+      <c r="X10" s="1"/>
+      <c r="Y10" s="1"/>
+      <c r="Z10" s="1"/>
+      <c r="AA10" s="26"/>
+      <c r="AB10" s="1"/>
+      <c r="AC10" s="1"/>
+      <c r="AD10" s="1"/>
+      <c r="AE10" s="26"/>
+      <c r="AF10" s="1"/>
+      <c r="AG10" s="1"/>
+      <c r="AH10" s="1"/>
+      <c r="AI10" s="1"/>
+      <c r="AJ10" s="26"/>
+      <c r="AK10" s="3"/>
+    </row>
+    <row r="11" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="44" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="44"/>
+      <c r="C11" s="44"/>
+      <c r="D11" s="45"/>
+      <c r="E11" s="2">
+        <v>3</v>
+      </c>
+      <c r="F11" s="2">
+        <v>1</v>
+      </c>
+      <c r="G11" s="19"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="30"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="26"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="1"/>
+      <c r="S11" s="26"/>
+      <c r="T11" s="1"/>
+      <c r="U11" s="1"/>
+      <c r="V11" s="1"/>
+      <c r="W11" s="26"/>
+      <c r="X11" s="1"/>
+      <c r="Y11" s="1"/>
+      <c r="Z11" s="1"/>
+      <c r="AA11" s="26"/>
+      <c r="AB11" s="1"/>
+      <c r="AC11" s="1"/>
+      <c r="AD11" s="1"/>
+      <c r="AE11" s="26"/>
+      <c r="AF11" s="1"/>
+      <c r="AG11" s="1"/>
+      <c r="AH11" s="1"/>
+      <c r="AI11" s="1"/>
+      <c r="AJ11" s="26"/>
+      <c r="AK11" s="3"/>
+    </row>
+    <row r="12" spans="1:37" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="46" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="46"/>
+      <c r="C12" s="46"/>
+      <c r="D12" s="47"/>
+      <c r="E12" s="32">
+        <f>E7+E8+E9+E10+E11</f>
+        <v>16</v>
+      </c>
+      <c r="F12" s="32">
+        <f t="shared" ref="F12:G12" si="0">F7+F8+F9+F10+F11</f>
+        <v>16</v>
+      </c>
+      <c r="G12" s="33">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="H12" s="23"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="31"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="27"/>
+      <c r="O12" s="9"/>
+      <c r="P12" s="9"/>
+      <c r="Q12" s="9"/>
+      <c r="R12" s="9"/>
+      <c r="S12" s="27"/>
+      <c r="T12" s="9"/>
+      <c r="U12" s="9"/>
+      <c r="V12" s="9"/>
+      <c r="W12" s="27"/>
+      <c r="X12" s="9"/>
+      <c r="Y12" s="9"/>
+      <c r="Z12" s="9"/>
+      <c r="AA12" s="27"/>
+      <c r="AB12" s="9"/>
+      <c r="AC12" s="9"/>
+      <c r="AD12" s="9"/>
+      <c r="AE12" s="27"/>
+      <c r="AF12" s="9"/>
+      <c r="AG12" s="9"/>
+      <c r="AH12" s="9"/>
+      <c r="AI12" s="9"/>
+      <c r="AJ12" s="27"/>
+      <c r="AK12" s="24"/>
+    </row>
+    <row r="13" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="44" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="44"/>
+      <c r="C13" s="44"/>
+      <c r="D13" s="45"/>
+      <c r="E13" s="18">
+        <v>2</v>
+      </c>
+      <c r="F13" s="2">
+        <v>2</v>
+      </c>
+      <c r="G13" s="19">
+        <v>2</v>
+      </c>
+      <c r="H13" s="29"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="26"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="26"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1"/>
+      <c r="R13" s="1"/>
+      <c r="S13" s="26"/>
+      <c r="T13" s="1"/>
+      <c r="U13" s="1"/>
+      <c r="V13" s="1"/>
+      <c r="W13" s="26"/>
+      <c r="X13" s="1"/>
+      <c r="Y13" s="1"/>
+      <c r="Z13" s="1"/>
+      <c r="AA13" s="26"/>
+      <c r="AB13" s="1"/>
+      <c r="AC13" s="1"/>
+      <c r="AD13" s="1"/>
+      <c r="AE13" s="26"/>
+      <c r="AF13" s="1"/>
+      <c r="AG13" s="1"/>
+      <c r="AH13" s="1"/>
+      <c r="AI13" s="1"/>
+      <c r="AJ13" s="26"/>
+      <c r="AK13" s="3"/>
+    </row>
+    <row r="14" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="44" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="44"/>
+      <c r="C14" s="44"/>
+      <c r="D14" s="45"/>
+      <c r="E14" s="2">
+        <v>2</v>
+      </c>
+      <c r="F14" s="2">
+        <v>2</v>
+      </c>
+      <c r="G14" s="19">
+        <v>2</v>
+      </c>
+      <c r="H14" s="4"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="26"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="26"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="1"/>
+      <c r="S14" s="26"/>
+      <c r="T14" s="1"/>
+      <c r="U14" s="1"/>
+      <c r="V14" s="1"/>
+      <c r="W14" s="26"/>
+      <c r="X14" s="1"/>
+      <c r="Y14" s="1"/>
+      <c r="Z14" s="1"/>
+      <c r="AA14" s="26"/>
+      <c r="AB14" s="1"/>
+      <c r="AC14" s="1"/>
+      <c r="AD14" s="1"/>
+      <c r="AE14" s="26"/>
+      <c r="AF14" s="1"/>
+      <c r="AG14" s="1"/>
+      <c r="AH14" s="1"/>
+      <c r="AI14" s="1"/>
+      <c r="AJ14" s="26"/>
+      <c r="AK14" s="3"/>
+    </row>
+    <row r="15" spans="1:37" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="46" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" s="46"/>
+      <c r="C15" s="46"/>
+      <c r="D15" s="47"/>
+      <c r="E15" s="32">
+        <f>E13+E14</f>
+        <v>4</v>
+      </c>
+      <c r="F15" s="32">
+        <f t="shared" ref="F15:G15" si="1">F13+F14</f>
+        <v>4</v>
+      </c>
+      <c r="G15" s="32">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="H15" s="23"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="31"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="9"/>
+      <c r="M15" s="9"/>
+      <c r="N15" s="27"/>
+      <c r="O15" s="9"/>
+      <c r="P15" s="9"/>
+      <c r="Q15" s="9"/>
+      <c r="R15" s="9"/>
+      <c r="S15" s="27"/>
+      <c r="T15" s="9"/>
+      <c r="U15" s="9"/>
+      <c r="V15" s="9"/>
+      <c r="W15" s="27"/>
+      <c r="X15" s="9"/>
+      <c r="Y15" s="9"/>
+      <c r="Z15" s="9"/>
+      <c r="AA15" s="27"/>
+      <c r="AB15" s="9"/>
+      <c r="AC15" s="9"/>
+      <c r="AD15" s="9"/>
+      <c r="AE15" s="27"/>
+      <c r="AF15" s="9"/>
+      <c r="AG15" s="9"/>
+      <c r="AH15" s="9"/>
+      <c r="AI15" s="9"/>
+      <c r="AJ15" s="27"/>
+      <c r="AK15" s="24"/>
+    </row>
+    <row r="16" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A16" s="44" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" s="44"/>
+      <c r="C16" s="44"/>
+      <c r="D16" s="45"/>
+      <c r="E16" s="2">
+        <v>3</v>
+      </c>
+      <c r="F16" s="2">
+        <v>3</v>
+      </c>
+      <c r="G16" s="19">
+        <v>3</v>
+      </c>
+      <c r="H16" s="4"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="68"/>
+      <c r="K16" s="14"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="26"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1"/>
+      <c r="R16" s="1"/>
+      <c r="S16" s="26"/>
+      <c r="T16" s="1"/>
+      <c r="U16" s="1"/>
+      <c r="V16" s="1"/>
+      <c r="W16" s="26"/>
+      <c r="X16" s="1"/>
+      <c r="Y16" s="1"/>
+      <c r="Z16" s="1"/>
+      <c r="AA16" s="26"/>
+      <c r="AB16" s="1"/>
+      <c r="AC16" s="1"/>
+      <c r="AD16" s="1"/>
+      <c r="AE16" s="26"/>
+      <c r="AF16" s="1"/>
+      <c r="AG16" s="1"/>
+      <c r="AH16" s="1"/>
+      <c r="AI16" s="1"/>
+      <c r="AJ16" s="26"/>
+      <c r="AK16" s="3"/>
+    </row>
+    <row r="17" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A17" s="44" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" s="44"/>
+      <c r="C17" s="44"/>
+      <c r="D17" s="45"/>
+      <c r="E17" s="2">
+        <v>4</v>
+      </c>
+      <c r="F17" s="2">
+        <v>15</v>
+      </c>
+      <c r="G17" s="19"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="26"/>
+      <c r="K17" s="14"/>
+      <c r="L17" s="17"/>
+      <c r="M17" s="17"/>
+      <c r="N17" s="39"/>
+      <c r="O17" s="15"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1"/>
+      <c r="R17" s="1"/>
+      <c r="S17" s="26"/>
+      <c r="T17" s="1"/>
+      <c r="U17" s="1"/>
+      <c r="V17" s="1"/>
+      <c r="W17" s="26"/>
+      <c r="X17" s="1"/>
+      <c r="Y17" s="1"/>
+      <c r="Z17" s="1"/>
+      <c r="AA17" s="26"/>
+      <c r="AB17" s="1"/>
+      <c r="AC17" s="1"/>
+      <c r="AD17" s="1"/>
+      <c r="AE17" s="26"/>
+      <c r="AF17" s="1"/>
+      <c r="AG17" s="1"/>
+      <c r="AH17" s="1"/>
+      <c r="AI17" s="1"/>
+      <c r="AJ17" s="26"/>
+      <c r="AK17" s="3"/>
+    </row>
+    <row r="18" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A18" s="44" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" s="44"/>
+      <c r="C18" s="44"/>
+      <c r="D18" s="45"/>
+      <c r="E18" s="2">
+        <v>10</v>
+      </c>
+      <c r="F18" s="2">
+        <v>2</v>
+      </c>
+      <c r="G18" s="19">
+        <v>10</v>
+      </c>
+      <c r="H18" s="4"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="26"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="17"/>
+      <c r="M18" s="17"/>
+      <c r="N18" s="39"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="1"/>
+      <c r="R18" s="1"/>
+      <c r="S18" s="26"/>
+      <c r="T18" s="1"/>
+      <c r="U18" s="1"/>
+      <c r="V18" s="1"/>
+      <c r="W18" s="26"/>
+      <c r="X18" s="1"/>
+      <c r="Y18" s="1"/>
+      <c r="Z18" s="1"/>
+      <c r="AA18" s="26"/>
+      <c r="AB18" s="1"/>
+      <c r="AC18" s="1"/>
+      <c r="AD18" s="1"/>
+      <c r="AE18" s="26"/>
+      <c r="AF18" s="1"/>
+      <c r="AG18" s="1"/>
+      <c r="AH18" s="1"/>
+      <c r="AI18" s="1"/>
+      <c r="AJ18" s="26"/>
+      <c r="AK18" s="3"/>
+    </row>
+    <row r="19" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A19" s="44" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" s="44"/>
+      <c r="C19" s="44"/>
+      <c r="D19" s="45"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="19">
+        <v>12</v>
+      </c>
+      <c r="H19" s="4"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="26"/>
+      <c r="K19" s="17"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="41"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="1"/>
+      <c r="R19" s="1"/>
+      <c r="S19" s="26"/>
+      <c r="T19" s="1"/>
+      <c r="U19" s="1"/>
+      <c r="V19" s="1"/>
+      <c r="W19" s="26"/>
+      <c r="X19" s="1"/>
+      <c r="Y19" s="1"/>
+      <c r="Z19" s="1"/>
+      <c r="AA19" s="26"/>
+      <c r="AB19" s="1"/>
+      <c r="AC19" s="1"/>
+      <c r="AD19" s="1"/>
+      <c r="AE19" s="26"/>
+      <c r="AF19" s="1"/>
+      <c r="AG19" s="1"/>
+      <c r="AH19" s="1"/>
+      <c r="AI19" s="1"/>
+      <c r="AJ19" s="26"/>
+      <c r="AK19" s="3"/>
+    </row>
+    <row r="20" spans="1:37" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="50" t="s">
+        <v>43</v>
+      </c>
+      <c r="B20" s="50"/>
+      <c r="C20" s="50"/>
+      <c r="D20" s="50"/>
+      <c r="E20" s="34">
+        <f>E16+E17+E18+E19</f>
+        <v>17</v>
+      </c>
+      <c r="F20" s="34">
+        <f t="shared" ref="F20:G20" si="2">F16+F17+F18+F19</f>
+        <v>20</v>
+      </c>
+      <c r="G20" s="34">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="H20" s="23"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="27"/>
+      <c r="K20" s="9"/>
+      <c r="L20" s="9"/>
+      <c r="M20" s="9"/>
+      <c r="N20" s="27"/>
+      <c r="O20" s="42"/>
+      <c r="P20" s="9"/>
+      <c r="Q20" s="9"/>
+      <c r="R20" s="9"/>
+      <c r="S20" s="27"/>
+      <c r="T20" s="9"/>
+      <c r="U20" s="9"/>
+      <c r="V20" s="9"/>
+      <c r="W20" s="27"/>
+      <c r="X20" s="9"/>
+      <c r="Y20" s="9"/>
+      <c r="Z20" s="9"/>
+      <c r="AA20" s="27"/>
+      <c r="AB20" s="9"/>
+      <c r="AC20" s="9"/>
+      <c r="AD20" s="9"/>
+      <c r="AE20" s="27"/>
+      <c r="AF20" s="9"/>
+      <c r="AG20" s="9"/>
+      <c r="AH20" s="9"/>
+      <c r="AI20" s="9"/>
+      <c r="AJ20" s="27"/>
+      <c r="AK20" s="24"/>
+    </row>
+    <row r="21" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A21" s="51" t="s">
+        <v>41</v>
+      </c>
+      <c r="B21" s="51"/>
+      <c r="C21" s="51"/>
+      <c r="D21" s="52"/>
+      <c r="E21" s="18">
+        <v>13</v>
+      </c>
+      <c r="F21" s="2">
+        <v>30</v>
+      </c>
+      <c r="G21" s="19"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="26"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="26"/>
+      <c r="O21" s="17"/>
+      <c r="P21" s="17"/>
+      <c r="Q21" s="17"/>
+      <c r="R21" s="17"/>
+      <c r="S21" s="39"/>
+      <c r="T21" s="1"/>
+      <c r="U21" s="1"/>
+      <c r="V21" s="1"/>
+      <c r="W21" s="26"/>
+      <c r="X21" s="1"/>
+      <c r="Y21" s="1"/>
+      <c r="Z21" s="1"/>
+      <c r="AA21" s="26"/>
+      <c r="AB21" s="1"/>
+      <c r="AC21" s="1"/>
+      <c r="AD21" s="1"/>
+      <c r="AE21" s="26"/>
+      <c r="AF21" s="1"/>
+      <c r="AG21" s="1"/>
+      <c r="AH21" s="1"/>
+      <c r="AI21" s="1"/>
+      <c r="AJ21" s="26"/>
+      <c r="AK21" s="3"/>
+    </row>
+    <row r="22" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A22" s="44" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22" s="44"/>
+      <c r="C22" s="44"/>
+      <c r="D22" s="45"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="19">
+        <v>5</v>
+      </c>
+      <c r="H22" s="4"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="26"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="26"/>
+      <c r="O22" s="17"/>
+      <c r="P22" s="1"/>
+      <c r="Q22" s="1"/>
+      <c r="R22" s="1"/>
+      <c r="S22" s="26"/>
+      <c r="T22" s="1"/>
+      <c r="U22" s="1"/>
+      <c r="V22" s="1"/>
+      <c r="W22" s="26"/>
+      <c r="X22" s="1"/>
+      <c r="Y22" s="1"/>
+      <c r="Z22" s="1"/>
+      <c r="AA22" s="26"/>
+      <c r="AB22" s="1"/>
+      <c r="AC22" s="1"/>
+      <c r="AD22" s="1"/>
+      <c r="AE22" s="26"/>
+      <c r="AF22" s="1"/>
+      <c r="AG22" s="1"/>
+      <c r="AH22" s="1"/>
+      <c r="AI22" s="1"/>
+      <c r="AJ22" s="26"/>
+      <c r="AK22" s="3"/>
+    </row>
+    <row r="23" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A23" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="B23" s="44"/>
+      <c r="C23" s="44"/>
+      <c r="D23" s="45"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="19">
+        <v>10</v>
+      </c>
+      <c r="H23" s="4"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="26"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="26"/>
+      <c r="O23" s="1"/>
+      <c r="P23" s="17"/>
+      <c r="Q23" s="1"/>
+      <c r="R23" s="1"/>
+      <c r="S23" s="26"/>
+      <c r="T23" s="1"/>
+      <c r="U23" s="1"/>
+      <c r="V23" s="1"/>
+      <c r="W23" s="26"/>
+      <c r="X23" s="1"/>
+      <c r="Y23" s="1"/>
+      <c r="Z23" s="1"/>
+      <c r="AA23" s="26"/>
+      <c r="AB23" s="1"/>
+      <c r="AC23" s="1"/>
+      <c r="AD23" s="1"/>
+      <c r="AE23" s="26"/>
+      <c r="AF23" s="1"/>
+      <c r="AG23" s="1"/>
+      <c r="AH23" s="1"/>
+      <c r="AI23" s="1"/>
+      <c r="AJ23" s="26"/>
+      <c r="AK23" s="3"/>
+    </row>
+    <row r="24" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A24" s="44" t="s">
+        <v>33</v>
+      </c>
+      <c r="B24" s="44"/>
+      <c r="C24" s="44"/>
+      <c r="D24" s="45"/>
+      <c r="E24" s="2">
+        <v>20</v>
+      </c>
+      <c r="F24" s="2"/>
+      <c r="G24" s="19">
+        <v>10</v>
+      </c>
+      <c r="H24" s="4"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="26"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="26"/>
+      <c r="O24" s="1"/>
+      <c r="P24" s="1"/>
+      <c r="Q24" s="17"/>
+      <c r="R24" s="17"/>
+      <c r="S24" s="41"/>
+      <c r="T24" s="43"/>
+      <c r="U24" s="15"/>
+      <c r="V24" s="1"/>
+      <c r="W24" s="26"/>
+      <c r="X24" s="1"/>
+      <c r="Y24" s="1"/>
+      <c r="Z24" s="1"/>
+      <c r="AA24" s="26"/>
+      <c r="AB24" s="1"/>
+      <c r="AC24" s="1"/>
+      <c r="AD24" s="1"/>
+      <c r="AE24" s="26"/>
+      <c r="AF24" s="1"/>
+      <c r="AG24" s="1"/>
+      <c r="AH24" s="1"/>
+      <c r="AI24" s="1"/>
+      <c r="AJ24" s="26"/>
+      <c r="AK24" s="3"/>
+    </row>
+    <row r="25" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A25" s="44" t="s">
+        <v>34</v>
+      </c>
+      <c r="B25" s="44"/>
+      <c r="C25" s="44"/>
+      <c r="D25" s="45"/>
+      <c r="E25" s="2">
+        <v>5</v>
+      </c>
+      <c r="F25" s="2">
+        <v>5</v>
+      </c>
+      <c r="G25" s="19">
+        <v>5</v>
+      </c>
+      <c r="H25" s="4"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="26"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="26"/>
+      <c r="O25" s="1"/>
+      <c r="P25" s="1"/>
+      <c r="Q25" s="1"/>
+      <c r="R25" s="1"/>
+      <c r="S25" s="41"/>
+      <c r="T25" s="1"/>
+      <c r="U25" s="1"/>
+      <c r="V25" s="1"/>
+      <c r="W25" s="26"/>
+      <c r="X25" s="1"/>
+      <c r="Y25" s="1"/>
+      <c r="Z25" s="1"/>
+      <c r="AA25" s="26"/>
+      <c r="AB25" s="1"/>
+      <c r="AC25" s="1"/>
+      <c r="AD25" s="1"/>
+      <c r="AE25" s="26"/>
+      <c r="AF25" s="1"/>
+      <c r="AG25" s="1"/>
+      <c r="AH25" s="1"/>
+      <c r="AI25" s="1"/>
+      <c r="AJ25" s="26"/>
+      <c r="AK25" s="3"/>
+    </row>
+    <row r="26" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A26" s="44" t="s">
+        <v>42</v>
+      </c>
+      <c r="B26" s="44"/>
+      <c r="C26" s="44"/>
+      <c r="D26" s="45"/>
+      <c r="E26" s="2">
+        <v>40</v>
+      </c>
+      <c r="F26" s="2">
+        <v>40</v>
+      </c>
+      <c r="G26" s="19">
+        <v>30</v>
+      </c>
+      <c r="H26" s="4"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="26"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="26"/>
+      <c r="O26" s="1"/>
+      <c r="P26" s="1"/>
+      <c r="Q26" s="1"/>
+      <c r="R26" s="1"/>
+      <c r="S26" s="26"/>
+      <c r="T26" s="17"/>
+      <c r="U26" s="17"/>
+      <c r="V26" s="17"/>
+      <c r="W26" s="41"/>
+      <c r="X26" s="17"/>
+      <c r="Y26" s="15"/>
+      <c r="Z26" s="15"/>
+      <c r="AA26" s="26"/>
+      <c r="AB26" s="1"/>
+      <c r="AC26" s="1"/>
+      <c r="AD26" s="1"/>
+      <c r="AE26" s="26"/>
+      <c r="AF26" s="1"/>
+      <c r="AG26" s="1"/>
+      <c r="AH26" s="1"/>
+      <c r="AI26" s="1"/>
+      <c r="AJ26" s="26"/>
+      <c r="AK26" s="3"/>
+    </row>
+    <row r="27" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A27" s="44" t="s">
+        <v>35</v>
+      </c>
+      <c r="B27" s="44"/>
+      <c r="C27" s="44"/>
+      <c r="D27" s="45"/>
+      <c r="E27" s="2">
+        <v>5</v>
+      </c>
+      <c r="F27" s="2">
+        <v>5</v>
+      </c>
+      <c r="G27" s="19">
+        <v>5</v>
+      </c>
+      <c r="H27" s="4"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="26"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+      <c r="N27" s="26"/>
+      <c r="O27" s="1"/>
+      <c r="P27" s="1"/>
+      <c r="Q27" s="1"/>
+      <c r="R27" s="1"/>
+      <c r="S27" s="26"/>
+      <c r="T27" s="1"/>
+      <c r="U27" s="1"/>
+      <c r="V27" s="1"/>
+      <c r="W27" s="26"/>
+      <c r="X27" s="1"/>
+      <c r="Y27" s="1"/>
+      <c r="Z27" s="17"/>
+      <c r="AA27" s="39"/>
+      <c r="AB27" s="1"/>
+      <c r="AC27" s="1"/>
+      <c r="AD27" s="1"/>
+      <c r="AE27" s="26"/>
+      <c r="AF27" s="1"/>
+      <c r="AG27" s="1"/>
+      <c r="AH27" s="1"/>
+      <c r="AI27" s="1"/>
+      <c r="AJ27" s="26"/>
+      <c r="AK27" s="3"/>
+    </row>
+    <row r="28" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A28" s="44" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28" s="44"/>
+      <c r="C28" s="44"/>
+      <c r="D28" s="45"/>
+      <c r="E28" s="2">
+        <v>5</v>
+      </c>
+      <c r="F28" s="2">
+        <v>5</v>
+      </c>
+      <c r="G28" s="19">
+        <v>5</v>
+      </c>
+      <c r="H28" s="4"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="26"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="26"/>
+      <c r="O28" s="1"/>
+      <c r="P28" s="1"/>
+      <c r="Q28" s="1"/>
+      <c r="R28" s="1"/>
+      <c r="S28" s="26"/>
+      <c r="T28" s="1"/>
+      <c r="U28" s="1"/>
+      <c r="V28" s="1"/>
+      <c r="W28" s="26"/>
+      <c r="X28" s="1"/>
+      <c r="Y28" s="1"/>
+      <c r="Z28" s="1"/>
+      <c r="AA28" s="26"/>
+      <c r="AB28" s="17"/>
+      <c r="AC28" s="15"/>
+      <c r="AD28" s="1"/>
+      <c r="AE28" s="26"/>
+      <c r="AF28" s="1"/>
+      <c r="AG28" s="1"/>
+      <c r="AH28" s="1"/>
+      <c r="AI28" s="1"/>
+      <c r="AJ28" s="26"/>
+      <c r="AK28" s="3"/>
+    </row>
+    <row r="29" spans="1:37" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="46" t="s">
+        <v>40</v>
+      </c>
+      <c r="B29" s="46"/>
+      <c r="C29" s="46"/>
+      <c r="D29" s="47"/>
+      <c r="E29" s="32">
+        <f>E21+E22+E23+E24+E25+E26+E27+E28</f>
+        <v>88</v>
+      </c>
+      <c r="F29" s="32">
+        <f t="shared" ref="F29:G29" si="3">F21+F22+F23+F24+F25+F26+F27+F28</f>
+        <v>85</v>
+      </c>
+      <c r="G29" s="32">
+        <f t="shared" si="3"/>
+        <v>70</v>
+      </c>
+      <c r="H29" s="23"/>
+      <c r="I29" s="9"/>
+      <c r="J29" s="27"/>
+      <c r="K29" s="9"/>
+      <c r="L29" s="9"/>
+      <c r="M29" s="9"/>
+      <c r="N29" s="27"/>
+      <c r="O29" s="9"/>
+      <c r="P29" s="9"/>
+      <c r="Q29" s="9"/>
+      <c r="R29" s="9"/>
+      <c r="S29" s="27"/>
+      <c r="T29" s="9"/>
+      <c r="U29" s="9"/>
+      <c r="V29" s="9"/>
+      <c r="W29" s="27"/>
+      <c r="X29" s="9"/>
+      <c r="Y29" s="9"/>
+      <c r="Z29" s="9"/>
+      <c r="AA29" s="27"/>
+      <c r="AB29" s="9"/>
+      <c r="AC29" s="37"/>
+      <c r="AD29" s="9"/>
+      <c r="AE29" s="27"/>
+      <c r="AF29" s="9"/>
+      <c r="AG29" s="9"/>
+      <c r="AH29" s="9"/>
+      <c r="AI29" s="9"/>
+      <c r="AJ29" s="27"/>
+      <c r="AK29" s="24"/>
+    </row>
+    <row r="30" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A30" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="B30" s="44"/>
+      <c r="C30" s="44"/>
+      <c r="D30" s="45"/>
+      <c r="E30" s="2">
+        <v>15</v>
+      </c>
+      <c r="F30" s="2">
+        <v>15</v>
+      </c>
+      <c r="G30" s="19">
+        <v>20</v>
+      </c>
+      <c r="H30" s="4"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="26"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="26"/>
+      <c r="O30" s="1"/>
+      <c r="P30" s="1"/>
+      <c r="Q30" s="1"/>
+      <c r="R30" s="1"/>
+      <c r="S30" s="26"/>
+      <c r="T30" s="1"/>
+      <c r="U30" s="1"/>
+      <c r="V30" s="1"/>
+      <c r="W30" s="26"/>
+      <c r="X30" s="1"/>
+      <c r="Y30" s="1"/>
+      <c r="Z30" s="1"/>
+      <c r="AA30" s="26"/>
+      <c r="AB30" s="1"/>
+      <c r="AC30" s="17"/>
+      <c r="AD30" s="17"/>
+      <c r="AE30" s="41"/>
+      <c r="AF30" s="1"/>
+      <c r="AG30" s="1"/>
+      <c r="AH30" s="1"/>
+      <c r="AI30" s="1"/>
+      <c r="AJ30" s="26"/>
+      <c r="AK30" s="3"/>
+    </row>
+    <row r="31" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A31" s="44" t="s">
+        <v>38</v>
+      </c>
+      <c r="B31" s="44"/>
+      <c r="C31" s="44"/>
+      <c r="D31" s="45"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2">
+        <v>5</v>
+      </c>
+      <c r="H31" s="4"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="26"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="26"/>
+      <c r="O31" s="1"/>
+      <c r="P31" s="1"/>
+      <c r="Q31" s="1"/>
+      <c r="R31" s="1"/>
+      <c r="S31" s="26"/>
+      <c r="T31" s="1"/>
+      <c r="U31" s="1"/>
+      <c r="V31" s="1"/>
+      <c r="W31" s="26"/>
+      <c r="X31" s="1"/>
+      <c r="Y31" s="1"/>
+      <c r="Z31" s="1"/>
+      <c r="AA31" s="26"/>
+      <c r="AB31" s="1"/>
+      <c r="AC31" s="1"/>
+      <c r="AD31" s="1"/>
+      <c r="AE31" s="41"/>
+      <c r="AF31" s="1"/>
+      <c r="AG31" s="1"/>
+      <c r="AH31" s="1"/>
+      <c r="AI31" s="1"/>
+      <c r="AJ31" s="26"/>
+      <c r="AK31" s="3"/>
+    </row>
+    <row r="32" spans="1:37" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="46" t="s">
+        <v>39</v>
+      </c>
+      <c r="B32" s="46"/>
+      <c r="C32" s="46"/>
+      <c r="D32" s="47"/>
+      <c r="E32" s="34">
+        <f>E30+E31</f>
+        <v>15</v>
+      </c>
+      <c r="F32" s="32">
+        <f t="shared" ref="F32:G32" si="4">F30+F31</f>
+        <v>15</v>
+      </c>
+      <c r="G32" s="32">
+        <f t="shared" si="4"/>
+        <v>25</v>
+      </c>
+      <c r="H32" s="23"/>
+      <c r="I32" s="9"/>
+      <c r="J32" s="27"/>
+      <c r="K32" s="9"/>
+      <c r="L32" s="9"/>
+      <c r="M32" s="9"/>
+      <c r="N32" s="27"/>
+      <c r="O32" s="9"/>
+      <c r="P32" s="9"/>
+      <c r="Q32" s="9"/>
+      <c r="R32" s="9"/>
+      <c r="S32" s="27"/>
+      <c r="T32" s="9"/>
+      <c r="U32" s="9"/>
+      <c r="V32" s="9"/>
+      <c r="W32" s="27"/>
+      <c r="X32" s="9"/>
+      <c r="Y32" s="9"/>
+      <c r="Z32" s="9"/>
+      <c r="AA32" s="27"/>
+      <c r="AB32" s="9"/>
+      <c r="AC32" s="9"/>
+      <c r="AD32" s="9"/>
+      <c r="AE32" s="38"/>
+      <c r="AF32" s="42"/>
+      <c r="AG32" s="9"/>
+      <c r="AH32" s="9"/>
+      <c r="AI32" s="9"/>
+      <c r="AJ32" s="27"/>
+      <c r="AK32" s="24"/>
+    </row>
+    <row r="33" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A33" s="44" t="s">
+        <v>44</v>
+      </c>
+      <c r="B33" s="44"/>
+      <c r="C33" s="44"/>
+      <c r="D33" s="45"/>
+      <c r="E33" s="2">
+        <v>40</v>
+      </c>
+      <c r="F33" s="2">
+        <v>40</v>
+      </c>
+      <c r="G33" s="2">
+        <v>40</v>
+      </c>
+      <c r="H33" s="4"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="26"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+      <c r="N33" s="26"/>
+      <c r="O33" s="1"/>
+      <c r="P33" s="1"/>
+      <c r="Q33" s="1"/>
+      <c r="R33" s="1"/>
+      <c r="S33" s="26"/>
+      <c r="T33" s="1"/>
+      <c r="U33" s="1"/>
+      <c r="V33" s="1"/>
+      <c r="W33" s="26"/>
+      <c r="X33" s="1"/>
+      <c r="Y33" s="1"/>
+      <c r="Z33" s="1"/>
+      <c r="AA33" s="26"/>
+      <c r="AB33" s="1"/>
+      <c r="AC33" s="1"/>
+      <c r="AD33" s="1"/>
+      <c r="AE33" s="26"/>
+      <c r="AF33" s="1"/>
+      <c r="AG33" s="17"/>
+      <c r="AH33" s="17"/>
+      <c r="AI33" s="17"/>
+      <c r="AJ33" s="26"/>
+      <c r="AK33" s="3"/>
+    </row>
+    <row r="34" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A34" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="B34" s="44"/>
+      <c r="C34" s="44"/>
+      <c r="D34" s="45"/>
+      <c r="E34" s="2">
+        <v>5</v>
+      </c>
+      <c r="F34" s="2">
+        <v>5</v>
+      </c>
+      <c r="G34" s="2">
+        <v>5</v>
+      </c>
+      <c r="H34" s="4"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="26"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
+      <c r="N34" s="26"/>
+      <c r="O34" s="1"/>
+      <c r="P34" s="1"/>
+      <c r="Q34" s="1"/>
+      <c r="R34" s="1"/>
+      <c r="S34" s="26"/>
+      <c r="T34" s="1"/>
+      <c r="U34" s="1"/>
+      <c r="V34" s="1"/>
+      <c r="W34" s="26"/>
+      <c r="X34" s="1"/>
+      <c r="Y34" s="1"/>
+      <c r="Z34" s="1"/>
+      <c r="AA34" s="26"/>
+      <c r="AB34" s="1"/>
+      <c r="AC34" s="1"/>
+      <c r="AD34" s="1"/>
+      <c r="AE34" s="26"/>
+      <c r="AF34" s="1"/>
+      <c r="AG34" s="1"/>
+      <c r="AH34" s="1"/>
+      <c r="AI34" s="1"/>
+      <c r="AJ34" s="41"/>
+      <c r="AK34" s="3"/>
+    </row>
+    <row r="35" spans="1:37" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="46" t="s">
+        <v>46</v>
+      </c>
+      <c r="B35" s="46"/>
+      <c r="C35" s="46"/>
+      <c r="D35" s="47"/>
+      <c r="E35" s="34">
+        <f>E33+E34</f>
+        <v>45</v>
+      </c>
+      <c r="F35" s="32">
+        <f t="shared" ref="F35:G35" si="5">F33+F34</f>
+        <v>45</v>
+      </c>
+      <c r="G35" s="32">
+        <f t="shared" si="5"/>
+        <v>45</v>
+      </c>
+      <c r="H35" s="23"/>
+      <c r="I35" s="9"/>
+      <c r="J35" s="27"/>
+      <c r="K35" s="9"/>
+      <c r="L35" s="9"/>
+      <c r="M35" s="9"/>
+      <c r="N35" s="27"/>
+      <c r="O35" s="9"/>
+      <c r="P35" s="9"/>
+      <c r="Q35" s="9"/>
+      <c r="R35" s="9"/>
+      <c r="S35" s="27"/>
+      <c r="T35" s="9"/>
+      <c r="U35" s="9"/>
+      <c r="V35" s="9"/>
+      <c r="W35" s="27"/>
+      <c r="X35" s="9"/>
+      <c r="Y35" s="9"/>
+      <c r="Z35" s="9"/>
+      <c r="AA35" s="27"/>
+      <c r="AB35" s="9"/>
+      <c r="AC35" s="9"/>
+      <c r="AD35" s="9"/>
+      <c r="AE35" s="27"/>
+      <c r="AF35" s="9"/>
+      <c r="AG35" s="9"/>
+      <c r="AH35" s="9"/>
+      <c r="AI35" s="9"/>
+      <c r="AJ35" s="40"/>
+      <c r="AK35" s="36"/>
+    </row>
+    <row r="36" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A36" s="48" t="s">
+        <v>47</v>
+      </c>
+      <c r="B36" s="48"/>
+      <c r="C36" s="48"/>
+      <c r="D36" s="49"/>
+      <c r="E36" s="35">
+        <f>E12+E15+E20+E29+E32+E35</f>
+        <v>185</v>
+      </c>
+      <c r="F36" s="35">
+        <f t="shared" ref="F36:G36" si="6">F12+F15+F20+F29+F32+F35</f>
+        <v>185</v>
+      </c>
+      <c r="G36" s="35">
+        <f t="shared" si="6"/>
+        <v>185</v>
+      </c>
+      <c r="H36" s="4"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="26"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+      <c r="M36" s="1"/>
+      <c r="N36" s="26"/>
+      <c r="O36" s="1"/>
+      <c r="P36" s="1"/>
+      <c r="Q36" s="1"/>
+      <c r="R36" s="1"/>
+      <c r="S36" s="26"/>
+      <c r="T36" s="1"/>
+      <c r="U36" s="1"/>
+      <c r="V36" s="1"/>
+      <c r="W36" s="26"/>
+      <c r="X36" s="1"/>
+      <c r="Y36" s="1"/>
+      <c r="Z36" s="1"/>
+      <c r="AA36" s="26"/>
+      <c r="AB36" s="1"/>
+      <c r="AC36" s="1"/>
+      <c r="AD36" s="1"/>
+      <c r="AE36" s="26"/>
+      <c r="AF36" s="1"/>
+      <c r="AG36" s="1"/>
+      <c r="AH36" s="1"/>
+      <c r="AI36" s="1"/>
+      <c r="AJ36" s="26"/>
+      <c r="AK36" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="49">
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A34:D34"/>
+    <mergeCell ref="A35:D35"/>
+    <mergeCell ref="A36:D36"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="A29:D29"/>
+    <mergeCell ref="A30:D30"/>
+    <mergeCell ref="A31:D31"/>
+    <mergeCell ref="A32:D32"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="A23:D23"/>
+    <mergeCell ref="A24:D24"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="A14:D14"/>
     <mergeCell ref="X5:AA5"/>
     <mergeCell ref="AB5:AE5"/>
     <mergeCell ref="AF5:AJ5"/>
@@ -2757,15 +4586,15 @@
     <mergeCell ref="K5:N5"/>
     <mergeCell ref="O5:S5"/>
     <mergeCell ref="T5:W5"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="AJ4:AK4"/>
     <mergeCell ref="A1:G3"/>
     <mergeCell ref="V1:AA1"/>
     <mergeCell ref="V2:AA2"/>
     <mergeCell ref="V3:AA3"/>
     <mergeCell ref="H4:I4"/>
+    <mergeCell ref="AJ4:AK4"/>
+    <mergeCell ref="N1:S1"/>
+    <mergeCell ref="N2:S2"/>
+    <mergeCell ref="N3:S3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/00_Docs/00_Zeitplanung/DIPL_Ertragssteuerung_PV_Zeitplanung.xlsx
+++ b/00_Docs/00_Zeitplanung/DIPL_Ertragssteuerung_PV_Zeitplanung.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\gitRepos\DIPL_Ertragssteuerung_PV\00_Docs\00_Zeitplanung\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFF5819F-3100-40F5-BC1B-0AB69A87D561}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7195BFD-080E-427B-BE01-9DD2B1FB3195}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Soll_Stand" sheetId="2" r:id="rId1"/>
@@ -568,7 +568,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -639,43 +639,27 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -690,24 +674,39 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -999,8 +998,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF1054C7-560E-4B32-AF8E-02ADAE84D38F}">
   <dimension ref="A1:AK36"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AJ14" sqref="AJ14"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AN6" sqref="AN6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1010,15 +1009,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
@@ -1033,14 +1032,14 @@
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
       <c r="U1" s="14"/>
-      <c r="V1" s="63" t="s">
+      <c r="V1" s="50" t="s">
         <v>25</v>
       </c>
-      <c r="W1" s="63"/>
-      <c r="X1" s="63"/>
-      <c r="Y1" s="63"/>
-      <c r="Z1" s="63"/>
-      <c r="AA1" s="63"/>
+      <c r="W1" s="50"/>
+      <c r="X1" s="50"/>
+      <c r="Y1" s="50"/>
+      <c r="Z1" s="50"/>
+      <c r="AA1" s="50"/>
       <c r="AB1" s="1"/>
       <c r="AC1" s="1"/>
       <c r="AD1" s="1"/>
@@ -1053,13 +1052,13 @@
       <c r="AK1" s="1"/>
     </row>
     <row r="2" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="62"/>
-      <c r="B2" s="62"/>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62"/>
+      <c r="A2" s="49"/>
+      <c r="B2" s="49"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="49"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
@@ -1074,14 +1073,14 @@
       <c r="S2" s="1"/>
       <c r="T2" s="1"/>
       <c r="U2" s="15"/>
-      <c r="V2" s="63" t="s">
+      <c r="V2" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="W2" s="63"/>
-      <c r="X2" s="63"/>
-      <c r="Y2" s="63"/>
-      <c r="Z2" s="63"/>
-      <c r="AA2" s="63"/>
+      <c r="W2" s="50"/>
+      <c r="X2" s="50"/>
+      <c r="Y2" s="50"/>
+      <c r="Z2" s="50"/>
+      <c r="AA2" s="50"/>
       <c r="AB2" s="1"/>
       <c r="AC2" s="1"/>
       <c r="AD2" s="1"/>
@@ -1094,13 +1093,13 @@
       <c r="AK2" s="1"/>
     </row>
     <row r="3" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="62"/>
-      <c r="B3" s="62"/>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="62"/>
-      <c r="G3" s="62"/>
+      <c r="A3" s="49"/>
+      <c r="B3" s="49"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
@@ -1115,14 +1114,14 @@
       <c r="S3" s="1"/>
       <c r="T3" s="1"/>
       <c r="U3" s="17"/>
-      <c r="V3" s="63" t="s">
+      <c r="V3" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="W3" s="63"/>
-      <c r="X3" s="63"/>
-      <c r="Y3" s="63"/>
-      <c r="Z3" s="63"/>
-      <c r="AA3" s="63"/>
+      <c r="W3" s="50"/>
+      <c r="X3" s="50"/>
+      <c r="Y3" s="50"/>
+      <c r="Z3" s="50"/>
+      <c r="AA3" s="50"/>
       <c r="AB3" s="1"/>
       <c r="AC3" s="1"/>
       <c r="AD3" s="1"/>
@@ -1142,10 +1141,10 @@
       <c r="E4" s="12"/>
       <c r="F4" s="12"/>
       <c r="G4" s="12"/>
-      <c r="H4" s="64">
+      <c r="H4" s="51">
         <v>45910</v>
       </c>
-      <c r="I4" s="64"/>
+      <c r="I4" s="51"/>
       <c r="J4" s="16"/>
       <c r="K4" s="12"/>
       <c r="L4" s="12"/>
@@ -1172,77 +1171,77 @@
       <c r="AG4" s="12"/>
       <c r="AH4" s="12"/>
       <c r="AI4" s="12"/>
-      <c r="AJ4" s="61">
+      <c r="AJ4" s="48">
         <v>46119</v>
       </c>
-      <c r="AK4" s="61"/>
+      <c r="AK4" s="48"/>
     </row>
     <row r="5" spans="1:37" ht="17.399999999999999" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="53" t="s">
+      <c r="A5" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="53"/>
-      <c r="C5" s="53"/>
-      <c r="D5" s="57"/>
-      <c r="E5" s="53" t="s">
+      <c r="B5" s="52"/>
+      <c r="C5" s="52"/>
+      <c r="D5" s="53"/>
+      <c r="E5" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="53"/>
-      <c r="G5" s="53"/>
-      <c r="H5" s="58" t="s">
+      <c r="F5" s="52"/>
+      <c r="G5" s="52"/>
+      <c r="H5" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="59"/>
-      <c r="J5" s="59"/>
-      <c r="K5" s="60" t="s">
+      <c r="I5" s="55"/>
+      <c r="J5" s="55"/>
+      <c r="K5" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="L5" s="53"/>
-      <c r="M5" s="53"/>
-      <c r="N5" s="54"/>
-      <c r="O5" s="53" t="s">
+      <c r="L5" s="52"/>
+      <c r="M5" s="52"/>
+      <c r="N5" s="57"/>
+      <c r="O5" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="P5" s="53"/>
-      <c r="Q5" s="53"/>
-      <c r="R5" s="53"/>
-      <c r="S5" s="54"/>
-      <c r="T5" s="53" t="s">
+      <c r="P5" s="52"/>
+      <c r="Q5" s="52"/>
+      <c r="R5" s="52"/>
+      <c r="S5" s="57"/>
+      <c r="T5" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="U5" s="53"/>
-      <c r="V5" s="53"/>
-      <c r="W5" s="54"/>
-      <c r="X5" s="53" t="s">
+      <c r="U5" s="52"/>
+      <c r="V5" s="52"/>
+      <c r="W5" s="57"/>
+      <c r="X5" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="Y5" s="53"/>
-      <c r="Z5" s="53"/>
-      <c r="AA5" s="54"/>
-      <c r="AB5" s="53" t="s">
+      <c r="Y5" s="52"/>
+      <c r="Z5" s="52"/>
+      <c r="AA5" s="57"/>
+      <c r="AB5" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="AC5" s="53"/>
-      <c r="AD5" s="53"/>
-      <c r="AE5" s="54"/>
-      <c r="AF5" s="53" t="s">
+      <c r="AC5" s="52"/>
+      <c r="AD5" s="52"/>
+      <c r="AE5" s="57"/>
+      <c r="AF5" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="AG5" s="53"/>
-      <c r="AH5" s="53"/>
-      <c r="AI5" s="53"/>
-      <c r="AJ5" s="54"/>
+      <c r="AG5" s="52"/>
+      <c r="AH5" s="52"/>
+      <c r="AI5" s="52"/>
+      <c r="AJ5" s="57"/>
       <c r="AK5" s="5" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:37" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="55" t="s">
+      <c r="A6" s="58" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="55"/>
-      <c r="C6" s="55"/>
-      <c r="D6" s="56"/>
+      <c r="B6" s="58"/>
+      <c r="C6" s="58"/>
+      <c r="D6" s="59"/>
       <c r="E6" s="18" t="s">
         <v>3</v>
       </c>
@@ -1344,12 +1343,12 @@
       </c>
     </row>
     <row r="7" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="51" t="s">
+      <c r="A7" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="51"/>
-      <c r="C7" s="51"/>
-      <c r="D7" s="52"/>
+      <c r="B7" s="60"/>
+      <c r="C7" s="60"/>
+      <c r="D7" s="61"/>
       <c r="E7" s="20">
         <v>2</v>
       </c>
@@ -1391,12 +1390,12 @@
       <c r="AK7" s="3"/>
     </row>
     <row r="8" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="44" t="s">
+      <c r="A8" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="44"/>
-      <c r="C8" s="44"/>
-      <c r="D8" s="45"/>
+      <c r="B8" s="46"/>
+      <c r="C8" s="46"/>
+      <c r="D8" s="47"/>
       <c r="E8" s="2">
         <v>11</v>
       </c>
@@ -1438,12 +1437,12 @@
       <c r="AK8" s="3"/>
     </row>
     <row r="9" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="44" t="s">
+      <c r="A9" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="44"/>
-      <c r="C9" s="44"/>
-      <c r="D9" s="45"/>
+      <c r="B9" s="46"/>
+      <c r="C9" s="46"/>
+      <c r="D9" s="47"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2">
         <v>4</v>
@@ -1481,12 +1480,12 @@
       <c r="AK9" s="3"/>
     </row>
     <row r="10" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="44" t="s">
+      <c r="A10" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="44"/>
-      <c r="C10" s="44"/>
-      <c r="D10" s="45"/>
+      <c r="B10" s="46"/>
+      <c r="C10" s="46"/>
+      <c r="D10" s="47"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="19">
@@ -1524,12 +1523,12 @@
       <c r="AK10" s="3"/>
     </row>
     <row r="11" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="44" t="s">
+      <c r="A11" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="44"/>
-      <c r="C11" s="44"/>
-      <c r="D11" s="45"/>
+      <c r="B11" s="46"/>
+      <c r="C11" s="46"/>
+      <c r="D11" s="47"/>
       <c r="E11" s="2">
         <v>3</v>
       </c>
@@ -1569,12 +1568,12 @@
       <c r="AK11" s="3"/>
     </row>
     <row r="12" spans="1:37" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="46" t="s">
+      <c r="A12" s="62" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="46"/>
-      <c r="C12" s="46"/>
-      <c r="D12" s="47"/>
+      <c r="B12" s="62"/>
+      <c r="C12" s="62"/>
+      <c r="D12" s="63"/>
       <c r="E12" s="32">
         <f>E7+E8+E9+E10+E11</f>
         <v>16</v>
@@ -1619,12 +1618,12 @@
       <c r="AK12" s="24"/>
     </row>
     <row r="13" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A13" s="44" t="s">
+      <c r="A13" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="44"/>
-      <c r="C13" s="44"/>
-      <c r="D13" s="45"/>
+      <c r="B13" s="46"/>
+      <c r="C13" s="46"/>
+      <c r="D13" s="47"/>
       <c r="E13" s="18">
         <v>2</v>
       </c>
@@ -1666,12 +1665,12 @@
       <c r="AK13" s="3"/>
     </row>
     <row r="14" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="44" t="s">
+      <c r="A14" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="44"/>
-      <c r="C14" s="44"/>
-      <c r="D14" s="45"/>
+      <c r="B14" s="46"/>
+      <c r="C14" s="46"/>
+      <c r="D14" s="47"/>
       <c r="E14" s="2">
         <v>2</v>
       </c>
@@ -1713,12 +1712,12 @@
       <c r="AK14" s="3"/>
     </row>
     <row r="15" spans="1:37" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="46" t="s">
+      <c r="A15" s="62" t="s">
         <v>24</v>
       </c>
-      <c r="B15" s="46"/>
-      <c r="C15" s="46"/>
-      <c r="D15" s="47"/>
+      <c r="B15" s="62"/>
+      <c r="C15" s="62"/>
+      <c r="D15" s="63"/>
       <c r="E15" s="32">
         <f>E13+E14</f>
         <v>4</v>
@@ -1763,12 +1762,12 @@
       <c r="AK15" s="24"/>
     </row>
     <row r="16" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A16" s="44" t="s">
+      <c r="A16" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="B16" s="44"/>
-      <c r="C16" s="44"/>
-      <c r="D16" s="45"/>
+      <c r="B16" s="46"/>
+      <c r="C16" s="46"/>
+      <c r="D16" s="47"/>
       <c r="E16" s="2">
         <v>3</v>
       </c>
@@ -1810,12 +1809,12 @@
       <c r="AK16" s="3"/>
     </row>
     <row r="17" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A17" s="44" t="s">
+      <c r="A17" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="44"/>
-      <c r="C17" s="44"/>
-      <c r="D17" s="45"/>
+      <c r="B17" s="46"/>
+      <c r="C17" s="46"/>
+      <c r="D17" s="47"/>
       <c r="E17" s="2">
         <v>4</v>
       </c>
@@ -1855,12 +1854,12 @@
       <c r="AK17" s="3"/>
     </row>
     <row r="18" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A18" s="44" t="s">
+      <c r="A18" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="B18" s="44"/>
-      <c r="C18" s="44"/>
-      <c r="D18" s="45"/>
+      <c r="B18" s="46"/>
+      <c r="C18" s="46"/>
+      <c r="D18" s="47"/>
       <c r="E18" s="2">
         <v>10</v>
       </c>
@@ -1902,12 +1901,12 @@
       <c r="AK18" s="3"/>
     </row>
     <row r="19" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A19" s="44" t="s">
+      <c r="A19" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="44"/>
-      <c r="C19" s="44"/>
-      <c r="D19" s="45"/>
+      <c r="B19" s="46"/>
+      <c r="C19" s="46"/>
+      <c r="D19" s="47"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
       <c r="G19" s="19">
@@ -1945,12 +1944,12 @@
       <c r="AK19" s="3"/>
     </row>
     <row r="20" spans="1:37" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="50" t="s">
+      <c r="A20" s="64" t="s">
         <v>43</v>
       </c>
-      <c r="B20" s="50"/>
-      <c r="C20" s="50"/>
-      <c r="D20" s="50"/>
+      <c r="B20" s="64"/>
+      <c r="C20" s="64"/>
+      <c r="D20" s="64"/>
       <c r="E20" s="34">
         <f>E16+E17+E18+E19</f>
         <v>17</v>
@@ -1995,12 +1994,12 @@
       <c r="AK20" s="24"/>
     </row>
     <row r="21" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A21" s="51" t="s">
+      <c r="A21" s="60" t="s">
         <v>41</v>
       </c>
-      <c r="B21" s="51"/>
-      <c r="C21" s="51"/>
-      <c r="D21" s="52"/>
+      <c r="B21" s="60"/>
+      <c r="C21" s="60"/>
+      <c r="D21" s="61"/>
       <c r="E21" s="18">
         <v>13</v>
       </c>
@@ -2040,12 +2039,12 @@
       <c r="AK21" s="3"/>
     </row>
     <row r="22" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A22" s="44" t="s">
+      <c r="A22" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="B22" s="44"/>
-      <c r="C22" s="44"/>
-      <c r="D22" s="45"/>
+      <c r="B22" s="46"/>
+      <c r="C22" s="46"/>
+      <c r="D22" s="47"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
       <c r="G22" s="19">
@@ -2083,12 +2082,12 @@
       <c r="AK22" s="3"/>
     </row>
     <row r="23" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A23" s="44" t="s">
+      <c r="A23" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="B23" s="44"/>
-      <c r="C23" s="44"/>
-      <c r="D23" s="45"/>
+      <c r="B23" s="46"/>
+      <c r="C23" s="46"/>
+      <c r="D23" s="47"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
       <c r="G23" s="19">
@@ -2126,12 +2125,12 @@
       <c r="AK23" s="3"/>
     </row>
     <row r="24" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A24" s="44" t="s">
+      <c r="A24" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="B24" s="44"/>
-      <c r="C24" s="44"/>
-      <c r="D24" s="45"/>
+      <c r="B24" s="46"/>
+      <c r="C24" s="46"/>
+      <c r="D24" s="47"/>
       <c r="E24" s="2">
         <v>20</v>
       </c>
@@ -2171,12 +2170,12 @@
       <c r="AK24" s="3"/>
     </row>
     <row r="25" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A25" s="44" t="s">
+      <c r="A25" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="B25" s="44"/>
-      <c r="C25" s="44"/>
-      <c r="D25" s="45"/>
+      <c r="B25" s="46"/>
+      <c r="C25" s="46"/>
+      <c r="D25" s="47"/>
       <c r="E25" s="2">
         <v>5</v>
       </c>
@@ -2218,12 +2217,12 @@
       <c r="AK25" s="3"/>
     </row>
     <row r="26" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A26" s="44" t="s">
+      <c r="A26" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="B26" s="44"/>
-      <c r="C26" s="44"/>
-      <c r="D26" s="45"/>
+      <c r="B26" s="46"/>
+      <c r="C26" s="46"/>
+      <c r="D26" s="47"/>
       <c r="E26" s="2">
         <v>40</v>
       </c>
@@ -2265,12 +2264,12 @@
       <c r="AK26" s="3"/>
     </row>
     <row r="27" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A27" s="44" t="s">
+      <c r="A27" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="B27" s="44"/>
-      <c r="C27" s="44"/>
-      <c r="D27" s="45"/>
+      <c r="B27" s="46"/>
+      <c r="C27" s="46"/>
+      <c r="D27" s="47"/>
       <c r="E27" s="2">
         <v>5</v>
       </c>
@@ -2312,12 +2311,12 @@
       <c r="AK27" s="3"/>
     </row>
     <row r="28" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A28" s="44" t="s">
+      <c r="A28" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="B28" s="44"/>
-      <c r="C28" s="44"/>
-      <c r="D28" s="45"/>
+      <c r="B28" s="46"/>
+      <c r="C28" s="46"/>
+      <c r="D28" s="47"/>
       <c r="E28" s="2">
         <v>5</v>
       </c>
@@ -2359,12 +2358,12 @@
       <c r="AK28" s="3"/>
     </row>
     <row r="29" spans="1:37" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="46" t="s">
+      <c r="A29" s="62" t="s">
         <v>40</v>
       </c>
-      <c r="B29" s="46"/>
-      <c r="C29" s="46"/>
-      <c r="D29" s="47"/>
+      <c r="B29" s="62"/>
+      <c r="C29" s="62"/>
+      <c r="D29" s="63"/>
       <c r="E29" s="32">
         <f>E21+E22+E23+E24+E25+E26+E27+E28</f>
         <v>88</v>
@@ -2409,12 +2408,12 @@
       <c r="AK29" s="24"/>
     </row>
     <row r="30" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A30" s="44" t="s">
+      <c r="A30" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="B30" s="44"/>
-      <c r="C30" s="44"/>
-      <c r="D30" s="45"/>
+      <c r="B30" s="46"/>
+      <c r="C30" s="46"/>
+      <c r="D30" s="47"/>
       <c r="E30" s="2">
         <v>15</v>
       </c>
@@ -2456,12 +2455,12 @@
       <c r="AK30" s="3"/>
     </row>
     <row r="31" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A31" s="44" t="s">
+      <c r="A31" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="B31" s="44"/>
-      <c r="C31" s="44"/>
-      <c r="D31" s="45"/>
+      <c r="B31" s="46"/>
+      <c r="C31" s="46"/>
+      <c r="D31" s="47"/>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
       <c r="G31" s="2">
@@ -2499,12 +2498,12 @@
       <c r="AK31" s="3"/>
     </row>
     <row r="32" spans="1:37" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="46" t="s">
+      <c r="A32" s="62" t="s">
         <v>39</v>
       </c>
-      <c r="B32" s="46"/>
-      <c r="C32" s="46"/>
-      <c r="D32" s="47"/>
+      <c r="B32" s="62"/>
+      <c r="C32" s="62"/>
+      <c r="D32" s="63"/>
       <c r="E32" s="34">
         <f>E30+E31</f>
         <v>15</v>
@@ -2549,12 +2548,12 @@
       <c r="AK32" s="24"/>
     </row>
     <row r="33" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A33" s="44" t="s">
+      <c r="A33" s="46" t="s">
         <v>44</v>
       </c>
-      <c r="B33" s="44"/>
-      <c r="C33" s="44"/>
-      <c r="D33" s="45"/>
+      <c r="B33" s="46"/>
+      <c r="C33" s="46"/>
+      <c r="D33" s="47"/>
       <c r="E33" s="2">
         <v>40</v>
       </c>
@@ -2596,12 +2595,12 @@
       <c r="AK33" s="3"/>
     </row>
     <row r="34" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A34" s="44" t="s">
+      <c r="A34" s="46" t="s">
         <v>45</v>
       </c>
-      <c r="B34" s="44"/>
-      <c r="C34" s="44"/>
-      <c r="D34" s="45"/>
+      <c r="B34" s="46"/>
+      <c r="C34" s="46"/>
+      <c r="D34" s="47"/>
       <c r="E34" s="2">
         <v>5</v>
       </c>
@@ -2643,12 +2642,12 @@
       <c r="AK34" s="3"/>
     </row>
     <row r="35" spans="1:37" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="46" t="s">
+      <c r="A35" s="62" t="s">
         <v>46</v>
       </c>
-      <c r="B35" s="46"/>
-      <c r="C35" s="46"/>
-      <c r="D35" s="47"/>
+      <c r="B35" s="62"/>
+      <c r="C35" s="62"/>
+      <c r="D35" s="63"/>
       <c r="E35" s="34">
         <f>E33+E34</f>
         <v>45</v>
@@ -2693,12 +2692,12 @@
       <c r="AK35" s="36"/>
     </row>
     <row r="36" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A36" s="48" t="s">
+      <c r="A36" s="65" t="s">
         <v>47</v>
       </c>
-      <c r="B36" s="48"/>
-      <c r="C36" s="48"/>
-      <c r="D36" s="49"/>
+      <c r="B36" s="65"/>
+      <c r="C36" s="65"/>
+      <c r="D36" s="66"/>
       <c r="E36" s="35">
         <f>E12+E15+E20+E29+E32+E35</f>
         <v>185</v>
@@ -2744,6 +2743,36 @@
     </row>
   </sheetData>
   <mergeCells count="46">
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A34:D34"/>
+    <mergeCell ref="A35:D35"/>
+    <mergeCell ref="A36:D36"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="A29:D29"/>
+    <mergeCell ref="A30:D30"/>
+    <mergeCell ref="A31:D31"/>
+    <mergeCell ref="A32:D32"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="A23:D23"/>
+    <mergeCell ref="A24:D24"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="AF5:AJ5"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="O5:S5"/>
+    <mergeCell ref="T5:W5"/>
     <mergeCell ref="A9:D9"/>
     <mergeCell ref="A10:D10"/>
     <mergeCell ref="A11:D11"/>
@@ -2760,36 +2789,6 @@
     <mergeCell ref="K5:N5"/>
     <mergeCell ref="X5:AA5"/>
     <mergeCell ref="AB5:AE5"/>
-    <mergeCell ref="AF5:AJ5"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="O5:S5"/>
-    <mergeCell ref="T5:W5"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="A13:D13"/>
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A16:D16"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="A23:D23"/>
-    <mergeCell ref="A24:D24"/>
-    <mergeCell ref="A25:D25"/>
-    <mergeCell ref="A14:D14"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A34:D34"/>
-    <mergeCell ref="A35:D35"/>
-    <mergeCell ref="A36:D36"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="A29:D29"/>
-    <mergeCell ref="A30:D30"/>
-    <mergeCell ref="A31:D31"/>
-    <mergeCell ref="A32:D32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2799,7 +2798,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CB8DCAA-6D0A-4CAB-9084-21E2434B6494}">
   <dimension ref="A1:AK36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
@@ -2810,80 +2809,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
-      <c r="M1" s="67"/>
-      <c r="N1" s="63" t="s">
+      <c r="M1" s="44"/>
+      <c r="N1" s="50" t="s">
         <v>50</v>
       </c>
-      <c r="O1" s="63"/>
-      <c r="P1" s="63"/>
-      <c r="Q1" s="63"/>
-      <c r="R1" s="63"/>
-      <c r="S1" s="63"/>
+      <c r="O1" s="50"/>
+      <c r="P1" s="50"/>
+      <c r="Q1" s="50"/>
+      <c r="R1" s="50"/>
+      <c r="S1" s="50"/>
       <c r="T1" s="1"/>
       <c r="U1" s="14"/>
-      <c r="V1" s="63" t="s">
+      <c r="V1" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="W1" s="63"/>
-      <c r="X1" s="63"/>
-      <c r="Y1" s="63"/>
-      <c r="Z1" s="63"/>
-      <c r="AA1" s="63"/>
+      <c r="W1" s="50"/>
+      <c r="X1" s="50"/>
+      <c r="Y1" s="50"/>
+      <c r="Z1" s="50"/>
+      <c r="AA1" s="50"/>
       <c r="AB1" s="1"/>
-      <c r="AC1" s="66"/>
-      <c r="AD1" s="66"/>
-      <c r="AE1" s="66"/>
-      <c r="AF1" s="66"/>
-      <c r="AG1" s="66"/>
-      <c r="AH1" s="66"/>
+      <c r="AC1" s="1"/>
+      <c r="AD1" s="1"/>
+      <c r="AE1" s="1"/>
+      <c r="AF1" s="1"/>
+      <c r="AG1" s="1"/>
+      <c r="AH1" s="1"/>
       <c r="AI1" s="1"/>
       <c r="AJ1" s="1"/>
       <c r="AK1" s="1"/>
     </row>
     <row r="2" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="62"/>
-      <c r="B2" s="62"/>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62"/>
+      <c r="A2" s="49"/>
+      <c r="B2" s="49"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="49"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
-      <c r="N2" s="65"/>
-      <c r="O2" s="65"/>
-      <c r="P2" s="65"/>
-      <c r="Q2" s="65"/>
-      <c r="R2" s="65"/>
-      <c r="S2" s="65"/>
+      <c r="N2" s="67"/>
+      <c r="O2" s="67"/>
+      <c r="P2" s="67"/>
+      <c r="Q2" s="67"/>
+      <c r="R2" s="67"/>
+      <c r="S2" s="67"/>
       <c r="T2" s="1"/>
       <c r="U2" s="15"/>
-      <c r="V2" s="63" t="s">
+      <c r="V2" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="W2" s="63"/>
-      <c r="X2" s="63"/>
-      <c r="Y2" s="63"/>
-      <c r="Z2" s="63"/>
-      <c r="AA2" s="63"/>
+      <c r="W2" s="50"/>
+      <c r="X2" s="50"/>
+      <c r="Y2" s="50"/>
+      <c r="Z2" s="50"/>
+      <c r="AA2" s="50"/>
       <c r="AB2" s="1"/>
       <c r="AC2" s="1"/>
       <c r="AD2" s="1"/>
@@ -2896,35 +2895,35 @@
       <c r="AK2" s="1"/>
     </row>
     <row r="3" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="62"/>
-      <c r="B3" s="62"/>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="62"/>
-      <c r="G3" s="62"/>
+      <c r="A3" s="49"/>
+      <c r="B3" s="49"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
-      <c r="N3" s="65"/>
-      <c r="O3" s="65"/>
-      <c r="P3" s="65"/>
-      <c r="Q3" s="65"/>
-      <c r="R3" s="65"/>
-      <c r="S3" s="65"/>
+      <c r="N3" s="67"/>
+      <c r="O3" s="67"/>
+      <c r="P3" s="67"/>
+      <c r="Q3" s="67"/>
+      <c r="R3" s="67"/>
+      <c r="S3" s="67"/>
       <c r="T3" s="1"/>
       <c r="U3" s="17"/>
-      <c r="V3" s="63" t="s">
+      <c r="V3" s="50" t="s">
         <v>48</v>
       </c>
-      <c r="W3" s="63"/>
-      <c r="X3" s="63"/>
-      <c r="Y3" s="63"/>
-      <c r="Z3" s="63"/>
-      <c r="AA3" s="63"/>
+      <c r="W3" s="50"/>
+      <c r="X3" s="50"/>
+      <c r="Y3" s="50"/>
+      <c r="Z3" s="50"/>
+      <c r="AA3" s="50"/>
       <c r="AB3" s="1"/>
       <c r="AC3" s="1"/>
       <c r="AD3" s="1"/>
@@ -2944,10 +2943,10 @@
       <c r="E4" s="12"/>
       <c r="F4" s="12"/>
       <c r="G4" s="12"/>
-      <c r="H4" s="64">
+      <c r="H4" s="51">
         <v>45910</v>
       </c>
-      <c r="I4" s="64"/>
+      <c r="I4" s="51"/>
       <c r="J4" s="16"/>
       <c r="K4" s="12"/>
       <c r="L4" s="12"/>
@@ -2974,77 +2973,77 @@
       <c r="AG4" s="12"/>
       <c r="AH4" s="12"/>
       <c r="AI4" s="12"/>
-      <c r="AJ4" s="61">
+      <c r="AJ4" s="48">
         <v>46119</v>
       </c>
-      <c r="AK4" s="61"/>
+      <c r="AK4" s="48"/>
     </row>
     <row r="5" spans="1:37" ht="17.399999999999999" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="53" t="s">
+      <c r="A5" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="53"/>
-      <c r="C5" s="53"/>
-      <c r="D5" s="57"/>
-      <c r="E5" s="53" t="s">
+      <c r="B5" s="52"/>
+      <c r="C5" s="52"/>
+      <c r="D5" s="53"/>
+      <c r="E5" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="53"/>
-      <c r="G5" s="53"/>
-      <c r="H5" s="58" t="s">
+      <c r="F5" s="52"/>
+      <c r="G5" s="52"/>
+      <c r="H5" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="59"/>
-      <c r="J5" s="59"/>
-      <c r="K5" s="60" t="s">
+      <c r="I5" s="55"/>
+      <c r="J5" s="55"/>
+      <c r="K5" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="L5" s="53"/>
-      <c r="M5" s="53"/>
-      <c r="N5" s="54"/>
-      <c r="O5" s="53" t="s">
+      <c r="L5" s="52"/>
+      <c r="M5" s="52"/>
+      <c r="N5" s="57"/>
+      <c r="O5" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="P5" s="53"/>
-      <c r="Q5" s="53"/>
-      <c r="R5" s="53"/>
-      <c r="S5" s="54"/>
-      <c r="T5" s="53" t="s">
+      <c r="P5" s="52"/>
+      <c r="Q5" s="52"/>
+      <c r="R5" s="52"/>
+      <c r="S5" s="57"/>
+      <c r="T5" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="U5" s="53"/>
-      <c r="V5" s="53"/>
-      <c r="W5" s="54"/>
-      <c r="X5" s="53" t="s">
+      <c r="U5" s="52"/>
+      <c r="V5" s="52"/>
+      <c r="W5" s="57"/>
+      <c r="X5" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="Y5" s="53"/>
-      <c r="Z5" s="53"/>
-      <c r="AA5" s="54"/>
-      <c r="AB5" s="53" t="s">
+      <c r="Y5" s="52"/>
+      <c r="Z5" s="52"/>
+      <c r="AA5" s="57"/>
+      <c r="AB5" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="AC5" s="53"/>
-      <c r="AD5" s="53"/>
-      <c r="AE5" s="54"/>
-      <c r="AF5" s="53" t="s">
+      <c r="AC5" s="52"/>
+      <c r="AD5" s="52"/>
+      <c r="AE5" s="57"/>
+      <c r="AF5" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="AG5" s="53"/>
-      <c r="AH5" s="53"/>
-      <c r="AI5" s="53"/>
-      <c r="AJ5" s="54"/>
+      <c r="AG5" s="52"/>
+      <c r="AH5" s="52"/>
+      <c r="AI5" s="52"/>
+      <c r="AJ5" s="57"/>
       <c r="AK5" s="5" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:37" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="55" t="s">
+      <c r="A6" s="58" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="55"/>
-      <c r="C6" s="55"/>
-      <c r="D6" s="56"/>
+      <c r="B6" s="58"/>
+      <c r="C6" s="58"/>
+      <c r="D6" s="59"/>
       <c r="E6" s="18" t="s">
         <v>3</v>
       </c>
@@ -3146,12 +3145,12 @@
       </c>
     </row>
     <row r="7" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="51" t="s">
+      <c r="A7" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="51"/>
-      <c r="C7" s="51"/>
-      <c r="D7" s="52"/>
+      <c r="B7" s="60"/>
+      <c r="C7" s="60"/>
+      <c r="D7" s="61"/>
       <c r="E7" s="20">
         <v>2</v>
       </c>
@@ -3193,12 +3192,12 @@
       <c r="AK7" s="3"/>
     </row>
     <row r="8" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="44" t="s">
+      <c r="A8" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="44"/>
-      <c r="C8" s="44"/>
-      <c r="D8" s="45"/>
+      <c r="B8" s="46"/>
+      <c r="C8" s="46"/>
+      <c r="D8" s="47"/>
       <c r="E8" s="2">
         <v>11</v>
       </c>
@@ -3240,12 +3239,12 @@
       <c r="AK8" s="3"/>
     </row>
     <row r="9" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="44" t="s">
+      <c r="A9" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="44"/>
-      <c r="C9" s="44"/>
-      <c r="D9" s="45"/>
+      <c r="B9" s="46"/>
+      <c r="C9" s="46"/>
+      <c r="D9" s="47"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2">
         <v>4</v>
@@ -3283,12 +3282,12 @@
       <c r="AK9" s="3"/>
     </row>
     <row r="10" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="44" t="s">
+      <c r="A10" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="44"/>
-      <c r="C10" s="44"/>
-      <c r="D10" s="45"/>
+      <c r="B10" s="46"/>
+      <c r="C10" s="46"/>
+      <c r="D10" s="47"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="19">
@@ -3326,12 +3325,12 @@
       <c r="AK10" s="3"/>
     </row>
     <row r="11" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="44" t="s">
+      <c r="A11" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="44"/>
-      <c r="C11" s="44"/>
-      <c r="D11" s="45"/>
+      <c r="B11" s="46"/>
+      <c r="C11" s="46"/>
+      <c r="D11" s="47"/>
       <c r="E11" s="2">
         <v>3</v>
       </c>
@@ -3371,12 +3370,12 @@
       <c r="AK11" s="3"/>
     </row>
     <row r="12" spans="1:37" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="46" t="s">
+      <c r="A12" s="62" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="46"/>
-      <c r="C12" s="46"/>
-      <c r="D12" s="47"/>
+      <c r="B12" s="62"/>
+      <c r="C12" s="62"/>
+      <c r="D12" s="63"/>
       <c r="E12" s="32">
         <f>E7+E8+E9+E10+E11</f>
         <v>16</v>
@@ -3421,12 +3420,12 @@
       <c r="AK12" s="24"/>
     </row>
     <row r="13" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A13" s="44" t="s">
+      <c r="A13" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="44"/>
-      <c r="C13" s="44"/>
-      <c r="D13" s="45"/>
+      <c r="B13" s="46"/>
+      <c r="C13" s="46"/>
+      <c r="D13" s="47"/>
       <c r="E13" s="18">
         <v>2</v>
       </c>
@@ -3468,12 +3467,12 @@
       <c r="AK13" s="3"/>
     </row>
     <row r="14" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="44" t="s">
+      <c r="A14" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="44"/>
-      <c r="C14" s="44"/>
-      <c r="D14" s="45"/>
+      <c r="B14" s="46"/>
+      <c r="C14" s="46"/>
+      <c r="D14" s="47"/>
       <c r="E14" s="2">
         <v>2</v>
       </c>
@@ -3515,12 +3514,12 @@
       <c r="AK14" s="3"/>
     </row>
     <row r="15" spans="1:37" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="46" t="s">
+      <c r="A15" s="62" t="s">
         <v>24</v>
       </c>
-      <c r="B15" s="46"/>
-      <c r="C15" s="46"/>
-      <c r="D15" s="47"/>
+      <c r="B15" s="62"/>
+      <c r="C15" s="62"/>
+      <c r="D15" s="63"/>
       <c r="E15" s="32">
         <f>E13+E14</f>
         <v>4</v>
@@ -3565,12 +3564,12 @@
       <c r="AK15" s="24"/>
     </row>
     <row r="16" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A16" s="44" t="s">
+      <c r="A16" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="B16" s="44"/>
-      <c r="C16" s="44"/>
-      <c r="D16" s="45"/>
+      <c r="B16" s="46"/>
+      <c r="C16" s="46"/>
+      <c r="D16" s="47"/>
       <c r="E16" s="2">
         <v>3</v>
       </c>
@@ -3582,7 +3581,7 @@
       </c>
       <c r="H16" s="4"/>
       <c r="I16" s="1"/>
-      <c r="J16" s="68"/>
+      <c r="J16" s="45"/>
       <c r="K16" s="14"/>
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
@@ -3612,12 +3611,12 @@
       <c r="AK16" s="3"/>
     </row>
     <row r="17" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A17" s="44" t="s">
+      <c r="A17" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="44"/>
-      <c r="C17" s="44"/>
-      <c r="D17" s="45"/>
+      <c r="B17" s="46"/>
+      <c r="C17" s="46"/>
+      <c r="D17" s="47"/>
       <c r="E17" s="2">
         <v>4</v>
       </c>
@@ -3657,12 +3656,12 @@
       <c r="AK17" s="3"/>
     </row>
     <row r="18" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A18" s="44" t="s">
+      <c r="A18" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="B18" s="44"/>
-      <c r="C18" s="44"/>
-      <c r="D18" s="45"/>
+      <c r="B18" s="46"/>
+      <c r="C18" s="46"/>
+      <c r="D18" s="47"/>
       <c r="E18" s="2">
         <v>10</v>
       </c>
@@ -3704,12 +3703,12 @@
       <c r="AK18" s="3"/>
     </row>
     <row r="19" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A19" s="44" t="s">
+      <c r="A19" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="44"/>
-      <c r="C19" s="44"/>
-      <c r="D19" s="45"/>
+      <c r="B19" s="46"/>
+      <c r="C19" s="46"/>
+      <c r="D19" s="47"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
       <c r="G19" s="19">
@@ -3747,12 +3746,12 @@
       <c r="AK19" s="3"/>
     </row>
     <row r="20" spans="1:37" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="50" t="s">
+      <c r="A20" s="64" t="s">
         <v>43</v>
       </c>
-      <c r="B20" s="50"/>
-      <c r="C20" s="50"/>
-      <c r="D20" s="50"/>
+      <c r="B20" s="64"/>
+      <c r="C20" s="64"/>
+      <c r="D20" s="64"/>
       <c r="E20" s="34">
         <f>E16+E17+E18+E19</f>
         <v>17</v>
@@ -3797,12 +3796,12 @@
       <c r="AK20" s="24"/>
     </row>
     <row r="21" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A21" s="51" t="s">
+      <c r="A21" s="60" t="s">
         <v>41</v>
       </c>
-      <c r="B21" s="51"/>
-      <c r="C21" s="51"/>
-      <c r="D21" s="52"/>
+      <c r="B21" s="60"/>
+      <c r="C21" s="60"/>
+      <c r="D21" s="61"/>
       <c r="E21" s="18">
         <v>13</v>
       </c>
@@ -3842,12 +3841,12 @@
       <c r="AK21" s="3"/>
     </row>
     <row r="22" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A22" s="44" t="s">
+      <c r="A22" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="B22" s="44"/>
-      <c r="C22" s="44"/>
-      <c r="D22" s="45"/>
+      <c r="B22" s="46"/>
+      <c r="C22" s="46"/>
+      <c r="D22" s="47"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
       <c r="G22" s="19">
@@ -3885,12 +3884,12 @@
       <c r="AK22" s="3"/>
     </row>
     <row r="23" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A23" s="44" t="s">
+      <c r="A23" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="B23" s="44"/>
-      <c r="C23" s="44"/>
-      <c r="D23" s="45"/>
+      <c r="B23" s="46"/>
+      <c r="C23" s="46"/>
+      <c r="D23" s="47"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
       <c r="G23" s="19">
@@ -3928,12 +3927,12 @@
       <c r="AK23" s="3"/>
     </row>
     <row r="24" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A24" s="44" t="s">
+      <c r="A24" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="B24" s="44"/>
-      <c r="C24" s="44"/>
-      <c r="D24" s="45"/>
+      <c r="B24" s="46"/>
+      <c r="C24" s="46"/>
+      <c r="D24" s="47"/>
       <c r="E24" s="2">
         <v>20</v>
       </c>
@@ -3973,12 +3972,12 @@
       <c r="AK24" s="3"/>
     </row>
     <row r="25" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A25" s="44" t="s">
+      <c r="A25" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="B25" s="44"/>
-      <c r="C25" s="44"/>
-      <c r="D25" s="45"/>
+      <c r="B25" s="46"/>
+      <c r="C25" s="46"/>
+      <c r="D25" s="47"/>
       <c r="E25" s="2">
         <v>5</v>
       </c>
@@ -4020,12 +4019,12 @@
       <c r="AK25" s="3"/>
     </row>
     <row r="26" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A26" s="44" t="s">
+      <c r="A26" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="B26" s="44"/>
-      <c r="C26" s="44"/>
-      <c r="D26" s="45"/>
+      <c r="B26" s="46"/>
+      <c r="C26" s="46"/>
+      <c r="D26" s="47"/>
       <c r="E26" s="2">
         <v>40</v>
       </c>
@@ -4067,12 +4066,12 @@
       <c r="AK26" s="3"/>
     </row>
     <row r="27" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A27" s="44" t="s">
+      <c r="A27" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="B27" s="44"/>
-      <c r="C27" s="44"/>
-      <c r="D27" s="45"/>
+      <c r="B27" s="46"/>
+      <c r="C27" s="46"/>
+      <c r="D27" s="47"/>
       <c r="E27" s="2">
         <v>5</v>
       </c>
@@ -4114,12 +4113,12 @@
       <c r="AK27" s="3"/>
     </row>
     <row r="28" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A28" s="44" t="s">
+      <c r="A28" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="B28" s="44"/>
-      <c r="C28" s="44"/>
-      <c r="D28" s="45"/>
+      <c r="B28" s="46"/>
+      <c r="C28" s="46"/>
+      <c r="D28" s="47"/>
       <c r="E28" s="2">
         <v>5</v>
       </c>
@@ -4161,12 +4160,12 @@
       <c r="AK28" s="3"/>
     </row>
     <row r="29" spans="1:37" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="46" t="s">
+      <c r="A29" s="62" t="s">
         <v>40</v>
       </c>
-      <c r="B29" s="46"/>
-      <c r="C29" s="46"/>
-      <c r="D29" s="47"/>
+      <c r="B29" s="62"/>
+      <c r="C29" s="62"/>
+      <c r="D29" s="63"/>
       <c r="E29" s="32">
         <f>E21+E22+E23+E24+E25+E26+E27+E28</f>
         <v>88</v>
@@ -4211,12 +4210,12 @@
       <c r="AK29" s="24"/>
     </row>
     <row r="30" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A30" s="44" t="s">
+      <c r="A30" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="B30" s="44"/>
-      <c r="C30" s="44"/>
-      <c r="D30" s="45"/>
+      <c r="B30" s="46"/>
+      <c r="C30" s="46"/>
+      <c r="D30" s="47"/>
       <c r="E30" s="2">
         <v>15</v>
       </c>
@@ -4258,12 +4257,12 @@
       <c r="AK30" s="3"/>
     </row>
     <row r="31" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A31" s="44" t="s">
+      <c r="A31" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="B31" s="44"/>
-      <c r="C31" s="44"/>
-      <c r="D31" s="45"/>
+      <c r="B31" s="46"/>
+      <c r="C31" s="46"/>
+      <c r="D31" s="47"/>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
       <c r="G31" s="2">
@@ -4301,12 +4300,12 @@
       <c r="AK31" s="3"/>
     </row>
     <row r="32" spans="1:37" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="46" t="s">
+      <c r="A32" s="62" t="s">
         <v>39</v>
       </c>
-      <c r="B32" s="46"/>
-      <c r="C32" s="46"/>
-      <c r="D32" s="47"/>
+      <c r="B32" s="62"/>
+      <c r="C32" s="62"/>
+      <c r="D32" s="63"/>
       <c r="E32" s="34">
         <f>E30+E31</f>
         <v>15</v>
@@ -4351,12 +4350,12 @@
       <c r="AK32" s="24"/>
     </row>
     <row r="33" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A33" s="44" t="s">
+      <c r="A33" s="46" t="s">
         <v>44</v>
       </c>
-      <c r="B33" s="44"/>
-      <c r="C33" s="44"/>
-      <c r="D33" s="45"/>
+      <c r="B33" s="46"/>
+      <c r="C33" s="46"/>
+      <c r="D33" s="47"/>
       <c r="E33" s="2">
         <v>40</v>
       </c>
@@ -4398,12 +4397,12 @@
       <c r="AK33" s="3"/>
     </row>
     <row r="34" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A34" s="44" t="s">
+      <c r="A34" s="46" t="s">
         <v>45</v>
       </c>
-      <c r="B34" s="44"/>
-      <c r="C34" s="44"/>
-      <c r="D34" s="45"/>
+      <c r="B34" s="46"/>
+      <c r="C34" s="46"/>
+      <c r="D34" s="47"/>
       <c r="E34" s="2">
         <v>5</v>
       </c>
@@ -4445,12 +4444,12 @@
       <c r="AK34" s="3"/>
     </row>
     <row r="35" spans="1:37" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="46" t="s">
+      <c r="A35" s="62" t="s">
         <v>46</v>
       </c>
-      <c r="B35" s="46"/>
-      <c r="C35" s="46"/>
-      <c r="D35" s="47"/>
+      <c r="B35" s="62"/>
+      <c r="C35" s="62"/>
+      <c r="D35" s="63"/>
       <c r="E35" s="34">
         <f>E33+E34</f>
         <v>45</v>
@@ -4495,12 +4494,12 @@
       <c r="AK35" s="36"/>
     </row>
     <row r="36" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A36" s="48" t="s">
+      <c r="A36" s="65" t="s">
         <v>47</v>
       </c>
-      <c r="B36" s="48"/>
-      <c r="C36" s="48"/>
-      <c r="D36" s="49"/>
+      <c r="B36" s="65"/>
+      <c r="C36" s="65"/>
+      <c r="D36" s="66"/>
       <c r="E36" s="35">
         <f>E12+E15+E20+E29+E32+E35</f>
         <v>185</v>
@@ -4546,33 +4545,15 @@
     </row>
   </sheetData>
   <mergeCells count="49">
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A34:D34"/>
-    <mergeCell ref="A35:D35"/>
-    <mergeCell ref="A36:D36"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="A29:D29"/>
-    <mergeCell ref="A30:D30"/>
-    <mergeCell ref="A31:D31"/>
-    <mergeCell ref="A32:D32"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="A23:D23"/>
-    <mergeCell ref="A24:D24"/>
-    <mergeCell ref="A25:D25"/>
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A16:D16"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="AJ4:AK4"/>
+    <mergeCell ref="N1:S1"/>
+    <mergeCell ref="N2:S2"/>
+    <mergeCell ref="N3:S3"/>
+    <mergeCell ref="A1:G3"/>
+    <mergeCell ref="V1:AA1"/>
+    <mergeCell ref="V2:AA2"/>
+    <mergeCell ref="V3:AA3"/>
+    <mergeCell ref="H4:I4"/>
     <mergeCell ref="A14:D14"/>
     <mergeCell ref="X5:AA5"/>
     <mergeCell ref="AB5:AE5"/>
@@ -4586,15 +4567,33 @@
     <mergeCell ref="K5:N5"/>
     <mergeCell ref="O5:S5"/>
     <mergeCell ref="T5:W5"/>
-    <mergeCell ref="A1:G3"/>
-    <mergeCell ref="V1:AA1"/>
-    <mergeCell ref="V2:AA2"/>
-    <mergeCell ref="V3:AA3"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="AJ4:AK4"/>
-    <mergeCell ref="N1:S1"/>
-    <mergeCell ref="N2:S2"/>
-    <mergeCell ref="N3:S3"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="A23:D23"/>
+    <mergeCell ref="A24:D24"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A34:D34"/>
+    <mergeCell ref="A35:D35"/>
+    <mergeCell ref="A36:D36"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="A29:D29"/>
+    <mergeCell ref="A30:D30"/>
+    <mergeCell ref="A31:D31"/>
+    <mergeCell ref="A32:D32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/00_Docs/00_Zeitplanung/DIPL_Ertragssteuerung_PV_Zeitplanung.xlsx
+++ b/00_Docs/00_Zeitplanung/DIPL_Ertragssteuerung_PV_Zeitplanung.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\gitRepos\DIPL_Ertragssteuerung_PV\00_Docs\00_Zeitplanung\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aberg\GitRepos\DIPL_Ertragssteuerung_PV\00_Docs\00_Zeitplanung\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7195BFD-080E-427B-BE01-9DD2B1FB3195}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{465532FB-AEE9-41ED-9DF6-7C71B6DB3610}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Soll_Stand" sheetId="2" r:id="rId1"/>
@@ -120,9 +120,6 @@
     <t>…..... Nicht Erledigt</t>
   </si>
   <si>
-    <t>Kommunikations &amp; Zugriffswege mit Auftraggeber abstimmen und absichern</t>
-  </si>
-  <si>
     <t>Entwicklungsumgebung aufbauen</t>
   </si>
   <si>
@@ -190,6 +187,9 @@
   </si>
   <si>
     <t>… Realer Verlauf</t>
+  </si>
+  <si>
+    <t>Kommunikations &amp; Zugriffswege absichern</t>
   </si>
 </sst>
 </file>
@@ -647,6 +647,39 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="14" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -657,9 +690,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="14" fontId="7" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -674,42 +704,12 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -998,26 +998,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF1054C7-560E-4B32-AF8E-02ADAE84D38F}">
   <dimension ref="A1:AK36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AN6" sqref="AN6"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="U17" sqref="U17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="8" max="36" width="4.33203125" customWidth="1"/>
-    <col min="37" max="37" width="5.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38" customWidth="1"/>
+    <col min="7" max="7" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="36" width="4.36328125" customWidth="1"/>
+    <col min="37" max="37" width="5.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="49" t="s">
+    <row r="1" spans="1:37" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
@@ -1032,14 +1034,14 @@
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
       <c r="U1" s="14"/>
-      <c r="V1" s="50" t="s">
+      <c r="V1" s="61" t="s">
         <v>25</v>
       </c>
-      <c r="W1" s="50"/>
-      <c r="X1" s="50"/>
-      <c r="Y1" s="50"/>
-      <c r="Z1" s="50"/>
-      <c r="AA1" s="50"/>
+      <c r="W1" s="61"/>
+      <c r="X1" s="61"/>
+      <c r="Y1" s="61"/>
+      <c r="Z1" s="61"/>
+      <c r="AA1" s="61"/>
       <c r="AB1" s="1"/>
       <c r="AC1" s="1"/>
       <c r="AD1" s="1"/>
@@ -1051,14 +1053,14 @@
       <c r="AJ1" s="1"/>
       <c r="AK1" s="1"/>
     </row>
-    <row r="2" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="49"/>
-      <c r="B2" s="49"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49"/>
+    <row r="2" spans="1:37" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="60"/>
+      <c r="B2" s="60"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
@@ -1073,14 +1075,14 @@
       <c r="S2" s="1"/>
       <c r="T2" s="1"/>
       <c r="U2" s="15"/>
-      <c r="V2" s="50" t="s">
+      <c r="V2" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="W2" s="50"/>
-      <c r="X2" s="50"/>
-      <c r="Y2" s="50"/>
-      <c r="Z2" s="50"/>
-      <c r="AA2" s="50"/>
+      <c r="W2" s="61"/>
+      <c r="X2" s="61"/>
+      <c r="Y2" s="61"/>
+      <c r="Z2" s="61"/>
+      <c r="AA2" s="61"/>
       <c r="AB2" s="1"/>
       <c r="AC2" s="1"/>
       <c r="AD2" s="1"/>
@@ -1092,14 +1094,14 @@
       <c r="AJ2" s="1"/>
       <c r="AK2" s="1"/>
     </row>
-    <row r="3" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="49"/>
-      <c r="B3" s="49"/>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="49"/>
+    <row r="3" spans="1:37" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="60"/>
+      <c r="B3" s="60"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="60"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
@@ -1114,14 +1116,14 @@
       <c r="S3" s="1"/>
       <c r="T3" s="1"/>
       <c r="U3" s="17"/>
-      <c r="V3" s="50" t="s">
+      <c r="V3" s="61" t="s">
         <v>26</v>
       </c>
-      <c r="W3" s="50"/>
-      <c r="X3" s="50"/>
-      <c r="Y3" s="50"/>
-      <c r="Z3" s="50"/>
-      <c r="AA3" s="50"/>
+      <c r="W3" s="61"/>
+      <c r="X3" s="61"/>
+      <c r="Y3" s="61"/>
+      <c r="Z3" s="61"/>
+      <c r="AA3" s="61"/>
       <c r="AB3" s="1"/>
       <c r="AC3" s="1"/>
       <c r="AD3" s="1"/>
@@ -1133,7 +1135,7 @@
       <c r="AJ3" s="1"/>
       <c r="AK3" s="1"/>
     </row>
-    <row r="4" spans="1:37" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:37" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="12"/>
       <c r="B4" s="12"/>
       <c r="C4" s="12"/>
@@ -1141,10 +1143,10 @@
       <c r="E4" s="12"/>
       <c r="F4" s="12"/>
       <c r="G4" s="12"/>
-      <c r="H4" s="51">
+      <c r="H4" s="62">
         <v>45910</v>
       </c>
-      <c r="I4" s="51"/>
+      <c r="I4" s="62"/>
       <c r="J4" s="16"/>
       <c r="K4" s="12"/>
       <c r="L4" s="12"/>
@@ -1171,77 +1173,77 @@
       <c r="AG4" s="12"/>
       <c r="AH4" s="12"/>
       <c r="AI4" s="12"/>
-      <c r="AJ4" s="48">
+      <c r="AJ4" s="59">
         <v>46119</v>
       </c>
-      <c r="AK4" s="48"/>
-    </row>
-    <row r="5" spans="1:37" ht="17.399999999999999" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="52" t="s">
+      <c r="AK4" s="59"/>
+    </row>
+    <row r="5" spans="1:37" ht="17" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="52"/>
-      <c r="C5" s="52"/>
-      <c r="D5" s="53"/>
-      <c r="E5" s="52" t="s">
+      <c r="B5" s="55"/>
+      <c r="C5" s="55"/>
+      <c r="D5" s="63"/>
+      <c r="E5" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="52"/>
-      <c r="G5" s="52"/>
-      <c r="H5" s="54" t="s">
+      <c r="F5" s="55"/>
+      <c r="G5" s="55"/>
+      <c r="H5" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="55"/>
-      <c r="J5" s="55"/>
-      <c r="K5" s="56" t="s">
+      <c r="I5" s="65"/>
+      <c r="J5" s="65"/>
+      <c r="K5" s="66" t="s">
         <v>6</v>
       </c>
-      <c r="L5" s="52"/>
-      <c r="M5" s="52"/>
-      <c r="N5" s="57"/>
-      <c r="O5" s="52" t="s">
+      <c r="L5" s="55"/>
+      <c r="M5" s="55"/>
+      <c r="N5" s="56"/>
+      <c r="O5" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="P5" s="52"/>
-      <c r="Q5" s="52"/>
-      <c r="R5" s="52"/>
-      <c r="S5" s="57"/>
-      <c r="T5" s="52" t="s">
+      <c r="P5" s="55"/>
+      <c r="Q5" s="55"/>
+      <c r="R5" s="55"/>
+      <c r="S5" s="56"/>
+      <c r="T5" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="U5" s="52"/>
-      <c r="V5" s="52"/>
-      <c r="W5" s="57"/>
-      <c r="X5" s="52" t="s">
+      <c r="U5" s="55"/>
+      <c r="V5" s="55"/>
+      <c r="W5" s="56"/>
+      <c r="X5" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="Y5" s="52"/>
-      <c r="Z5" s="52"/>
-      <c r="AA5" s="57"/>
-      <c r="AB5" s="52" t="s">
+      <c r="Y5" s="55"/>
+      <c r="Z5" s="55"/>
+      <c r="AA5" s="56"/>
+      <c r="AB5" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="AC5" s="52"/>
-      <c r="AD5" s="52"/>
-      <c r="AE5" s="57"/>
-      <c r="AF5" s="52" t="s">
+      <c r="AC5" s="55"/>
+      <c r="AD5" s="55"/>
+      <c r="AE5" s="56"/>
+      <c r="AF5" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="AG5" s="52"/>
-      <c r="AH5" s="52"/>
-      <c r="AI5" s="52"/>
-      <c r="AJ5" s="57"/>
+      <c r="AG5" s="55"/>
+      <c r="AH5" s="55"/>
+      <c r="AI5" s="55"/>
+      <c r="AJ5" s="56"/>
       <c r="AK5" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:37" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="58" t="s">
+    <row r="6" spans="1:37" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="58"/>
-      <c r="C6" s="58"/>
-      <c r="D6" s="59"/>
+      <c r="B6" s="57"/>
+      <c r="C6" s="57"/>
+      <c r="D6" s="58"/>
       <c r="E6" s="18" t="s">
         <v>3</v>
       </c>
@@ -1342,13 +1344,13 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="60" t="s">
+    <row r="7" spans="1:37" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="60"/>
-      <c r="C7" s="60"/>
-      <c r="D7" s="61"/>
+      <c r="B7" s="53"/>
+      <c r="C7" s="53"/>
+      <c r="D7" s="54"/>
       <c r="E7" s="20">
         <v>2</v>
       </c>
@@ -1389,7 +1391,7 @@
       <c r="AJ7" s="25"/>
       <c r="AK7" s="3"/>
     </row>
-    <row r="8" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:37" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A8" s="46" t="s">
         <v>17</v>
       </c>
@@ -1436,7 +1438,7 @@
       <c r="AJ8" s="26"/>
       <c r="AK8" s="3"/>
     </row>
-    <row r="9" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:37" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A9" s="46" t="s">
         <v>18</v>
       </c>
@@ -1479,7 +1481,7 @@
       <c r="AJ9" s="26"/>
       <c r="AK9" s="3"/>
     </row>
-    <row r="10" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:37" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A10" s="46" t="s">
         <v>19</v>
       </c>
@@ -1522,7 +1524,7 @@
       <c r="AJ10" s="26"/>
       <c r="AK10" s="3"/>
     </row>
-    <row r="11" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:37" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A11" s="46" t="s">
         <v>20</v>
       </c>
@@ -1567,13 +1569,13 @@
       <c r="AJ11" s="26"/>
       <c r="AK11" s="3"/>
     </row>
-    <row r="12" spans="1:37" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="62" t="s">
+    <row r="12" spans="1:37" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="62"/>
-      <c r="C12" s="62"/>
-      <c r="D12" s="63"/>
+      <c r="B12" s="48"/>
+      <c r="C12" s="48"/>
+      <c r="D12" s="49"/>
       <c r="E12" s="32">
         <f>E7+E8+E9+E10+E11</f>
         <v>16</v>
@@ -1617,7 +1619,7 @@
       <c r="AJ12" s="27"/>
       <c r="AK12" s="24"/>
     </row>
-    <row r="13" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:37" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A13" s="46" t="s">
         <v>22</v>
       </c>
@@ -1664,7 +1666,7 @@
       <c r="AJ13" s="26"/>
       <c r="AK13" s="3"/>
     </row>
-    <row r="14" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:37" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A14" s="46" t="s">
         <v>23</v>
       </c>
@@ -1711,13 +1713,13 @@
       <c r="AJ14" s="26"/>
       <c r="AK14" s="3"/>
     </row>
-    <row r="15" spans="1:37" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="62" t="s">
+    <row r="15" spans="1:37" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="B15" s="62"/>
-      <c r="C15" s="62"/>
-      <c r="D15" s="63"/>
+      <c r="B15" s="48"/>
+      <c r="C15" s="48"/>
+      <c r="D15" s="49"/>
       <c r="E15" s="32">
         <f>E13+E14</f>
         <v>4</v>
@@ -1761,9 +1763,9 @@
       <c r="AJ15" s="27"/>
       <c r="AK15" s="24"/>
     </row>
-    <row r="16" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:37" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A16" s="46" t="s">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="B16" s="46"/>
       <c r="C16" s="46"/>
@@ -1780,7 +1782,7 @@
       <c r="H16" s="4"/>
       <c r="I16" s="1"/>
       <c r="J16" s="26"/>
-      <c r="K16" s="17"/>
+      <c r="K16" s="14"/>
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
       <c r="N16" s="26"/>
@@ -1808,9 +1810,9 @@
       <c r="AJ16" s="26"/>
       <c r="AK16" s="3"/>
     </row>
-    <row r="17" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:37" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A17" s="46" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B17" s="46"/>
       <c r="C17" s="46"/>
@@ -1825,9 +1827,9 @@
       <c r="H17" s="4"/>
       <c r="I17" s="1"/>
       <c r="J17" s="26"/>
-      <c r="K17" s="17"/>
-      <c r="L17" s="17"/>
-      <c r="M17" s="17"/>
+      <c r="K17" s="14"/>
+      <c r="L17" s="14"/>
+      <c r="M17" s="14"/>
       <c r="N17" s="39"/>
       <c r="O17" s="15"/>
       <c r="P17" s="1"/>
@@ -1853,9 +1855,9 @@
       <c r="AJ17" s="26"/>
       <c r="AK17" s="3"/>
     </row>
-    <row r="18" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:37" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A18" s="46" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B18" s="46"/>
       <c r="C18" s="46"/>
@@ -1873,8 +1875,8 @@
       <c r="I18" s="1"/>
       <c r="J18" s="26"/>
       <c r="K18" s="1"/>
-      <c r="L18" s="17"/>
-      <c r="M18" s="17"/>
+      <c r="L18" s="14"/>
+      <c r="M18" s="14"/>
       <c r="N18" s="39"/>
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
@@ -1900,9 +1902,9 @@
       <c r="AJ18" s="26"/>
       <c r="AK18" s="3"/>
     </row>
-    <row r="19" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:37" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A19" s="46" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B19" s="46"/>
       <c r="C19" s="46"/>
@@ -1915,7 +1917,7 @@
       <c r="H19" s="4"/>
       <c r="I19" s="1"/>
       <c r="J19" s="26"/>
-      <c r="K19" s="17"/>
+      <c r="K19" s="14"/>
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
       <c r="N19" s="41"/>
@@ -1943,13 +1945,13 @@
       <c r="AJ19" s="26"/>
       <c r="AK19" s="3"/>
     </row>
-    <row r="20" spans="1:37" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="64" t="s">
-        <v>43</v>
-      </c>
-      <c r="B20" s="64"/>
-      <c r="C20" s="64"/>
-      <c r="D20" s="64"/>
+    <row r="20" spans="1:37" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="52" t="s">
+        <v>42</v>
+      </c>
+      <c r="B20" s="52"/>
+      <c r="C20" s="52"/>
+      <c r="D20" s="52"/>
       <c r="E20" s="34">
         <f>E16+E17+E18+E19</f>
         <v>17</v>
@@ -1993,13 +1995,13 @@
       <c r="AJ20" s="27"/>
       <c r="AK20" s="24"/>
     </row>
-    <row r="21" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A21" s="60" t="s">
-        <v>41</v>
-      </c>
-      <c r="B21" s="60"/>
-      <c r="C21" s="60"/>
-      <c r="D21" s="61"/>
+    <row r="21" spans="1:37" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A21" s="53" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" s="53"/>
+      <c r="C21" s="53"/>
+      <c r="D21" s="54"/>
       <c r="E21" s="18">
         <v>13</v>
       </c>
@@ -2038,9 +2040,9 @@
       <c r="AJ21" s="26"/>
       <c r="AK21" s="3"/>
     </row>
-    <row r="22" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:37" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A22" s="46" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B22" s="46"/>
       <c r="C22" s="46"/>
@@ -2081,9 +2083,9 @@
       <c r="AJ22" s="26"/>
       <c r="AK22" s="3"/>
     </row>
-    <row r="23" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:37" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A23" s="46" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B23" s="46"/>
       <c r="C23" s="46"/>
@@ -2124,9 +2126,9 @@
       <c r="AJ23" s="26"/>
       <c r="AK23" s="3"/>
     </row>
-    <row r="24" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:37" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A24" s="46" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B24" s="46"/>
       <c r="C24" s="46"/>
@@ -2169,9 +2171,9 @@
       <c r="AJ24" s="26"/>
       <c r="AK24" s="3"/>
     </row>
-    <row r="25" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:37" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A25" s="46" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B25" s="46"/>
       <c r="C25" s="46"/>
@@ -2216,9 +2218,9 @@
       <c r="AJ25" s="26"/>
       <c r="AK25" s="3"/>
     </row>
-    <row r="26" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:37" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A26" s="46" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B26" s="46"/>
       <c r="C26" s="46"/>
@@ -2263,9 +2265,9 @@
       <c r="AJ26" s="26"/>
       <c r="AK26" s="3"/>
     </row>
-    <row r="27" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:37" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A27" s="46" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B27" s="46"/>
       <c r="C27" s="46"/>
@@ -2310,9 +2312,9 @@
       <c r="AJ27" s="26"/>
       <c r="AK27" s="3"/>
     </row>
-    <row r="28" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:37" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A28" s="46" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B28" s="46"/>
       <c r="C28" s="46"/>
@@ -2357,13 +2359,13 @@
       <c r="AJ28" s="26"/>
       <c r="AK28" s="3"/>
     </row>
-    <row r="29" spans="1:37" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="62" t="s">
-        <v>40</v>
-      </c>
-      <c r="B29" s="62"/>
-      <c r="C29" s="62"/>
-      <c r="D29" s="63"/>
+    <row r="29" spans="1:37" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A29" s="48" t="s">
+        <v>39</v>
+      </c>
+      <c r="B29" s="48"/>
+      <c r="C29" s="48"/>
+      <c r="D29" s="49"/>
       <c r="E29" s="32">
         <f>E21+E22+E23+E24+E25+E26+E27+E28</f>
         <v>88</v>
@@ -2407,9 +2409,9 @@
       <c r="AJ29" s="27"/>
       <c r="AK29" s="24"/>
     </row>
-    <row r="30" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:37" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A30" s="46" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B30" s="46"/>
       <c r="C30" s="46"/>
@@ -2454,9 +2456,9 @@
       <c r="AJ30" s="26"/>
       <c r="AK30" s="3"/>
     </row>
-    <row r="31" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:37" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A31" s="46" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B31" s="46"/>
       <c r="C31" s="46"/>
@@ -2497,13 +2499,13 @@
       <c r="AJ31" s="26"/>
       <c r="AK31" s="3"/>
     </row>
-    <row r="32" spans="1:37" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="62" t="s">
-        <v>39</v>
-      </c>
-      <c r="B32" s="62"/>
-      <c r="C32" s="62"/>
-      <c r="D32" s="63"/>
+    <row r="32" spans="1:37" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A32" s="48" t="s">
+        <v>38</v>
+      </c>
+      <c r="B32" s="48"/>
+      <c r="C32" s="48"/>
+      <c r="D32" s="49"/>
       <c r="E32" s="34">
         <f>E30+E31</f>
         <v>15</v>
@@ -2547,9 +2549,9 @@
       <c r="AJ32" s="27"/>
       <c r="AK32" s="24"/>
     </row>
-    <row r="33" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:37" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A33" s="46" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B33" s="46"/>
       <c r="C33" s="46"/>
@@ -2594,9 +2596,9 @@
       <c r="AJ33" s="26"/>
       <c r="AK33" s="3"/>
     </row>
-    <row r="34" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:37" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A34" s="46" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B34" s="46"/>
       <c r="C34" s="46"/>
@@ -2641,13 +2643,13 @@
       <c r="AJ34" s="41"/>
       <c r="AK34" s="3"/>
     </row>
-    <row r="35" spans="1:37" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="62" t="s">
-        <v>46</v>
-      </c>
-      <c r="B35" s="62"/>
-      <c r="C35" s="62"/>
-      <c r="D35" s="63"/>
+    <row r="35" spans="1:37" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A35" s="48" t="s">
+        <v>45</v>
+      </c>
+      <c r="B35" s="48"/>
+      <c r="C35" s="48"/>
+      <c r="D35" s="49"/>
       <c r="E35" s="34">
         <f>E33+E34</f>
         <v>45</v>
@@ -2691,13 +2693,13 @@
       <c r="AJ35" s="40"/>
       <c r="AK35" s="36"/>
     </row>
-    <row r="36" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A36" s="65" t="s">
-        <v>47</v>
-      </c>
-      <c r="B36" s="65"/>
-      <c r="C36" s="65"/>
-      <c r="D36" s="66"/>
+    <row r="36" spans="1:37" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A36" s="50" t="s">
+        <v>46</v>
+      </c>
+      <c r="B36" s="50"/>
+      <c r="C36" s="50"/>
+      <c r="D36" s="51"/>
       <c r="E36" s="35">
         <f>E12+E15+E20+E29+E32+E35</f>
         <v>185</v>
@@ -2743,36 +2745,6 @@
     </row>
   </sheetData>
   <mergeCells count="46">
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A34:D34"/>
-    <mergeCell ref="A35:D35"/>
-    <mergeCell ref="A36:D36"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="A29:D29"/>
-    <mergeCell ref="A30:D30"/>
-    <mergeCell ref="A31:D31"/>
-    <mergeCell ref="A32:D32"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="A13:D13"/>
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A16:D16"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="A23:D23"/>
-    <mergeCell ref="A24:D24"/>
-    <mergeCell ref="A25:D25"/>
-    <mergeCell ref="A14:D14"/>
-    <mergeCell ref="AF5:AJ5"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="O5:S5"/>
-    <mergeCell ref="T5:W5"/>
     <mergeCell ref="A9:D9"/>
     <mergeCell ref="A10:D10"/>
     <mergeCell ref="A11:D11"/>
@@ -2789,6 +2761,36 @@
     <mergeCell ref="K5:N5"/>
     <mergeCell ref="X5:AA5"/>
     <mergeCell ref="AB5:AE5"/>
+    <mergeCell ref="AF5:AJ5"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="O5:S5"/>
+    <mergeCell ref="T5:W5"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="A23:D23"/>
+    <mergeCell ref="A24:D24"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A34:D34"/>
+    <mergeCell ref="A35:D35"/>
+    <mergeCell ref="A36:D36"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="A29:D29"/>
+    <mergeCell ref="A30:D30"/>
+    <mergeCell ref="A31:D31"/>
+    <mergeCell ref="A32:D32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2798,50 +2800,51 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CB8DCAA-6D0A-4CAB-9084-21E2434B6494}">
   <dimension ref="A1:AK36"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P13" sqref="P13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="8" max="36" width="4.33203125" customWidth="1"/>
-    <col min="37" max="37" width="5.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="8" max="36" width="4.36328125" customWidth="1"/>
+    <col min="37" max="37" width="5.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="49" t="s">
+    <row r="1" spans="1:37" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
       <c r="M1" s="44"/>
-      <c r="N1" s="50" t="s">
-        <v>50</v>
-      </c>
-      <c r="O1" s="50"/>
-      <c r="P1" s="50"/>
-      <c r="Q1" s="50"/>
-      <c r="R1" s="50"/>
-      <c r="S1" s="50"/>
+      <c r="N1" s="61" t="s">
+        <v>49</v>
+      </c>
+      <c r="O1" s="61"/>
+      <c r="P1" s="61"/>
+      <c r="Q1" s="61"/>
+      <c r="R1" s="61"/>
+      <c r="S1" s="61"/>
       <c r="T1" s="1"/>
       <c r="U1" s="14"/>
-      <c r="V1" s="50" t="s">
-        <v>49</v>
-      </c>
-      <c r="W1" s="50"/>
-      <c r="X1" s="50"/>
-      <c r="Y1" s="50"/>
-      <c r="Z1" s="50"/>
-      <c r="AA1" s="50"/>
+      <c r="V1" s="61" t="s">
+        <v>48</v>
+      </c>
+      <c r="W1" s="61"/>
+      <c r="X1" s="61"/>
+      <c r="Y1" s="61"/>
+      <c r="Z1" s="61"/>
+      <c r="AA1" s="61"/>
       <c r="AB1" s="1"/>
       <c r="AC1" s="1"/>
       <c r="AD1" s="1"/>
@@ -2853,14 +2856,14 @@
       <c r="AJ1" s="1"/>
       <c r="AK1" s="1"/>
     </row>
-    <row r="2" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="49"/>
-      <c r="B2" s="49"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49"/>
+    <row r="2" spans="1:37" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="60"/>
+      <c r="B2" s="60"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
@@ -2875,14 +2878,14 @@
       <c r="S2" s="67"/>
       <c r="T2" s="1"/>
       <c r="U2" s="15"/>
-      <c r="V2" s="50" t="s">
+      <c r="V2" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="W2" s="50"/>
-      <c r="X2" s="50"/>
-      <c r="Y2" s="50"/>
-      <c r="Z2" s="50"/>
-      <c r="AA2" s="50"/>
+      <c r="W2" s="61"/>
+      <c r="X2" s="61"/>
+      <c r="Y2" s="61"/>
+      <c r="Z2" s="61"/>
+      <c r="AA2" s="61"/>
       <c r="AB2" s="1"/>
       <c r="AC2" s="1"/>
       <c r="AD2" s="1"/>
@@ -2894,14 +2897,14 @@
       <c r="AJ2" s="1"/>
       <c r="AK2" s="1"/>
     </row>
-    <row r="3" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="49"/>
-      <c r="B3" s="49"/>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="49"/>
+    <row r="3" spans="1:37" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="60"/>
+      <c r="B3" s="60"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="60"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
@@ -2916,14 +2919,14 @@
       <c r="S3" s="67"/>
       <c r="T3" s="1"/>
       <c r="U3" s="17"/>
-      <c r="V3" s="50" t="s">
-        <v>48</v>
-      </c>
-      <c r="W3" s="50"/>
-      <c r="X3" s="50"/>
-      <c r="Y3" s="50"/>
-      <c r="Z3" s="50"/>
-      <c r="AA3" s="50"/>
+      <c r="V3" s="61" t="s">
+        <v>47</v>
+      </c>
+      <c r="W3" s="61"/>
+      <c r="X3" s="61"/>
+      <c r="Y3" s="61"/>
+      <c r="Z3" s="61"/>
+      <c r="AA3" s="61"/>
       <c r="AB3" s="1"/>
       <c r="AC3" s="1"/>
       <c r="AD3" s="1"/>
@@ -2935,7 +2938,7 @@
       <c r="AJ3" s="1"/>
       <c r="AK3" s="1"/>
     </row>
-    <row r="4" spans="1:37" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:37" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="12"/>
       <c r="B4" s="12"/>
       <c r="C4" s="12"/>
@@ -2943,10 +2946,10 @@
       <c r="E4" s="12"/>
       <c r="F4" s="12"/>
       <c r="G4" s="12"/>
-      <c r="H4" s="51">
+      <c r="H4" s="62">
         <v>45910</v>
       </c>
-      <c r="I4" s="51"/>
+      <c r="I4" s="62"/>
       <c r="J4" s="16"/>
       <c r="K4" s="12"/>
       <c r="L4" s="12"/>
@@ -2973,77 +2976,77 @@
       <c r="AG4" s="12"/>
       <c r="AH4" s="12"/>
       <c r="AI4" s="12"/>
-      <c r="AJ4" s="48">
+      <c r="AJ4" s="59">
         <v>46119</v>
       </c>
-      <c r="AK4" s="48"/>
-    </row>
-    <row r="5" spans="1:37" ht="17.399999999999999" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="52" t="s">
+      <c r="AK4" s="59"/>
+    </row>
+    <row r="5" spans="1:37" ht="17" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="52"/>
-      <c r="C5" s="52"/>
-      <c r="D5" s="53"/>
-      <c r="E5" s="52" t="s">
+      <c r="B5" s="55"/>
+      <c r="C5" s="55"/>
+      <c r="D5" s="63"/>
+      <c r="E5" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="52"/>
-      <c r="G5" s="52"/>
-      <c r="H5" s="54" t="s">
+      <c r="F5" s="55"/>
+      <c r="G5" s="55"/>
+      <c r="H5" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="55"/>
-      <c r="J5" s="55"/>
-      <c r="K5" s="56" t="s">
+      <c r="I5" s="65"/>
+      <c r="J5" s="65"/>
+      <c r="K5" s="66" t="s">
         <v>6</v>
       </c>
-      <c r="L5" s="52"/>
-      <c r="M5" s="52"/>
-      <c r="N5" s="57"/>
-      <c r="O5" s="52" t="s">
+      <c r="L5" s="55"/>
+      <c r="M5" s="55"/>
+      <c r="N5" s="56"/>
+      <c r="O5" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="P5" s="52"/>
-      <c r="Q5" s="52"/>
-      <c r="R5" s="52"/>
-      <c r="S5" s="57"/>
-      <c r="T5" s="52" t="s">
+      <c r="P5" s="55"/>
+      <c r="Q5" s="55"/>
+      <c r="R5" s="55"/>
+      <c r="S5" s="56"/>
+      <c r="T5" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="U5" s="52"/>
-      <c r="V5" s="52"/>
-      <c r="W5" s="57"/>
-      <c r="X5" s="52" t="s">
+      <c r="U5" s="55"/>
+      <c r="V5" s="55"/>
+      <c r="W5" s="56"/>
+      <c r="X5" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="Y5" s="52"/>
-      <c r="Z5" s="52"/>
-      <c r="AA5" s="57"/>
-      <c r="AB5" s="52" t="s">
+      <c r="Y5" s="55"/>
+      <c r="Z5" s="55"/>
+      <c r="AA5" s="56"/>
+      <c r="AB5" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="AC5" s="52"/>
-      <c r="AD5" s="52"/>
-      <c r="AE5" s="57"/>
-      <c r="AF5" s="52" t="s">
+      <c r="AC5" s="55"/>
+      <c r="AD5" s="55"/>
+      <c r="AE5" s="56"/>
+      <c r="AF5" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="AG5" s="52"/>
-      <c r="AH5" s="52"/>
-      <c r="AI5" s="52"/>
-      <c r="AJ5" s="57"/>
+      <c r="AG5" s="55"/>
+      <c r="AH5" s="55"/>
+      <c r="AI5" s="55"/>
+      <c r="AJ5" s="56"/>
       <c r="AK5" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:37" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="58" t="s">
+    <row r="6" spans="1:37" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="58"/>
-      <c r="C6" s="58"/>
-      <c r="D6" s="59"/>
+      <c r="B6" s="57"/>
+      <c r="C6" s="57"/>
+      <c r="D6" s="58"/>
       <c r="E6" s="18" t="s">
         <v>3</v>
       </c>
@@ -3144,13 +3147,13 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="60" t="s">
+    <row r="7" spans="1:37" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="60"/>
-      <c r="C7" s="60"/>
-      <c r="D7" s="61"/>
+      <c r="B7" s="53"/>
+      <c r="C7" s="53"/>
+      <c r="D7" s="54"/>
       <c r="E7" s="20">
         <v>2</v>
       </c>
@@ -3191,7 +3194,7 @@
       <c r="AJ7" s="25"/>
       <c r="AK7" s="3"/>
     </row>
-    <row r="8" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:37" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A8" s="46" t="s">
         <v>17</v>
       </c>
@@ -3238,7 +3241,7 @@
       <c r="AJ8" s="26"/>
       <c r="AK8" s="3"/>
     </row>
-    <row r="9" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:37" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A9" s="46" t="s">
         <v>18</v>
       </c>
@@ -3281,7 +3284,7 @@
       <c r="AJ9" s="26"/>
       <c r="AK9" s="3"/>
     </row>
-    <row r="10" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:37" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A10" s="46" t="s">
         <v>19</v>
       </c>
@@ -3324,7 +3327,7 @@
       <c r="AJ10" s="26"/>
       <c r="AK10" s="3"/>
     </row>
-    <row r="11" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:37" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A11" s="46" t="s">
         <v>20</v>
       </c>
@@ -3369,13 +3372,13 @@
       <c r="AJ11" s="26"/>
       <c r="AK11" s="3"/>
     </row>
-    <row r="12" spans="1:37" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="62" t="s">
+    <row r="12" spans="1:37" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="62"/>
-      <c r="C12" s="62"/>
-      <c r="D12" s="63"/>
+      <c r="B12" s="48"/>
+      <c r="C12" s="48"/>
+      <c r="D12" s="49"/>
       <c r="E12" s="32">
         <f>E7+E8+E9+E10+E11</f>
         <v>16</v>
@@ -3419,7 +3422,7 @@
       <c r="AJ12" s="27"/>
       <c r="AK12" s="24"/>
     </row>
-    <row r="13" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:37" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A13" s="46" t="s">
         <v>22</v>
       </c>
@@ -3466,7 +3469,7 @@
       <c r="AJ13" s="26"/>
       <c r="AK13" s="3"/>
     </row>
-    <row r="14" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:37" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A14" s="46" t="s">
         <v>23</v>
       </c>
@@ -3513,13 +3516,13 @@
       <c r="AJ14" s="26"/>
       <c r="AK14" s="3"/>
     </row>
-    <row r="15" spans="1:37" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="62" t="s">
+    <row r="15" spans="1:37" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="B15" s="62"/>
-      <c r="C15" s="62"/>
-      <c r="D15" s="63"/>
+      <c r="B15" s="48"/>
+      <c r="C15" s="48"/>
+      <c r="D15" s="49"/>
       <c r="E15" s="32">
         <f>E13+E14</f>
         <v>4</v>
@@ -3563,9 +3566,9 @@
       <c r="AJ15" s="27"/>
       <c r="AK15" s="24"/>
     </row>
-    <row r="16" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:37" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A16" s="46" t="s">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="B16" s="46"/>
       <c r="C16" s="46"/>
@@ -3610,9 +3613,9 @@
       <c r="AJ16" s="26"/>
       <c r="AK16" s="3"/>
     </row>
-    <row r="17" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:37" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A17" s="46" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B17" s="46"/>
       <c r="C17" s="46"/>
@@ -3628,8 +3631,8 @@
       <c r="I17" s="1"/>
       <c r="J17" s="26"/>
       <c r="K17" s="14"/>
-      <c r="L17" s="17"/>
-      <c r="M17" s="17"/>
+      <c r="L17" s="14"/>
+      <c r="M17" s="14"/>
       <c r="N17" s="39"/>
       <c r="O17" s="15"/>
       <c r="P17" s="1"/>
@@ -3655,9 +3658,9 @@
       <c r="AJ17" s="26"/>
       <c r="AK17" s="3"/>
     </row>
-    <row r="18" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:37" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A18" s="46" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B18" s="46"/>
       <c r="C18" s="46"/>
@@ -3675,8 +3678,8 @@
       <c r="I18" s="1"/>
       <c r="J18" s="26"/>
       <c r="K18" s="1"/>
-      <c r="L18" s="17"/>
-      <c r="M18" s="17"/>
+      <c r="L18" s="14"/>
+      <c r="M18" s="14"/>
       <c r="N18" s="39"/>
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
@@ -3702,9 +3705,9 @@
       <c r="AJ18" s="26"/>
       <c r="AK18" s="3"/>
     </row>
-    <row r="19" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:37" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A19" s="46" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B19" s="46"/>
       <c r="C19" s="46"/>
@@ -3717,7 +3720,7 @@
       <c r="H19" s="4"/>
       <c r="I19" s="1"/>
       <c r="J19" s="26"/>
-      <c r="K19" s="17"/>
+      <c r="K19" s="14"/>
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
       <c r="N19" s="41"/>
@@ -3745,13 +3748,13 @@
       <c r="AJ19" s="26"/>
       <c r="AK19" s="3"/>
     </row>
-    <row r="20" spans="1:37" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="64" t="s">
-        <v>43</v>
-      </c>
-      <c r="B20" s="64"/>
-      <c r="C20" s="64"/>
-      <c r="D20" s="64"/>
+    <row r="20" spans="1:37" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="52" t="s">
+        <v>42</v>
+      </c>
+      <c r="B20" s="52"/>
+      <c r="C20" s="52"/>
+      <c r="D20" s="52"/>
       <c r="E20" s="34">
         <f>E16+E17+E18+E19</f>
         <v>17</v>
@@ -3795,13 +3798,13 @@
       <c r="AJ20" s="27"/>
       <c r="AK20" s="24"/>
     </row>
-    <row r="21" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A21" s="60" t="s">
-        <v>41</v>
-      </c>
-      <c r="B21" s="60"/>
-      <c r="C21" s="60"/>
-      <c r="D21" s="61"/>
+    <row r="21" spans="1:37" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A21" s="53" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" s="53"/>
+      <c r="C21" s="53"/>
+      <c r="D21" s="54"/>
       <c r="E21" s="18">
         <v>13</v>
       </c>
@@ -3840,9 +3843,9 @@
       <c r="AJ21" s="26"/>
       <c r="AK21" s="3"/>
     </row>
-    <row r="22" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:37" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A22" s="46" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B22" s="46"/>
       <c r="C22" s="46"/>
@@ -3883,9 +3886,9 @@
       <c r="AJ22" s="26"/>
       <c r="AK22" s="3"/>
     </row>
-    <row r="23" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:37" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A23" s="46" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B23" s="46"/>
       <c r="C23" s="46"/>
@@ -3926,9 +3929,9 @@
       <c r="AJ23" s="26"/>
       <c r="AK23" s="3"/>
     </row>
-    <row r="24" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:37" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A24" s="46" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B24" s="46"/>
       <c r="C24" s="46"/>
@@ -3971,9 +3974,9 @@
       <c r="AJ24" s="26"/>
       <c r="AK24" s="3"/>
     </row>
-    <row r="25" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:37" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A25" s="46" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B25" s="46"/>
       <c r="C25" s="46"/>
@@ -4018,9 +4021,9 @@
       <c r="AJ25" s="26"/>
       <c r="AK25" s="3"/>
     </row>
-    <row r="26" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:37" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A26" s="46" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B26" s="46"/>
       <c r="C26" s="46"/>
@@ -4065,9 +4068,9 @@
       <c r="AJ26" s="26"/>
       <c r="AK26" s="3"/>
     </row>
-    <row r="27" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:37" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A27" s="46" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B27" s="46"/>
       <c r="C27" s="46"/>
@@ -4112,9 +4115,9 @@
       <c r="AJ27" s="26"/>
       <c r="AK27" s="3"/>
     </row>
-    <row r="28" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:37" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A28" s="46" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B28" s="46"/>
       <c r="C28" s="46"/>
@@ -4159,13 +4162,13 @@
       <c r="AJ28" s="26"/>
       <c r="AK28" s="3"/>
     </row>
-    <row r="29" spans="1:37" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="62" t="s">
-        <v>40</v>
-      </c>
-      <c r="B29" s="62"/>
-      <c r="C29" s="62"/>
-      <c r="D29" s="63"/>
+    <row r="29" spans="1:37" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A29" s="48" t="s">
+        <v>39</v>
+      </c>
+      <c r="B29" s="48"/>
+      <c r="C29" s="48"/>
+      <c r="D29" s="49"/>
       <c r="E29" s="32">
         <f>E21+E22+E23+E24+E25+E26+E27+E28</f>
         <v>88</v>
@@ -4209,9 +4212,9 @@
       <c r="AJ29" s="27"/>
       <c r="AK29" s="24"/>
     </row>
-    <row r="30" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:37" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A30" s="46" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B30" s="46"/>
       <c r="C30" s="46"/>
@@ -4256,9 +4259,9 @@
       <c r="AJ30" s="26"/>
       <c r="AK30" s="3"/>
     </row>
-    <row r="31" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:37" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A31" s="46" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B31" s="46"/>
       <c r="C31" s="46"/>
@@ -4299,13 +4302,13 @@
       <c r="AJ31" s="26"/>
       <c r="AK31" s="3"/>
     </row>
-    <row r="32" spans="1:37" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="62" t="s">
-        <v>39</v>
-      </c>
-      <c r="B32" s="62"/>
-      <c r="C32" s="62"/>
-      <c r="D32" s="63"/>
+    <row r="32" spans="1:37" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A32" s="48" t="s">
+        <v>38</v>
+      </c>
+      <c r="B32" s="48"/>
+      <c r="C32" s="48"/>
+      <c r="D32" s="49"/>
       <c r="E32" s="34">
         <f>E30+E31</f>
         <v>15</v>
@@ -4349,9 +4352,9 @@
       <c r="AJ32" s="27"/>
       <c r="AK32" s="24"/>
     </row>
-    <row r="33" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:37" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A33" s="46" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B33" s="46"/>
       <c r="C33" s="46"/>
@@ -4396,9 +4399,9 @@
       <c r="AJ33" s="26"/>
       <c r="AK33" s="3"/>
     </row>
-    <row r="34" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:37" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A34" s="46" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B34" s="46"/>
       <c r="C34" s="46"/>
@@ -4443,13 +4446,13 @@
       <c r="AJ34" s="41"/>
       <c r="AK34" s="3"/>
     </row>
-    <row r="35" spans="1:37" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="62" t="s">
-        <v>46</v>
-      </c>
-      <c r="B35" s="62"/>
-      <c r="C35" s="62"/>
-      <c r="D35" s="63"/>
+    <row r="35" spans="1:37" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A35" s="48" t="s">
+        <v>45</v>
+      </c>
+      <c r="B35" s="48"/>
+      <c r="C35" s="48"/>
+      <c r="D35" s="49"/>
       <c r="E35" s="34">
         <f>E33+E34</f>
         <v>45</v>
@@ -4493,13 +4496,13 @@
       <c r="AJ35" s="40"/>
       <c r="AK35" s="36"/>
     </row>
-    <row r="36" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A36" s="65" t="s">
-        <v>47</v>
-      </c>
-      <c r="B36" s="65"/>
-      <c r="C36" s="65"/>
-      <c r="D36" s="66"/>
+    <row r="36" spans="1:37" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A36" s="50" t="s">
+        <v>46</v>
+      </c>
+      <c r="B36" s="50"/>
+      <c r="C36" s="50"/>
+      <c r="D36" s="51"/>
       <c r="E36" s="35">
         <f>E12+E15+E20+E29+E32+E35</f>
         <v>185</v>
@@ -4545,15 +4548,30 @@
     </row>
   </sheetData>
   <mergeCells count="49">
-    <mergeCell ref="AJ4:AK4"/>
-    <mergeCell ref="N1:S1"/>
-    <mergeCell ref="N2:S2"/>
-    <mergeCell ref="N3:S3"/>
-    <mergeCell ref="A1:G3"/>
-    <mergeCell ref="V1:AA1"/>
-    <mergeCell ref="V2:AA2"/>
-    <mergeCell ref="V3:AA3"/>
-    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A34:D34"/>
+    <mergeCell ref="A35:D35"/>
+    <mergeCell ref="A36:D36"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="A29:D29"/>
+    <mergeCell ref="A30:D30"/>
+    <mergeCell ref="A31:D31"/>
+    <mergeCell ref="A32:D32"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="A23:D23"/>
+    <mergeCell ref="A24:D24"/>
+    <mergeCell ref="A25:D25"/>
     <mergeCell ref="A14:D14"/>
     <mergeCell ref="X5:AA5"/>
     <mergeCell ref="AB5:AE5"/>
@@ -4570,30 +4588,15 @@
     <mergeCell ref="A9:D9"/>
     <mergeCell ref="A10:D10"/>
     <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="A13:D13"/>
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A16:D16"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="A23:D23"/>
-    <mergeCell ref="A24:D24"/>
-    <mergeCell ref="A25:D25"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A34:D34"/>
-    <mergeCell ref="A35:D35"/>
-    <mergeCell ref="A36:D36"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="A29:D29"/>
-    <mergeCell ref="A30:D30"/>
-    <mergeCell ref="A31:D31"/>
-    <mergeCell ref="A32:D32"/>
+    <mergeCell ref="AJ4:AK4"/>
+    <mergeCell ref="N1:S1"/>
+    <mergeCell ref="N2:S2"/>
+    <mergeCell ref="N3:S3"/>
+    <mergeCell ref="A1:G3"/>
+    <mergeCell ref="V1:AA1"/>
+    <mergeCell ref="V2:AA2"/>
+    <mergeCell ref="V3:AA3"/>
+    <mergeCell ref="H4:I4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/00_Docs/00_Zeitplanung/DIPL_Ertragssteuerung_PV_Zeitplanung.xlsx
+++ b/00_Docs/00_Zeitplanung/DIPL_Ertragssteuerung_PV_Zeitplanung.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aberg\GitRepos\DIPL_Ertragssteuerung_PV\00_Docs\00_Zeitplanung\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\gitRepos\DIPL_Ertragssteuerung_PV\00_Docs\00_Zeitplanung\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{465532FB-AEE9-41ED-9DF6-7C71B6DB3610}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E521CA2A-F315-4F9C-87FB-0BC1BCBCA99D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Soll_Stand" sheetId="2" r:id="rId1"/>
@@ -196,7 +196,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -252,6 +252,13 @@
     <font>
       <sz val="8"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF5050"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -568,7 +575,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -638,7 +645,6 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -646,39 +652,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -690,6 +663,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="14" fontId="7" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -704,19 +680,52 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF66FF33"/>
       <color rgb="FFFF5050"/>
-      <color rgb="FF66FF33"/>
       <color rgb="FF0099FF"/>
       <color rgb="FF00CC00"/>
       <color rgb="FFFFFF66"/>
@@ -999,27 +1008,27 @@
   <dimension ref="A1:AK36"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="U17" sqref="U17"/>
+      <selection activeCell="D4" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="4" max="4" width="38" customWidth="1"/>
-    <col min="7" max="7" width="13.81640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="36" width="4.36328125" customWidth="1"/>
-    <col min="37" max="37" width="5.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="36" width="4.33203125" customWidth="1"/>
+    <col min="37" max="37" width="5.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="60" t="s">
+    <row r="1" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
@@ -1034,14 +1043,14 @@
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
       <c r="U1" s="14"/>
-      <c r="V1" s="61" t="s">
+      <c r="V1" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="W1" s="61"/>
-      <c r="X1" s="61"/>
-      <c r="Y1" s="61"/>
-      <c r="Z1" s="61"/>
-      <c r="AA1" s="61"/>
+      <c r="W1" s="49"/>
+      <c r="X1" s="49"/>
+      <c r="Y1" s="49"/>
+      <c r="Z1" s="49"/>
+      <c r="AA1" s="49"/>
       <c r="AB1" s="1"/>
       <c r="AC1" s="1"/>
       <c r="AD1" s="1"/>
@@ -1053,14 +1062,14 @@
       <c r="AJ1" s="1"/>
       <c r="AK1" s="1"/>
     </row>
-    <row r="2" spans="1:37" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="60"/>
-      <c r="B2" s="60"/>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
+    <row r="2" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="48"/>
+      <c r="B2" s="48"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
@@ -1075,14 +1084,14 @@
       <c r="S2" s="1"/>
       <c r="T2" s="1"/>
       <c r="U2" s="15"/>
-      <c r="V2" s="61" t="s">
+      <c r="V2" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="W2" s="61"/>
-      <c r="X2" s="61"/>
-      <c r="Y2" s="61"/>
-      <c r="Z2" s="61"/>
-      <c r="AA2" s="61"/>
+      <c r="W2" s="49"/>
+      <c r="X2" s="49"/>
+      <c r="Y2" s="49"/>
+      <c r="Z2" s="49"/>
+      <c r="AA2" s="49"/>
       <c r="AB2" s="1"/>
       <c r="AC2" s="1"/>
       <c r="AD2" s="1"/>
@@ -1094,14 +1103,14 @@
       <c r="AJ2" s="1"/>
       <c r="AK2" s="1"/>
     </row>
-    <row r="3" spans="1:37" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="60"/>
-      <c r="B3" s="60"/>
-      <c r="C3" s="60"/>
-      <c r="D3" s="60"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="60"/>
+    <row r="3" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="48"/>
+      <c r="B3" s="48"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="48"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
@@ -1116,14 +1125,14 @@
       <c r="S3" s="1"/>
       <c r="T3" s="1"/>
       <c r="U3" s="17"/>
-      <c r="V3" s="61" t="s">
+      <c r="V3" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="W3" s="61"/>
-      <c r="X3" s="61"/>
-      <c r="Y3" s="61"/>
-      <c r="Z3" s="61"/>
-      <c r="AA3" s="61"/>
+      <c r="W3" s="49"/>
+      <c r="X3" s="49"/>
+      <c r="Y3" s="49"/>
+      <c r="Z3" s="49"/>
+      <c r="AA3" s="49"/>
       <c r="AB3" s="1"/>
       <c r="AC3" s="1"/>
       <c r="AD3" s="1"/>
@@ -1135,7 +1144,7 @@
       <c r="AJ3" s="1"/>
       <c r="AK3" s="1"/>
     </row>
-    <row r="4" spans="1:37" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:37" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="12"/>
       <c r="B4" s="12"/>
       <c r="C4" s="12"/>
@@ -1143,10 +1152,10 @@
       <c r="E4" s="12"/>
       <c r="F4" s="12"/>
       <c r="G4" s="12"/>
-      <c r="H4" s="62">
+      <c r="H4" s="50">
         <v>45910</v>
       </c>
-      <c r="I4" s="62"/>
+      <c r="I4" s="50"/>
       <c r="J4" s="16"/>
       <c r="K4" s="12"/>
       <c r="L4" s="12"/>
@@ -1173,71 +1182,71 @@
       <c r="AG4" s="12"/>
       <c r="AH4" s="12"/>
       <c r="AI4" s="12"/>
-      <c r="AJ4" s="59">
+      <c r="AJ4" s="47">
         <v>46119</v>
       </c>
-      <c r="AK4" s="59"/>
-    </row>
-    <row r="5" spans="1:37" ht="17" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="55" t="s">
+      <c r="AK4" s="47"/>
+    </row>
+    <row r="5" spans="1:37" ht="17.399999999999999" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="55"/>
-      <c r="C5" s="55"/>
-      <c r="D5" s="63"/>
-      <c r="E5" s="55" t="s">
+      <c r="B5" s="51"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="52"/>
+      <c r="E5" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="55"/>
-      <c r="G5" s="55"/>
-      <c r="H5" s="64" t="s">
+      <c r="F5" s="51"/>
+      <c r="G5" s="51"/>
+      <c r="H5" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="65"/>
-      <c r="J5" s="65"/>
-      <c r="K5" s="66" t="s">
+      <c r="I5" s="54"/>
+      <c r="J5" s="54"/>
+      <c r="K5" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="L5" s="55"/>
-      <c r="M5" s="55"/>
+      <c r="L5" s="51"/>
+      <c r="M5" s="51"/>
       <c r="N5" s="56"/>
-      <c r="O5" s="55" t="s">
+      <c r="O5" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="P5" s="55"/>
-      <c r="Q5" s="55"/>
-      <c r="R5" s="55"/>
+      <c r="P5" s="51"/>
+      <c r="Q5" s="51"/>
+      <c r="R5" s="51"/>
       <c r="S5" s="56"/>
-      <c r="T5" s="55" t="s">
+      <c r="T5" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="U5" s="55"/>
-      <c r="V5" s="55"/>
+      <c r="U5" s="51"/>
+      <c r="V5" s="51"/>
       <c r="W5" s="56"/>
-      <c r="X5" s="55" t="s">
+      <c r="X5" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="Y5" s="55"/>
-      <c r="Z5" s="55"/>
+      <c r="Y5" s="51"/>
+      <c r="Z5" s="51"/>
       <c r="AA5" s="56"/>
-      <c r="AB5" s="55" t="s">
+      <c r="AB5" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="AC5" s="55"/>
-      <c r="AD5" s="55"/>
+      <c r="AC5" s="51"/>
+      <c r="AD5" s="51"/>
       <c r="AE5" s="56"/>
-      <c r="AF5" s="55" t="s">
+      <c r="AF5" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="AG5" s="55"/>
-      <c r="AH5" s="55"/>
-      <c r="AI5" s="55"/>
+      <c r="AG5" s="51"/>
+      <c r="AH5" s="51"/>
+      <c r="AI5" s="51"/>
       <c r="AJ5" s="56"/>
       <c r="AK5" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:37" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:37" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="57" t="s">
         <v>14</v>
       </c>
@@ -1344,13 +1353,13 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:37" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="53" t="s">
+    <row r="7" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="53"/>
-      <c r="C7" s="53"/>
-      <c r="D7" s="54"/>
+      <c r="B7" s="59"/>
+      <c r="C7" s="59"/>
+      <c r="D7" s="60"/>
       <c r="E7" s="20">
         <v>2</v>
       </c>
@@ -1391,13 +1400,13 @@
       <c r="AJ7" s="25"/>
       <c r="AK7" s="3"/>
     </row>
-    <row r="8" spans="1:37" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="46" t="s">
+    <row r="8" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="46"/>
-      <c r="C8" s="46"/>
-      <c r="D8" s="47"/>
+      <c r="B8" s="45"/>
+      <c r="C8" s="45"/>
+      <c r="D8" s="46"/>
       <c r="E8" s="2">
         <v>11</v>
       </c>
@@ -1438,13 +1447,13 @@
       <c r="AJ8" s="26"/>
       <c r="AK8" s="3"/>
     </row>
-    <row r="9" spans="1:37" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="46" t="s">
+    <row r="9" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="46"/>
-      <c r="C9" s="46"/>
-      <c r="D9" s="47"/>
+      <c r="B9" s="45"/>
+      <c r="C9" s="45"/>
+      <c r="D9" s="46"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2">
         <v>4</v>
@@ -1481,13 +1490,13 @@
       <c r="AJ9" s="26"/>
       <c r="AK9" s="3"/>
     </row>
-    <row r="10" spans="1:37" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="46" t="s">
+    <row r="10" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="46"/>
-      <c r="C10" s="46"/>
-      <c r="D10" s="47"/>
+      <c r="B10" s="45"/>
+      <c r="C10" s="45"/>
+      <c r="D10" s="46"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="19">
@@ -1524,13 +1533,13 @@
       <c r="AJ10" s="26"/>
       <c r="AK10" s="3"/>
     </row>
-    <row r="11" spans="1:37" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="46" t="s">
+    <row r="11" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="46"/>
-      <c r="C11" s="46"/>
-      <c r="D11" s="47"/>
+      <c r="B11" s="45"/>
+      <c r="C11" s="45"/>
+      <c r="D11" s="46"/>
       <c r="E11" s="2">
         <v>3</v>
       </c>
@@ -1569,13 +1578,13 @@
       <c r="AJ11" s="26"/>
       <c r="AK11" s="3"/>
     </row>
-    <row r="12" spans="1:37" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="48" t="s">
+    <row r="12" spans="1:37" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="61" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="48"/>
-      <c r="C12" s="48"/>
-      <c r="D12" s="49"/>
+      <c r="B12" s="61"/>
+      <c r="C12" s="61"/>
+      <c r="D12" s="62"/>
       <c r="E12" s="32">
         <f>E7+E8+E9+E10+E11</f>
         <v>16</v>
@@ -1619,13 +1628,13 @@
       <c r="AJ12" s="27"/>
       <c r="AK12" s="24"/>
     </row>
-    <row r="13" spans="1:37" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="46" t="s">
+    <row r="13" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="46"/>
-      <c r="C13" s="46"/>
-      <c r="D13" s="47"/>
+      <c r="B13" s="45"/>
+      <c r="C13" s="45"/>
+      <c r="D13" s="46"/>
       <c r="E13" s="18">
         <v>2</v>
       </c>
@@ -1666,13 +1675,13 @@
       <c r="AJ13" s="26"/>
       <c r="AK13" s="3"/>
     </row>
-    <row r="14" spans="1:37" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="46" t="s">
+    <row r="14" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="46"/>
-      <c r="C14" s="46"/>
-      <c r="D14" s="47"/>
+      <c r="B14" s="45"/>
+      <c r="C14" s="45"/>
+      <c r="D14" s="46"/>
       <c r="E14" s="2">
         <v>2</v>
       </c>
@@ -1713,13 +1722,13 @@
       <c r="AJ14" s="26"/>
       <c r="AK14" s="3"/>
     </row>
-    <row r="15" spans="1:37" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="48" t="s">
+    <row r="15" spans="1:37" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="61" t="s">
         <v>24</v>
       </c>
-      <c r="B15" s="48"/>
-      <c r="C15" s="48"/>
-      <c r="D15" s="49"/>
+      <c r="B15" s="61"/>
+      <c r="C15" s="61"/>
+      <c r="D15" s="62"/>
       <c r="E15" s="32">
         <f>E13+E14</f>
         <v>4</v>
@@ -1763,13 +1772,13 @@
       <c r="AJ15" s="27"/>
       <c r="AK15" s="24"/>
     </row>
-    <row r="16" spans="1:37" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="46" t="s">
+    <row r="16" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A16" s="45" t="s">
         <v>50</v>
       </c>
-      <c r="B16" s="46"/>
-      <c r="C16" s="46"/>
-      <c r="D16" s="47"/>
+      <c r="B16" s="45"/>
+      <c r="C16" s="45"/>
+      <c r="D16" s="46"/>
       <c r="E16" s="2">
         <v>3</v>
       </c>
@@ -1810,13 +1819,13 @@
       <c r="AJ16" s="26"/>
       <c r="AK16" s="3"/>
     </row>
-    <row r="17" spans="1:37" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="46" t="s">
+    <row r="17" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A17" s="45" t="s">
         <v>30</v>
       </c>
-      <c r="B17" s="46"/>
-      <c r="C17" s="46"/>
-      <c r="D17" s="47"/>
+      <c r="B17" s="45"/>
+      <c r="C17" s="45"/>
+      <c r="D17" s="46"/>
       <c r="E17" s="2">
         <v>4</v>
       </c>
@@ -1855,13 +1864,13 @@
       <c r="AJ17" s="26"/>
       <c r="AK17" s="3"/>
     </row>
-    <row r="18" spans="1:37" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="46" t="s">
+    <row r="18" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A18" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="B18" s="46"/>
-      <c r="C18" s="46"/>
-      <c r="D18" s="47"/>
+      <c r="B18" s="45"/>
+      <c r="C18" s="45"/>
+      <c r="D18" s="46"/>
       <c r="E18" s="2">
         <v>10</v>
       </c>
@@ -1902,13 +1911,13 @@
       <c r="AJ18" s="26"/>
       <c r="AK18" s="3"/>
     </row>
-    <row r="19" spans="1:37" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A19" s="46" t="s">
+    <row r="19" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A19" s="45" t="s">
         <v>28</v>
       </c>
-      <c r="B19" s="46"/>
-      <c r="C19" s="46"/>
-      <c r="D19" s="47"/>
+      <c r="B19" s="45"/>
+      <c r="C19" s="45"/>
+      <c r="D19" s="46"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
       <c r="G19" s="19">
@@ -1920,7 +1929,7 @@
       <c r="K19" s="14"/>
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
-      <c r="N19" s="41"/>
+      <c r="N19" s="30"/>
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
       <c r="Q19" s="1"/>
@@ -1945,13 +1954,13 @@
       <c r="AJ19" s="26"/>
       <c r="AK19" s="3"/>
     </row>
-    <row r="20" spans="1:37" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="52" t="s">
+    <row r="20" spans="1:37" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="63" t="s">
         <v>42</v>
       </c>
-      <c r="B20" s="52"/>
-      <c r="C20" s="52"/>
-      <c r="D20" s="52"/>
+      <c r="B20" s="63"/>
+      <c r="C20" s="63"/>
+      <c r="D20" s="63"/>
       <c r="E20" s="34">
         <f>E16+E17+E18+E19</f>
         <v>17</v>
@@ -1971,7 +1980,7 @@
       <c r="L20" s="9"/>
       <c r="M20" s="9"/>
       <c r="N20" s="27"/>
-      <c r="O20" s="42"/>
+      <c r="O20" s="67"/>
       <c r="P20" s="9"/>
       <c r="Q20" s="9"/>
       <c r="R20" s="9"/>
@@ -1995,13 +2004,13 @@
       <c r="AJ20" s="27"/>
       <c r="AK20" s="24"/>
     </row>
-    <row r="21" spans="1:37" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A21" s="53" t="s">
+    <row r="21" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A21" s="59" t="s">
         <v>40</v>
       </c>
-      <c r="B21" s="53"/>
-      <c r="C21" s="53"/>
-      <c r="D21" s="54"/>
+      <c r="B21" s="59"/>
+      <c r="C21" s="59"/>
+      <c r="D21" s="60"/>
       <c r="E21" s="18">
         <v>13</v>
       </c>
@@ -2016,10 +2025,10 @@
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
       <c r="N21" s="26"/>
-      <c r="O21" s="17"/>
-      <c r="P21" s="17"/>
-      <c r="Q21" s="17"/>
-      <c r="R21" s="17"/>
+      <c r="O21" s="14"/>
+      <c r="P21" s="14"/>
+      <c r="Q21" s="14"/>
+      <c r="R21" s="14"/>
       <c r="S21" s="39"/>
       <c r="T21" s="1"/>
       <c r="U21" s="1"/>
@@ -2040,13 +2049,13 @@
       <c r="AJ21" s="26"/>
       <c r="AK21" s="3"/>
     </row>
-    <row r="22" spans="1:37" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A22" s="46" t="s">
+    <row r="22" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A22" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="B22" s="46"/>
-      <c r="C22" s="46"/>
-      <c r="D22" s="47"/>
+      <c r="B22" s="45"/>
+      <c r="C22" s="45"/>
+      <c r="D22" s="46"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
       <c r="G22" s="19">
@@ -2059,7 +2068,7 @@
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
       <c r="N22" s="26"/>
-      <c r="O22" s="17"/>
+      <c r="O22" s="14"/>
       <c r="P22" s="1"/>
       <c r="Q22" s="1"/>
       <c r="R22" s="1"/>
@@ -2083,13 +2092,13 @@
       <c r="AJ22" s="26"/>
       <c r="AK22" s="3"/>
     </row>
-    <row r="23" spans="1:37" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A23" s="46" t="s">
+    <row r="23" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A23" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="B23" s="46"/>
-      <c r="C23" s="46"/>
-      <c r="D23" s="47"/>
+      <c r="B23" s="45"/>
+      <c r="C23" s="45"/>
+      <c r="D23" s="46"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
       <c r="G23" s="19">
@@ -2103,7 +2112,7 @@
       <c r="M23" s="1"/>
       <c r="N23" s="26"/>
       <c r="O23" s="1"/>
-      <c r="P23" s="17"/>
+      <c r="P23" s="14"/>
       <c r="Q23" s="1"/>
       <c r="R23" s="1"/>
       <c r="S23" s="26"/>
@@ -2126,13 +2135,13 @@
       <c r="AJ23" s="26"/>
       <c r="AK23" s="3"/>
     </row>
-    <row r="24" spans="1:37" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A24" s="46" t="s">
+    <row r="24" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A24" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="B24" s="46"/>
-      <c r="C24" s="46"/>
-      <c r="D24" s="47"/>
+      <c r="B24" s="45"/>
+      <c r="C24" s="45"/>
+      <c r="D24" s="46"/>
       <c r="E24" s="2">
         <v>20</v>
       </c>
@@ -2149,10 +2158,10 @@
       <c r="N24" s="26"/>
       <c r="O24" s="1"/>
       <c r="P24" s="1"/>
-      <c r="Q24" s="17"/>
-      <c r="R24" s="17"/>
-      <c r="S24" s="41"/>
-      <c r="T24" s="43"/>
+      <c r="Q24" s="14"/>
+      <c r="R24" s="14"/>
+      <c r="S24" s="30"/>
+      <c r="T24" s="68"/>
       <c r="U24" s="15"/>
       <c r="V24" s="1"/>
       <c r="W24" s="26"/>
@@ -2171,13 +2180,13 @@
       <c r="AJ24" s="26"/>
       <c r="AK24" s="3"/>
     </row>
-    <row r="25" spans="1:37" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A25" s="46" t="s">
+    <row r="25" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A25" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="B25" s="46"/>
-      <c r="C25" s="46"/>
-      <c r="D25" s="47"/>
+      <c r="B25" s="45"/>
+      <c r="C25" s="45"/>
+      <c r="D25" s="46"/>
       <c r="E25" s="2">
         <v>5</v>
       </c>
@@ -2198,7 +2207,7 @@
       <c r="P25" s="1"/>
       <c r="Q25" s="1"/>
       <c r="R25" s="1"/>
-      <c r="S25" s="41"/>
+      <c r="S25" s="30"/>
       <c r="T25" s="1"/>
       <c r="U25" s="1"/>
       <c r="V25" s="1"/>
@@ -2218,13 +2227,1817 @@
       <c r="AJ25" s="26"/>
       <c r="AK25" s="3"/>
     </row>
-    <row r="26" spans="1:37" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A26" s="46" t="s">
+    <row r="26" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A26" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="B26" s="46"/>
-      <c r="C26" s="46"/>
-      <c r="D26" s="47"/>
+      <c r="B26" s="45"/>
+      <c r="C26" s="45"/>
+      <c r="D26" s="46"/>
+      <c r="E26" s="2">
+        <v>40</v>
+      </c>
+      <c r="F26" s="2">
+        <v>40</v>
+      </c>
+      <c r="G26" s="19">
+        <v>30</v>
+      </c>
+      <c r="H26" s="4"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="26"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="26"/>
+      <c r="O26" s="1"/>
+      <c r="P26" s="1"/>
+      <c r="Q26" s="1"/>
+      <c r="R26" s="1"/>
+      <c r="S26" s="26"/>
+      <c r="T26" s="14"/>
+      <c r="U26" s="14"/>
+      <c r="V26" s="14"/>
+      <c r="W26" s="41"/>
+      <c r="X26" s="17"/>
+      <c r="Y26" s="15"/>
+      <c r="Z26" s="15"/>
+      <c r="AA26" s="26"/>
+      <c r="AB26" s="1"/>
+      <c r="AC26" s="1"/>
+      <c r="AD26" s="1"/>
+      <c r="AE26" s="26"/>
+      <c r="AF26" s="1"/>
+      <c r="AG26" s="1"/>
+      <c r="AH26" s="1"/>
+      <c r="AI26" s="1"/>
+      <c r="AJ26" s="26"/>
+      <c r="AK26" s="3"/>
+    </row>
+    <row r="27" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A27" s="45" t="s">
+        <v>34</v>
+      </c>
+      <c r="B27" s="45"/>
+      <c r="C27" s="45"/>
+      <c r="D27" s="46"/>
+      <c r="E27" s="2">
+        <v>5</v>
+      </c>
+      <c r="F27" s="2">
+        <v>5</v>
+      </c>
+      <c r="G27" s="19">
+        <v>5</v>
+      </c>
+      <c r="H27" s="4"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="26"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+      <c r="N27" s="26"/>
+      <c r="O27" s="1"/>
+      <c r="P27" s="1"/>
+      <c r="Q27" s="1"/>
+      <c r="R27" s="1"/>
+      <c r="S27" s="26"/>
+      <c r="T27" s="1"/>
+      <c r="U27" s="1"/>
+      <c r="V27" s="1"/>
+      <c r="W27" s="26"/>
+      <c r="X27" s="1"/>
+      <c r="Y27" s="1"/>
+      <c r="Z27" s="17"/>
+      <c r="AA27" s="39"/>
+      <c r="AB27" s="1"/>
+      <c r="AC27" s="1"/>
+      <c r="AD27" s="1"/>
+      <c r="AE27" s="26"/>
+      <c r="AF27" s="1"/>
+      <c r="AG27" s="1"/>
+      <c r="AH27" s="1"/>
+      <c r="AI27" s="1"/>
+      <c r="AJ27" s="26"/>
+      <c r="AK27" s="3"/>
+    </row>
+    <row r="28" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A28" s="45" t="s">
+        <v>35</v>
+      </c>
+      <c r="B28" s="45"/>
+      <c r="C28" s="45"/>
+      <c r="D28" s="46"/>
+      <c r="E28" s="2">
+        <v>5</v>
+      </c>
+      <c r="F28" s="2">
+        <v>5</v>
+      </c>
+      <c r="G28" s="19">
+        <v>5</v>
+      </c>
+      <c r="H28" s="4"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="26"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="26"/>
+      <c r="O28" s="1"/>
+      <c r="P28" s="1"/>
+      <c r="Q28" s="1"/>
+      <c r="R28" s="1"/>
+      <c r="S28" s="26"/>
+      <c r="T28" s="1"/>
+      <c r="U28" s="1"/>
+      <c r="V28" s="1"/>
+      <c r="W28" s="26"/>
+      <c r="X28" s="1"/>
+      <c r="Y28" s="1"/>
+      <c r="Z28" s="1"/>
+      <c r="AA28" s="26"/>
+      <c r="AB28" s="17"/>
+      <c r="AC28" s="15"/>
+      <c r="AD28" s="1"/>
+      <c r="AE28" s="26"/>
+      <c r="AF28" s="1"/>
+      <c r="AG28" s="1"/>
+      <c r="AH28" s="1"/>
+      <c r="AI28" s="1"/>
+      <c r="AJ28" s="26"/>
+      <c r="AK28" s="3"/>
+    </row>
+    <row r="29" spans="1:37" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="61" t="s">
+        <v>39</v>
+      </c>
+      <c r="B29" s="61"/>
+      <c r="C29" s="61"/>
+      <c r="D29" s="62"/>
+      <c r="E29" s="32">
+        <f>E21+E22+E23+E24+E25+E26+E27+E28</f>
+        <v>88</v>
+      </c>
+      <c r="F29" s="32">
+        <f t="shared" ref="F29:G29" si="3">F21+F22+F23+F24+F25+F26+F27+F28</f>
+        <v>85</v>
+      </c>
+      <c r="G29" s="32">
+        <f t="shared" si="3"/>
+        <v>70</v>
+      </c>
+      <c r="H29" s="23"/>
+      <c r="I29" s="9"/>
+      <c r="J29" s="27"/>
+      <c r="K29" s="9"/>
+      <c r="L29" s="9"/>
+      <c r="M29" s="9"/>
+      <c r="N29" s="27"/>
+      <c r="O29" s="9"/>
+      <c r="P29" s="9"/>
+      <c r="Q29" s="9"/>
+      <c r="R29" s="9"/>
+      <c r="S29" s="27"/>
+      <c r="T29" s="9"/>
+      <c r="U29" s="9"/>
+      <c r="V29" s="9"/>
+      <c r="W29" s="27"/>
+      <c r="X29" s="9"/>
+      <c r="Y29" s="9"/>
+      <c r="Z29" s="9"/>
+      <c r="AA29" s="27"/>
+      <c r="AB29" s="9"/>
+      <c r="AC29" s="37"/>
+      <c r="AD29" s="9"/>
+      <c r="AE29" s="27"/>
+      <c r="AF29" s="9"/>
+      <c r="AG29" s="9"/>
+      <c r="AH29" s="9"/>
+      <c r="AI29" s="9"/>
+      <c r="AJ29" s="27"/>
+      <c r="AK29" s="24"/>
+    </row>
+    <row r="30" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A30" s="45" t="s">
+        <v>36</v>
+      </c>
+      <c r="B30" s="45"/>
+      <c r="C30" s="45"/>
+      <c r="D30" s="46"/>
+      <c r="E30" s="2">
+        <v>15</v>
+      </c>
+      <c r="F30" s="2">
+        <v>15</v>
+      </c>
+      <c r="G30" s="19">
+        <v>20</v>
+      </c>
+      <c r="H30" s="4"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="26"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="26"/>
+      <c r="O30" s="1"/>
+      <c r="P30" s="1"/>
+      <c r="Q30" s="1"/>
+      <c r="R30" s="1"/>
+      <c r="S30" s="26"/>
+      <c r="T30" s="1"/>
+      <c r="U30" s="1"/>
+      <c r="V30" s="1"/>
+      <c r="W30" s="26"/>
+      <c r="X30" s="1"/>
+      <c r="Y30" s="1"/>
+      <c r="Z30" s="1"/>
+      <c r="AA30" s="26"/>
+      <c r="AB30" s="1"/>
+      <c r="AC30" s="17"/>
+      <c r="AD30" s="17"/>
+      <c r="AE30" s="41"/>
+      <c r="AF30" s="1"/>
+      <c r="AG30" s="1"/>
+      <c r="AH30" s="1"/>
+      <c r="AI30" s="1"/>
+      <c r="AJ30" s="26"/>
+      <c r="AK30" s="3"/>
+    </row>
+    <row r="31" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A31" s="45" t="s">
+        <v>37</v>
+      </c>
+      <c r="B31" s="45"/>
+      <c r="C31" s="45"/>
+      <c r="D31" s="46"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2">
+        <v>5</v>
+      </c>
+      <c r="H31" s="4"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="26"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="26"/>
+      <c r="O31" s="1"/>
+      <c r="P31" s="1"/>
+      <c r="Q31" s="1"/>
+      <c r="R31" s="1"/>
+      <c r="S31" s="26"/>
+      <c r="T31" s="1"/>
+      <c r="U31" s="1"/>
+      <c r="V31" s="1"/>
+      <c r="W31" s="26"/>
+      <c r="X31" s="1"/>
+      <c r="Y31" s="1"/>
+      <c r="Z31" s="1"/>
+      <c r="AA31" s="26"/>
+      <c r="AB31" s="1"/>
+      <c r="AC31" s="1"/>
+      <c r="AD31" s="1"/>
+      <c r="AE31" s="41"/>
+      <c r="AF31" s="1"/>
+      <c r="AG31" s="1"/>
+      <c r="AH31" s="1"/>
+      <c r="AI31" s="1"/>
+      <c r="AJ31" s="26"/>
+      <c r="AK31" s="3"/>
+    </row>
+    <row r="32" spans="1:37" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="61" t="s">
+        <v>38</v>
+      </c>
+      <c r="B32" s="61"/>
+      <c r="C32" s="61"/>
+      <c r="D32" s="62"/>
+      <c r="E32" s="34">
+        <f>E30+E31</f>
+        <v>15</v>
+      </c>
+      <c r="F32" s="32">
+        <f t="shared" ref="F32:G32" si="4">F30+F31</f>
+        <v>15</v>
+      </c>
+      <c r="G32" s="32">
+        <f t="shared" si="4"/>
+        <v>25</v>
+      </c>
+      <c r="H32" s="23"/>
+      <c r="I32" s="9"/>
+      <c r="J32" s="27"/>
+      <c r="K32" s="9"/>
+      <c r="L32" s="9"/>
+      <c r="M32" s="9"/>
+      <c r="N32" s="27"/>
+      <c r="O32" s="9"/>
+      <c r="P32" s="9"/>
+      <c r="Q32" s="9"/>
+      <c r="R32" s="9"/>
+      <c r="S32" s="27"/>
+      <c r="T32" s="9"/>
+      <c r="U32" s="9"/>
+      <c r="V32" s="9"/>
+      <c r="W32" s="27"/>
+      <c r="X32" s="9"/>
+      <c r="Y32" s="9"/>
+      <c r="Z32" s="9"/>
+      <c r="AA32" s="27"/>
+      <c r="AB32" s="9"/>
+      <c r="AC32" s="9"/>
+      <c r="AD32" s="9"/>
+      <c r="AE32" s="38"/>
+      <c r="AF32" s="42"/>
+      <c r="AG32" s="9"/>
+      <c r="AH32" s="9"/>
+      <c r="AI32" s="9"/>
+      <c r="AJ32" s="27"/>
+      <c r="AK32" s="24"/>
+    </row>
+    <row r="33" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A33" s="45" t="s">
+        <v>43</v>
+      </c>
+      <c r="B33" s="45"/>
+      <c r="C33" s="45"/>
+      <c r="D33" s="46"/>
+      <c r="E33" s="2">
+        <v>40</v>
+      </c>
+      <c r="F33" s="2">
+        <v>40</v>
+      </c>
+      <c r="G33" s="2">
+        <v>40</v>
+      </c>
+      <c r="H33" s="4"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="26"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+      <c r="N33" s="26"/>
+      <c r="O33" s="1"/>
+      <c r="P33" s="1"/>
+      <c r="Q33" s="1"/>
+      <c r="R33" s="1"/>
+      <c r="S33" s="26"/>
+      <c r="T33" s="1"/>
+      <c r="U33" s="1"/>
+      <c r="V33" s="1"/>
+      <c r="W33" s="26"/>
+      <c r="X33" s="1"/>
+      <c r="Y33" s="1"/>
+      <c r="Z33" s="1"/>
+      <c r="AA33" s="26"/>
+      <c r="AB33" s="1"/>
+      <c r="AC33" s="1"/>
+      <c r="AD33" s="1"/>
+      <c r="AE33" s="26"/>
+      <c r="AF33" s="1"/>
+      <c r="AG33" s="17"/>
+      <c r="AH33" s="17"/>
+      <c r="AI33" s="17"/>
+      <c r="AJ33" s="26"/>
+      <c r="AK33" s="3"/>
+    </row>
+    <row r="34" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A34" s="45" t="s">
+        <v>44</v>
+      </c>
+      <c r="B34" s="45"/>
+      <c r="C34" s="45"/>
+      <c r="D34" s="46"/>
+      <c r="E34" s="2">
+        <v>5</v>
+      </c>
+      <c r="F34" s="2">
+        <v>5</v>
+      </c>
+      <c r="G34" s="2">
+        <v>5</v>
+      </c>
+      <c r="H34" s="4"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="26"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
+      <c r="N34" s="26"/>
+      <c r="O34" s="1"/>
+      <c r="P34" s="1"/>
+      <c r="Q34" s="1"/>
+      <c r="R34" s="1"/>
+      <c r="S34" s="26"/>
+      <c r="T34" s="1"/>
+      <c r="U34" s="1"/>
+      <c r="V34" s="1"/>
+      <c r="W34" s="26"/>
+      <c r="X34" s="1"/>
+      <c r="Y34" s="1"/>
+      <c r="Z34" s="1"/>
+      <c r="AA34" s="26"/>
+      <c r="AB34" s="1"/>
+      <c r="AC34" s="1"/>
+      <c r="AD34" s="1"/>
+      <c r="AE34" s="26"/>
+      <c r="AF34" s="1"/>
+      <c r="AG34" s="1"/>
+      <c r="AH34" s="1"/>
+      <c r="AI34" s="1"/>
+      <c r="AJ34" s="41"/>
+      <c r="AK34" s="3"/>
+    </row>
+    <row r="35" spans="1:37" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="61" t="s">
+        <v>45</v>
+      </c>
+      <c r="B35" s="61"/>
+      <c r="C35" s="61"/>
+      <c r="D35" s="62"/>
+      <c r="E35" s="34">
+        <f>E33+E34</f>
+        <v>45</v>
+      </c>
+      <c r="F35" s="32">
+        <f t="shared" ref="F35:G35" si="5">F33+F34</f>
+        <v>45</v>
+      </c>
+      <c r="G35" s="32">
+        <f t="shared" si="5"/>
+        <v>45</v>
+      </c>
+      <c r="H35" s="23"/>
+      <c r="I35" s="9"/>
+      <c r="J35" s="27"/>
+      <c r="K35" s="9"/>
+      <c r="L35" s="9"/>
+      <c r="M35" s="9"/>
+      <c r="N35" s="27"/>
+      <c r="O35" s="9"/>
+      <c r="P35" s="9"/>
+      <c r="Q35" s="9"/>
+      <c r="R35" s="9"/>
+      <c r="S35" s="27"/>
+      <c r="T35" s="9"/>
+      <c r="U35" s="9"/>
+      <c r="V35" s="9"/>
+      <c r="W35" s="27"/>
+      <c r="X35" s="9"/>
+      <c r="Y35" s="9"/>
+      <c r="Z35" s="9"/>
+      <c r="AA35" s="27"/>
+      <c r="AB35" s="9"/>
+      <c r="AC35" s="9"/>
+      <c r="AD35" s="9"/>
+      <c r="AE35" s="27"/>
+      <c r="AF35" s="9"/>
+      <c r="AG35" s="9"/>
+      <c r="AH35" s="9"/>
+      <c r="AI35" s="9"/>
+      <c r="AJ35" s="40"/>
+      <c r="AK35" s="36"/>
+    </row>
+    <row r="36" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A36" s="64" t="s">
+        <v>46</v>
+      </c>
+      <c r="B36" s="64"/>
+      <c r="C36" s="64"/>
+      <c r="D36" s="65"/>
+      <c r="E36" s="35">
+        <f>E12+E15+E20+E29+E32+E35</f>
+        <v>185</v>
+      </c>
+      <c r="F36" s="35">
+        <f t="shared" ref="F36:G36" si="6">F12+F15+F20+F29+F32+F35</f>
+        <v>185</v>
+      </c>
+      <c r="G36" s="35">
+        <f t="shared" si="6"/>
+        <v>185</v>
+      </c>
+      <c r="H36" s="4"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="26"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+      <c r="M36" s="1"/>
+      <c r="N36" s="26"/>
+      <c r="O36" s="1"/>
+      <c r="P36" s="1"/>
+      <c r="Q36" s="1"/>
+      <c r="R36" s="1"/>
+      <c r="S36" s="26"/>
+      <c r="T36" s="1"/>
+      <c r="U36" s="1"/>
+      <c r="V36" s="1"/>
+      <c r="W36" s="26"/>
+      <c r="X36" s="1"/>
+      <c r="Y36" s="1"/>
+      <c r="Z36" s="1"/>
+      <c r="AA36" s="26"/>
+      <c r="AB36" s="1"/>
+      <c r="AC36" s="1"/>
+      <c r="AD36" s="1"/>
+      <c r="AE36" s="26"/>
+      <c r="AF36" s="1"/>
+      <c r="AG36" s="1"/>
+      <c r="AH36" s="1"/>
+      <c r="AI36" s="1"/>
+      <c r="AJ36" s="26"/>
+      <c r="AK36" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="46">
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A34:D34"/>
+    <mergeCell ref="A35:D35"/>
+    <mergeCell ref="A36:D36"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="A29:D29"/>
+    <mergeCell ref="A30:D30"/>
+    <mergeCell ref="A31:D31"/>
+    <mergeCell ref="A32:D32"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="A23:D23"/>
+    <mergeCell ref="A24:D24"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="AF5:AJ5"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="O5:S5"/>
+    <mergeCell ref="T5:W5"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="AJ4:AK4"/>
+    <mergeCell ref="A1:G3"/>
+    <mergeCell ref="V1:AA1"/>
+    <mergeCell ref="V2:AA2"/>
+    <mergeCell ref="V3:AA3"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="K5:N5"/>
+    <mergeCell ref="X5:AA5"/>
+    <mergeCell ref="AB5:AE5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CB8DCAA-6D0A-4CAB-9084-21E2434B6494}">
+  <dimension ref="A1:AK36"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AN18" sqref="AN18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="38" customWidth="1"/>
+    <col min="7" max="7" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="36" width="4.33203125" customWidth="1"/>
+    <col min="37" max="37" width="5.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="48" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="43"/>
+      <c r="N1" s="49" t="s">
+        <v>49</v>
+      </c>
+      <c r="O1" s="49"/>
+      <c r="P1" s="49"/>
+      <c r="Q1" s="49"/>
+      <c r="R1" s="49"/>
+      <c r="S1" s="49"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="14"/>
+      <c r="V1" s="49" t="s">
+        <v>48</v>
+      </c>
+      <c r="W1" s="49"/>
+      <c r="X1" s="49"/>
+      <c r="Y1" s="49"/>
+      <c r="Z1" s="49"/>
+      <c r="AA1" s="49"/>
+      <c r="AB1" s="1"/>
+      <c r="AC1" s="1"/>
+      <c r="AD1" s="1"/>
+      <c r="AE1" s="1"/>
+      <c r="AF1" s="1"/>
+      <c r="AG1" s="1"/>
+      <c r="AH1" s="1"/>
+      <c r="AI1" s="1"/>
+      <c r="AJ1" s="1"/>
+      <c r="AK1" s="1"/>
+    </row>
+    <row r="2" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="48"/>
+      <c r="B2" s="48"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="66"/>
+      <c r="O2" s="66"/>
+      <c r="P2" s="66"/>
+      <c r="Q2" s="66"/>
+      <c r="R2" s="66"/>
+      <c r="S2" s="66"/>
+      <c r="T2" s="1"/>
+      <c r="U2" s="15"/>
+      <c r="V2" s="49" t="s">
+        <v>15</v>
+      </c>
+      <c r="W2" s="49"/>
+      <c r="X2" s="49"/>
+      <c r="Y2" s="49"/>
+      <c r="Z2" s="49"/>
+      <c r="AA2" s="49"/>
+      <c r="AB2" s="1"/>
+      <c r="AC2" s="1"/>
+      <c r="AD2" s="1"/>
+      <c r="AE2" s="1"/>
+      <c r="AF2" s="1"/>
+      <c r="AG2" s="1"/>
+      <c r="AH2" s="1"/>
+      <c r="AI2" s="1"/>
+      <c r="AJ2" s="1"/>
+      <c r="AK2" s="1"/>
+    </row>
+    <row r="3" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="48"/>
+      <c r="B3" s="48"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="48"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="66"/>
+      <c r="O3" s="66"/>
+      <c r="P3" s="66"/>
+      <c r="Q3" s="66"/>
+      <c r="R3" s="66"/>
+      <c r="S3" s="66"/>
+      <c r="T3" s="1"/>
+      <c r="U3" s="17"/>
+      <c r="V3" s="49" t="s">
+        <v>47</v>
+      </c>
+      <c r="W3" s="49"/>
+      <c r="X3" s="49"/>
+      <c r="Y3" s="49"/>
+      <c r="Z3" s="49"/>
+      <c r="AA3" s="49"/>
+      <c r="AB3" s="1"/>
+      <c r="AC3" s="1"/>
+      <c r="AD3" s="1"/>
+      <c r="AE3" s="1"/>
+      <c r="AF3" s="1"/>
+      <c r="AG3" s="1"/>
+      <c r="AH3" s="1"/>
+      <c r="AI3" s="1"/>
+      <c r="AJ3" s="1"/>
+      <c r="AK3" s="1"/>
+    </row>
+    <row r="4" spans="1:37" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="12"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="50">
+        <v>45910</v>
+      </c>
+      <c r="I4" s="50"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="12"/>
+      <c r="M4" s="12"/>
+      <c r="N4" s="12"/>
+      <c r="O4" s="12"/>
+      <c r="P4" s="12"/>
+      <c r="Q4" s="12"/>
+      <c r="R4" s="12"/>
+      <c r="S4" s="12"/>
+      <c r="T4" s="12"/>
+      <c r="U4" s="12"/>
+      <c r="V4" s="12"/>
+      <c r="W4" s="12"/>
+      <c r="X4" s="12"/>
+      <c r="Y4" s="12"/>
+      <c r="Z4" s="12"/>
+      <c r="AA4" s="12"/>
+      <c r="AB4" s="12"/>
+      <c r="AC4" s="12"/>
+      <c r="AD4" s="12"/>
+      <c r="AE4" s="12"/>
+      <c r="AF4" s="12"/>
+      <c r="AG4" s="12"/>
+      <c r="AH4" s="12"/>
+      <c r="AI4" s="12"/>
+      <c r="AJ4" s="47">
+        <v>46119</v>
+      </c>
+      <c r="AK4" s="47"/>
+    </row>
+    <row r="5" spans="1:37" ht="17.399999999999999" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="51" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="51"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="52"/>
+      <c r="E5" s="51" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5" s="51"/>
+      <c r="G5" s="51"/>
+      <c r="H5" s="53" t="s">
+        <v>7</v>
+      </c>
+      <c r="I5" s="54"/>
+      <c r="J5" s="54"/>
+      <c r="K5" s="55" t="s">
+        <v>6</v>
+      </c>
+      <c r="L5" s="51"/>
+      <c r="M5" s="51"/>
+      <c r="N5" s="56"/>
+      <c r="O5" s="51" t="s">
+        <v>8</v>
+      </c>
+      <c r="P5" s="51"/>
+      <c r="Q5" s="51"/>
+      <c r="R5" s="51"/>
+      <c r="S5" s="56"/>
+      <c r="T5" s="51" t="s">
+        <v>9</v>
+      </c>
+      <c r="U5" s="51"/>
+      <c r="V5" s="51"/>
+      <c r="W5" s="56"/>
+      <c r="X5" s="51" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y5" s="51"/>
+      <c r="Z5" s="51"/>
+      <c r="AA5" s="56"/>
+      <c r="AB5" s="51" t="s">
+        <v>11</v>
+      </c>
+      <c r="AC5" s="51"/>
+      <c r="AD5" s="51"/>
+      <c r="AE5" s="56"/>
+      <c r="AF5" s="51" t="s">
+        <v>12</v>
+      </c>
+      <c r="AG5" s="51"/>
+      <c r="AH5" s="51"/>
+      <c r="AI5" s="51"/>
+      <c r="AJ5" s="56"/>
+      <c r="AK5" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:37" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="57" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="57"/>
+      <c r="C6" s="57"/>
+      <c r="D6" s="58"/>
+      <c r="E6" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G6" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="H6" s="6">
+        <v>37</v>
+      </c>
+      <c r="I6" s="7">
+        <v>38</v>
+      </c>
+      <c r="J6" s="8">
+        <v>39</v>
+      </c>
+      <c r="K6" s="7">
+        <v>40</v>
+      </c>
+      <c r="L6" s="7">
+        <v>41</v>
+      </c>
+      <c r="M6" s="7">
+        <v>42</v>
+      </c>
+      <c r="N6" s="8">
+        <v>43</v>
+      </c>
+      <c r="O6" s="7">
+        <v>44</v>
+      </c>
+      <c r="P6" s="7">
+        <v>45</v>
+      </c>
+      <c r="Q6" s="7">
+        <v>46</v>
+      </c>
+      <c r="R6" s="7">
+        <v>47</v>
+      </c>
+      <c r="S6" s="8">
+        <v>48</v>
+      </c>
+      <c r="T6" s="7">
+        <v>49</v>
+      </c>
+      <c r="U6" s="7">
+        <v>50</v>
+      </c>
+      <c r="V6" s="7">
+        <v>51</v>
+      </c>
+      <c r="W6" s="8">
+        <v>52</v>
+      </c>
+      <c r="X6" s="7">
+        <v>1</v>
+      </c>
+      <c r="Y6" s="7">
+        <v>2</v>
+      </c>
+      <c r="Z6" s="7">
+        <v>3</v>
+      </c>
+      <c r="AA6" s="8">
+        <v>4</v>
+      </c>
+      <c r="AB6" s="7">
+        <v>5</v>
+      </c>
+      <c r="AC6" s="7">
+        <v>6</v>
+      </c>
+      <c r="AD6" s="7">
+        <v>7</v>
+      </c>
+      <c r="AE6" s="8">
+        <v>8</v>
+      </c>
+      <c r="AF6" s="9">
+        <v>9</v>
+      </c>
+      <c r="AG6" s="9">
+        <v>10</v>
+      </c>
+      <c r="AH6" s="9">
+        <v>11</v>
+      </c>
+      <c r="AI6" s="9">
+        <v>12</v>
+      </c>
+      <c r="AJ6" s="10">
+        <v>13</v>
+      </c>
+      <c r="AK6" s="11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="59" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="59"/>
+      <c r="C7" s="59"/>
+      <c r="D7" s="60"/>
+      <c r="E7" s="20">
+        <v>2</v>
+      </c>
+      <c r="F7" s="21">
+        <v>2</v>
+      </c>
+      <c r="G7" s="22">
+        <v>2</v>
+      </c>
+      <c r="H7" s="29"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="25"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="25"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="25"/>
+      <c r="T7" s="1"/>
+      <c r="U7" s="1"/>
+      <c r="V7" s="1"/>
+      <c r="W7" s="13"/>
+      <c r="X7" s="28"/>
+      <c r="Y7" s="1"/>
+      <c r="Z7" s="1"/>
+      <c r="AA7" s="25"/>
+      <c r="AB7" s="1"/>
+      <c r="AC7" s="1"/>
+      <c r="AD7" s="1"/>
+      <c r="AE7" s="25"/>
+      <c r="AF7" s="1"/>
+      <c r="AG7" s="1"/>
+      <c r="AH7" s="1"/>
+      <c r="AI7" s="1"/>
+      <c r="AJ7" s="25"/>
+      <c r="AK7" s="3"/>
+    </row>
+    <row r="8" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="45" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="45"/>
+      <c r="C8" s="45"/>
+      <c r="D8" s="46"/>
+      <c r="E8" s="2">
+        <v>11</v>
+      </c>
+      <c r="F8" s="2">
+        <v>9</v>
+      </c>
+      <c r="G8" s="19">
+        <v>12</v>
+      </c>
+      <c r="H8" s="29"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="30"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="26"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1"/>
+      <c r="S8" s="26"/>
+      <c r="T8" s="1"/>
+      <c r="U8" s="1"/>
+      <c r="V8" s="1"/>
+      <c r="W8" s="26"/>
+      <c r="X8" s="1"/>
+      <c r="Y8" s="1"/>
+      <c r="Z8" s="1"/>
+      <c r="AA8" s="26"/>
+      <c r="AB8" s="1"/>
+      <c r="AC8" s="1"/>
+      <c r="AD8" s="1"/>
+      <c r="AE8" s="26"/>
+      <c r="AF8" s="1"/>
+      <c r="AG8" s="1"/>
+      <c r="AH8" s="1"/>
+      <c r="AI8" s="1"/>
+      <c r="AJ8" s="26"/>
+      <c r="AK8" s="3"/>
+    </row>
+    <row r="9" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="45" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="45"/>
+      <c r="C9" s="45"/>
+      <c r="D9" s="46"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2">
+        <v>4</v>
+      </c>
+      <c r="G9" s="19"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="30"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="26"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1"/>
+      <c r="S9" s="26"/>
+      <c r="T9" s="1"/>
+      <c r="U9" s="1"/>
+      <c r="V9" s="1"/>
+      <c r="W9" s="26"/>
+      <c r="X9" s="1"/>
+      <c r="Y9" s="1"/>
+      <c r="Z9" s="1"/>
+      <c r="AA9" s="26"/>
+      <c r="AB9" s="1"/>
+      <c r="AC9" s="1"/>
+      <c r="AD9" s="1"/>
+      <c r="AE9" s="26"/>
+      <c r="AF9" s="1"/>
+      <c r="AG9" s="1"/>
+      <c r="AH9" s="1"/>
+      <c r="AI9" s="1"/>
+      <c r="AJ9" s="26"/>
+      <c r="AK9" s="3"/>
+    </row>
+    <row r="10" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="45" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="45"/>
+      <c r="C10" s="45"/>
+      <c r="D10" s="46"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="19">
+        <v>2</v>
+      </c>
+      <c r="H10" s="4"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="30"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="26"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1"/>
+      <c r="S10" s="26"/>
+      <c r="T10" s="1"/>
+      <c r="U10" s="1"/>
+      <c r="V10" s="1"/>
+      <c r="W10" s="26"/>
+      <c r="X10" s="1"/>
+      <c r="Y10" s="1"/>
+      <c r="Z10" s="1"/>
+      <c r="AA10" s="26"/>
+      <c r="AB10" s="1"/>
+      <c r="AC10" s="1"/>
+      <c r="AD10" s="1"/>
+      <c r="AE10" s="26"/>
+      <c r="AF10" s="1"/>
+      <c r="AG10" s="1"/>
+      <c r="AH10" s="1"/>
+      <c r="AI10" s="1"/>
+      <c r="AJ10" s="26"/>
+      <c r="AK10" s="3"/>
+    </row>
+    <row r="11" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="45" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="45"/>
+      <c r="C11" s="45"/>
+      <c r="D11" s="46"/>
+      <c r="E11" s="2">
+        <v>3</v>
+      </c>
+      <c r="F11" s="2">
+        <v>1</v>
+      </c>
+      <c r="G11" s="19"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="30"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="26"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="1"/>
+      <c r="S11" s="26"/>
+      <c r="T11" s="1"/>
+      <c r="U11" s="1"/>
+      <c r="V11" s="1"/>
+      <c r="W11" s="26"/>
+      <c r="X11" s="1"/>
+      <c r="Y11" s="1"/>
+      <c r="Z11" s="1"/>
+      <c r="AA11" s="26"/>
+      <c r="AB11" s="1"/>
+      <c r="AC11" s="1"/>
+      <c r="AD11" s="1"/>
+      <c r="AE11" s="26"/>
+      <c r="AF11" s="1"/>
+      <c r="AG11" s="1"/>
+      <c r="AH11" s="1"/>
+      <c r="AI11" s="1"/>
+      <c r="AJ11" s="26"/>
+      <c r="AK11" s="3"/>
+    </row>
+    <row r="12" spans="1:37" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="61" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="61"/>
+      <c r="C12" s="61"/>
+      <c r="D12" s="62"/>
+      <c r="E12" s="32">
+        <f>E7+E8+E9+E10+E11</f>
+        <v>16</v>
+      </c>
+      <c r="F12" s="32">
+        <f t="shared" ref="F12:G12" si="0">F7+F8+F9+F10+F11</f>
+        <v>16</v>
+      </c>
+      <c r="G12" s="33">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="H12" s="23"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="31"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="27"/>
+      <c r="O12" s="9"/>
+      <c r="P12" s="9"/>
+      <c r="Q12" s="9"/>
+      <c r="R12" s="9"/>
+      <c r="S12" s="27"/>
+      <c r="T12" s="9"/>
+      <c r="U12" s="9"/>
+      <c r="V12" s="9"/>
+      <c r="W12" s="27"/>
+      <c r="X12" s="9"/>
+      <c r="Y12" s="9"/>
+      <c r="Z12" s="9"/>
+      <c r="AA12" s="27"/>
+      <c r="AB12" s="9"/>
+      <c r="AC12" s="9"/>
+      <c r="AD12" s="9"/>
+      <c r="AE12" s="27"/>
+      <c r="AF12" s="9"/>
+      <c r="AG12" s="9"/>
+      <c r="AH12" s="9"/>
+      <c r="AI12" s="9"/>
+      <c r="AJ12" s="27"/>
+      <c r="AK12" s="24"/>
+    </row>
+    <row r="13" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="45" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="45"/>
+      <c r="C13" s="45"/>
+      <c r="D13" s="46"/>
+      <c r="E13" s="18">
+        <v>2</v>
+      </c>
+      <c r="F13" s="2">
+        <v>2</v>
+      </c>
+      <c r="G13" s="19">
+        <v>2</v>
+      </c>
+      <c r="H13" s="29"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="26"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="26"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1"/>
+      <c r="R13" s="1"/>
+      <c r="S13" s="26"/>
+      <c r="T13" s="1"/>
+      <c r="U13" s="1"/>
+      <c r="V13" s="1"/>
+      <c r="W13" s="26"/>
+      <c r="X13" s="1"/>
+      <c r="Y13" s="1"/>
+      <c r="Z13" s="1"/>
+      <c r="AA13" s="26"/>
+      <c r="AB13" s="1"/>
+      <c r="AC13" s="1"/>
+      <c r="AD13" s="1"/>
+      <c r="AE13" s="26"/>
+      <c r="AF13" s="1"/>
+      <c r="AG13" s="1"/>
+      <c r="AH13" s="1"/>
+      <c r="AI13" s="1"/>
+      <c r="AJ13" s="26"/>
+      <c r="AK13" s="3"/>
+    </row>
+    <row r="14" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="45"/>
+      <c r="C14" s="45"/>
+      <c r="D14" s="46"/>
+      <c r="E14" s="2">
+        <v>2</v>
+      </c>
+      <c r="F14" s="2">
+        <v>2</v>
+      </c>
+      <c r="G14" s="19">
+        <v>2</v>
+      </c>
+      <c r="H14" s="4"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="26"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="26"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="1"/>
+      <c r="S14" s="26"/>
+      <c r="T14" s="1"/>
+      <c r="U14" s="1"/>
+      <c r="V14" s="1"/>
+      <c r="W14" s="26"/>
+      <c r="X14" s="1"/>
+      <c r="Y14" s="1"/>
+      <c r="Z14" s="1"/>
+      <c r="AA14" s="26"/>
+      <c r="AB14" s="1"/>
+      <c r="AC14" s="1"/>
+      <c r="AD14" s="1"/>
+      <c r="AE14" s="26"/>
+      <c r="AF14" s="1"/>
+      <c r="AG14" s="1"/>
+      <c r="AH14" s="1"/>
+      <c r="AI14" s="1"/>
+      <c r="AJ14" s="26"/>
+      <c r="AK14" s="3"/>
+    </row>
+    <row r="15" spans="1:37" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="61" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" s="61"/>
+      <c r="C15" s="61"/>
+      <c r="D15" s="62"/>
+      <c r="E15" s="32">
+        <f>E13+E14</f>
+        <v>4</v>
+      </c>
+      <c r="F15" s="32">
+        <f t="shared" ref="F15:G15" si="1">F13+F14</f>
+        <v>4</v>
+      </c>
+      <c r="G15" s="32">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="H15" s="23"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="31"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="9"/>
+      <c r="M15" s="9"/>
+      <c r="N15" s="27"/>
+      <c r="O15" s="9"/>
+      <c r="P15" s="9"/>
+      <c r="Q15" s="9"/>
+      <c r="R15" s="9"/>
+      <c r="S15" s="27"/>
+      <c r="T15" s="9"/>
+      <c r="U15" s="9"/>
+      <c r="V15" s="9"/>
+      <c r="W15" s="27"/>
+      <c r="X15" s="9"/>
+      <c r="Y15" s="9"/>
+      <c r="Z15" s="9"/>
+      <c r="AA15" s="27"/>
+      <c r="AB15" s="9"/>
+      <c r="AC15" s="9"/>
+      <c r="AD15" s="9"/>
+      <c r="AE15" s="27"/>
+      <c r="AF15" s="9"/>
+      <c r="AG15" s="9"/>
+      <c r="AH15" s="9"/>
+      <c r="AI15" s="9"/>
+      <c r="AJ15" s="27"/>
+      <c r="AK15" s="24"/>
+    </row>
+    <row r="16" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A16" s="45" t="s">
+        <v>50</v>
+      </c>
+      <c r="B16" s="45"/>
+      <c r="C16" s="45"/>
+      <c r="D16" s="46"/>
+      <c r="E16" s="2">
+        <v>3</v>
+      </c>
+      <c r="F16" s="2">
+        <v>3</v>
+      </c>
+      <c r="G16" s="19">
+        <v>3</v>
+      </c>
+      <c r="H16" s="4"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="44"/>
+      <c r="K16" s="14"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="26"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1"/>
+      <c r="R16" s="1"/>
+      <c r="S16" s="26"/>
+      <c r="T16" s="1"/>
+      <c r="U16" s="1"/>
+      <c r="V16" s="1"/>
+      <c r="W16" s="26"/>
+      <c r="X16" s="1"/>
+      <c r="Y16" s="1"/>
+      <c r="Z16" s="1"/>
+      <c r="AA16" s="26"/>
+      <c r="AB16" s="1"/>
+      <c r="AC16" s="1"/>
+      <c r="AD16" s="1"/>
+      <c r="AE16" s="26"/>
+      <c r="AF16" s="1"/>
+      <c r="AG16" s="1"/>
+      <c r="AH16" s="1"/>
+      <c r="AI16" s="1"/>
+      <c r="AJ16" s="26"/>
+      <c r="AK16" s="3"/>
+    </row>
+    <row r="17" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A17" s="45" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" s="45"/>
+      <c r="C17" s="45"/>
+      <c r="D17" s="46"/>
+      <c r="E17" s="2">
+        <v>4</v>
+      </c>
+      <c r="F17" s="2">
+        <v>15</v>
+      </c>
+      <c r="G17" s="19"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="26"/>
+      <c r="K17" s="14"/>
+      <c r="L17" s="14"/>
+      <c r="M17" s="14"/>
+      <c r="N17" s="39"/>
+      <c r="O17" s="15"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1"/>
+      <c r="R17" s="1"/>
+      <c r="S17" s="26"/>
+      <c r="T17" s="1"/>
+      <c r="U17" s="1"/>
+      <c r="V17" s="1"/>
+      <c r="W17" s="26"/>
+      <c r="X17" s="1"/>
+      <c r="Y17" s="1"/>
+      <c r="Z17" s="1"/>
+      <c r="AA17" s="26"/>
+      <c r="AB17" s="1"/>
+      <c r="AC17" s="1"/>
+      <c r="AD17" s="1"/>
+      <c r="AE17" s="26"/>
+      <c r="AF17" s="1"/>
+      <c r="AG17" s="1"/>
+      <c r="AH17" s="1"/>
+      <c r="AI17" s="1"/>
+      <c r="AJ17" s="26"/>
+      <c r="AK17" s="3"/>
+    </row>
+    <row r="18" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A18" s="45" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" s="45"/>
+      <c r="C18" s="45"/>
+      <c r="D18" s="46"/>
+      <c r="E18" s="2">
+        <v>10</v>
+      </c>
+      <c r="F18" s="2">
+        <v>2</v>
+      </c>
+      <c r="G18" s="19">
+        <v>10</v>
+      </c>
+      <c r="H18" s="4"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="26"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="14"/>
+      <c r="M18" s="14"/>
+      <c r="N18" s="39"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="1"/>
+      <c r="R18" s="1"/>
+      <c r="S18" s="26"/>
+      <c r="T18" s="1"/>
+      <c r="U18" s="1"/>
+      <c r="V18" s="1"/>
+      <c r="W18" s="26"/>
+      <c r="X18" s="1"/>
+      <c r="Y18" s="1"/>
+      <c r="Z18" s="1"/>
+      <c r="AA18" s="26"/>
+      <c r="AB18" s="1"/>
+      <c r="AC18" s="1"/>
+      <c r="AD18" s="1"/>
+      <c r="AE18" s="26"/>
+      <c r="AF18" s="1"/>
+      <c r="AG18" s="1"/>
+      <c r="AH18" s="1"/>
+      <c r="AI18" s="1"/>
+      <c r="AJ18" s="26"/>
+      <c r="AK18" s="3"/>
+    </row>
+    <row r="19" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A19" s="45" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" s="45"/>
+      <c r="C19" s="45"/>
+      <c r="D19" s="46"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="19">
+        <v>12</v>
+      </c>
+      <c r="H19" s="4"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="26"/>
+      <c r="K19" s="14"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="30"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="1"/>
+      <c r="R19" s="1"/>
+      <c r="S19" s="26"/>
+      <c r="T19" s="1"/>
+      <c r="U19" s="1"/>
+      <c r="V19" s="1"/>
+      <c r="W19" s="26"/>
+      <c r="X19" s="1"/>
+      <c r="Y19" s="1"/>
+      <c r="Z19" s="1"/>
+      <c r="AA19" s="26"/>
+      <c r="AB19" s="1"/>
+      <c r="AC19" s="1"/>
+      <c r="AD19" s="1"/>
+      <c r="AE19" s="26"/>
+      <c r="AF19" s="1"/>
+      <c r="AG19" s="1"/>
+      <c r="AH19" s="1"/>
+      <c r="AI19" s="1"/>
+      <c r="AJ19" s="26"/>
+      <c r="AK19" s="3"/>
+    </row>
+    <row r="20" spans="1:37" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="63" t="s">
+        <v>42</v>
+      </c>
+      <c r="B20" s="63"/>
+      <c r="C20" s="63"/>
+      <c r="D20" s="63"/>
+      <c r="E20" s="34">
+        <f>E16+E17+E18+E19</f>
+        <v>17</v>
+      </c>
+      <c r="F20" s="34">
+        <f t="shared" ref="F20:G20" si="2">F16+F17+F18+F19</f>
+        <v>20</v>
+      </c>
+      <c r="G20" s="34">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="H20" s="23"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="27"/>
+      <c r="K20" s="9"/>
+      <c r="L20" s="9"/>
+      <c r="M20" s="9"/>
+      <c r="N20" s="27"/>
+      <c r="O20" s="67"/>
+      <c r="P20" s="9"/>
+      <c r="Q20" s="9"/>
+      <c r="R20" s="9"/>
+      <c r="S20" s="27"/>
+      <c r="T20" s="9"/>
+      <c r="U20" s="9"/>
+      <c r="V20" s="9"/>
+      <c r="W20" s="27"/>
+      <c r="X20" s="9"/>
+      <c r="Y20" s="9"/>
+      <c r="Z20" s="9"/>
+      <c r="AA20" s="27"/>
+      <c r="AB20" s="9"/>
+      <c r="AC20" s="9"/>
+      <c r="AD20" s="9"/>
+      <c r="AE20" s="27"/>
+      <c r="AF20" s="9"/>
+      <c r="AG20" s="9"/>
+      <c r="AH20" s="9"/>
+      <c r="AI20" s="9"/>
+      <c r="AJ20" s="27"/>
+      <c r="AK20" s="24"/>
+    </row>
+    <row r="21" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A21" s="59" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" s="59"/>
+      <c r="C21" s="59"/>
+      <c r="D21" s="60"/>
+      <c r="E21" s="18">
+        <v>13</v>
+      </c>
+      <c r="F21" s="2">
+        <v>30</v>
+      </c>
+      <c r="G21" s="19"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="26"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="26"/>
+      <c r="O21" s="14"/>
+      <c r="P21" s="14"/>
+      <c r="Q21" s="14"/>
+      <c r="R21" s="14"/>
+      <c r="S21" s="44"/>
+      <c r="T21" s="43"/>
+      <c r="U21" s="43"/>
+      <c r="V21" s="43"/>
+      <c r="W21" s="26"/>
+      <c r="X21" s="1"/>
+      <c r="Y21" s="1"/>
+      <c r="Z21" s="1"/>
+      <c r="AA21" s="26"/>
+      <c r="AB21" s="1"/>
+      <c r="AC21" s="1"/>
+      <c r="AD21" s="1"/>
+      <c r="AE21" s="26"/>
+      <c r="AF21" s="1"/>
+      <c r="AG21" s="1"/>
+      <c r="AH21" s="1"/>
+      <c r="AI21" s="1"/>
+      <c r="AJ21" s="26"/>
+      <c r="AK21" s="3"/>
+    </row>
+    <row r="22" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A22" s="45" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22" s="45"/>
+      <c r="C22" s="45"/>
+      <c r="D22" s="46"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="19">
+        <v>5</v>
+      </c>
+      <c r="H22" s="4"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="26"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="26"/>
+      <c r="O22" s="14"/>
+      <c r="P22" s="1"/>
+      <c r="Q22" s="1"/>
+      <c r="R22" s="1"/>
+      <c r="S22" s="26"/>
+      <c r="T22" s="1"/>
+      <c r="U22" s="1"/>
+      <c r="V22" s="1"/>
+      <c r="W22" s="26"/>
+      <c r="X22" s="1"/>
+      <c r="Y22" s="1"/>
+      <c r="Z22" s="1"/>
+      <c r="AA22" s="26"/>
+      <c r="AB22" s="1"/>
+      <c r="AC22" s="1"/>
+      <c r="AD22" s="1"/>
+      <c r="AE22" s="26"/>
+      <c r="AF22" s="1"/>
+      <c r="AG22" s="1"/>
+      <c r="AH22" s="1"/>
+      <c r="AI22" s="1"/>
+      <c r="AJ22" s="26"/>
+      <c r="AK22" s="3"/>
+    </row>
+    <row r="23" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A23" s="45" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23" s="45"/>
+      <c r="C23" s="45"/>
+      <c r="D23" s="46"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="19">
+        <v>10</v>
+      </c>
+      <c r="H23" s="4"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="26"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="26"/>
+      <c r="O23" s="1"/>
+      <c r="P23" s="14"/>
+      <c r="Q23" s="1"/>
+      <c r="R23" s="1"/>
+      <c r="S23" s="26"/>
+      <c r="T23" s="1"/>
+      <c r="U23" s="1"/>
+      <c r="V23" s="1"/>
+      <c r="W23" s="26"/>
+      <c r="X23" s="1"/>
+      <c r="Y23" s="1"/>
+      <c r="Z23" s="1"/>
+      <c r="AA23" s="26"/>
+      <c r="AB23" s="1"/>
+      <c r="AC23" s="1"/>
+      <c r="AD23" s="1"/>
+      <c r="AE23" s="26"/>
+      <c r="AF23" s="1"/>
+      <c r="AG23" s="1"/>
+      <c r="AH23" s="1"/>
+      <c r="AI23" s="1"/>
+      <c r="AJ23" s="26"/>
+      <c r="AK23" s="3"/>
+    </row>
+    <row r="24" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A24" s="45" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24" s="45"/>
+      <c r="C24" s="45"/>
+      <c r="D24" s="46"/>
+      <c r="E24" s="2">
+        <v>20</v>
+      </c>
+      <c r="F24" s="2"/>
+      <c r="G24" s="19">
+        <v>10</v>
+      </c>
+      <c r="H24" s="4"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="26"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="26"/>
+      <c r="O24" s="1"/>
+      <c r="P24" s="1"/>
+      <c r="Q24" s="14"/>
+      <c r="R24" s="14"/>
+      <c r="S24" s="30"/>
+      <c r="T24" s="68"/>
+      <c r="U24" s="69"/>
+      <c r="V24" s="1"/>
+      <c r="W24" s="26"/>
+      <c r="X24" s="1"/>
+      <c r="Y24" s="1"/>
+      <c r="Z24" s="1"/>
+      <c r="AA24" s="26"/>
+      <c r="AB24" s="1"/>
+      <c r="AC24" s="1"/>
+      <c r="AD24" s="1"/>
+      <c r="AE24" s="26"/>
+      <c r="AF24" s="1"/>
+      <c r="AG24" s="1"/>
+      <c r="AH24" s="1"/>
+      <c r="AI24" s="1"/>
+      <c r="AJ24" s="26"/>
+      <c r="AK24" s="3"/>
+    </row>
+    <row r="25" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A25" s="45" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25" s="45"/>
+      <c r="C25" s="45"/>
+      <c r="D25" s="46"/>
+      <c r="E25" s="2">
+        <v>5</v>
+      </c>
+      <c r="F25" s="2">
+        <v>5</v>
+      </c>
+      <c r="G25" s="19">
+        <v>5</v>
+      </c>
+      <c r="H25" s="4"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="26"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="26"/>
+      <c r="O25" s="1"/>
+      <c r="P25" s="1"/>
+      <c r="Q25" s="1"/>
+      <c r="R25" s="1"/>
+      <c r="S25" s="30"/>
+      <c r="T25" s="1"/>
+      <c r="U25" s="1"/>
+      <c r="V25" s="1"/>
+      <c r="W25" s="26"/>
+      <c r="X25" s="1"/>
+      <c r="Y25" s="1"/>
+      <c r="Z25" s="1"/>
+      <c r="AA25" s="26"/>
+      <c r="AB25" s="1"/>
+      <c r="AC25" s="1"/>
+      <c r="AD25" s="1"/>
+      <c r="AE25" s="26"/>
+      <c r="AF25" s="1"/>
+      <c r="AG25" s="1"/>
+      <c r="AH25" s="1"/>
+      <c r="AI25" s="1"/>
+      <c r="AJ25" s="26"/>
+      <c r="AK25" s="3"/>
+    </row>
+    <row r="26" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A26" s="45" t="s">
+        <v>41</v>
+      </c>
+      <c r="B26" s="45"/>
+      <c r="C26" s="45"/>
+      <c r="D26" s="46"/>
       <c r="E26" s="2">
         <v>40</v>
       </c>
@@ -2265,13 +4078,13 @@
       <c r="AJ26" s="26"/>
       <c r="AK26" s="3"/>
     </row>
-    <row r="27" spans="1:37" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A27" s="46" t="s">
+    <row r="27" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A27" s="45" t="s">
         <v>34</v>
       </c>
-      <c r="B27" s="46"/>
-      <c r="C27" s="46"/>
-      <c r="D27" s="47"/>
+      <c r="B27" s="45"/>
+      <c r="C27" s="45"/>
+      <c r="D27" s="46"/>
       <c r="E27" s="2">
         <v>5</v>
       </c>
@@ -2312,13 +4125,13 @@
       <c r="AJ27" s="26"/>
       <c r="AK27" s="3"/>
     </row>
-    <row r="28" spans="1:37" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A28" s="46" t="s">
+    <row r="28" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A28" s="45" t="s">
         <v>35</v>
       </c>
-      <c r="B28" s="46"/>
-      <c r="C28" s="46"/>
-      <c r="D28" s="47"/>
+      <c r="B28" s="45"/>
+      <c r="C28" s="45"/>
+      <c r="D28" s="46"/>
       <c r="E28" s="2">
         <v>5</v>
       </c>
@@ -2359,13 +4172,13 @@
       <c r="AJ28" s="26"/>
       <c r="AK28" s="3"/>
     </row>
-    <row r="29" spans="1:37" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="48" t="s">
+    <row r="29" spans="1:37" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="61" t="s">
         <v>39</v>
       </c>
-      <c r="B29" s="48"/>
-      <c r="C29" s="48"/>
-      <c r="D29" s="49"/>
+      <c r="B29" s="61"/>
+      <c r="C29" s="61"/>
+      <c r="D29" s="62"/>
       <c r="E29" s="32">
         <f>E21+E22+E23+E24+E25+E26+E27+E28</f>
         <v>88</v>
@@ -2409,13 +4222,13 @@
       <c r="AJ29" s="27"/>
       <c r="AK29" s="24"/>
     </row>
-    <row r="30" spans="1:37" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A30" s="46" t="s">
+    <row r="30" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A30" s="45" t="s">
         <v>36</v>
       </c>
-      <c r="B30" s="46"/>
-      <c r="C30" s="46"/>
-      <c r="D30" s="47"/>
+      <c r="B30" s="45"/>
+      <c r="C30" s="45"/>
+      <c r="D30" s="46"/>
       <c r="E30" s="2">
         <v>15</v>
       </c>
@@ -2456,13 +4269,13 @@
       <c r="AJ30" s="26"/>
       <c r="AK30" s="3"/>
     </row>
-    <row r="31" spans="1:37" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A31" s="46" t="s">
+    <row r="31" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A31" s="45" t="s">
         <v>37</v>
       </c>
-      <c r="B31" s="46"/>
-      <c r="C31" s="46"/>
-      <c r="D31" s="47"/>
+      <c r="B31" s="45"/>
+      <c r="C31" s="45"/>
+      <c r="D31" s="46"/>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
       <c r="G31" s="2">
@@ -2499,13 +4312,13 @@
       <c r="AJ31" s="26"/>
       <c r="AK31" s="3"/>
     </row>
-    <row r="32" spans="1:37" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A32" s="48" t="s">
+    <row r="32" spans="1:37" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="61" t="s">
         <v>38</v>
       </c>
-      <c r="B32" s="48"/>
-      <c r="C32" s="48"/>
-      <c r="D32" s="49"/>
+      <c r="B32" s="61"/>
+      <c r="C32" s="61"/>
+      <c r="D32" s="62"/>
       <c r="E32" s="34">
         <f>E30+E31</f>
         <v>15</v>
@@ -2549,13 +4362,13 @@
       <c r="AJ32" s="27"/>
       <c r="AK32" s="24"/>
     </row>
-    <row r="33" spans="1:37" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A33" s="46" t="s">
+    <row r="33" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A33" s="45" t="s">
         <v>43</v>
       </c>
-      <c r="B33" s="46"/>
-      <c r="C33" s="46"/>
-      <c r="D33" s="47"/>
+      <c r="B33" s="45"/>
+      <c r="C33" s="45"/>
+      <c r="D33" s="46"/>
       <c r="E33" s="2">
         <v>40</v>
       </c>
@@ -2596,13 +4409,13 @@
       <c r="AJ33" s="26"/>
       <c r="AK33" s="3"/>
     </row>
-    <row r="34" spans="1:37" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A34" s="46" t="s">
+    <row r="34" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A34" s="45" t="s">
         <v>44</v>
       </c>
-      <c r="B34" s="46"/>
-      <c r="C34" s="46"/>
-      <c r="D34" s="47"/>
+      <c r="B34" s="45"/>
+      <c r="C34" s="45"/>
+      <c r="D34" s="46"/>
       <c r="E34" s="2">
         <v>5</v>
       </c>
@@ -2643,13 +4456,13 @@
       <c r="AJ34" s="41"/>
       <c r="AK34" s="3"/>
     </row>
-    <row r="35" spans="1:37" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A35" s="48" t="s">
+    <row r="35" spans="1:37" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="61" t="s">
         <v>45</v>
       </c>
-      <c r="B35" s="48"/>
-      <c r="C35" s="48"/>
-      <c r="D35" s="49"/>
+      <c r="B35" s="61"/>
+      <c r="C35" s="61"/>
+      <c r="D35" s="62"/>
       <c r="E35" s="34">
         <f>E33+E34</f>
         <v>45</v>
@@ -2693,13 +4506,13 @@
       <c r="AJ35" s="40"/>
       <c r="AK35" s="36"/>
     </row>
-    <row r="36" spans="1:37" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A36" s="50" t="s">
+    <row r="36" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A36" s="64" t="s">
         <v>46</v>
       </c>
-      <c r="B36" s="50"/>
-      <c r="C36" s="50"/>
-      <c r="D36" s="51"/>
+      <c r="B36" s="64"/>
+      <c r="C36" s="64"/>
+      <c r="D36" s="65"/>
       <c r="E36" s="35">
         <f>E12+E15+E20+E29+E32+E35</f>
         <v>185</v>
@@ -2744,11 +4557,14 @@
       <c r="AK36" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="46">
+  <mergeCells count="49">
     <mergeCell ref="A9:D9"/>
     <mergeCell ref="A10:D10"/>
     <mergeCell ref="A11:D11"/>
     <mergeCell ref="AJ4:AK4"/>
+    <mergeCell ref="N1:S1"/>
+    <mergeCell ref="N2:S2"/>
+    <mergeCell ref="N3:S3"/>
     <mergeCell ref="A1:G3"/>
     <mergeCell ref="V1:AA1"/>
     <mergeCell ref="V2:AA2"/>
@@ -2794,1810 +4610,4 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CB8DCAA-6D0A-4CAB-9084-21E2434B6494}">
-  <dimension ref="A1:AK36"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P13" sqref="P13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="7" max="7" width="13.54296875" bestFit="1" customWidth="1"/>
-    <col min="8" max="36" width="4.36328125" customWidth="1"/>
-    <col min="37" max="37" width="5.81640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:37" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="60" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="44"/>
-      <c r="N1" s="61" t="s">
-        <v>49</v>
-      </c>
-      <c r="O1" s="61"/>
-      <c r="P1" s="61"/>
-      <c r="Q1" s="61"/>
-      <c r="R1" s="61"/>
-      <c r="S1" s="61"/>
-      <c r="T1" s="1"/>
-      <c r="U1" s="14"/>
-      <c r="V1" s="61" t="s">
-        <v>48</v>
-      </c>
-      <c r="W1" s="61"/>
-      <c r="X1" s="61"/>
-      <c r="Y1" s="61"/>
-      <c r="Z1" s="61"/>
-      <c r="AA1" s="61"/>
-      <c r="AB1" s="1"/>
-      <c r="AC1" s="1"/>
-      <c r="AD1" s="1"/>
-      <c r="AE1" s="1"/>
-      <c r="AF1" s="1"/>
-      <c r="AG1" s="1"/>
-      <c r="AH1" s="1"/>
-      <c r="AI1" s="1"/>
-      <c r="AJ1" s="1"/>
-      <c r="AK1" s="1"/>
-    </row>
-    <row r="2" spans="1:37" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="60"/>
-      <c r="B2" s="60"/>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="67"/>
-      <c r="O2" s="67"/>
-      <c r="P2" s="67"/>
-      <c r="Q2" s="67"/>
-      <c r="R2" s="67"/>
-      <c r="S2" s="67"/>
-      <c r="T2" s="1"/>
-      <c r="U2" s="15"/>
-      <c r="V2" s="61" t="s">
-        <v>15</v>
-      </c>
-      <c r="W2" s="61"/>
-      <c r="X2" s="61"/>
-      <c r="Y2" s="61"/>
-      <c r="Z2" s="61"/>
-      <c r="AA2" s="61"/>
-      <c r="AB2" s="1"/>
-      <c r="AC2" s="1"/>
-      <c r="AD2" s="1"/>
-      <c r="AE2" s="1"/>
-      <c r="AF2" s="1"/>
-      <c r="AG2" s="1"/>
-      <c r="AH2" s="1"/>
-      <c r="AI2" s="1"/>
-      <c r="AJ2" s="1"/>
-      <c r="AK2" s="1"/>
-    </row>
-    <row r="3" spans="1:37" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="60"/>
-      <c r="B3" s="60"/>
-      <c r="C3" s="60"/>
-      <c r="D3" s="60"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="67"/>
-      <c r="O3" s="67"/>
-      <c r="P3" s="67"/>
-      <c r="Q3" s="67"/>
-      <c r="R3" s="67"/>
-      <c r="S3" s="67"/>
-      <c r="T3" s="1"/>
-      <c r="U3" s="17"/>
-      <c r="V3" s="61" t="s">
-        <v>47</v>
-      </c>
-      <c r="W3" s="61"/>
-      <c r="X3" s="61"/>
-      <c r="Y3" s="61"/>
-      <c r="Z3" s="61"/>
-      <c r="AA3" s="61"/>
-      <c r="AB3" s="1"/>
-      <c r="AC3" s="1"/>
-      <c r="AD3" s="1"/>
-      <c r="AE3" s="1"/>
-      <c r="AF3" s="1"/>
-      <c r="AG3" s="1"/>
-      <c r="AH3" s="1"/>
-      <c r="AI3" s="1"/>
-      <c r="AJ3" s="1"/>
-      <c r="AK3" s="1"/>
-    </row>
-    <row r="4" spans="1:37" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="12"/>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="62">
-        <v>45910</v>
-      </c>
-      <c r="I4" s="62"/>
-      <c r="J4" s="16"/>
-      <c r="K4" s="12"/>
-      <c r="L4" s="12"/>
-      <c r="M4" s="12"/>
-      <c r="N4" s="12"/>
-      <c r="O4" s="12"/>
-      <c r="P4" s="12"/>
-      <c r="Q4" s="12"/>
-      <c r="R4" s="12"/>
-      <c r="S4" s="12"/>
-      <c r="T4" s="12"/>
-      <c r="U4" s="12"/>
-      <c r="V4" s="12"/>
-      <c r="W4" s="12"/>
-      <c r="X4" s="12"/>
-      <c r="Y4" s="12"/>
-      <c r="Z4" s="12"/>
-      <c r="AA4" s="12"/>
-      <c r="AB4" s="12"/>
-      <c r="AC4" s="12"/>
-      <c r="AD4" s="12"/>
-      <c r="AE4" s="12"/>
-      <c r="AF4" s="12"/>
-      <c r="AG4" s="12"/>
-      <c r="AH4" s="12"/>
-      <c r="AI4" s="12"/>
-      <c r="AJ4" s="59">
-        <v>46119</v>
-      </c>
-      <c r="AK4" s="59"/>
-    </row>
-    <row r="5" spans="1:37" ht="17" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="55" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="55"/>
-      <c r="C5" s="55"/>
-      <c r="D5" s="63"/>
-      <c r="E5" s="55" t="s">
-        <v>2</v>
-      </c>
-      <c r="F5" s="55"/>
-      <c r="G5" s="55"/>
-      <c r="H5" s="64" t="s">
-        <v>7</v>
-      </c>
-      <c r="I5" s="65"/>
-      <c r="J5" s="65"/>
-      <c r="K5" s="66" t="s">
-        <v>6</v>
-      </c>
-      <c r="L5" s="55"/>
-      <c r="M5" s="55"/>
-      <c r="N5" s="56"/>
-      <c r="O5" s="55" t="s">
-        <v>8</v>
-      </c>
-      <c r="P5" s="55"/>
-      <c r="Q5" s="55"/>
-      <c r="R5" s="55"/>
-      <c r="S5" s="56"/>
-      <c r="T5" s="55" t="s">
-        <v>9</v>
-      </c>
-      <c r="U5" s="55"/>
-      <c r="V5" s="55"/>
-      <c r="W5" s="56"/>
-      <c r="X5" s="55" t="s">
-        <v>10</v>
-      </c>
-      <c r="Y5" s="55"/>
-      <c r="Z5" s="55"/>
-      <c r="AA5" s="56"/>
-      <c r="AB5" s="55" t="s">
-        <v>11</v>
-      </c>
-      <c r="AC5" s="55"/>
-      <c r="AD5" s="55"/>
-      <c r="AE5" s="56"/>
-      <c r="AF5" s="55" t="s">
-        <v>12</v>
-      </c>
-      <c r="AG5" s="55"/>
-      <c r="AH5" s="55"/>
-      <c r="AI5" s="55"/>
-      <c r="AJ5" s="56"/>
-      <c r="AK5" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:37" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="57" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="57"/>
-      <c r="C6" s="57"/>
-      <c r="D6" s="58"/>
-      <c r="E6" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G6" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="H6" s="6">
-        <v>37</v>
-      </c>
-      <c r="I6" s="7">
-        <v>38</v>
-      </c>
-      <c r="J6" s="8">
-        <v>39</v>
-      </c>
-      <c r="K6" s="7">
-        <v>40</v>
-      </c>
-      <c r="L6" s="7">
-        <v>41</v>
-      </c>
-      <c r="M6" s="7">
-        <v>42</v>
-      </c>
-      <c r="N6" s="8">
-        <v>43</v>
-      </c>
-      <c r="O6" s="7">
-        <v>44</v>
-      </c>
-      <c r="P6" s="7">
-        <v>45</v>
-      </c>
-      <c r="Q6" s="7">
-        <v>46</v>
-      </c>
-      <c r="R6" s="7">
-        <v>47</v>
-      </c>
-      <c r="S6" s="8">
-        <v>48</v>
-      </c>
-      <c r="T6" s="7">
-        <v>49</v>
-      </c>
-      <c r="U6" s="7">
-        <v>50</v>
-      </c>
-      <c r="V6" s="7">
-        <v>51</v>
-      </c>
-      <c r="W6" s="8">
-        <v>52</v>
-      </c>
-      <c r="X6" s="7">
-        <v>1</v>
-      </c>
-      <c r="Y6" s="7">
-        <v>2</v>
-      </c>
-      <c r="Z6" s="7">
-        <v>3</v>
-      </c>
-      <c r="AA6" s="8">
-        <v>4</v>
-      </c>
-      <c r="AB6" s="7">
-        <v>5</v>
-      </c>
-      <c r="AC6" s="7">
-        <v>6</v>
-      </c>
-      <c r="AD6" s="7">
-        <v>7</v>
-      </c>
-      <c r="AE6" s="8">
-        <v>8</v>
-      </c>
-      <c r="AF6" s="9">
-        <v>9</v>
-      </c>
-      <c r="AG6" s="9">
-        <v>10</v>
-      </c>
-      <c r="AH6" s="9">
-        <v>11</v>
-      </c>
-      <c r="AI6" s="9">
-        <v>12</v>
-      </c>
-      <c r="AJ6" s="10">
-        <v>13</v>
-      </c>
-      <c r="AK6" s="11">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:37" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="53" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="53"/>
-      <c r="C7" s="53"/>
-      <c r="D7" s="54"/>
-      <c r="E7" s="20">
-        <v>2</v>
-      </c>
-      <c r="F7" s="21">
-        <v>2</v>
-      </c>
-      <c r="G7" s="22">
-        <v>2</v>
-      </c>
-      <c r="H7" s="29"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="25"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="25"/>
-      <c r="O7" s="1"/>
-      <c r="P7" s="1"/>
-      <c r="Q7" s="1"/>
-      <c r="R7" s="1"/>
-      <c r="S7" s="25"/>
-      <c r="T7" s="1"/>
-      <c r="U7" s="1"/>
-      <c r="V7" s="1"/>
-      <c r="W7" s="13"/>
-      <c r="X7" s="28"/>
-      <c r="Y7" s="1"/>
-      <c r="Z7" s="1"/>
-      <c r="AA7" s="25"/>
-      <c r="AB7" s="1"/>
-      <c r="AC7" s="1"/>
-      <c r="AD7" s="1"/>
-      <c r="AE7" s="25"/>
-      <c r="AF7" s="1"/>
-      <c r="AG7" s="1"/>
-      <c r="AH7" s="1"/>
-      <c r="AI7" s="1"/>
-      <c r="AJ7" s="25"/>
-      <c r="AK7" s="3"/>
-    </row>
-    <row r="8" spans="1:37" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="46" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="46"/>
-      <c r="C8" s="46"/>
-      <c r="D8" s="47"/>
-      <c r="E8" s="2">
-        <v>11</v>
-      </c>
-      <c r="F8" s="2">
-        <v>9</v>
-      </c>
-      <c r="G8" s="19">
-        <v>12</v>
-      </c>
-      <c r="H8" s="29"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="30"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="26"/>
-      <c r="O8" s="1"/>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="1"/>
-      <c r="R8" s="1"/>
-      <c r="S8" s="26"/>
-      <c r="T8" s="1"/>
-      <c r="U8" s="1"/>
-      <c r="V8" s="1"/>
-      <c r="W8" s="26"/>
-      <c r="X8" s="1"/>
-      <c r="Y8" s="1"/>
-      <c r="Z8" s="1"/>
-      <c r="AA8" s="26"/>
-      <c r="AB8" s="1"/>
-      <c r="AC8" s="1"/>
-      <c r="AD8" s="1"/>
-      <c r="AE8" s="26"/>
-      <c r="AF8" s="1"/>
-      <c r="AG8" s="1"/>
-      <c r="AH8" s="1"/>
-      <c r="AI8" s="1"/>
-      <c r="AJ8" s="26"/>
-      <c r="AK8" s="3"/>
-    </row>
-    <row r="9" spans="1:37" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="46" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="46"/>
-      <c r="C9" s="46"/>
-      <c r="D9" s="47"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2">
-        <v>4</v>
-      </c>
-      <c r="G9" s="19"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="30"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="26"/>
-      <c r="O9" s="1"/>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="1"/>
-      <c r="R9" s="1"/>
-      <c r="S9" s="26"/>
-      <c r="T9" s="1"/>
-      <c r="U9" s="1"/>
-      <c r="V9" s="1"/>
-      <c r="W9" s="26"/>
-      <c r="X9" s="1"/>
-      <c r="Y9" s="1"/>
-      <c r="Z9" s="1"/>
-      <c r="AA9" s="26"/>
-      <c r="AB9" s="1"/>
-      <c r="AC9" s="1"/>
-      <c r="AD9" s="1"/>
-      <c r="AE9" s="26"/>
-      <c r="AF9" s="1"/>
-      <c r="AG9" s="1"/>
-      <c r="AH9" s="1"/>
-      <c r="AI9" s="1"/>
-      <c r="AJ9" s="26"/>
-      <c r="AK9" s="3"/>
-    </row>
-    <row r="10" spans="1:37" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="46" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" s="46"/>
-      <c r="C10" s="46"/>
-      <c r="D10" s="47"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="19">
-        <v>2</v>
-      </c>
-      <c r="H10" s="4"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="30"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="26"/>
-      <c r="O10" s="1"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="1"/>
-      <c r="R10" s="1"/>
-      <c r="S10" s="26"/>
-      <c r="T10" s="1"/>
-      <c r="U10" s="1"/>
-      <c r="V10" s="1"/>
-      <c r="W10" s="26"/>
-      <c r="X10" s="1"/>
-      <c r="Y10" s="1"/>
-      <c r="Z10" s="1"/>
-      <c r="AA10" s="26"/>
-      <c r="AB10" s="1"/>
-      <c r="AC10" s="1"/>
-      <c r="AD10" s="1"/>
-      <c r="AE10" s="26"/>
-      <c r="AF10" s="1"/>
-      <c r="AG10" s="1"/>
-      <c r="AH10" s="1"/>
-      <c r="AI10" s="1"/>
-      <c r="AJ10" s="26"/>
-      <c r="AK10" s="3"/>
-    </row>
-    <row r="11" spans="1:37" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="46" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" s="46"/>
-      <c r="C11" s="46"/>
-      <c r="D11" s="47"/>
-      <c r="E11" s="2">
-        <v>3</v>
-      </c>
-      <c r="F11" s="2">
-        <v>1</v>
-      </c>
-      <c r="G11" s="19"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="30"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="26"/>
-      <c r="O11" s="1"/>
-      <c r="P11" s="1"/>
-      <c r="Q11" s="1"/>
-      <c r="R11" s="1"/>
-      <c r="S11" s="26"/>
-      <c r="T11" s="1"/>
-      <c r="U11" s="1"/>
-      <c r="V11" s="1"/>
-      <c r="W11" s="26"/>
-      <c r="X11" s="1"/>
-      <c r="Y11" s="1"/>
-      <c r="Z11" s="1"/>
-      <c r="AA11" s="26"/>
-      <c r="AB11" s="1"/>
-      <c r="AC11" s="1"/>
-      <c r="AD11" s="1"/>
-      <c r="AE11" s="26"/>
-      <c r="AF11" s="1"/>
-      <c r="AG11" s="1"/>
-      <c r="AH11" s="1"/>
-      <c r="AI11" s="1"/>
-      <c r="AJ11" s="26"/>
-      <c r="AK11" s="3"/>
-    </row>
-    <row r="12" spans="1:37" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="48" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" s="48"/>
-      <c r="C12" s="48"/>
-      <c r="D12" s="49"/>
-      <c r="E12" s="32">
-        <f>E7+E8+E9+E10+E11</f>
-        <v>16</v>
-      </c>
-      <c r="F12" s="32">
-        <f t="shared" ref="F12:G12" si="0">F7+F8+F9+F10+F11</f>
-        <v>16</v>
-      </c>
-      <c r="G12" s="33">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="H12" s="23"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="31"/>
-      <c r="K12" s="9"/>
-      <c r="L12" s="9"/>
-      <c r="M12" s="9"/>
-      <c r="N12" s="27"/>
-      <c r="O12" s="9"/>
-      <c r="P12" s="9"/>
-      <c r="Q12" s="9"/>
-      <c r="R12" s="9"/>
-      <c r="S12" s="27"/>
-      <c r="T12" s="9"/>
-      <c r="U12" s="9"/>
-      <c r="V12" s="9"/>
-      <c r="W12" s="27"/>
-      <c r="X12" s="9"/>
-      <c r="Y12" s="9"/>
-      <c r="Z12" s="9"/>
-      <c r="AA12" s="27"/>
-      <c r="AB12" s="9"/>
-      <c r="AC12" s="9"/>
-      <c r="AD12" s="9"/>
-      <c r="AE12" s="27"/>
-      <c r="AF12" s="9"/>
-      <c r="AG12" s="9"/>
-      <c r="AH12" s="9"/>
-      <c r="AI12" s="9"/>
-      <c r="AJ12" s="27"/>
-      <c r="AK12" s="24"/>
-    </row>
-    <row r="13" spans="1:37" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="46" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" s="46"/>
-      <c r="C13" s="46"/>
-      <c r="D13" s="47"/>
-      <c r="E13" s="18">
-        <v>2</v>
-      </c>
-      <c r="F13" s="2">
-        <v>2</v>
-      </c>
-      <c r="G13" s="19">
-        <v>2</v>
-      </c>
-      <c r="H13" s="29"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="26"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="26"/>
-      <c r="O13" s="1"/>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="1"/>
-      <c r="R13" s="1"/>
-      <c r="S13" s="26"/>
-      <c r="T13" s="1"/>
-      <c r="U13" s="1"/>
-      <c r="V13" s="1"/>
-      <c r="W13" s="26"/>
-      <c r="X13" s="1"/>
-      <c r="Y13" s="1"/>
-      <c r="Z13" s="1"/>
-      <c r="AA13" s="26"/>
-      <c r="AB13" s="1"/>
-      <c r="AC13" s="1"/>
-      <c r="AD13" s="1"/>
-      <c r="AE13" s="26"/>
-      <c r="AF13" s="1"/>
-      <c r="AG13" s="1"/>
-      <c r="AH13" s="1"/>
-      <c r="AI13" s="1"/>
-      <c r="AJ13" s="26"/>
-      <c r="AK13" s="3"/>
-    </row>
-    <row r="14" spans="1:37" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="46" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" s="46"/>
-      <c r="C14" s="46"/>
-      <c r="D14" s="47"/>
-      <c r="E14" s="2">
-        <v>2</v>
-      </c>
-      <c r="F14" s="2">
-        <v>2</v>
-      </c>
-      <c r="G14" s="19">
-        <v>2</v>
-      </c>
-      <c r="H14" s="4"/>
-      <c r="I14" s="14"/>
-      <c r="J14" s="26"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
-      <c r="N14" s="26"/>
-      <c r="O14" s="1"/>
-      <c r="P14" s="1"/>
-      <c r="Q14" s="1"/>
-      <c r="R14" s="1"/>
-      <c r="S14" s="26"/>
-      <c r="T14" s="1"/>
-      <c r="U14" s="1"/>
-      <c r="V14" s="1"/>
-      <c r="W14" s="26"/>
-      <c r="X14" s="1"/>
-      <c r="Y14" s="1"/>
-      <c r="Z14" s="1"/>
-      <c r="AA14" s="26"/>
-      <c r="AB14" s="1"/>
-      <c r="AC14" s="1"/>
-      <c r="AD14" s="1"/>
-      <c r="AE14" s="26"/>
-      <c r="AF14" s="1"/>
-      <c r="AG14" s="1"/>
-      <c r="AH14" s="1"/>
-      <c r="AI14" s="1"/>
-      <c r="AJ14" s="26"/>
-      <c r="AK14" s="3"/>
-    </row>
-    <row r="15" spans="1:37" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="48" t="s">
-        <v>24</v>
-      </c>
-      <c r="B15" s="48"/>
-      <c r="C15" s="48"/>
-      <c r="D15" s="49"/>
-      <c r="E15" s="32">
-        <f>E13+E14</f>
-        <v>4</v>
-      </c>
-      <c r="F15" s="32">
-        <f t="shared" ref="F15:G15" si="1">F13+F14</f>
-        <v>4</v>
-      </c>
-      <c r="G15" s="32">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="H15" s="23"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="31"/>
-      <c r="K15" s="9"/>
-      <c r="L15" s="9"/>
-      <c r="M15" s="9"/>
-      <c r="N15" s="27"/>
-      <c r="O15" s="9"/>
-      <c r="P15" s="9"/>
-      <c r="Q15" s="9"/>
-      <c r="R15" s="9"/>
-      <c r="S15" s="27"/>
-      <c r="T15" s="9"/>
-      <c r="U15" s="9"/>
-      <c r="V15" s="9"/>
-      <c r="W15" s="27"/>
-      <c r="X15" s="9"/>
-      <c r="Y15" s="9"/>
-      <c r="Z15" s="9"/>
-      <c r="AA15" s="27"/>
-      <c r="AB15" s="9"/>
-      <c r="AC15" s="9"/>
-      <c r="AD15" s="9"/>
-      <c r="AE15" s="27"/>
-      <c r="AF15" s="9"/>
-      <c r="AG15" s="9"/>
-      <c r="AH15" s="9"/>
-      <c r="AI15" s="9"/>
-      <c r="AJ15" s="27"/>
-      <c r="AK15" s="24"/>
-    </row>
-    <row r="16" spans="1:37" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="46" t="s">
-        <v>50</v>
-      </c>
-      <c r="B16" s="46"/>
-      <c r="C16" s="46"/>
-      <c r="D16" s="47"/>
-      <c r="E16" s="2">
-        <v>3</v>
-      </c>
-      <c r="F16" s="2">
-        <v>3</v>
-      </c>
-      <c r="G16" s="19">
-        <v>3</v>
-      </c>
-      <c r="H16" s="4"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="45"/>
-      <c r="K16" s="14"/>
-      <c r="L16" s="1"/>
-      <c r="M16" s="1"/>
-      <c r="N16" s="26"/>
-      <c r="O16" s="1"/>
-      <c r="P16" s="1"/>
-      <c r="Q16" s="1"/>
-      <c r="R16" s="1"/>
-      <c r="S16" s="26"/>
-      <c r="T16" s="1"/>
-      <c r="U16" s="1"/>
-      <c r="V16" s="1"/>
-      <c r="W16" s="26"/>
-      <c r="X16" s="1"/>
-      <c r="Y16" s="1"/>
-      <c r="Z16" s="1"/>
-      <c r="AA16" s="26"/>
-      <c r="AB16" s="1"/>
-      <c r="AC16" s="1"/>
-      <c r="AD16" s="1"/>
-      <c r="AE16" s="26"/>
-      <c r="AF16" s="1"/>
-      <c r="AG16" s="1"/>
-      <c r="AH16" s="1"/>
-      <c r="AI16" s="1"/>
-      <c r="AJ16" s="26"/>
-      <c r="AK16" s="3"/>
-    </row>
-    <row r="17" spans="1:37" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="46" t="s">
-        <v>30</v>
-      </c>
-      <c r="B17" s="46"/>
-      <c r="C17" s="46"/>
-      <c r="D17" s="47"/>
-      <c r="E17" s="2">
-        <v>4</v>
-      </c>
-      <c r="F17" s="2">
-        <v>15</v>
-      </c>
-      <c r="G17" s="19"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="26"/>
-      <c r="K17" s="14"/>
-      <c r="L17" s="14"/>
-      <c r="M17" s="14"/>
-      <c r="N17" s="39"/>
-      <c r="O17" s="15"/>
-      <c r="P17" s="1"/>
-      <c r="Q17" s="1"/>
-      <c r="R17" s="1"/>
-      <c r="S17" s="26"/>
-      <c r="T17" s="1"/>
-      <c r="U17" s="1"/>
-      <c r="V17" s="1"/>
-      <c r="W17" s="26"/>
-      <c r="X17" s="1"/>
-      <c r="Y17" s="1"/>
-      <c r="Z17" s="1"/>
-      <c r="AA17" s="26"/>
-      <c r="AB17" s="1"/>
-      <c r="AC17" s="1"/>
-      <c r="AD17" s="1"/>
-      <c r="AE17" s="26"/>
-      <c r="AF17" s="1"/>
-      <c r="AG17" s="1"/>
-      <c r="AH17" s="1"/>
-      <c r="AI17" s="1"/>
-      <c r="AJ17" s="26"/>
-      <c r="AK17" s="3"/>
-    </row>
-    <row r="18" spans="1:37" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="46" t="s">
-        <v>27</v>
-      </c>
-      <c r="B18" s="46"/>
-      <c r="C18" s="46"/>
-      <c r="D18" s="47"/>
-      <c r="E18" s="2">
-        <v>10</v>
-      </c>
-      <c r="F18" s="2">
-        <v>2</v>
-      </c>
-      <c r="G18" s="19">
-        <v>10</v>
-      </c>
-      <c r="H18" s="4"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="26"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="14"/>
-      <c r="M18" s="14"/>
-      <c r="N18" s="39"/>
-      <c r="O18" s="1"/>
-      <c r="P18" s="1"/>
-      <c r="Q18" s="1"/>
-      <c r="R18" s="1"/>
-      <c r="S18" s="26"/>
-      <c r="T18" s="1"/>
-      <c r="U18" s="1"/>
-      <c r="V18" s="1"/>
-      <c r="W18" s="26"/>
-      <c r="X18" s="1"/>
-      <c r="Y18" s="1"/>
-      <c r="Z18" s="1"/>
-      <c r="AA18" s="26"/>
-      <c r="AB18" s="1"/>
-      <c r="AC18" s="1"/>
-      <c r="AD18" s="1"/>
-      <c r="AE18" s="26"/>
-      <c r="AF18" s="1"/>
-      <c r="AG18" s="1"/>
-      <c r="AH18" s="1"/>
-      <c r="AI18" s="1"/>
-      <c r="AJ18" s="26"/>
-      <c r="AK18" s="3"/>
-    </row>
-    <row r="19" spans="1:37" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A19" s="46" t="s">
-        <v>28</v>
-      </c>
-      <c r="B19" s="46"/>
-      <c r="C19" s="46"/>
-      <c r="D19" s="47"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="19">
-        <v>12</v>
-      </c>
-      <c r="H19" s="4"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="26"/>
-      <c r="K19" s="14"/>
-      <c r="L19" s="1"/>
-      <c r="M19" s="1"/>
-      <c r="N19" s="41"/>
-      <c r="O19" s="1"/>
-      <c r="P19" s="1"/>
-      <c r="Q19" s="1"/>
-      <c r="R19" s="1"/>
-      <c r="S19" s="26"/>
-      <c r="T19" s="1"/>
-      <c r="U19" s="1"/>
-      <c r="V19" s="1"/>
-      <c r="W19" s="26"/>
-      <c r="X19" s="1"/>
-      <c r="Y19" s="1"/>
-      <c r="Z19" s="1"/>
-      <c r="AA19" s="26"/>
-      <c r="AB19" s="1"/>
-      <c r="AC19" s="1"/>
-      <c r="AD19" s="1"/>
-      <c r="AE19" s="26"/>
-      <c r="AF19" s="1"/>
-      <c r="AG19" s="1"/>
-      <c r="AH19" s="1"/>
-      <c r="AI19" s="1"/>
-      <c r="AJ19" s="26"/>
-      <c r="AK19" s="3"/>
-    </row>
-    <row r="20" spans="1:37" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="52" t="s">
-        <v>42</v>
-      </c>
-      <c r="B20" s="52"/>
-      <c r="C20" s="52"/>
-      <c r="D20" s="52"/>
-      <c r="E20" s="34">
-        <f>E16+E17+E18+E19</f>
-        <v>17</v>
-      </c>
-      <c r="F20" s="34">
-        <f t="shared" ref="F20:G20" si="2">F16+F17+F18+F19</f>
-        <v>20</v>
-      </c>
-      <c r="G20" s="34">
-        <f t="shared" si="2"/>
-        <v>25</v>
-      </c>
-      <c r="H20" s="23"/>
-      <c r="I20" s="9"/>
-      <c r="J20" s="27"/>
-      <c r="K20" s="9"/>
-      <c r="L20" s="9"/>
-      <c r="M20" s="9"/>
-      <c r="N20" s="27"/>
-      <c r="O20" s="42"/>
-      <c r="P20" s="9"/>
-      <c r="Q20" s="9"/>
-      <c r="R20" s="9"/>
-      <c r="S20" s="27"/>
-      <c r="T20" s="9"/>
-      <c r="U20" s="9"/>
-      <c r="V20" s="9"/>
-      <c r="W20" s="27"/>
-      <c r="X20" s="9"/>
-      <c r="Y20" s="9"/>
-      <c r="Z20" s="9"/>
-      <c r="AA20" s="27"/>
-      <c r="AB20" s="9"/>
-      <c r="AC20" s="9"/>
-      <c r="AD20" s="9"/>
-      <c r="AE20" s="27"/>
-      <c r="AF20" s="9"/>
-      <c r="AG20" s="9"/>
-      <c r="AH20" s="9"/>
-      <c r="AI20" s="9"/>
-      <c r="AJ20" s="27"/>
-      <c r="AK20" s="24"/>
-    </row>
-    <row r="21" spans="1:37" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A21" s="53" t="s">
-        <v>40</v>
-      </c>
-      <c r="B21" s="53"/>
-      <c r="C21" s="53"/>
-      <c r="D21" s="54"/>
-      <c r="E21" s="18">
-        <v>13</v>
-      </c>
-      <c r="F21" s="2">
-        <v>30</v>
-      </c>
-      <c r="G21" s="19"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="26"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
-      <c r="M21" s="1"/>
-      <c r="N21" s="26"/>
-      <c r="O21" s="17"/>
-      <c r="P21" s="17"/>
-      <c r="Q21" s="17"/>
-      <c r="R21" s="17"/>
-      <c r="S21" s="39"/>
-      <c r="T21" s="1"/>
-      <c r="U21" s="1"/>
-      <c r="V21" s="1"/>
-      <c r="W21" s="26"/>
-      <c r="X21" s="1"/>
-      <c r="Y21" s="1"/>
-      <c r="Z21" s="1"/>
-      <c r="AA21" s="26"/>
-      <c r="AB21" s="1"/>
-      <c r="AC21" s="1"/>
-      <c r="AD21" s="1"/>
-      <c r="AE21" s="26"/>
-      <c r="AF21" s="1"/>
-      <c r="AG21" s="1"/>
-      <c r="AH21" s="1"/>
-      <c r="AI21" s="1"/>
-      <c r="AJ21" s="26"/>
-      <c r="AK21" s="3"/>
-    </row>
-    <row r="22" spans="1:37" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A22" s="46" t="s">
-        <v>29</v>
-      </c>
-      <c r="B22" s="46"/>
-      <c r="C22" s="46"/>
-      <c r="D22" s="47"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="19">
-        <v>5</v>
-      </c>
-      <c r="H22" s="4"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="26"/>
-      <c r="K22" s="1"/>
-      <c r="L22" s="1"/>
-      <c r="M22" s="1"/>
-      <c r="N22" s="26"/>
-      <c r="O22" s="17"/>
-      <c r="P22" s="1"/>
-      <c r="Q22" s="1"/>
-      <c r="R22" s="1"/>
-      <c r="S22" s="26"/>
-      <c r="T22" s="1"/>
-      <c r="U22" s="1"/>
-      <c r="V22" s="1"/>
-      <c r="W22" s="26"/>
-      <c r="X22" s="1"/>
-      <c r="Y22" s="1"/>
-      <c r="Z22" s="1"/>
-      <c r="AA22" s="26"/>
-      <c r="AB22" s="1"/>
-      <c r="AC22" s="1"/>
-      <c r="AD22" s="1"/>
-      <c r="AE22" s="26"/>
-      <c r="AF22" s="1"/>
-      <c r="AG22" s="1"/>
-      <c r="AH22" s="1"/>
-      <c r="AI22" s="1"/>
-      <c r="AJ22" s="26"/>
-      <c r="AK22" s="3"/>
-    </row>
-    <row r="23" spans="1:37" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A23" s="46" t="s">
-        <v>31</v>
-      </c>
-      <c r="B23" s="46"/>
-      <c r="C23" s="46"/>
-      <c r="D23" s="47"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="19">
-        <v>10</v>
-      </c>
-      <c r="H23" s="4"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="26"/>
-      <c r="K23" s="1"/>
-      <c r="L23" s="1"/>
-      <c r="M23" s="1"/>
-      <c r="N23" s="26"/>
-      <c r="O23" s="1"/>
-      <c r="P23" s="17"/>
-      <c r="Q23" s="1"/>
-      <c r="R23" s="1"/>
-      <c r="S23" s="26"/>
-      <c r="T23" s="1"/>
-      <c r="U23" s="1"/>
-      <c r="V23" s="1"/>
-      <c r="W23" s="26"/>
-      <c r="X23" s="1"/>
-      <c r="Y23" s="1"/>
-      <c r="Z23" s="1"/>
-      <c r="AA23" s="26"/>
-      <c r="AB23" s="1"/>
-      <c r="AC23" s="1"/>
-      <c r="AD23" s="1"/>
-      <c r="AE23" s="26"/>
-      <c r="AF23" s="1"/>
-      <c r="AG23" s="1"/>
-      <c r="AH23" s="1"/>
-      <c r="AI23" s="1"/>
-      <c r="AJ23" s="26"/>
-      <c r="AK23" s="3"/>
-    </row>
-    <row r="24" spans="1:37" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A24" s="46" t="s">
-        <v>32</v>
-      </c>
-      <c r="B24" s="46"/>
-      <c r="C24" s="46"/>
-      <c r="D24" s="47"/>
-      <c r="E24" s="2">
-        <v>20</v>
-      </c>
-      <c r="F24" s="2"/>
-      <c r="G24" s="19">
-        <v>10</v>
-      </c>
-      <c r="H24" s="4"/>
-      <c r="I24" s="1"/>
-      <c r="J24" s="26"/>
-      <c r="K24" s="1"/>
-      <c r="L24" s="1"/>
-      <c r="M24" s="1"/>
-      <c r="N24" s="26"/>
-      <c r="O24" s="1"/>
-      <c r="P24" s="1"/>
-      <c r="Q24" s="17"/>
-      <c r="R24" s="17"/>
-      <c r="S24" s="41"/>
-      <c r="T24" s="43"/>
-      <c r="U24" s="15"/>
-      <c r="V24" s="1"/>
-      <c r="W24" s="26"/>
-      <c r="X24" s="1"/>
-      <c r="Y24" s="1"/>
-      <c r="Z24" s="1"/>
-      <c r="AA24" s="26"/>
-      <c r="AB24" s="1"/>
-      <c r="AC24" s="1"/>
-      <c r="AD24" s="1"/>
-      <c r="AE24" s="26"/>
-      <c r="AF24" s="1"/>
-      <c r="AG24" s="1"/>
-      <c r="AH24" s="1"/>
-      <c r="AI24" s="1"/>
-      <c r="AJ24" s="26"/>
-      <c r="AK24" s="3"/>
-    </row>
-    <row r="25" spans="1:37" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A25" s="46" t="s">
-        <v>33</v>
-      </c>
-      <c r="B25" s="46"/>
-      <c r="C25" s="46"/>
-      <c r="D25" s="47"/>
-      <c r="E25" s="2">
-        <v>5</v>
-      </c>
-      <c r="F25" s="2">
-        <v>5</v>
-      </c>
-      <c r="G25" s="19">
-        <v>5</v>
-      </c>
-      <c r="H25" s="4"/>
-      <c r="I25" s="1"/>
-      <c r="J25" s="26"/>
-      <c r="K25" s="1"/>
-      <c r="L25" s="1"/>
-      <c r="M25" s="1"/>
-      <c r="N25" s="26"/>
-      <c r="O25" s="1"/>
-      <c r="P25" s="1"/>
-      <c r="Q25" s="1"/>
-      <c r="R25" s="1"/>
-      <c r="S25" s="41"/>
-      <c r="T25" s="1"/>
-      <c r="U25" s="1"/>
-      <c r="V25" s="1"/>
-      <c r="W25" s="26"/>
-      <c r="X25" s="1"/>
-      <c r="Y25" s="1"/>
-      <c r="Z25" s="1"/>
-      <c r="AA25" s="26"/>
-      <c r="AB25" s="1"/>
-      <c r="AC25" s="1"/>
-      <c r="AD25" s="1"/>
-      <c r="AE25" s="26"/>
-      <c r="AF25" s="1"/>
-      <c r="AG25" s="1"/>
-      <c r="AH25" s="1"/>
-      <c r="AI25" s="1"/>
-      <c r="AJ25" s="26"/>
-      <c r="AK25" s="3"/>
-    </row>
-    <row r="26" spans="1:37" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A26" s="46" t="s">
-        <v>41</v>
-      </c>
-      <c r="B26" s="46"/>
-      <c r="C26" s="46"/>
-      <c r="D26" s="47"/>
-      <c r="E26" s="2">
-        <v>40</v>
-      </c>
-      <c r="F26" s="2">
-        <v>40</v>
-      </c>
-      <c r="G26" s="19">
-        <v>30</v>
-      </c>
-      <c r="H26" s="4"/>
-      <c r="I26" s="1"/>
-      <c r="J26" s="26"/>
-      <c r="K26" s="1"/>
-      <c r="L26" s="1"/>
-      <c r="M26" s="1"/>
-      <c r="N26" s="26"/>
-      <c r="O26" s="1"/>
-      <c r="P26" s="1"/>
-      <c r="Q26" s="1"/>
-      <c r="R26" s="1"/>
-      <c r="S26" s="26"/>
-      <c r="T26" s="17"/>
-      <c r="U26" s="17"/>
-      <c r="V26" s="17"/>
-      <c r="W26" s="41"/>
-      <c r="X26" s="17"/>
-      <c r="Y26" s="15"/>
-      <c r="Z26" s="15"/>
-      <c r="AA26" s="26"/>
-      <c r="AB26" s="1"/>
-      <c r="AC26" s="1"/>
-      <c r="AD26" s="1"/>
-      <c r="AE26" s="26"/>
-      <c r="AF26" s="1"/>
-      <c r="AG26" s="1"/>
-      <c r="AH26" s="1"/>
-      <c r="AI26" s="1"/>
-      <c r="AJ26" s="26"/>
-      <c r="AK26" s="3"/>
-    </row>
-    <row r="27" spans="1:37" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A27" s="46" t="s">
-        <v>34</v>
-      </c>
-      <c r="B27" s="46"/>
-      <c r="C27" s="46"/>
-      <c r="D27" s="47"/>
-      <c r="E27" s="2">
-        <v>5</v>
-      </c>
-      <c r="F27" s="2">
-        <v>5</v>
-      </c>
-      <c r="G27" s="19">
-        <v>5</v>
-      </c>
-      <c r="H27" s="4"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="26"/>
-      <c r="K27" s="1"/>
-      <c r="L27" s="1"/>
-      <c r="M27" s="1"/>
-      <c r="N27" s="26"/>
-      <c r="O27" s="1"/>
-      <c r="P27" s="1"/>
-      <c r="Q27" s="1"/>
-      <c r="R27" s="1"/>
-      <c r="S27" s="26"/>
-      <c r="T27" s="1"/>
-      <c r="U27" s="1"/>
-      <c r="V27" s="1"/>
-      <c r="W27" s="26"/>
-      <c r="X27" s="1"/>
-      <c r="Y27" s="1"/>
-      <c r="Z27" s="17"/>
-      <c r="AA27" s="39"/>
-      <c r="AB27" s="1"/>
-      <c r="AC27" s="1"/>
-      <c r="AD27" s="1"/>
-      <c r="AE27" s="26"/>
-      <c r="AF27" s="1"/>
-      <c r="AG27" s="1"/>
-      <c r="AH27" s="1"/>
-      <c r="AI27" s="1"/>
-      <c r="AJ27" s="26"/>
-      <c r="AK27" s="3"/>
-    </row>
-    <row r="28" spans="1:37" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A28" s="46" t="s">
-        <v>35</v>
-      </c>
-      <c r="B28" s="46"/>
-      <c r="C28" s="46"/>
-      <c r="D28" s="47"/>
-      <c r="E28" s="2">
-        <v>5</v>
-      </c>
-      <c r="F28" s="2">
-        <v>5</v>
-      </c>
-      <c r="G28" s="19">
-        <v>5</v>
-      </c>
-      <c r="H28" s="4"/>
-      <c r="I28" s="1"/>
-      <c r="J28" s="26"/>
-      <c r="K28" s="1"/>
-      <c r="L28" s="1"/>
-      <c r="M28" s="1"/>
-      <c r="N28" s="26"/>
-      <c r="O28" s="1"/>
-      <c r="P28" s="1"/>
-      <c r="Q28" s="1"/>
-      <c r="R28" s="1"/>
-      <c r="S28" s="26"/>
-      <c r="T28" s="1"/>
-      <c r="U28" s="1"/>
-      <c r="V28" s="1"/>
-      <c r="W28" s="26"/>
-      <c r="X28" s="1"/>
-      <c r="Y28" s="1"/>
-      <c r="Z28" s="1"/>
-      <c r="AA28" s="26"/>
-      <c r="AB28" s="17"/>
-      <c r="AC28" s="15"/>
-      <c r="AD28" s="1"/>
-      <c r="AE28" s="26"/>
-      <c r="AF28" s="1"/>
-      <c r="AG28" s="1"/>
-      <c r="AH28" s="1"/>
-      <c r="AI28" s="1"/>
-      <c r="AJ28" s="26"/>
-      <c r="AK28" s="3"/>
-    </row>
-    <row r="29" spans="1:37" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="48" t="s">
-        <v>39</v>
-      </c>
-      <c r="B29" s="48"/>
-      <c r="C29" s="48"/>
-      <c r="D29" s="49"/>
-      <c r="E29" s="32">
-        <f>E21+E22+E23+E24+E25+E26+E27+E28</f>
-        <v>88</v>
-      </c>
-      <c r="F29" s="32">
-        <f t="shared" ref="F29:G29" si="3">F21+F22+F23+F24+F25+F26+F27+F28</f>
-        <v>85</v>
-      </c>
-      <c r="G29" s="32">
-        <f t="shared" si="3"/>
-        <v>70</v>
-      </c>
-      <c r="H29" s="23"/>
-      <c r="I29" s="9"/>
-      <c r="J29" s="27"/>
-      <c r="K29" s="9"/>
-      <c r="L29" s="9"/>
-      <c r="M29" s="9"/>
-      <c r="N29" s="27"/>
-      <c r="O29" s="9"/>
-      <c r="P29" s="9"/>
-      <c r="Q29" s="9"/>
-      <c r="R29" s="9"/>
-      <c r="S29" s="27"/>
-      <c r="T29" s="9"/>
-      <c r="U29" s="9"/>
-      <c r="V29" s="9"/>
-      <c r="W29" s="27"/>
-      <c r="X29" s="9"/>
-      <c r="Y29" s="9"/>
-      <c r="Z29" s="9"/>
-      <c r="AA29" s="27"/>
-      <c r="AB29" s="9"/>
-      <c r="AC29" s="37"/>
-      <c r="AD29" s="9"/>
-      <c r="AE29" s="27"/>
-      <c r="AF29" s="9"/>
-      <c r="AG29" s="9"/>
-      <c r="AH29" s="9"/>
-      <c r="AI29" s="9"/>
-      <c r="AJ29" s="27"/>
-      <c r="AK29" s="24"/>
-    </row>
-    <row r="30" spans="1:37" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A30" s="46" t="s">
-        <v>36</v>
-      </c>
-      <c r="B30" s="46"/>
-      <c r="C30" s="46"/>
-      <c r="D30" s="47"/>
-      <c r="E30" s="2">
-        <v>15</v>
-      </c>
-      <c r="F30" s="2">
-        <v>15</v>
-      </c>
-      <c r="G30" s="19">
-        <v>20</v>
-      </c>
-      <c r="H30" s="4"/>
-      <c r="I30" s="1"/>
-      <c r="J30" s="26"/>
-      <c r="K30" s="1"/>
-      <c r="L30" s="1"/>
-      <c r="M30" s="1"/>
-      <c r="N30" s="26"/>
-      <c r="O30" s="1"/>
-      <c r="P30" s="1"/>
-      <c r="Q30" s="1"/>
-      <c r="R30" s="1"/>
-      <c r="S30" s="26"/>
-      <c r="T30" s="1"/>
-      <c r="U30" s="1"/>
-      <c r="V30" s="1"/>
-      <c r="W30" s="26"/>
-      <c r="X30" s="1"/>
-      <c r="Y30" s="1"/>
-      <c r="Z30" s="1"/>
-      <c r="AA30" s="26"/>
-      <c r="AB30" s="1"/>
-      <c r="AC30" s="17"/>
-      <c r="AD30" s="17"/>
-      <c r="AE30" s="41"/>
-      <c r="AF30" s="1"/>
-      <c r="AG30" s="1"/>
-      <c r="AH30" s="1"/>
-      <c r="AI30" s="1"/>
-      <c r="AJ30" s="26"/>
-      <c r="AK30" s="3"/>
-    </row>
-    <row r="31" spans="1:37" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A31" s="46" t="s">
-        <v>37</v>
-      </c>
-      <c r="B31" s="46"/>
-      <c r="C31" s="46"/>
-      <c r="D31" s="47"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2">
-        <v>5</v>
-      </c>
-      <c r="H31" s="4"/>
-      <c r="I31" s="1"/>
-      <c r="J31" s="26"/>
-      <c r="K31" s="1"/>
-      <c r="L31" s="1"/>
-      <c r="M31" s="1"/>
-      <c r="N31" s="26"/>
-      <c r="O31" s="1"/>
-      <c r="P31" s="1"/>
-      <c r="Q31" s="1"/>
-      <c r="R31" s="1"/>
-      <c r="S31" s="26"/>
-      <c r="T31" s="1"/>
-      <c r="U31" s="1"/>
-      <c r="V31" s="1"/>
-      <c r="W31" s="26"/>
-      <c r="X31" s="1"/>
-      <c r="Y31" s="1"/>
-      <c r="Z31" s="1"/>
-      <c r="AA31" s="26"/>
-      <c r="AB31" s="1"/>
-      <c r="AC31" s="1"/>
-      <c r="AD31" s="1"/>
-      <c r="AE31" s="41"/>
-      <c r="AF31" s="1"/>
-      <c r="AG31" s="1"/>
-      <c r="AH31" s="1"/>
-      <c r="AI31" s="1"/>
-      <c r="AJ31" s="26"/>
-      <c r="AK31" s="3"/>
-    </row>
-    <row r="32" spans="1:37" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A32" s="48" t="s">
-        <v>38</v>
-      </c>
-      <c r="B32" s="48"/>
-      <c r="C32" s="48"/>
-      <c r="D32" s="49"/>
-      <c r="E32" s="34">
-        <f>E30+E31</f>
-        <v>15</v>
-      </c>
-      <c r="F32" s="32">
-        <f t="shared" ref="F32:G32" si="4">F30+F31</f>
-        <v>15</v>
-      </c>
-      <c r="G32" s="32">
-        <f t="shared" si="4"/>
-        <v>25</v>
-      </c>
-      <c r="H32" s="23"/>
-      <c r="I32" s="9"/>
-      <c r="J32" s="27"/>
-      <c r="K32" s="9"/>
-      <c r="L32" s="9"/>
-      <c r="M32" s="9"/>
-      <c r="N32" s="27"/>
-      <c r="O32" s="9"/>
-      <c r="P32" s="9"/>
-      <c r="Q32" s="9"/>
-      <c r="R32" s="9"/>
-      <c r="S32" s="27"/>
-      <c r="T32" s="9"/>
-      <c r="U32" s="9"/>
-      <c r="V32" s="9"/>
-      <c r="W32" s="27"/>
-      <c r="X32" s="9"/>
-      <c r="Y32" s="9"/>
-      <c r="Z32" s="9"/>
-      <c r="AA32" s="27"/>
-      <c r="AB32" s="9"/>
-      <c r="AC32" s="9"/>
-      <c r="AD32" s="9"/>
-      <c r="AE32" s="38"/>
-      <c r="AF32" s="42"/>
-      <c r="AG32" s="9"/>
-      <c r="AH32" s="9"/>
-      <c r="AI32" s="9"/>
-      <c r="AJ32" s="27"/>
-      <c r="AK32" s="24"/>
-    </row>
-    <row r="33" spans="1:37" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A33" s="46" t="s">
-        <v>43</v>
-      </c>
-      <c r="B33" s="46"/>
-      <c r="C33" s="46"/>
-      <c r="D33" s="47"/>
-      <c r="E33" s="2">
-        <v>40</v>
-      </c>
-      <c r="F33" s="2">
-        <v>40</v>
-      </c>
-      <c r="G33" s="2">
-        <v>40</v>
-      </c>
-      <c r="H33" s="4"/>
-      <c r="I33" s="1"/>
-      <c r="J33" s="26"/>
-      <c r="K33" s="1"/>
-      <c r="L33" s="1"/>
-      <c r="M33" s="1"/>
-      <c r="N33" s="26"/>
-      <c r="O33" s="1"/>
-      <c r="P33" s="1"/>
-      <c r="Q33" s="1"/>
-      <c r="R33" s="1"/>
-      <c r="S33" s="26"/>
-      <c r="T33" s="1"/>
-      <c r="U33" s="1"/>
-      <c r="V33" s="1"/>
-      <c r="W33" s="26"/>
-      <c r="X33" s="1"/>
-      <c r="Y33" s="1"/>
-      <c r="Z33" s="1"/>
-      <c r="AA33" s="26"/>
-      <c r="AB33" s="1"/>
-      <c r="AC33" s="1"/>
-      <c r="AD33" s="1"/>
-      <c r="AE33" s="26"/>
-      <c r="AF33" s="1"/>
-      <c r="AG33" s="17"/>
-      <c r="AH33" s="17"/>
-      <c r="AI33" s="17"/>
-      <c r="AJ33" s="26"/>
-      <c r="AK33" s="3"/>
-    </row>
-    <row r="34" spans="1:37" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A34" s="46" t="s">
-        <v>44</v>
-      </c>
-      <c r="B34" s="46"/>
-      <c r="C34" s="46"/>
-      <c r="D34" s="47"/>
-      <c r="E34" s="2">
-        <v>5</v>
-      </c>
-      <c r="F34" s="2">
-        <v>5</v>
-      </c>
-      <c r="G34" s="2">
-        <v>5</v>
-      </c>
-      <c r="H34" s="4"/>
-      <c r="I34" s="1"/>
-      <c r="J34" s="26"/>
-      <c r="K34" s="1"/>
-      <c r="L34" s="1"/>
-      <c r="M34" s="1"/>
-      <c r="N34" s="26"/>
-      <c r="O34" s="1"/>
-      <c r="P34" s="1"/>
-      <c r="Q34" s="1"/>
-      <c r="R34" s="1"/>
-      <c r="S34" s="26"/>
-      <c r="T34" s="1"/>
-      <c r="U34" s="1"/>
-      <c r="V34" s="1"/>
-      <c r="W34" s="26"/>
-      <c r="X34" s="1"/>
-      <c r="Y34" s="1"/>
-      <c r="Z34" s="1"/>
-      <c r="AA34" s="26"/>
-      <c r="AB34" s="1"/>
-      <c r="AC34" s="1"/>
-      <c r="AD34" s="1"/>
-      <c r="AE34" s="26"/>
-      <c r="AF34" s="1"/>
-      <c r="AG34" s="1"/>
-      <c r="AH34" s="1"/>
-      <c r="AI34" s="1"/>
-      <c r="AJ34" s="41"/>
-      <c r="AK34" s="3"/>
-    </row>
-    <row r="35" spans="1:37" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A35" s="48" t="s">
-        <v>45</v>
-      </c>
-      <c r="B35" s="48"/>
-      <c r="C35" s="48"/>
-      <c r="D35" s="49"/>
-      <c r="E35" s="34">
-        <f>E33+E34</f>
-        <v>45</v>
-      </c>
-      <c r="F35" s="32">
-        <f t="shared" ref="F35:G35" si="5">F33+F34</f>
-        <v>45</v>
-      </c>
-      <c r="G35" s="32">
-        <f t="shared" si="5"/>
-        <v>45</v>
-      </c>
-      <c r="H35" s="23"/>
-      <c r="I35" s="9"/>
-      <c r="J35" s="27"/>
-      <c r="K35" s="9"/>
-      <c r="L35" s="9"/>
-      <c r="M35" s="9"/>
-      <c r="N35" s="27"/>
-      <c r="O35" s="9"/>
-      <c r="P35" s="9"/>
-      <c r="Q35" s="9"/>
-      <c r="R35" s="9"/>
-      <c r="S35" s="27"/>
-      <c r="T35" s="9"/>
-      <c r="U35" s="9"/>
-      <c r="V35" s="9"/>
-      <c r="W35" s="27"/>
-      <c r="X35" s="9"/>
-      <c r="Y35" s="9"/>
-      <c r="Z35" s="9"/>
-      <c r="AA35" s="27"/>
-      <c r="AB35" s="9"/>
-      <c r="AC35" s="9"/>
-      <c r="AD35" s="9"/>
-      <c r="AE35" s="27"/>
-      <c r="AF35" s="9"/>
-      <c r="AG35" s="9"/>
-      <c r="AH35" s="9"/>
-      <c r="AI35" s="9"/>
-      <c r="AJ35" s="40"/>
-      <c r="AK35" s="36"/>
-    </row>
-    <row r="36" spans="1:37" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A36" s="50" t="s">
-        <v>46</v>
-      </c>
-      <c r="B36" s="50"/>
-      <c r="C36" s="50"/>
-      <c r="D36" s="51"/>
-      <c r="E36" s="35">
-        <f>E12+E15+E20+E29+E32+E35</f>
-        <v>185</v>
-      </c>
-      <c r="F36" s="35">
-        <f t="shared" ref="F36:G36" si="6">F12+F15+F20+F29+F32+F35</f>
-        <v>185</v>
-      </c>
-      <c r="G36" s="35">
-        <f t="shared" si="6"/>
-        <v>185</v>
-      </c>
-      <c r="H36" s="4"/>
-      <c r="I36" s="1"/>
-      <c r="J36" s="26"/>
-      <c r="K36" s="1"/>
-      <c r="L36" s="1"/>
-      <c r="M36" s="1"/>
-      <c r="N36" s="26"/>
-      <c r="O36" s="1"/>
-      <c r="P36" s="1"/>
-      <c r="Q36" s="1"/>
-      <c r="R36" s="1"/>
-      <c r="S36" s="26"/>
-      <c r="T36" s="1"/>
-      <c r="U36" s="1"/>
-      <c r="V36" s="1"/>
-      <c r="W36" s="26"/>
-      <c r="X36" s="1"/>
-      <c r="Y36" s="1"/>
-      <c r="Z36" s="1"/>
-      <c r="AA36" s="26"/>
-      <c r="AB36" s="1"/>
-      <c r="AC36" s="1"/>
-      <c r="AD36" s="1"/>
-      <c r="AE36" s="26"/>
-      <c r="AF36" s="1"/>
-      <c r="AG36" s="1"/>
-      <c r="AH36" s="1"/>
-      <c r="AI36" s="1"/>
-      <c r="AJ36" s="26"/>
-      <c r="AK36" s="3"/>
-    </row>
-  </sheetData>
-  <mergeCells count="49">
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A34:D34"/>
-    <mergeCell ref="A35:D35"/>
-    <mergeCell ref="A36:D36"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="A29:D29"/>
-    <mergeCell ref="A30:D30"/>
-    <mergeCell ref="A31:D31"/>
-    <mergeCell ref="A32:D32"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="A13:D13"/>
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A16:D16"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="A23:D23"/>
-    <mergeCell ref="A24:D24"/>
-    <mergeCell ref="A25:D25"/>
-    <mergeCell ref="A14:D14"/>
-    <mergeCell ref="X5:AA5"/>
-    <mergeCell ref="AB5:AE5"/>
-    <mergeCell ref="AF5:AJ5"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="K5:N5"/>
-    <mergeCell ref="O5:S5"/>
-    <mergeCell ref="T5:W5"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="AJ4:AK4"/>
-    <mergeCell ref="N1:S1"/>
-    <mergeCell ref="N2:S2"/>
-    <mergeCell ref="N3:S3"/>
-    <mergeCell ref="A1:G3"/>
-    <mergeCell ref="V1:AA1"/>
-    <mergeCell ref="V2:AA2"/>
-    <mergeCell ref="V3:AA3"/>
-    <mergeCell ref="H4:I4"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/00_Docs/00_Zeitplanung/DIPL_Ertragssteuerung_PV_Zeitplanung.xlsx
+++ b/00_Docs/00_Zeitplanung/DIPL_Ertragssteuerung_PV_Zeitplanung.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\gitRepos\DIPL_Ertragssteuerung_PV\00_Docs\00_Zeitplanung\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E521CA2A-F315-4F9C-87FB-0BC1BCBCA99D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DFC298B-943F-43DF-B908-7DB886413E6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -575,7 +575,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -647,11 +647,47 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -663,9 +699,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="14" fontId="7" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -680,42 +713,11 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -724,8 +726,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFF5050"/>
       <color rgb="FF66FF33"/>
-      <color rgb="FFFF5050"/>
       <color rgb="FF0099FF"/>
       <color rgb="FF00CC00"/>
       <color rgb="FFFFFF66"/>
@@ -1008,7 +1010,7 @@
   <dimension ref="A1:AK36"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D4" sqref="D1:D1048576"/>
+      <selection activeCell="AN17" sqref="AN17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1020,15 +1022,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
@@ -1043,14 +1045,14 @@
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
       <c r="U1" s="14"/>
-      <c r="V1" s="49" t="s">
+      <c r="V1" s="63" t="s">
         <v>25</v>
       </c>
-      <c r="W1" s="49"/>
-      <c r="X1" s="49"/>
-      <c r="Y1" s="49"/>
-      <c r="Z1" s="49"/>
-      <c r="AA1" s="49"/>
+      <c r="W1" s="63"/>
+      <c r="X1" s="63"/>
+      <c r="Y1" s="63"/>
+      <c r="Z1" s="63"/>
+      <c r="AA1" s="63"/>
       <c r="AB1" s="1"/>
       <c r="AC1" s="1"/>
       <c r="AD1" s="1"/>
@@ -1063,13 +1065,13 @@
       <c r="AK1" s="1"/>
     </row>
     <row r="2" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="48"/>
-      <c r="B2" s="48"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
+      <c r="A2" s="62"/>
+      <c r="B2" s="62"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
@@ -1084,14 +1086,14 @@
       <c r="S2" s="1"/>
       <c r="T2" s="1"/>
       <c r="U2" s="15"/>
-      <c r="V2" s="49" t="s">
+      <c r="V2" s="63" t="s">
         <v>15</v>
       </c>
-      <c r="W2" s="49"/>
-      <c r="X2" s="49"/>
-      <c r="Y2" s="49"/>
-      <c r="Z2" s="49"/>
-      <c r="AA2" s="49"/>
+      <c r="W2" s="63"/>
+      <c r="X2" s="63"/>
+      <c r="Y2" s="63"/>
+      <c r="Z2" s="63"/>
+      <c r="AA2" s="63"/>
       <c r="AB2" s="1"/>
       <c r="AC2" s="1"/>
       <c r="AD2" s="1"/>
@@ -1104,13 +1106,13 @@
       <c r="AK2" s="1"/>
     </row>
     <row r="3" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="48"/>
-      <c r="B3" s="48"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
+      <c r="A3" s="62"/>
+      <c r="B3" s="62"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="62"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
@@ -1125,14 +1127,14 @@
       <c r="S3" s="1"/>
       <c r="T3" s="1"/>
       <c r="U3" s="17"/>
-      <c r="V3" s="49" t="s">
+      <c r="V3" s="63" t="s">
         <v>26</v>
       </c>
-      <c r="W3" s="49"/>
-      <c r="X3" s="49"/>
-      <c r="Y3" s="49"/>
-      <c r="Z3" s="49"/>
-      <c r="AA3" s="49"/>
+      <c r="W3" s="63"/>
+      <c r="X3" s="63"/>
+      <c r="Y3" s="63"/>
+      <c r="Z3" s="63"/>
+      <c r="AA3" s="63"/>
       <c r="AB3" s="1"/>
       <c r="AC3" s="1"/>
       <c r="AD3" s="1"/>
@@ -1152,10 +1154,10 @@
       <c r="E4" s="12"/>
       <c r="F4" s="12"/>
       <c r="G4" s="12"/>
-      <c r="H4" s="50">
+      <c r="H4" s="64">
         <v>45910</v>
       </c>
-      <c r="I4" s="50"/>
+      <c r="I4" s="64"/>
       <c r="J4" s="16"/>
       <c r="K4" s="12"/>
       <c r="L4" s="12"/>
@@ -1182,77 +1184,77 @@
       <c r="AG4" s="12"/>
       <c r="AH4" s="12"/>
       <c r="AI4" s="12"/>
-      <c r="AJ4" s="47">
+      <c r="AJ4" s="61">
         <v>46119</v>
       </c>
-      <c r="AK4" s="47"/>
+      <c r="AK4" s="61"/>
     </row>
     <row r="5" spans="1:37" ht="17.399999999999999" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="51" t="s">
+      <c r="A5" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="51"/>
-      <c r="C5" s="51"/>
-      <c r="D5" s="52"/>
-      <c r="E5" s="51" t="s">
+      <c r="B5" s="57"/>
+      <c r="C5" s="57"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="51"/>
-      <c r="G5" s="51"/>
-      <c r="H5" s="53" t="s">
+      <c r="F5" s="57"/>
+      <c r="G5" s="57"/>
+      <c r="H5" s="66" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="54"/>
-      <c r="J5" s="54"/>
-      <c r="K5" s="55" t="s">
+      <c r="I5" s="67"/>
+      <c r="J5" s="67"/>
+      <c r="K5" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="L5" s="51"/>
-      <c r="M5" s="51"/>
-      <c r="N5" s="56"/>
-      <c r="O5" s="51" t="s">
+      <c r="L5" s="57"/>
+      <c r="M5" s="57"/>
+      <c r="N5" s="58"/>
+      <c r="O5" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="P5" s="51"/>
-      <c r="Q5" s="51"/>
-      <c r="R5" s="51"/>
-      <c r="S5" s="56"/>
-      <c r="T5" s="51" t="s">
+      <c r="P5" s="57"/>
+      <c r="Q5" s="57"/>
+      <c r="R5" s="57"/>
+      <c r="S5" s="58"/>
+      <c r="T5" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="U5" s="51"/>
-      <c r="V5" s="51"/>
-      <c r="W5" s="56"/>
-      <c r="X5" s="51" t="s">
+      <c r="U5" s="57"/>
+      <c r="V5" s="57"/>
+      <c r="W5" s="58"/>
+      <c r="X5" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="Y5" s="51"/>
-      <c r="Z5" s="51"/>
-      <c r="AA5" s="56"/>
-      <c r="AB5" s="51" t="s">
+      <c r="Y5" s="57"/>
+      <c r="Z5" s="57"/>
+      <c r="AA5" s="58"/>
+      <c r="AB5" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="AC5" s="51"/>
-      <c r="AD5" s="51"/>
-      <c r="AE5" s="56"/>
-      <c r="AF5" s="51" t="s">
+      <c r="AC5" s="57"/>
+      <c r="AD5" s="57"/>
+      <c r="AE5" s="58"/>
+      <c r="AF5" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="AG5" s="51"/>
-      <c r="AH5" s="51"/>
-      <c r="AI5" s="51"/>
-      <c r="AJ5" s="56"/>
+      <c r="AG5" s="57"/>
+      <c r="AH5" s="57"/>
+      <c r="AI5" s="57"/>
+      <c r="AJ5" s="58"/>
       <c r="AK5" s="5" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:37" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="57" t="s">
+      <c r="A6" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="57"/>
-      <c r="C6" s="57"/>
-      <c r="D6" s="58"/>
+      <c r="B6" s="59"/>
+      <c r="C6" s="59"/>
+      <c r="D6" s="60"/>
       <c r="E6" s="18" t="s">
         <v>3</v>
       </c>
@@ -1354,12 +1356,12 @@
       </c>
     </row>
     <row r="7" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="59" t="s">
+      <c r="A7" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="59"/>
-      <c r="C7" s="59"/>
-      <c r="D7" s="60"/>
+      <c r="B7" s="55"/>
+      <c r="C7" s="55"/>
+      <c r="D7" s="56"/>
       <c r="E7" s="20">
         <v>2</v>
       </c>
@@ -1401,12 +1403,12 @@
       <c r="AK7" s="3"/>
     </row>
     <row r="8" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="45" t="s">
+      <c r="A8" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="45"/>
-      <c r="C8" s="45"/>
-      <c r="D8" s="46"/>
+      <c r="B8" s="48"/>
+      <c r="C8" s="48"/>
+      <c r="D8" s="49"/>
       <c r="E8" s="2">
         <v>11</v>
       </c>
@@ -1448,12 +1450,12 @@
       <c r="AK8" s="3"/>
     </row>
     <row r="9" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="45" t="s">
+      <c r="A9" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="45"/>
-      <c r="C9" s="45"/>
-      <c r="D9" s="46"/>
+      <c r="B9" s="48"/>
+      <c r="C9" s="48"/>
+      <c r="D9" s="49"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2">
         <v>4</v>
@@ -1491,12 +1493,12 @@
       <c r="AK9" s="3"/>
     </row>
     <row r="10" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="45" t="s">
+      <c r="A10" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="45"/>
-      <c r="C10" s="45"/>
-      <c r="D10" s="46"/>
+      <c r="B10" s="48"/>
+      <c r="C10" s="48"/>
+      <c r="D10" s="49"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="19">
@@ -1534,12 +1536,12 @@
       <c r="AK10" s="3"/>
     </row>
     <row r="11" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="45" t="s">
+      <c r="A11" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="45"/>
-      <c r="C11" s="45"/>
-      <c r="D11" s="46"/>
+      <c r="B11" s="48"/>
+      <c r="C11" s="48"/>
+      <c r="D11" s="49"/>
       <c r="E11" s="2">
         <v>3</v>
       </c>
@@ -1579,12 +1581,12 @@
       <c r="AK11" s="3"/>
     </row>
     <row r="12" spans="1:37" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="61" t="s">
+      <c r="A12" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="61"/>
-      <c r="C12" s="61"/>
-      <c r="D12" s="62"/>
+      <c r="B12" s="50"/>
+      <c r="C12" s="50"/>
+      <c r="D12" s="51"/>
       <c r="E12" s="32">
         <f>E7+E8+E9+E10+E11</f>
         <v>16</v>
@@ -1629,12 +1631,12 @@
       <c r="AK12" s="24"/>
     </row>
     <row r="13" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A13" s="45" t="s">
+      <c r="A13" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="45"/>
-      <c r="C13" s="45"/>
-      <c r="D13" s="46"/>
+      <c r="B13" s="48"/>
+      <c r="C13" s="48"/>
+      <c r="D13" s="49"/>
       <c r="E13" s="18">
         <v>2</v>
       </c>
@@ -1676,12 +1678,12 @@
       <c r="AK13" s="3"/>
     </row>
     <row r="14" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="45" t="s">
+      <c r="A14" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="45"/>
-      <c r="C14" s="45"/>
-      <c r="D14" s="46"/>
+      <c r="B14" s="48"/>
+      <c r="C14" s="48"/>
+      <c r="D14" s="49"/>
       <c r="E14" s="2">
         <v>2</v>
       </c>
@@ -1723,12 +1725,12 @@
       <c r="AK14" s="3"/>
     </row>
     <row r="15" spans="1:37" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="61" t="s">
+      <c r="A15" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="B15" s="61"/>
-      <c r="C15" s="61"/>
-      <c r="D15" s="62"/>
+      <c r="B15" s="50"/>
+      <c r="C15" s="50"/>
+      <c r="D15" s="51"/>
       <c r="E15" s="32">
         <f>E13+E14</f>
         <v>4</v>
@@ -1773,12 +1775,12 @@
       <c r="AK15" s="24"/>
     </row>
     <row r="16" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A16" s="45" t="s">
+      <c r="A16" s="48" t="s">
         <v>50</v>
       </c>
-      <c r="B16" s="45"/>
-      <c r="C16" s="45"/>
-      <c r="D16" s="46"/>
+      <c r="B16" s="48"/>
+      <c r="C16" s="48"/>
+      <c r="D16" s="49"/>
       <c r="E16" s="2">
         <v>3</v>
       </c>
@@ -1820,12 +1822,12 @@
       <c r="AK16" s="3"/>
     </row>
     <row r="17" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A17" s="45" t="s">
+      <c r="A17" s="48" t="s">
         <v>30</v>
       </c>
-      <c r="B17" s="45"/>
-      <c r="C17" s="45"/>
-      <c r="D17" s="46"/>
+      <c r="B17" s="48"/>
+      <c r="C17" s="48"/>
+      <c r="D17" s="49"/>
       <c r="E17" s="2">
         <v>4</v>
       </c>
@@ -1865,12 +1867,12 @@
       <c r="AK17" s="3"/>
     </row>
     <row r="18" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A18" s="45" t="s">
+      <c r="A18" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="B18" s="45"/>
-      <c r="C18" s="45"/>
-      <c r="D18" s="46"/>
+      <c r="B18" s="48"/>
+      <c r="C18" s="48"/>
+      <c r="D18" s="49"/>
       <c r="E18" s="2">
         <v>10</v>
       </c>
@@ -1912,12 +1914,12 @@
       <c r="AK18" s="3"/>
     </row>
     <row r="19" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A19" s="45" t="s">
+      <c r="A19" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="B19" s="45"/>
-      <c r="C19" s="45"/>
-      <c r="D19" s="46"/>
+      <c r="B19" s="48"/>
+      <c r="C19" s="48"/>
+      <c r="D19" s="49"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
       <c r="G19" s="19">
@@ -1955,12 +1957,12 @@
       <c r="AK19" s="3"/>
     </row>
     <row r="20" spans="1:37" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="63" t="s">
+      <c r="A20" s="54" t="s">
         <v>42</v>
       </c>
-      <c r="B20" s="63"/>
-      <c r="C20" s="63"/>
-      <c r="D20" s="63"/>
+      <c r="B20" s="54"/>
+      <c r="C20" s="54"/>
+      <c r="D20" s="54"/>
       <c r="E20" s="34">
         <f>E16+E17+E18+E19</f>
         <v>17</v>
@@ -1980,7 +1982,7 @@
       <c r="L20" s="9"/>
       <c r="M20" s="9"/>
       <c r="N20" s="27"/>
-      <c r="O20" s="67"/>
+      <c r="O20" s="45"/>
       <c r="P20" s="9"/>
       <c r="Q20" s="9"/>
       <c r="R20" s="9"/>
@@ -2005,12 +2007,12 @@
       <c r="AK20" s="24"/>
     </row>
     <row r="21" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A21" s="59" t="s">
+      <c r="A21" s="55" t="s">
         <v>40</v>
       </c>
-      <c r="B21" s="59"/>
-      <c r="C21" s="59"/>
-      <c r="D21" s="60"/>
+      <c r="B21" s="55"/>
+      <c r="C21" s="55"/>
+      <c r="D21" s="56"/>
       <c r="E21" s="18">
         <v>13</v>
       </c>
@@ -2050,12 +2052,12 @@
       <c r="AK21" s="3"/>
     </row>
     <row r="22" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A22" s="45" t="s">
+      <c r="A22" s="48" t="s">
         <v>29</v>
       </c>
-      <c r="B22" s="45"/>
-      <c r="C22" s="45"/>
-      <c r="D22" s="46"/>
+      <c r="B22" s="48"/>
+      <c r="C22" s="48"/>
+      <c r="D22" s="49"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
       <c r="G22" s="19">
@@ -2093,12 +2095,12 @@
       <c r="AK22" s="3"/>
     </row>
     <row r="23" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A23" s="45" t="s">
+      <c r="A23" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="B23" s="45"/>
-      <c r="C23" s="45"/>
-      <c r="D23" s="46"/>
+      <c r="B23" s="48"/>
+      <c r="C23" s="48"/>
+      <c r="D23" s="49"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
       <c r="G23" s="19">
@@ -2136,12 +2138,12 @@
       <c r="AK23" s="3"/>
     </row>
     <row r="24" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A24" s="45" t="s">
+      <c r="A24" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="B24" s="45"/>
-      <c r="C24" s="45"/>
-      <c r="D24" s="46"/>
+      <c r="B24" s="48"/>
+      <c r="C24" s="48"/>
+      <c r="D24" s="49"/>
       <c r="E24" s="2">
         <v>20</v>
       </c>
@@ -2161,7 +2163,7 @@
       <c r="Q24" s="14"/>
       <c r="R24" s="14"/>
       <c r="S24" s="30"/>
-      <c r="T24" s="68"/>
+      <c r="T24" s="46"/>
       <c r="U24" s="15"/>
       <c r="V24" s="1"/>
       <c r="W24" s="26"/>
@@ -2181,12 +2183,12 @@
       <c r="AK24" s="3"/>
     </row>
     <row r="25" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A25" s="45" t="s">
+      <c r="A25" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="B25" s="45"/>
-      <c r="C25" s="45"/>
-      <c r="D25" s="46"/>
+      <c r="B25" s="48"/>
+      <c r="C25" s="48"/>
+      <c r="D25" s="49"/>
       <c r="E25" s="2">
         <v>5</v>
       </c>
@@ -2228,12 +2230,12 @@
       <c r="AK25" s="3"/>
     </row>
     <row r="26" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A26" s="45" t="s">
+      <c r="A26" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="B26" s="45"/>
-      <c r="C26" s="45"/>
-      <c r="D26" s="46"/>
+      <c r="B26" s="48"/>
+      <c r="C26" s="48"/>
+      <c r="D26" s="49"/>
       <c r="E26" s="2">
         <v>40</v>
       </c>
@@ -2258,8 +2260,8 @@
       <c r="T26" s="14"/>
       <c r="U26" s="14"/>
       <c r="V26" s="14"/>
-      <c r="W26" s="41"/>
-      <c r="X26" s="17"/>
+      <c r="W26" s="30"/>
+      <c r="X26" s="14"/>
       <c r="Y26" s="15"/>
       <c r="Z26" s="15"/>
       <c r="AA26" s="26"/>
@@ -2275,12 +2277,12 @@
       <c r="AK26" s="3"/>
     </row>
     <row r="27" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A27" s="45" t="s">
+      <c r="A27" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="B27" s="45"/>
-      <c r="C27" s="45"/>
-      <c r="D27" s="46"/>
+      <c r="B27" s="48"/>
+      <c r="C27" s="48"/>
+      <c r="D27" s="49"/>
       <c r="E27" s="2">
         <v>5</v>
       </c>
@@ -2308,7 +2310,7 @@
       <c r="W27" s="26"/>
       <c r="X27" s="1"/>
       <c r="Y27" s="1"/>
-      <c r="Z27" s="17"/>
+      <c r="Z27" s="14"/>
       <c r="AA27" s="39"/>
       <c r="AB27" s="1"/>
       <c r="AC27" s="1"/>
@@ -2322,12 +2324,12 @@
       <c r="AK27" s="3"/>
     </row>
     <row r="28" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A28" s="45" t="s">
+      <c r="A28" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="B28" s="45"/>
-      <c r="C28" s="45"/>
-      <c r="D28" s="46"/>
+      <c r="B28" s="48"/>
+      <c r="C28" s="48"/>
+      <c r="D28" s="49"/>
       <c r="E28" s="2">
         <v>5</v>
       </c>
@@ -2357,7 +2359,7 @@
       <c r="Y28" s="1"/>
       <c r="Z28" s="1"/>
       <c r="AA28" s="26"/>
-      <c r="AB28" s="17"/>
+      <c r="AB28" s="14"/>
       <c r="AC28" s="15"/>
       <c r="AD28" s="1"/>
       <c r="AE28" s="26"/>
@@ -2369,12 +2371,12 @@
       <c r="AK28" s="3"/>
     </row>
     <row r="29" spans="1:37" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="61" t="s">
+      <c r="A29" s="50" t="s">
         <v>39</v>
       </c>
-      <c r="B29" s="61"/>
-      <c r="C29" s="61"/>
-      <c r="D29" s="62"/>
+      <c r="B29" s="50"/>
+      <c r="C29" s="50"/>
+      <c r="D29" s="51"/>
       <c r="E29" s="32">
         <f>E21+E22+E23+E24+E25+E26+E27+E28</f>
         <v>88</v>
@@ -2419,12 +2421,12 @@
       <c r="AK29" s="24"/>
     </row>
     <row r="30" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A30" s="45" t="s">
+      <c r="A30" s="48" t="s">
         <v>36</v>
       </c>
-      <c r="B30" s="45"/>
-      <c r="C30" s="45"/>
-      <c r="D30" s="46"/>
+      <c r="B30" s="48"/>
+      <c r="C30" s="48"/>
+      <c r="D30" s="49"/>
       <c r="E30" s="2">
         <v>15</v>
       </c>
@@ -2455,9 +2457,9 @@
       <c r="Z30" s="1"/>
       <c r="AA30" s="26"/>
       <c r="AB30" s="1"/>
-      <c r="AC30" s="17"/>
-      <c r="AD30" s="17"/>
-      <c r="AE30" s="41"/>
+      <c r="AC30" s="14"/>
+      <c r="AD30" s="14"/>
+      <c r="AE30" s="30"/>
       <c r="AF30" s="1"/>
       <c r="AG30" s="1"/>
       <c r="AH30" s="1"/>
@@ -2466,12 +2468,12 @@
       <c r="AK30" s="3"/>
     </row>
     <row r="31" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A31" s="45" t="s">
+      <c r="A31" s="48" t="s">
         <v>37</v>
       </c>
-      <c r="B31" s="45"/>
-      <c r="C31" s="45"/>
-      <c r="D31" s="46"/>
+      <c r="B31" s="48"/>
+      <c r="C31" s="48"/>
+      <c r="D31" s="49"/>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
       <c r="G31" s="2">
@@ -2500,7 +2502,7 @@
       <c r="AB31" s="1"/>
       <c r="AC31" s="1"/>
       <c r="AD31" s="1"/>
-      <c r="AE31" s="41"/>
+      <c r="AE31" s="30"/>
       <c r="AF31" s="1"/>
       <c r="AG31" s="1"/>
       <c r="AH31" s="1"/>
@@ -2509,12 +2511,12 @@
       <c r="AK31" s="3"/>
     </row>
     <row r="32" spans="1:37" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="61" t="s">
+      <c r="A32" s="50" t="s">
         <v>38</v>
       </c>
-      <c r="B32" s="61"/>
-      <c r="C32" s="61"/>
-      <c r="D32" s="62"/>
+      <c r="B32" s="50"/>
+      <c r="C32" s="50"/>
+      <c r="D32" s="51"/>
       <c r="E32" s="34">
         <f>E30+E31</f>
         <v>15</v>
@@ -2559,12 +2561,12 @@
       <c r="AK32" s="24"/>
     </row>
     <row r="33" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A33" s="45" t="s">
+      <c r="A33" s="48" t="s">
         <v>43</v>
       </c>
-      <c r="B33" s="45"/>
-      <c r="C33" s="45"/>
-      <c r="D33" s="46"/>
+      <c r="B33" s="48"/>
+      <c r="C33" s="48"/>
+      <c r="D33" s="49"/>
       <c r="E33" s="2">
         <v>40</v>
       </c>
@@ -2606,12 +2608,12 @@
       <c r="AK33" s="3"/>
     </row>
     <row r="34" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A34" s="45" t="s">
+      <c r="A34" s="48" t="s">
         <v>44</v>
       </c>
-      <c r="B34" s="45"/>
-      <c r="C34" s="45"/>
-      <c r="D34" s="46"/>
+      <c r="B34" s="48"/>
+      <c r="C34" s="48"/>
+      <c r="D34" s="49"/>
       <c r="E34" s="2">
         <v>5</v>
       </c>
@@ -2653,12 +2655,12 @@
       <c r="AK34" s="3"/>
     </row>
     <row r="35" spans="1:37" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="61" t="s">
+      <c r="A35" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="B35" s="61"/>
-      <c r="C35" s="61"/>
-      <c r="D35" s="62"/>
+      <c r="B35" s="50"/>
+      <c r="C35" s="50"/>
+      <c r="D35" s="51"/>
       <c r="E35" s="34">
         <f>E33+E34</f>
         <v>45</v>
@@ -2703,12 +2705,12 @@
       <c r="AK35" s="36"/>
     </row>
     <row r="36" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A36" s="64" t="s">
+      <c r="A36" s="52" t="s">
         <v>46</v>
       </c>
-      <c r="B36" s="64"/>
-      <c r="C36" s="64"/>
-      <c r="D36" s="65"/>
+      <c r="B36" s="52"/>
+      <c r="C36" s="52"/>
+      <c r="D36" s="53"/>
       <c r="E36" s="35">
         <f>E12+E15+E20+E29+E32+E35</f>
         <v>185</v>
@@ -2754,1817 +2756,10 @@
     </row>
   </sheetData>
   <mergeCells count="46">
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A34:D34"/>
-    <mergeCell ref="A35:D35"/>
-    <mergeCell ref="A36:D36"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="A29:D29"/>
-    <mergeCell ref="A30:D30"/>
-    <mergeCell ref="A31:D31"/>
-    <mergeCell ref="A32:D32"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="A13:D13"/>
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A16:D16"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="A23:D23"/>
-    <mergeCell ref="A24:D24"/>
-    <mergeCell ref="A25:D25"/>
-    <mergeCell ref="A14:D14"/>
-    <mergeCell ref="AF5:AJ5"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="O5:S5"/>
-    <mergeCell ref="T5:W5"/>
     <mergeCell ref="A9:D9"/>
     <mergeCell ref="A10:D10"/>
     <mergeCell ref="A11:D11"/>
     <mergeCell ref="AJ4:AK4"/>
-    <mergeCell ref="A1:G3"/>
-    <mergeCell ref="V1:AA1"/>
-    <mergeCell ref="V2:AA2"/>
-    <mergeCell ref="V3:AA3"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="K5:N5"/>
-    <mergeCell ref="X5:AA5"/>
-    <mergeCell ref="AB5:AE5"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CB8DCAA-6D0A-4CAB-9084-21E2434B6494}">
-  <dimension ref="A1:AK36"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AN18" sqref="AN18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="4" max="4" width="38" customWidth="1"/>
-    <col min="7" max="7" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="36" width="4.33203125" customWidth="1"/>
-    <col min="37" max="37" width="5.77734375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="48" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="43"/>
-      <c r="N1" s="49" t="s">
-        <v>49</v>
-      </c>
-      <c r="O1" s="49"/>
-      <c r="P1" s="49"/>
-      <c r="Q1" s="49"/>
-      <c r="R1" s="49"/>
-      <c r="S1" s="49"/>
-      <c r="T1" s="1"/>
-      <c r="U1" s="14"/>
-      <c r="V1" s="49" t="s">
-        <v>48</v>
-      </c>
-      <c r="W1" s="49"/>
-      <c r="X1" s="49"/>
-      <c r="Y1" s="49"/>
-      <c r="Z1" s="49"/>
-      <c r="AA1" s="49"/>
-      <c r="AB1" s="1"/>
-      <c r="AC1" s="1"/>
-      <c r="AD1" s="1"/>
-      <c r="AE1" s="1"/>
-      <c r="AF1" s="1"/>
-      <c r="AG1" s="1"/>
-      <c r="AH1" s="1"/>
-      <c r="AI1" s="1"/>
-      <c r="AJ1" s="1"/>
-      <c r="AK1" s="1"/>
-    </row>
-    <row r="2" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="48"/>
-      <c r="B2" s="48"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="66"/>
-      <c r="O2" s="66"/>
-      <c r="P2" s="66"/>
-      <c r="Q2" s="66"/>
-      <c r="R2" s="66"/>
-      <c r="S2" s="66"/>
-      <c r="T2" s="1"/>
-      <c r="U2" s="15"/>
-      <c r="V2" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="W2" s="49"/>
-      <c r="X2" s="49"/>
-      <c r="Y2" s="49"/>
-      <c r="Z2" s="49"/>
-      <c r="AA2" s="49"/>
-      <c r="AB2" s="1"/>
-      <c r="AC2" s="1"/>
-      <c r="AD2" s="1"/>
-      <c r="AE2" s="1"/>
-      <c r="AF2" s="1"/>
-      <c r="AG2" s="1"/>
-      <c r="AH2" s="1"/>
-      <c r="AI2" s="1"/>
-      <c r="AJ2" s="1"/>
-      <c r="AK2" s="1"/>
-    </row>
-    <row r="3" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="48"/>
-      <c r="B3" s="48"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="66"/>
-      <c r="O3" s="66"/>
-      <c r="P3" s="66"/>
-      <c r="Q3" s="66"/>
-      <c r="R3" s="66"/>
-      <c r="S3" s="66"/>
-      <c r="T3" s="1"/>
-      <c r="U3" s="17"/>
-      <c r="V3" s="49" t="s">
-        <v>47</v>
-      </c>
-      <c r="W3" s="49"/>
-      <c r="X3" s="49"/>
-      <c r="Y3" s="49"/>
-      <c r="Z3" s="49"/>
-      <c r="AA3" s="49"/>
-      <c r="AB3" s="1"/>
-      <c r="AC3" s="1"/>
-      <c r="AD3" s="1"/>
-      <c r="AE3" s="1"/>
-      <c r="AF3" s="1"/>
-      <c r="AG3" s="1"/>
-      <c r="AH3" s="1"/>
-      <c r="AI3" s="1"/>
-      <c r="AJ3" s="1"/>
-      <c r="AK3" s="1"/>
-    </row>
-    <row r="4" spans="1:37" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="12"/>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="50">
-        <v>45910</v>
-      </c>
-      <c r="I4" s="50"/>
-      <c r="J4" s="16"/>
-      <c r="K4" s="12"/>
-      <c r="L4" s="12"/>
-      <c r="M4" s="12"/>
-      <c r="N4" s="12"/>
-      <c r="O4" s="12"/>
-      <c r="P4" s="12"/>
-      <c r="Q4" s="12"/>
-      <c r="R4" s="12"/>
-      <c r="S4" s="12"/>
-      <c r="T4" s="12"/>
-      <c r="U4" s="12"/>
-      <c r="V4" s="12"/>
-      <c r="W4" s="12"/>
-      <c r="X4" s="12"/>
-      <c r="Y4" s="12"/>
-      <c r="Z4" s="12"/>
-      <c r="AA4" s="12"/>
-      <c r="AB4" s="12"/>
-      <c r="AC4" s="12"/>
-      <c r="AD4" s="12"/>
-      <c r="AE4" s="12"/>
-      <c r="AF4" s="12"/>
-      <c r="AG4" s="12"/>
-      <c r="AH4" s="12"/>
-      <c r="AI4" s="12"/>
-      <c r="AJ4" s="47">
-        <v>46119</v>
-      </c>
-      <c r="AK4" s="47"/>
-    </row>
-    <row r="5" spans="1:37" ht="17.399999999999999" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="51" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="51"/>
-      <c r="C5" s="51"/>
-      <c r="D5" s="52"/>
-      <c r="E5" s="51" t="s">
-        <v>2</v>
-      </c>
-      <c r="F5" s="51"/>
-      <c r="G5" s="51"/>
-      <c r="H5" s="53" t="s">
-        <v>7</v>
-      </c>
-      <c r="I5" s="54"/>
-      <c r="J5" s="54"/>
-      <c r="K5" s="55" t="s">
-        <v>6</v>
-      </c>
-      <c r="L5" s="51"/>
-      <c r="M5" s="51"/>
-      <c r="N5" s="56"/>
-      <c r="O5" s="51" t="s">
-        <v>8</v>
-      </c>
-      <c r="P5" s="51"/>
-      <c r="Q5" s="51"/>
-      <c r="R5" s="51"/>
-      <c r="S5" s="56"/>
-      <c r="T5" s="51" t="s">
-        <v>9</v>
-      </c>
-      <c r="U5" s="51"/>
-      <c r="V5" s="51"/>
-      <c r="W5" s="56"/>
-      <c r="X5" s="51" t="s">
-        <v>10</v>
-      </c>
-      <c r="Y5" s="51"/>
-      <c r="Z5" s="51"/>
-      <c r="AA5" s="56"/>
-      <c r="AB5" s="51" t="s">
-        <v>11</v>
-      </c>
-      <c r="AC5" s="51"/>
-      <c r="AD5" s="51"/>
-      <c r="AE5" s="56"/>
-      <c r="AF5" s="51" t="s">
-        <v>12</v>
-      </c>
-      <c r="AG5" s="51"/>
-      <c r="AH5" s="51"/>
-      <c r="AI5" s="51"/>
-      <c r="AJ5" s="56"/>
-      <c r="AK5" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:37" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="57" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="57"/>
-      <c r="C6" s="57"/>
-      <c r="D6" s="58"/>
-      <c r="E6" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G6" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="H6" s="6">
-        <v>37</v>
-      </c>
-      <c r="I6" s="7">
-        <v>38</v>
-      </c>
-      <c r="J6" s="8">
-        <v>39</v>
-      </c>
-      <c r="K6" s="7">
-        <v>40</v>
-      </c>
-      <c r="L6" s="7">
-        <v>41</v>
-      </c>
-      <c r="M6" s="7">
-        <v>42</v>
-      </c>
-      <c r="N6" s="8">
-        <v>43</v>
-      </c>
-      <c r="O6" s="7">
-        <v>44</v>
-      </c>
-      <c r="P6" s="7">
-        <v>45</v>
-      </c>
-      <c r="Q6" s="7">
-        <v>46</v>
-      </c>
-      <c r="R6" s="7">
-        <v>47</v>
-      </c>
-      <c r="S6" s="8">
-        <v>48</v>
-      </c>
-      <c r="T6" s="7">
-        <v>49</v>
-      </c>
-      <c r="U6" s="7">
-        <v>50</v>
-      </c>
-      <c r="V6" s="7">
-        <v>51</v>
-      </c>
-      <c r="W6" s="8">
-        <v>52</v>
-      </c>
-      <c r="X6" s="7">
-        <v>1</v>
-      </c>
-      <c r="Y6" s="7">
-        <v>2</v>
-      </c>
-      <c r="Z6" s="7">
-        <v>3</v>
-      </c>
-      <c r="AA6" s="8">
-        <v>4</v>
-      </c>
-      <c r="AB6" s="7">
-        <v>5</v>
-      </c>
-      <c r="AC6" s="7">
-        <v>6</v>
-      </c>
-      <c r="AD6" s="7">
-        <v>7</v>
-      </c>
-      <c r="AE6" s="8">
-        <v>8</v>
-      </c>
-      <c r="AF6" s="9">
-        <v>9</v>
-      </c>
-      <c r="AG6" s="9">
-        <v>10</v>
-      </c>
-      <c r="AH6" s="9">
-        <v>11</v>
-      </c>
-      <c r="AI6" s="9">
-        <v>12</v>
-      </c>
-      <c r="AJ6" s="10">
-        <v>13</v>
-      </c>
-      <c r="AK6" s="11">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="59" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="59"/>
-      <c r="C7" s="59"/>
-      <c r="D7" s="60"/>
-      <c r="E7" s="20">
-        <v>2</v>
-      </c>
-      <c r="F7" s="21">
-        <v>2</v>
-      </c>
-      <c r="G7" s="22">
-        <v>2</v>
-      </c>
-      <c r="H7" s="29"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="25"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="25"/>
-      <c r="O7" s="1"/>
-      <c r="P7" s="1"/>
-      <c r="Q7" s="1"/>
-      <c r="R7" s="1"/>
-      <c r="S7" s="25"/>
-      <c r="T7" s="1"/>
-      <c r="U7" s="1"/>
-      <c r="V7" s="1"/>
-      <c r="W7" s="13"/>
-      <c r="X7" s="28"/>
-      <c r="Y7" s="1"/>
-      <c r="Z7" s="1"/>
-      <c r="AA7" s="25"/>
-      <c r="AB7" s="1"/>
-      <c r="AC7" s="1"/>
-      <c r="AD7" s="1"/>
-      <c r="AE7" s="25"/>
-      <c r="AF7" s="1"/>
-      <c r="AG7" s="1"/>
-      <c r="AH7" s="1"/>
-      <c r="AI7" s="1"/>
-      <c r="AJ7" s="25"/>
-      <c r="AK7" s="3"/>
-    </row>
-    <row r="8" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="45" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="45"/>
-      <c r="C8" s="45"/>
-      <c r="D8" s="46"/>
-      <c r="E8" s="2">
-        <v>11</v>
-      </c>
-      <c r="F8" s="2">
-        <v>9</v>
-      </c>
-      <c r="G8" s="19">
-        <v>12</v>
-      </c>
-      <c r="H8" s="29"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="30"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="26"/>
-      <c r="O8" s="1"/>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="1"/>
-      <c r="R8" s="1"/>
-      <c r="S8" s="26"/>
-      <c r="T8" s="1"/>
-      <c r="U8" s="1"/>
-      <c r="V8" s="1"/>
-      <c r="W8" s="26"/>
-      <c r="X8" s="1"/>
-      <c r="Y8" s="1"/>
-      <c r="Z8" s="1"/>
-      <c r="AA8" s="26"/>
-      <c r="AB8" s="1"/>
-      <c r="AC8" s="1"/>
-      <c r="AD8" s="1"/>
-      <c r="AE8" s="26"/>
-      <c r="AF8" s="1"/>
-      <c r="AG8" s="1"/>
-      <c r="AH8" s="1"/>
-      <c r="AI8" s="1"/>
-      <c r="AJ8" s="26"/>
-      <c r="AK8" s="3"/>
-    </row>
-    <row r="9" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="45" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="45"/>
-      <c r="C9" s="45"/>
-      <c r="D9" s="46"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2">
-        <v>4</v>
-      </c>
-      <c r="G9" s="19"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="30"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="26"/>
-      <c r="O9" s="1"/>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="1"/>
-      <c r="R9" s="1"/>
-      <c r="S9" s="26"/>
-      <c r="T9" s="1"/>
-      <c r="U9" s="1"/>
-      <c r="V9" s="1"/>
-      <c r="W9" s="26"/>
-      <c r="X9" s="1"/>
-      <c r="Y9" s="1"/>
-      <c r="Z9" s="1"/>
-      <c r="AA9" s="26"/>
-      <c r="AB9" s="1"/>
-      <c r="AC9" s="1"/>
-      <c r="AD9" s="1"/>
-      <c r="AE9" s="26"/>
-      <c r="AF9" s="1"/>
-      <c r="AG9" s="1"/>
-      <c r="AH9" s="1"/>
-      <c r="AI9" s="1"/>
-      <c r="AJ9" s="26"/>
-      <c r="AK9" s="3"/>
-    </row>
-    <row r="10" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="45" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" s="45"/>
-      <c r="C10" s="45"/>
-      <c r="D10" s="46"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="19">
-        <v>2</v>
-      </c>
-      <c r="H10" s="4"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="30"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="26"/>
-      <c r="O10" s="1"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="1"/>
-      <c r="R10" s="1"/>
-      <c r="S10" s="26"/>
-      <c r="T10" s="1"/>
-      <c r="U10" s="1"/>
-      <c r="V10" s="1"/>
-      <c r="W10" s="26"/>
-      <c r="X10" s="1"/>
-      <c r="Y10" s="1"/>
-      <c r="Z10" s="1"/>
-      <c r="AA10" s="26"/>
-      <c r="AB10" s="1"/>
-      <c r="AC10" s="1"/>
-      <c r="AD10" s="1"/>
-      <c r="AE10" s="26"/>
-      <c r="AF10" s="1"/>
-      <c r="AG10" s="1"/>
-      <c r="AH10" s="1"/>
-      <c r="AI10" s="1"/>
-      <c r="AJ10" s="26"/>
-      <c r="AK10" s="3"/>
-    </row>
-    <row r="11" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="45" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" s="45"/>
-      <c r="C11" s="45"/>
-      <c r="D11" s="46"/>
-      <c r="E11" s="2">
-        <v>3</v>
-      </c>
-      <c r="F11" s="2">
-        <v>1</v>
-      </c>
-      <c r="G11" s="19"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="30"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="26"/>
-      <c r="O11" s="1"/>
-      <c r="P11" s="1"/>
-      <c r="Q11" s="1"/>
-      <c r="R11" s="1"/>
-      <c r="S11" s="26"/>
-      <c r="T11" s="1"/>
-      <c r="U11" s="1"/>
-      <c r="V11" s="1"/>
-      <c r="W11" s="26"/>
-      <c r="X11" s="1"/>
-      <c r="Y11" s="1"/>
-      <c r="Z11" s="1"/>
-      <c r="AA11" s="26"/>
-      <c r="AB11" s="1"/>
-      <c r="AC11" s="1"/>
-      <c r="AD11" s="1"/>
-      <c r="AE11" s="26"/>
-      <c r="AF11" s="1"/>
-      <c r="AG11" s="1"/>
-      <c r="AH11" s="1"/>
-      <c r="AI11" s="1"/>
-      <c r="AJ11" s="26"/>
-      <c r="AK11" s="3"/>
-    </row>
-    <row r="12" spans="1:37" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="61" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" s="61"/>
-      <c r="C12" s="61"/>
-      <c r="D12" s="62"/>
-      <c r="E12" s="32">
-        <f>E7+E8+E9+E10+E11</f>
-        <v>16</v>
-      </c>
-      <c r="F12" s="32">
-        <f t="shared" ref="F12:G12" si="0">F7+F8+F9+F10+F11</f>
-        <v>16</v>
-      </c>
-      <c r="G12" s="33">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="H12" s="23"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="31"/>
-      <c r="K12" s="9"/>
-      <c r="L12" s="9"/>
-      <c r="M12" s="9"/>
-      <c r="N12" s="27"/>
-      <c r="O12" s="9"/>
-      <c r="P12" s="9"/>
-      <c r="Q12" s="9"/>
-      <c r="R12" s="9"/>
-      <c r="S12" s="27"/>
-      <c r="T12" s="9"/>
-      <c r="U12" s="9"/>
-      <c r="V12" s="9"/>
-      <c r="W12" s="27"/>
-      <c r="X12" s="9"/>
-      <c r="Y12" s="9"/>
-      <c r="Z12" s="9"/>
-      <c r="AA12" s="27"/>
-      <c r="AB12" s="9"/>
-      <c r="AC12" s="9"/>
-      <c r="AD12" s="9"/>
-      <c r="AE12" s="27"/>
-      <c r="AF12" s="9"/>
-      <c r="AG12" s="9"/>
-      <c r="AH12" s="9"/>
-      <c r="AI12" s="9"/>
-      <c r="AJ12" s="27"/>
-      <c r="AK12" s="24"/>
-    </row>
-    <row r="13" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A13" s="45" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" s="45"/>
-      <c r="C13" s="45"/>
-      <c r="D13" s="46"/>
-      <c r="E13" s="18">
-        <v>2</v>
-      </c>
-      <c r="F13" s="2">
-        <v>2</v>
-      </c>
-      <c r="G13" s="19">
-        <v>2</v>
-      </c>
-      <c r="H13" s="29"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="26"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="26"/>
-      <c r="O13" s="1"/>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="1"/>
-      <c r="R13" s="1"/>
-      <c r="S13" s="26"/>
-      <c r="T13" s="1"/>
-      <c r="U13" s="1"/>
-      <c r="V13" s="1"/>
-      <c r="W13" s="26"/>
-      <c r="X13" s="1"/>
-      <c r="Y13" s="1"/>
-      <c r="Z13" s="1"/>
-      <c r="AA13" s="26"/>
-      <c r="AB13" s="1"/>
-      <c r="AC13" s="1"/>
-      <c r="AD13" s="1"/>
-      <c r="AE13" s="26"/>
-      <c r="AF13" s="1"/>
-      <c r="AG13" s="1"/>
-      <c r="AH13" s="1"/>
-      <c r="AI13" s="1"/>
-      <c r="AJ13" s="26"/>
-      <c r="AK13" s="3"/>
-    </row>
-    <row r="14" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="45" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" s="45"/>
-      <c r="C14" s="45"/>
-      <c r="D14" s="46"/>
-      <c r="E14" s="2">
-        <v>2</v>
-      </c>
-      <c r="F14" s="2">
-        <v>2</v>
-      </c>
-      <c r="G14" s="19">
-        <v>2</v>
-      </c>
-      <c r="H14" s="4"/>
-      <c r="I14" s="14"/>
-      <c r="J14" s="26"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
-      <c r="N14" s="26"/>
-      <c r="O14" s="1"/>
-      <c r="P14" s="1"/>
-      <c r="Q14" s="1"/>
-      <c r="R14" s="1"/>
-      <c r="S14" s="26"/>
-      <c r="T14" s="1"/>
-      <c r="U14" s="1"/>
-      <c r="V14" s="1"/>
-      <c r="W14" s="26"/>
-      <c r="X14" s="1"/>
-      <c r="Y14" s="1"/>
-      <c r="Z14" s="1"/>
-      <c r="AA14" s="26"/>
-      <c r="AB14" s="1"/>
-      <c r="AC14" s="1"/>
-      <c r="AD14" s="1"/>
-      <c r="AE14" s="26"/>
-      <c r="AF14" s="1"/>
-      <c r="AG14" s="1"/>
-      <c r="AH14" s="1"/>
-      <c r="AI14" s="1"/>
-      <c r="AJ14" s="26"/>
-      <c r="AK14" s="3"/>
-    </row>
-    <row r="15" spans="1:37" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="61" t="s">
-        <v>24</v>
-      </c>
-      <c r="B15" s="61"/>
-      <c r="C15" s="61"/>
-      <c r="D15" s="62"/>
-      <c r="E15" s="32">
-        <f>E13+E14</f>
-        <v>4</v>
-      </c>
-      <c r="F15" s="32">
-        <f t="shared" ref="F15:G15" si="1">F13+F14</f>
-        <v>4</v>
-      </c>
-      <c r="G15" s="32">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="H15" s="23"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="31"/>
-      <c r="K15" s="9"/>
-      <c r="L15" s="9"/>
-      <c r="M15" s="9"/>
-      <c r="N15" s="27"/>
-      <c r="O15" s="9"/>
-      <c r="P15" s="9"/>
-      <c r="Q15" s="9"/>
-      <c r="R15" s="9"/>
-      <c r="S15" s="27"/>
-      <c r="T15" s="9"/>
-      <c r="U15" s="9"/>
-      <c r="V15" s="9"/>
-      <c r="W15" s="27"/>
-      <c r="X15" s="9"/>
-      <c r="Y15" s="9"/>
-      <c r="Z15" s="9"/>
-      <c r="AA15" s="27"/>
-      <c r="AB15" s="9"/>
-      <c r="AC15" s="9"/>
-      <c r="AD15" s="9"/>
-      <c r="AE15" s="27"/>
-      <c r="AF15" s="9"/>
-      <c r="AG15" s="9"/>
-      <c r="AH15" s="9"/>
-      <c r="AI15" s="9"/>
-      <c r="AJ15" s="27"/>
-      <c r="AK15" s="24"/>
-    </row>
-    <row r="16" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A16" s="45" t="s">
-        <v>50</v>
-      </c>
-      <c r="B16" s="45"/>
-      <c r="C16" s="45"/>
-      <c r="D16" s="46"/>
-      <c r="E16" s="2">
-        <v>3</v>
-      </c>
-      <c r="F16" s="2">
-        <v>3</v>
-      </c>
-      <c r="G16" s="19">
-        <v>3</v>
-      </c>
-      <c r="H16" s="4"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="44"/>
-      <c r="K16" s="14"/>
-      <c r="L16" s="1"/>
-      <c r="M16" s="1"/>
-      <c r="N16" s="26"/>
-      <c r="O16" s="1"/>
-      <c r="P16" s="1"/>
-      <c r="Q16" s="1"/>
-      <c r="R16" s="1"/>
-      <c r="S16" s="26"/>
-      <c r="T16" s="1"/>
-      <c r="U16" s="1"/>
-      <c r="V16" s="1"/>
-      <c r="W16" s="26"/>
-      <c r="X16" s="1"/>
-      <c r="Y16" s="1"/>
-      <c r="Z16" s="1"/>
-      <c r="AA16" s="26"/>
-      <c r="AB16" s="1"/>
-      <c r="AC16" s="1"/>
-      <c r="AD16" s="1"/>
-      <c r="AE16" s="26"/>
-      <c r="AF16" s="1"/>
-      <c r="AG16" s="1"/>
-      <c r="AH16" s="1"/>
-      <c r="AI16" s="1"/>
-      <c r="AJ16" s="26"/>
-      <c r="AK16" s="3"/>
-    </row>
-    <row r="17" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A17" s="45" t="s">
-        <v>30</v>
-      </c>
-      <c r="B17" s="45"/>
-      <c r="C17" s="45"/>
-      <c r="D17" s="46"/>
-      <c r="E17" s="2">
-        <v>4</v>
-      </c>
-      <c r="F17" s="2">
-        <v>15</v>
-      </c>
-      <c r="G17" s="19"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="26"/>
-      <c r="K17" s="14"/>
-      <c r="L17" s="14"/>
-      <c r="M17" s="14"/>
-      <c r="N17" s="39"/>
-      <c r="O17" s="15"/>
-      <c r="P17" s="1"/>
-      <c r="Q17" s="1"/>
-      <c r="R17" s="1"/>
-      <c r="S17" s="26"/>
-      <c r="T17" s="1"/>
-      <c r="U17" s="1"/>
-      <c r="V17" s="1"/>
-      <c r="W17" s="26"/>
-      <c r="X17" s="1"/>
-      <c r="Y17" s="1"/>
-      <c r="Z17" s="1"/>
-      <c r="AA17" s="26"/>
-      <c r="AB17" s="1"/>
-      <c r="AC17" s="1"/>
-      <c r="AD17" s="1"/>
-      <c r="AE17" s="26"/>
-      <c r="AF17" s="1"/>
-      <c r="AG17" s="1"/>
-      <c r="AH17" s="1"/>
-      <c r="AI17" s="1"/>
-      <c r="AJ17" s="26"/>
-      <c r="AK17" s="3"/>
-    </row>
-    <row r="18" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A18" s="45" t="s">
-        <v>27</v>
-      </c>
-      <c r="B18" s="45"/>
-      <c r="C18" s="45"/>
-      <c r="D18" s="46"/>
-      <c r="E18" s="2">
-        <v>10</v>
-      </c>
-      <c r="F18" s="2">
-        <v>2</v>
-      </c>
-      <c r="G18" s="19">
-        <v>10</v>
-      </c>
-      <c r="H18" s="4"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="26"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="14"/>
-      <c r="M18" s="14"/>
-      <c r="N18" s="39"/>
-      <c r="O18" s="1"/>
-      <c r="P18" s="1"/>
-      <c r="Q18" s="1"/>
-      <c r="R18" s="1"/>
-      <c r="S18" s="26"/>
-      <c r="T18" s="1"/>
-      <c r="U18" s="1"/>
-      <c r="V18" s="1"/>
-      <c r="W18" s="26"/>
-      <c r="X18" s="1"/>
-      <c r="Y18" s="1"/>
-      <c r="Z18" s="1"/>
-      <c r="AA18" s="26"/>
-      <c r="AB18" s="1"/>
-      <c r="AC18" s="1"/>
-      <c r="AD18" s="1"/>
-      <c r="AE18" s="26"/>
-      <c r="AF18" s="1"/>
-      <c r="AG18" s="1"/>
-      <c r="AH18" s="1"/>
-      <c r="AI18" s="1"/>
-      <c r="AJ18" s="26"/>
-      <c r="AK18" s="3"/>
-    </row>
-    <row r="19" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A19" s="45" t="s">
-        <v>28</v>
-      </c>
-      <c r="B19" s="45"/>
-      <c r="C19" s="45"/>
-      <c r="D19" s="46"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="19">
-        <v>12</v>
-      </c>
-      <c r="H19" s="4"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="26"/>
-      <c r="K19" s="14"/>
-      <c r="L19" s="1"/>
-      <c r="M19" s="1"/>
-      <c r="N19" s="30"/>
-      <c r="O19" s="1"/>
-      <c r="P19" s="1"/>
-      <c r="Q19" s="1"/>
-      <c r="R19" s="1"/>
-      <c r="S19" s="26"/>
-      <c r="T19" s="1"/>
-      <c r="U19" s="1"/>
-      <c r="V19" s="1"/>
-      <c r="W19" s="26"/>
-      <c r="X19" s="1"/>
-      <c r="Y19" s="1"/>
-      <c r="Z19" s="1"/>
-      <c r="AA19" s="26"/>
-      <c r="AB19" s="1"/>
-      <c r="AC19" s="1"/>
-      <c r="AD19" s="1"/>
-      <c r="AE19" s="26"/>
-      <c r="AF19" s="1"/>
-      <c r="AG19" s="1"/>
-      <c r="AH19" s="1"/>
-      <c r="AI19" s="1"/>
-      <c r="AJ19" s="26"/>
-      <c r="AK19" s="3"/>
-    </row>
-    <row r="20" spans="1:37" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="63" t="s">
-        <v>42</v>
-      </c>
-      <c r="B20" s="63"/>
-      <c r="C20" s="63"/>
-      <c r="D20" s="63"/>
-      <c r="E20" s="34">
-        <f>E16+E17+E18+E19</f>
-        <v>17</v>
-      </c>
-      <c r="F20" s="34">
-        <f t="shared" ref="F20:G20" si="2">F16+F17+F18+F19</f>
-        <v>20</v>
-      </c>
-      <c r="G20" s="34">
-        <f t="shared" si="2"/>
-        <v>25</v>
-      </c>
-      <c r="H20" s="23"/>
-      <c r="I20" s="9"/>
-      <c r="J20" s="27"/>
-      <c r="K20" s="9"/>
-      <c r="L20" s="9"/>
-      <c r="M20" s="9"/>
-      <c r="N20" s="27"/>
-      <c r="O20" s="67"/>
-      <c r="P20" s="9"/>
-      <c r="Q20" s="9"/>
-      <c r="R20" s="9"/>
-      <c r="S20" s="27"/>
-      <c r="T20" s="9"/>
-      <c r="U20" s="9"/>
-      <c r="V20" s="9"/>
-      <c r="W20" s="27"/>
-      <c r="X20" s="9"/>
-      <c r="Y20" s="9"/>
-      <c r="Z20" s="9"/>
-      <c r="AA20" s="27"/>
-      <c r="AB20" s="9"/>
-      <c r="AC20" s="9"/>
-      <c r="AD20" s="9"/>
-      <c r="AE20" s="27"/>
-      <c r="AF20" s="9"/>
-      <c r="AG20" s="9"/>
-      <c r="AH20" s="9"/>
-      <c r="AI20" s="9"/>
-      <c r="AJ20" s="27"/>
-      <c r="AK20" s="24"/>
-    </row>
-    <row r="21" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A21" s="59" t="s">
-        <v>40</v>
-      </c>
-      <c r="B21" s="59"/>
-      <c r="C21" s="59"/>
-      <c r="D21" s="60"/>
-      <c r="E21" s="18">
-        <v>13</v>
-      </c>
-      <c r="F21" s="2">
-        <v>30</v>
-      </c>
-      <c r="G21" s="19"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="26"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
-      <c r="M21" s="1"/>
-      <c r="N21" s="26"/>
-      <c r="O21" s="14"/>
-      <c r="P21" s="14"/>
-      <c r="Q21" s="14"/>
-      <c r="R21" s="14"/>
-      <c r="S21" s="44"/>
-      <c r="T21" s="43"/>
-      <c r="U21" s="43"/>
-      <c r="V21" s="43"/>
-      <c r="W21" s="26"/>
-      <c r="X21" s="1"/>
-      <c r="Y21" s="1"/>
-      <c r="Z21" s="1"/>
-      <c r="AA21" s="26"/>
-      <c r="AB21" s="1"/>
-      <c r="AC21" s="1"/>
-      <c r="AD21" s="1"/>
-      <c r="AE21" s="26"/>
-      <c r="AF21" s="1"/>
-      <c r="AG21" s="1"/>
-      <c r="AH21" s="1"/>
-      <c r="AI21" s="1"/>
-      <c r="AJ21" s="26"/>
-      <c r="AK21" s="3"/>
-    </row>
-    <row r="22" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A22" s="45" t="s">
-        <v>29</v>
-      </c>
-      <c r="B22" s="45"/>
-      <c r="C22" s="45"/>
-      <c r="D22" s="46"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="19">
-        <v>5</v>
-      </c>
-      <c r="H22" s="4"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="26"/>
-      <c r="K22" s="1"/>
-      <c r="L22" s="1"/>
-      <c r="M22" s="1"/>
-      <c r="N22" s="26"/>
-      <c r="O22" s="14"/>
-      <c r="P22" s="1"/>
-      <c r="Q22" s="1"/>
-      <c r="R22" s="1"/>
-      <c r="S22" s="26"/>
-      <c r="T22" s="1"/>
-      <c r="U22" s="1"/>
-      <c r="V22" s="1"/>
-      <c r="W22" s="26"/>
-      <c r="X22" s="1"/>
-      <c r="Y22" s="1"/>
-      <c r="Z22" s="1"/>
-      <c r="AA22" s="26"/>
-      <c r="AB22" s="1"/>
-      <c r="AC22" s="1"/>
-      <c r="AD22" s="1"/>
-      <c r="AE22" s="26"/>
-      <c r="AF22" s="1"/>
-      <c r="AG22" s="1"/>
-      <c r="AH22" s="1"/>
-      <c r="AI22" s="1"/>
-      <c r="AJ22" s="26"/>
-      <c r="AK22" s="3"/>
-    </row>
-    <row r="23" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A23" s="45" t="s">
-        <v>31</v>
-      </c>
-      <c r="B23" s="45"/>
-      <c r="C23" s="45"/>
-      <c r="D23" s="46"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="19">
-        <v>10</v>
-      </c>
-      <c r="H23" s="4"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="26"/>
-      <c r="K23" s="1"/>
-      <c r="L23" s="1"/>
-      <c r="M23" s="1"/>
-      <c r="N23" s="26"/>
-      <c r="O23" s="1"/>
-      <c r="P23" s="14"/>
-      <c r="Q23" s="1"/>
-      <c r="R23" s="1"/>
-      <c r="S23" s="26"/>
-      <c r="T23" s="1"/>
-      <c r="U23" s="1"/>
-      <c r="V23" s="1"/>
-      <c r="W23" s="26"/>
-      <c r="X23" s="1"/>
-      <c r="Y23" s="1"/>
-      <c r="Z23" s="1"/>
-      <c r="AA23" s="26"/>
-      <c r="AB23" s="1"/>
-      <c r="AC23" s="1"/>
-      <c r="AD23" s="1"/>
-      <c r="AE23" s="26"/>
-      <c r="AF23" s="1"/>
-      <c r="AG23" s="1"/>
-      <c r="AH23" s="1"/>
-      <c r="AI23" s="1"/>
-      <c r="AJ23" s="26"/>
-      <c r="AK23" s="3"/>
-    </row>
-    <row r="24" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A24" s="45" t="s">
-        <v>32</v>
-      </c>
-      <c r="B24" s="45"/>
-      <c r="C24" s="45"/>
-      <c r="D24" s="46"/>
-      <c r="E24" s="2">
-        <v>20</v>
-      </c>
-      <c r="F24" s="2"/>
-      <c r="G24" s="19">
-        <v>10</v>
-      </c>
-      <c r="H24" s="4"/>
-      <c r="I24" s="1"/>
-      <c r="J24" s="26"/>
-      <c r="K24" s="1"/>
-      <c r="L24" s="1"/>
-      <c r="M24" s="1"/>
-      <c r="N24" s="26"/>
-      <c r="O24" s="1"/>
-      <c r="P24" s="1"/>
-      <c r="Q24" s="14"/>
-      <c r="R24" s="14"/>
-      <c r="S24" s="30"/>
-      <c r="T24" s="68"/>
-      <c r="U24" s="69"/>
-      <c r="V24" s="1"/>
-      <c r="W24" s="26"/>
-      <c r="X24" s="1"/>
-      <c r="Y24" s="1"/>
-      <c r="Z24" s="1"/>
-      <c r="AA24" s="26"/>
-      <c r="AB24" s="1"/>
-      <c r="AC24" s="1"/>
-      <c r="AD24" s="1"/>
-      <c r="AE24" s="26"/>
-      <c r="AF24" s="1"/>
-      <c r="AG24" s="1"/>
-      <c r="AH24" s="1"/>
-      <c r="AI24" s="1"/>
-      <c r="AJ24" s="26"/>
-      <c r="AK24" s="3"/>
-    </row>
-    <row r="25" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A25" s="45" t="s">
-        <v>33</v>
-      </c>
-      <c r="B25" s="45"/>
-      <c r="C25" s="45"/>
-      <c r="D25" s="46"/>
-      <c r="E25" s="2">
-        <v>5</v>
-      </c>
-      <c r="F25" s="2">
-        <v>5</v>
-      </c>
-      <c r="G25" s="19">
-        <v>5</v>
-      </c>
-      <c r="H25" s="4"/>
-      <c r="I25" s="1"/>
-      <c r="J25" s="26"/>
-      <c r="K25" s="1"/>
-      <c r="L25" s="1"/>
-      <c r="M25" s="1"/>
-      <c r="N25" s="26"/>
-      <c r="O25" s="1"/>
-      <c r="P25" s="1"/>
-      <c r="Q25" s="1"/>
-      <c r="R25" s="1"/>
-      <c r="S25" s="30"/>
-      <c r="T25" s="1"/>
-      <c r="U25" s="1"/>
-      <c r="V25" s="1"/>
-      <c r="W25" s="26"/>
-      <c r="X25" s="1"/>
-      <c r="Y25" s="1"/>
-      <c r="Z25" s="1"/>
-      <c r="AA25" s="26"/>
-      <c r="AB25" s="1"/>
-      <c r="AC25" s="1"/>
-      <c r="AD25" s="1"/>
-      <c r="AE25" s="26"/>
-      <c r="AF25" s="1"/>
-      <c r="AG25" s="1"/>
-      <c r="AH25" s="1"/>
-      <c r="AI25" s="1"/>
-      <c r="AJ25" s="26"/>
-      <c r="AK25" s="3"/>
-    </row>
-    <row r="26" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A26" s="45" t="s">
-        <v>41</v>
-      </c>
-      <c r="B26" s="45"/>
-      <c r="C26" s="45"/>
-      <c r="D26" s="46"/>
-      <c r="E26" s="2">
-        <v>40</v>
-      </c>
-      <c r="F26" s="2">
-        <v>40</v>
-      </c>
-      <c r="G26" s="19">
-        <v>30</v>
-      </c>
-      <c r="H26" s="4"/>
-      <c r="I26" s="1"/>
-      <c r="J26" s="26"/>
-      <c r="K26" s="1"/>
-      <c r="L26" s="1"/>
-      <c r="M26" s="1"/>
-      <c r="N26" s="26"/>
-      <c r="O26" s="1"/>
-      <c r="P26" s="1"/>
-      <c r="Q26" s="1"/>
-      <c r="R26" s="1"/>
-      <c r="S26" s="26"/>
-      <c r="T26" s="17"/>
-      <c r="U26" s="17"/>
-      <c r="V26" s="17"/>
-      <c r="W26" s="41"/>
-      <c r="X26" s="17"/>
-      <c r="Y26" s="15"/>
-      <c r="Z26" s="15"/>
-      <c r="AA26" s="26"/>
-      <c r="AB26" s="1"/>
-      <c r="AC26" s="1"/>
-      <c r="AD26" s="1"/>
-      <c r="AE26" s="26"/>
-      <c r="AF26" s="1"/>
-      <c r="AG26" s="1"/>
-      <c r="AH26" s="1"/>
-      <c r="AI26" s="1"/>
-      <c r="AJ26" s="26"/>
-      <c r="AK26" s="3"/>
-    </row>
-    <row r="27" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A27" s="45" t="s">
-        <v>34</v>
-      </c>
-      <c r="B27" s="45"/>
-      <c r="C27" s="45"/>
-      <c r="D27" s="46"/>
-      <c r="E27" s="2">
-        <v>5</v>
-      </c>
-      <c r="F27" s="2">
-        <v>5</v>
-      </c>
-      <c r="G27" s="19">
-        <v>5</v>
-      </c>
-      <c r="H27" s="4"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="26"/>
-      <c r="K27" s="1"/>
-      <c r="L27" s="1"/>
-      <c r="M27" s="1"/>
-      <c r="N27" s="26"/>
-      <c r="O27" s="1"/>
-      <c r="P27" s="1"/>
-      <c r="Q27" s="1"/>
-      <c r="R27" s="1"/>
-      <c r="S27" s="26"/>
-      <c r="T27" s="1"/>
-      <c r="U27" s="1"/>
-      <c r="V27" s="1"/>
-      <c r="W27" s="26"/>
-      <c r="X27" s="1"/>
-      <c r="Y27" s="1"/>
-      <c r="Z27" s="17"/>
-      <c r="AA27" s="39"/>
-      <c r="AB27" s="1"/>
-      <c r="AC27" s="1"/>
-      <c r="AD27" s="1"/>
-      <c r="AE27" s="26"/>
-      <c r="AF27" s="1"/>
-      <c r="AG27" s="1"/>
-      <c r="AH27" s="1"/>
-      <c r="AI27" s="1"/>
-      <c r="AJ27" s="26"/>
-      <c r="AK27" s="3"/>
-    </row>
-    <row r="28" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A28" s="45" t="s">
-        <v>35</v>
-      </c>
-      <c r="B28" s="45"/>
-      <c r="C28" s="45"/>
-      <c r="D28" s="46"/>
-      <c r="E28" s="2">
-        <v>5</v>
-      </c>
-      <c r="F28" s="2">
-        <v>5</v>
-      </c>
-      <c r="G28" s="19">
-        <v>5</v>
-      </c>
-      <c r="H28" s="4"/>
-      <c r="I28" s="1"/>
-      <c r="J28" s="26"/>
-      <c r="K28" s="1"/>
-      <c r="L28" s="1"/>
-      <c r="M28" s="1"/>
-      <c r="N28" s="26"/>
-      <c r="O28" s="1"/>
-      <c r="P28" s="1"/>
-      <c r="Q28" s="1"/>
-      <c r="R28" s="1"/>
-      <c r="S28" s="26"/>
-      <c r="T28" s="1"/>
-      <c r="U28" s="1"/>
-      <c r="V28" s="1"/>
-      <c r="W28" s="26"/>
-      <c r="X28" s="1"/>
-      <c r="Y28" s="1"/>
-      <c r="Z28" s="1"/>
-      <c r="AA28" s="26"/>
-      <c r="AB28" s="17"/>
-      <c r="AC28" s="15"/>
-      <c r="AD28" s="1"/>
-      <c r="AE28" s="26"/>
-      <c r="AF28" s="1"/>
-      <c r="AG28" s="1"/>
-      <c r="AH28" s="1"/>
-      <c r="AI28" s="1"/>
-      <c r="AJ28" s="26"/>
-      <c r="AK28" s="3"/>
-    </row>
-    <row r="29" spans="1:37" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="61" t="s">
-        <v>39</v>
-      </c>
-      <c r="B29" s="61"/>
-      <c r="C29" s="61"/>
-      <c r="D29" s="62"/>
-      <c r="E29" s="32">
-        <f>E21+E22+E23+E24+E25+E26+E27+E28</f>
-        <v>88</v>
-      </c>
-      <c r="F29" s="32">
-        <f t="shared" ref="F29:G29" si="3">F21+F22+F23+F24+F25+F26+F27+F28</f>
-        <v>85</v>
-      </c>
-      <c r="G29" s="32">
-        <f t="shared" si="3"/>
-        <v>70</v>
-      </c>
-      <c r="H29" s="23"/>
-      <c r="I29" s="9"/>
-      <c r="J29" s="27"/>
-      <c r="K29" s="9"/>
-      <c r="L29" s="9"/>
-      <c r="M29" s="9"/>
-      <c r="N29" s="27"/>
-      <c r="O29" s="9"/>
-      <c r="P29" s="9"/>
-      <c r="Q29" s="9"/>
-      <c r="R29" s="9"/>
-      <c r="S29" s="27"/>
-      <c r="T29" s="9"/>
-      <c r="U29" s="9"/>
-      <c r="V29" s="9"/>
-      <c r="W29" s="27"/>
-      <c r="X29" s="9"/>
-      <c r="Y29" s="9"/>
-      <c r="Z29" s="9"/>
-      <c r="AA29" s="27"/>
-      <c r="AB29" s="9"/>
-      <c r="AC29" s="37"/>
-      <c r="AD29" s="9"/>
-      <c r="AE29" s="27"/>
-      <c r="AF29" s="9"/>
-      <c r="AG29" s="9"/>
-      <c r="AH29" s="9"/>
-      <c r="AI29" s="9"/>
-      <c r="AJ29" s="27"/>
-      <c r="AK29" s="24"/>
-    </row>
-    <row r="30" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A30" s="45" t="s">
-        <v>36</v>
-      </c>
-      <c r="B30" s="45"/>
-      <c r="C30" s="45"/>
-      <c r="D30" s="46"/>
-      <c r="E30" s="2">
-        <v>15</v>
-      </c>
-      <c r="F30" s="2">
-        <v>15</v>
-      </c>
-      <c r="G30" s="19">
-        <v>20</v>
-      </c>
-      <c r="H30" s="4"/>
-      <c r="I30" s="1"/>
-      <c r="J30" s="26"/>
-      <c r="K30" s="1"/>
-      <c r="L30" s="1"/>
-      <c r="M30" s="1"/>
-      <c r="N30" s="26"/>
-      <c r="O30" s="1"/>
-      <c r="P30" s="1"/>
-      <c r="Q30" s="1"/>
-      <c r="R30" s="1"/>
-      <c r="S30" s="26"/>
-      <c r="T30" s="1"/>
-      <c r="U30" s="1"/>
-      <c r="V30" s="1"/>
-      <c r="W30" s="26"/>
-      <c r="X30" s="1"/>
-      <c r="Y30" s="1"/>
-      <c r="Z30" s="1"/>
-      <c r="AA30" s="26"/>
-      <c r="AB30" s="1"/>
-      <c r="AC30" s="17"/>
-      <c r="AD30" s="17"/>
-      <c r="AE30" s="41"/>
-      <c r="AF30" s="1"/>
-      <c r="AG30" s="1"/>
-      <c r="AH30" s="1"/>
-      <c r="AI30" s="1"/>
-      <c r="AJ30" s="26"/>
-      <c r="AK30" s="3"/>
-    </row>
-    <row r="31" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A31" s="45" t="s">
-        <v>37</v>
-      </c>
-      <c r="B31" s="45"/>
-      <c r="C31" s="45"/>
-      <c r="D31" s="46"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2">
-        <v>5</v>
-      </c>
-      <c r="H31" s="4"/>
-      <c r="I31" s="1"/>
-      <c r="J31" s="26"/>
-      <c r="K31" s="1"/>
-      <c r="L31" s="1"/>
-      <c r="M31" s="1"/>
-      <c r="N31" s="26"/>
-      <c r="O31" s="1"/>
-      <c r="P31" s="1"/>
-      <c r="Q31" s="1"/>
-      <c r="R31" s="1"/>
-      <c r="S31" s="26"/>
-      <c r="T31" s="1"/>
-      <c r="U31" s="1"/>
-      <c r="V31" s="1"/>
-      <c r="W31" s="26"/>
-      <c r="X31" s="1"/>
-      <c r="Y31" s="1"/>
-      <c r="Z31" s="1"/>
-      <c r="AA31" s="26"/>
-      <c r="AB31" s="1"/>
-      <c r="AC31" s="1"/>
-      <c r="AD31" s="1"/>
-      <c r="AE31" s="41"/>
-      <c r="AF31" s="1"/>
-      <c r="AG31" s="1"/>
-      <c r="AH31" s="1"/>
-      <c r="AI31" s="1"/>
-      <c r="AJ31" s="26"/>
-      <c r="AK31" s="3"/>
-    </row>
-    <row r="32" spans="1:37" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="61" t="s">
-        <v>38</v>
-      </c>
-      <c r="B32" s="61"/>
-      <c r="C32" s="61"/>
-      <c r="D32" s="62"/>
-      <c r="E32" s="34">
-        <f>E30+E31</f>
-        <v>15</v>
-      </c>
-      <c r="F32" s="32">
-        <f t="shared" ref="F32:G32" si="4">F30+F31</f>
-        <v>15</v>
-      </c>
-      <c r="G32" s="32">
-        <f t="shared" si="4"/>
-        <v>25</v>
-      </c>
-      <c r="H32" s="23"/>
-      <c r="I32" s="9"/>
-      <c r="J32" s="27"/>
-      <c r="K32" s="9"/>
-      <c r="L32" s="9"/>
-      <c r="M32" s="9"/>
-      <c r="N32" s="27"/>
-      <c r="O32" s="9"/>
-      <c r="P32" s="9"/>
-      <c r="Q32" s="9"/>
-      <c r="R32" s="9"/>
-      <c r="S32" s="27"/>
-      <c r="T32" s="9"/>
-      <c r="U32" s="9"/>
-      <c r="V32" s="9"/>
-      <c r="W32" s="27"/>
-      <c r="X32" s="9"/>
-      <c r="Y32" s="9"/>
-      <c r="Z32" s="9"/>
-      <c r="AA32" s="27"/>
-      <c r="AB32" s="9"/>
-      <c r="AC32" s="9"/>
-      <c r="AD32" s="9"/>
-      <c r="AE32" s="38"/>
-      <c r="AF32" s="42"/>
-      <c r="AG32" s="9"/>
-      <c r="AH32" s="9"/>
-      <c r="AI32" s="9"/>
-      <c r="AJ32" s="27"/>
-      <c r="AK32" s="24"/>
-    </row>
-    <row r="33" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A33" s="45" t="s">
-        <v>43</v>
-      </c>
-      <c r="B33" s="45"/>
-      <c r="C33" s="45"/>
-      <c r="D33" s="46"/>
-      <c r="E33" s="2">
-        <v>40</v>
-      </c>
-      <c r="F33" s="2">
-        <v>40</v>
-      </c>
-      <c r="G33" s="2">
-        <v>40</v>
-      </c>
-      <c r="H33" s="4"/>
-      <c r="I33" s="1"/>
-      <c r="J33" s="26"/>
-      <c r="K33" s="1"/>
-      <c r="L33" s="1"/>
-      <c r="M33" s="1"/>
-      <c r="N33" s="26"/>
-      <c r="O33" s="1"/>
-      <c r="P33" s="1"/>
-      <c r="Q33" s="1"/>
-      <c r="R33" s="1"/>
-      <c r="S33" s="26"/>
-      <c r="T33" s="1"/>
-      <c r="U33" s="1"/>
-      <c r="V33" s="1"/>
-      <c r="W33" s="26"/>
-      <c r="X33" s="1"/>
-      <c r="Y33" s="1"/>
-      <c r="Z33" s="1"/>
-      <c r="AA33" s="26"/>
-      <c r="AB33" s="1"/>
-      <c r="AC33" s="1"/>
-      <c r="AD33" s="1"/>
-      <c r="AE33" s="26"/>
-      <c r="AF33" s="1"/>
-      <c r="AG33" s="17"/>
-      <c r="AH33" s="17"/>
-      <c r="AI33" s="17"/>
-      <c r="AJ33" s="26"/>
-      <c r="AK33" s="3"/>
-    </row>
-    <row r="34" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A34" s="45" t="s">
-        <v>44</v>
-      </c>
-      <c r="B34" s="45"/>
-      <c r="C34" s="45"/>
-      <c r="D34" s="46"/>
-      <c r="E34" s="2">
-        <v>5</v>
-      </c>
-      <c r="F34" s="2">
-        <v>5</v>
-      </c>
-      <c r="G34" s="2">
-        <v>5</v>
-      </c>
-      <c r="H34" s="4"/>
-      <c r="I34" s="1"/>
-      <c r="J34" s="26"/>
-      <c r="K34" s="1"/>
-      <c r="L34" s="1"/>
-      <c r="M34" s="1"/>
-      <c r="N34" s="26"/>
-      <c r="O34" s="1"/>
-      <c r="P34" s="1"/>
-      <c r="Q34" s="1"/>
-      <c r="R34" s="1"/>
-      <c r="S34" s="26"/>
-      <c r="T34" s="1"/>
-      <c r="U34" s="1"/>
-      <c r="V34" s="1"/>
-      <c r="W34" s="26"/>
-      <c r="X34" s="1"/>
-      <c r="Y34" s="1"/>
-      <c r="Z34" s="1"/>
-      <c r="AA34" s="26"/>
-      <c r="AB34" s="1"/>
-      <c r="AC34" s="1"/>
-      <c r="AD34" s="1"/>
-      <c r="AE34" s="26"/>
-      <c r="AF34" s="1"/>
-      <c r="AG34" s="1"/>
-      <c r="AH34" s="1"/>
-      <c r="AI34" s="1"/>
-      <c r="AJ34" s="41"/>
-      <c r="AK34" s="3"/>
-    </row>
-    <row r="35" spans="1:37" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="61" t="s">
-        <v>45</v>
-      </c>
-      <c r="B35" s="61"/>
-      <c r="C35" s="61"/>
-      <c r="D35" s="62"/>
-      <c r="E35" s="34">
-        <f>E33+E34</f>
-        <v>45</v>
-      </c>
-      <c r="F35" s="32">
-        <f t="shared" ref="F35:G35" si="5">F33+F34</f>
-        <v>45</v>
-      </c>
-      <c r="G35" s="32">
-        <f t="shared" si="5"/>
-        <v>45</v>
-      </c>
-      <c r="H35" s="23"/>
-      <c r="I35" s="9"/>
-      <c r="J35" s="27"/>
-      <c r="K35" s="9"/>
-      <c r="L35" s="9"/>
-      <c r="M35" s="9"/>
-      <c r="N35" s="27"/>
-      <c r="O35" s="9"/>
-      <c r="P35" s="9"/>
-      <c r="Q35" s="9"/>
-      <c r="R35" s="9"/>
-      <c r="S35" s="27"/>
-      <c r="T35" s="9"/>
-      <c r="U35" s="9"/>
-      <c r="V35" s="9"/>
-      <c r="W35" s="27"/>
-      <c r="X35" s="9"/>
-      <c r="Y35" s="9"/>
-      <c r="Z35" s="9"/>
-      <c r="AA35" s="27"/>
-      <c r="AB35" s="9"/>
-      <c r="AC35" s="9"/>
-      <c r="AD35" s="9"/>
-      <c r="AE35" s="27"/>
-      <c r="AF35" s="9"/>
-      <c r="AG35" s="9"/>
-      <c r="AH35" s="9"/>
-      <c r="AI35" s="9"/>
-      <c r="AJ35" s="40"/>
-      <c r="AK35" s="36"/>
-    </row>
-    <row r="36" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A36" s="64" t="s">
-        <v>46</v>
-      </c>
-      <c r="B36" s="64"/>
-      <c r="C36" s="64"/>
-      <c r="D36" s="65"/>
-      <c r="E36" s="35">
-        <f>E12+E15+E20+E29+E32+E35</f>
-        <v>185</v>
-      </c>
-      <c r="F36" s="35">
-        <f t="shared" ref="F36:G36" si="6">F12+F15+F20+F29+F32+F35</f>
-        <v>185</v>
-      </c>
-      <c r="G36" s="35">
-        <f t="shared" si="6"/>
-        <v>185</v>
-      </c>
-      <c r="H36" s="4"/>
-      <c r="I36" s="1"/>
-      <c r="J36" s="26"/>
-      <c r="K36" s="1"/>
-      <c r="L36" s="1"/>
-      <c r="M36" s="1"/>
-      <c r="N36" s="26"/>
-      <c r="O36" s="1"/>
-      <c r="P36" s="1"/>
-      <c r="Q36" s="1"/>
-      <c r="R36" s="1"/>
-      <c r="S36" s="26"/>
-      <c r="T36" s="1"/>
-      <c r="U36" s="1"/>
-      <c r="V36" s="1"/>
-      <c r="W36" s="26"/>
-      <c r="X36" s="1"/>
-      <c r="Y36" s="1"/>
-      <c r="Z36" s="1"/>
-      <c r="AA36" s="26"/>
-      <c r="AB36" s="1"/>
-      <c r="AC36" s="1"/>
-      <c r="AD36" s="1"/>
-      <c r="AE36" s="26"/>
-      <c r="AF36" s="1"/>
-      <c r="AG36" s="1"/>
-      <c r="AH36" s="1"/>
-      <c r="AI36" s="1"/>
-      <c r="AJ36" s="26"/>
-      <c r="AK36" s="3"/>
-    </row>
-  </sheetData>
-  <mergeCells count="49">
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="AJ4:AK4"/>
-    <mergeCell ref="N1:S1"/>
-    <mergeCell ref="N2:S2"/>
-    <mergeCell ref="N3:S3"/>
     <mergeCell ref="A1:G3"/>
     <mergeCell ref="V1:AA1"/>
     <mergeCell ref="V2:AA2"/>
@@ -4610,4 +2805,1811 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CB8DCAA-6D0A-4CAB-9084-21E2434B6494}">
+  <dimension ref="A1:AK36"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AC29" sqref="AC29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="38" customWidth="1"/>
+    <col min="7" max="7" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="36" width="4.33203125" customWidth="1"/>
+    <col min="37" max="37" width="5.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="62" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="43"/>
+      <c r="N1" s="63" t="s">
+        <v>49</v>
+      </c>
+      <c r="O1" s="63"/>
+      <c r="P1" s="63"/>
+      <c r="Q1" s="63"/>
+      <c r="R1" s="63"/>
+      <c r="S1" s="63"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="14"/>
+      <c r="V1" s="63" t="s">
+        <v>48</v>
+      </c>
+      <c r="W1" s="63"/>
+      <c r="X1" s="63"/>
+      <c r="Y1" s="63"/>
+      <c r="Z1" s="63"/>
+      <c r="AA1" s="63"/>
+      <c r="AB1" s="1"/>
+      <c r="AC1" s="1"/>
+      <c r="AD1" s="1"/>
+      <c r="AE1" s="1"/>
+      <c r="AF1" s="1"/>
+      <c r="AG1" s="1"/>
+      <c r="AH1" s="1"/>
+      <c r="AI1" s="1"/>
+      <c r="AJ1" s="1"/>
+      <c r="AK1" s="1"/>
+    </row>
+    <row r="2" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="62"/>
+      <c r="B2" s="62"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="69"/>
+      <c r="O2" s="69"/>
+      <c r="P2" s="69"/>
+      <c r="Q2" s="69"/>
+      <c r="R2" s="69"/>
+      <c r="S2" s="69"/>
+      <c r="T2" s="1"/>
+      <c r="U2" s="15"/>
+      <c r="V2" s="63" t="s">
+        <v>15</v>
+      </c>
+      <c r="W2" s="63"/>
+      <c r="X2" s="63"/>
+      <c r="Y2" s="63"/>
+      <c r="Z2" s="63"/>
+      <c r="AA2" s="63"/>
+      <c r="AB2" s="1"/>
+      <c r="AC2" s="1"/>
+      <c r="AD2" s="1"/>
+      <c r="AE2" s="1"/>
+      <c r="AF2" s="1"/>
+      <c r="AG2" s="1"/>
+      <c r="AH2" s="1"/>
+      <c r="AI2" s="1"/>
+      <c r="AJ2" s="1"/>
+      <c r="AK2" s="1"/>
+    </row>
+    <row r="3" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="62"/>
+      <c r="B3" s="62"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="69"/>
+      <c r="O3" s="69"/>
+      <c r="P3" s="69"/>
+      <c r="Q3" s="69"/>
+      <c r="R3" s="69"/>
+      <c r="S3" s="69"/>
+      <c r="T3" s="1"/>
+      <c r="U3" s="17"/>
+      <c r="V3" s="63" t="s">
+        <v>47</v>
+      </c>
+      <c r="W3" s="63"/>
+      <c r="X3" s="63"/>
+      <c r="Y3" s="63"/>
+      <c r="Z3" s="63"/>
+      <c r="AA3" s="63"/>
+      <c r="AB3" s="1"/>
+      <c r="AC3" s="1"/>
+      <c r="AD3" s="1"/>
+      <c r="AE3" s="1"/>
+      <c r="AF3" s="1"/>
+      <c r="AG3" s="1"/>
+      <c r="AH3" s="1"/>
+      <c r="AI3" s="1"/>
+      <c r="AJ3" s="1"/>
+      <c r="AK3" s="1"/>
+    </row>
+    <row r="4" spans="1:37" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="12"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="64">
+        <v>45910</v>
+      </c>
+      <c r="I4" s="64"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="12"/>
+      <c r="M4" s="12"/>
+      <c r="N4" s="12"/>
+      <c r="O4" s="12"/>
+      <c r="P4" s="12"/>
+      <c r="Q4" s="12"/>
+      <c r="R4" s="12"/>
+      <c r="S4" s="12"/>
+      <c r="T4" s="12"/>
+      <c r="U4" s="12"/>
+      <c r="V4" s="12"/>
+      <c r="W4" s="12"/>
+      <c r="X4" s="12"/>
+      <c r="Y4" s="12"/>
+      <c r="Z4" s="12"/>
+      <c r="AA4" s="12"/>
+      <c r="AB4" s="12"/>
+      <c r="AC4" s="12"/>
+      <c r="AD4" s="12"/>
+      <c r="AE4" s="12"/>
+      <c r="AF4" s="12"/>
+      <c r="AG4" s="12"/>
+      <c r="AH4" s="12"/>
+      <c r="AI4" s="12"/>
+      <c r="AJ4" s="61">
+        <v>46119</v>
+      </c>
+      <c r="AK4" s="61"/>
+    </row>
+    <row r="5" spans="1:37" ht="17.399999999999999" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="57" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="57"/>
+      <c r="C5" s="57"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="57" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5" s="57"/>
+      <c r="G5" s="57"/>
+      <c r="H5" s="66" t="s">
+        <v>7</v>
+      </c>
+      <c r="I5" s="67"/>
+      <c r="J5" s="67"/>
+      <c r="K5" s="68" t="s">
+        <v>6</v>
+      </c>
+      <c r="L5" s="57"/>
+      <c r="M5" s="57"/>
+      <c r="N5" s="58"/>
+      <c r="O5" s="57" t="s">
+        <v>8</v>
+      </c>
+      <c r="P5" s="57"/>
+      <c r="Q5" s="57"/>
+      <c r="R5" s="57"/>
+      <c r="S5" s="58"/>
+      <c r="T5" s="57" t="s">
+        <v>9</v>
+      </c>
+      <c r="U5" s="57"/>
+      <c r="V5" s="57"/>
+      <c r="W5" s="58"/>
+      <c r="X5" s="57" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y5" s="57"/>
+      <c r="Z5" s="57"/>
+      <c r="AA5" s="58"/>
+      <c r="AB5" s="57" t="s">
+        <v>11</v>
+      </c>
+      <c r="AC5" s="57"/>
+      <c r="AD5" s="57"/>
+      <c r="AE5" s="58"/>
+      <c r="AF5" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="AG5" s="57"/>
+      <c r="AH5" s="57"/>
+      <c r="AI5" s="57"/>
+      <c r="AJ5" s="58"/>
+      <c r="AK5" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:37" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="59" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="59"/>
+      <c r="C6" s="59"/>
+      <c r="D6" s="60"/>
+      <c r="E6" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G6" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="H6" s="6">
+        <v>37</v>
+      </c>
+      <c r="I6" s="7">
+        <v>38</v>
+      </c>
+      <c r="J6" s="8">
+        <v>39</v>
+      </c>
+      <c r="K6" s="7">
+        <v>40</v>
+      </c>
+      <c r="L6" s="7">
+        <v>41</v>
+      </c>
+      <c r="M6" s="7">
+        <v>42</v>
+      </c>
+      <c r="N6" s="8">
+        <v>43</v>
+      </c>
+      <c r="O6" s="7">
+        <v>44</v>
+      </c>
+      <c r="P6" s="7">
+        <v>45</v>
+      </c>
+      <c r="Q6" s="7">
+        <v>46</v>
+      </c>
+      <c r="R6" s="7">
+        <v>47</v>
+      </c>
+      <c r="S6" s="8">
+        <v>48</v>
+      </c>
+      <c r="T6" s="7">
+        <v>49</v>
+      </c>
+      <c r="U6" s="7">
+        <v>50</v>
+      </c>
+      <c r="V6" s="7">
+        <v>51</v>
+      </c>
+      <c r="W6" s="8">
+        <v>52</v>
+      </c>
+      <c r="X6" s="7">
+        <v>1</v>
+      </c>
+      <c r="Y6" s="7">
+        <v>2</v>
+      </c>
+      <c r="Z6" s="7">
+        <v>3</v>
+      </c>
+      <c r="AA6" s="8">
+        <v>4</v>
+      </c>
+      <c r="AB6" s="7">
+        <v>5</v>
+      </c>
+      <c r="AC6" s="7">
+        <v>6</v>
+      </c>
+      <c r="AD6" s="7">
+        <v>7</v>
+      </c>
+      <c r="AE6" s="8">
+        <v>8</v>
+      </c>
+      <c r="AF6" s="9">
+        <v>9</v>
+      </c>
+      <c r="AG6" s="9">
+        <v>10</v>
+      </c>
+      <c r="AH6" s="9">
+        <v>11</v>
+      </c>
+      <c r="AI6" s="9">
+        <v>12</v>
+      </c>
+      <c r="AJ6" s="10">
+        <v>13</v>
+      </c>
+      <c r="AK6" s="11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="55" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="55"/>
+      <c r="C7" s="55"/>
+      <c r="D7" s="56"/>
+      <c r="E7" s="20">
+        <v>2</v>
+      </c>
+      <c r="F7" s="21">
+        <v>2</v>
+      </c>
+      <c r="G7" s="22">
+        <v>2</v>
+      </c>
+      <c r="H7" s="29"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="25"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="25"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="25"/>
+      <c r="T7" s="1"/>
+      <c r="U7" s="1"/>
+      <c r="V7" s="1"/>
+      <c r="W7" s="13"/>
+      <c r="X7" s="28"/>
+      <c r="Y7" s="1"/>
+      <c r="Z7" s="1"/>
+      <c r="AA7" s="25"/>
+      <c r="AB7" s="1"/>
+      <c r="AC7" s="1"/>
+      <c r="AD7" s="1"/>
+      <c r="AE7" s="25"/>
+      <c r="AF7" s="1"/>
+      <c r="AG7" s="1"/>
+      <c r="AH7" s="1"/>
+      <c r="AI7" s="1"/>
+      <c r="AJ7" s="25"/>
+      <c r="AK7" s="3"/>
+    </row>
+    <row r="8" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="48" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="48"/>
+      <c r="C8" s="48"/>
+      <c r="D8" s="49"/>
+      <c r="E8" s="2">
+        <v>11</v>
+      </c>
+      <c r="F8" s="2">
+        <v>9</v>
+      </c>
+      <c r="G8" s="19">
+        <v>12</v>
+      </c>
+      <c r="H8" s="29"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="30"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="26"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1"/>
+      <c r="S8" s="26"/>
+      <c r="T8" s="1"/>
+      <c r="U8" s="1"/>
+      <c r="V8" s="1"/>
+      <c r="W8" s="26"/>
+      <c r="X8" s="1"/>
+      <c r="Y8" s="1"/>
+      <c r="Z8" s="1"/>
+      <c r="AA8" s="26"/>
+      <c r="AB8" s="1"/>
+      <c r="AC8" s="1"/>
+      <c r="AD8" s="1"/>
+      <c r="AE8" s="26"/>
+      <c r="AF8" s="1"/>
+      <c r="AG8" s="1"/>
+      <c r="AH8" s="1"/>
+      <c r="AI8" s="1"/>
+      <c r="AJ8" s="26"/>
+      <c r="AK8" s="3"/>
+    </row>
+    <row r="9" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="48" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="48"/>
+      <c r="C9" s="48"/>
+      <c r="D9" s="49"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2">
+        <v>4</v>
+      </c>
+      <c r="G9" s="19"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="30"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="26"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1"/>
+      <c r="S9" s="26"/>
+      <c r="T9" s="1"/>
+      <c r="U9" s="1"/>
+      <c r="V9" s="1"/>
+      <c r="W9" s="26"/>
+      <c r="X9" s="1"/>
+      <c r="Y9" s="1"/>
+      <c r="Z9" s="1"/>
+      <c r="AA9" s="26"/>
+      <c r="AB9" s="1"/>
+      <c r="AC9" s="1"/>
+      <c r="AD9" s="1"/>
+      <c r="AE9" s="26"/>
+      <c r="AF9" s="1"/>
+      <c r="AG9" s="1"/>
+      <c r="AH9" s="1"/>
+      <c r="AI9" s="1"/>
+      <c r="AJ9" s="26"/>
+      <c r="AK9" s="3"/>
+    </row>
+    <row r="10" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="48"/>
+      <c r="C10" s="48"/>
+      <c r="D10" s="49"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="19">
+        <v>2</v>
+      </c>
+      <c r="H10" s="4"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="30"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="26"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1"/>
+      <c r="S10" s="26"/>
+      <c r="T10" s="1"/>
+      <c r="U10" s="1"/>
+      <c r="V10" s="1"/>
+      <c r="W10" s="26"/>
+      <c r="X10" s="1"/>
+      <c r="Y10" s="1"/>
+      <c r="Z10" s="1"/>
+      <c r="AA10" s="26"/>
+      <c r="AB10" s="1"/>
+      <c r="AC10" s="1"/>
+      <c r="AD10" s="1"/>
+      <c r="AE10" s="26"/>
+      <c r="AF10" s="1"/>
+      <c r="AG10" s="1"/>
+      <c r="AH10" s="1"/>
+      <c r="AI10" s="1"/>
+      <c r="AJ10" s="26"/>
+      <c r="AK10" s="3"/>
+    </row>
+    <row r="11" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="48" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="48"/>
+      <c r="C11" s="48"/>
+      <c r="D11" s="49"/>
+      <c r="E11" s="2">
+        <v>3</v>
+      </c>
+      <c r="F11" s="2">
+        <v>1</v>
+      </c>
+      <c r="G11" s="19"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="30"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="26"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="1"/>
+      <c r="S11" s="26"/>
+      <c r="T11" s="1"/>
+      <c r="U11" s="1"/>
+      <c r="V11" s="1"/>
+      <c r="W11" s="26"/>
+      <c r="X11" s="1"/>
+      <c r="Y11" s="1"/>
+      <c r="Z11" s="1"/>
+      <c r="AA11" s="26"/>
+      <c r="AB11" s="1"/>
+      <c r="AC11" s="1"/>
+      <c r="AD11" s="1"/>
+      <c r="AE11" s="26"/>
+      <c r="AF11" s="1"/>
+      <c r="AG11" s="1"/>
+      <c r="AH11" s="1"/>
+      <c r="AI11" s="1"/>
+      <c r="AJ11" s="26"/>
+      <c r="AK11" s="3"/>
+    </row>
+    <row r="12" spans="1:37" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="50" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="50"/>
+      <c r="C12" s="50"/>
+      <c r="D12" s="51"/>
+      <c r="E12" s="32">
+        <f>E7+E8+E9+E10+E11</f>
+        <v>16</v>
+      </c>
+      <c r="F12" s="32">
+        <f t="shared" ref="F12:G12" si="0">F7+F8+F9+F10+F11</f>
+        <v>16</v>
+      </c>
+      <c r="G12" s="33">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="H12" s="23"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="31"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="27"/>
+      <c r="O12" s="9"/>
+      <c r="P12" s="9"/>
+      <c r="Q12" s="9"/>
+      <c r="R12" s="9"/>
+      <c r="S12" s="27"/>
+      <c r="T12" s="9"/>
+      <c r="U12" s="9"/>
+      <c r="V12" s="9"/>
+      <c r="W12" s="27"/>
+      <c r="X12" s="9"/>
+      <c r="Y12" s="9"/>
+      <c r="Z12" s="9"/>
+      <c r="AA12" s="27"/>
+      <c r="AB12" s="9"/>
+      <c r="AC12" s="9"/>
+      <c r="AD12" s="9"/>
+      <c r="AE12" s="27"/>
+      <c r="AF12" s="9"/>
+      <c r="AG12" s="9"/>
+      <c r="AH12" s="9"/>
+      <c r="AI12" s="9"/>
+      <c r="AJ12" s="27"/>
+      <c r="AK12" s="24"/>
+    </row>
+    <row r="13" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="48"/>
+      <c r="C13" s="48"/>
+      <c r="D13" s="49"/>
+      <c r="E13" s="18">
+        <v>2</v>
+      </c>
+      <c r="F13" s="2">
+        <v>2</v>
+      </c>
+      <c r="G13" s="19">
+        <v>2</v>
+      </c>
+      <c r="H13" s="29"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="26"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="26"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1"/>
+      <c r="R13" s="1"/>
+      <c r="S13" s="26"/>
+      <c r="T13" s="1"/>
+      <c r="U13" s="1"/>
+      <c r="V13" s="1"/>
+      <c r="W13" s="26"/>
+      <c r="X13" s="1"/>
+      <c r="Y13" s="1"/>
+      <c r="Z13" s="1"/>
+      <c r="AA13" s="26"/>
+      <c r="AB13" s="1"/>
+      <c r="AC13" s="1"/>
+      <c r="AD13" s="1"/>
+      <c r="AE13" s="26"/>
+      <c r="AF13" s="1"/>
+      <c r="AG13" s="1"/>
+      <c r="AH13" s="1"/>
+      <c r="AI13" s="1"/>
+      <c r="AJ13" s="26"/>
+      <c r="AK13" s="3"/>
+    </row>
+    <row r="14" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="48" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="48"/>
+      <c r="C14" s="48"/>
+      <c r="D14" s="49"/>
+      <c r="E14" s="2">
+        <v>2</v>
+      </c>
+      <c r="F14" s="2">
+        <v>2</v>
+      </c>
+      <c r="G14" s="19">
+        <v>2</v>
+      </c>
+      <c r="H14" s="4"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="26"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="26"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="1"/>
+      <c r="S14" s="26"/>
+      <c r="T14" s="1"/>
+      <c r="U14" s="1"/>
+      <c r="V14" s="1"/>
+      <c r="W14" s="26"/>
+      <c r="X14" s="1"/>
+      <c r="Y14" s="1"/>
+      <c r="Z14" s="1"/>
+      <c r="AA14" s="26"/>
+      <c r="AB14" s="1"/>
+      <c r="AC14" s="1"/>
+      <c r="AD14" s="1"/>
+      <c r="AE14" s="26"/>
+      <c r="AF14" s="1"/>
+      <c r="AG14" s="1"/>
+      <c r="AH14" s="1"/>
+      <c r="AI14" s="1"/>
+      <c r="AJ14" s="26"/>
+      <c r="AK14" s="3"/>
+    </row>
+    <row r="15" spans="1:37" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="50" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" s="50"/>
+      <c r="C15" s="50"/>
+      <c r="D15" s="51"/>
+      <c r="E15" s="32">
+        <f>E13+E14</f>
+        <v>4</v>
+      </c>
+      <c r="F15" s="32">
+        <f t="shared" ref="F15:G15" si="1">F13+F14</f>
+        <v>4</v>
+      </c>
+      <c r="G15" s="32">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="H15" s="23"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="31"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="9"/>
+      <c r="M15" s="9"/>
+      <c r="N15" s="27"/>
+      <c r="O15" s="9"/>
+      <c r="P15" s="9"/>
+      <c r="Q15" s="9"/>
+      <c r="R15" s="9"/>
+      <c r="S15" s="27"/>
+      <c r="T15" s="9"/>
+      <c r="U15" s="9"/>
+      <c r="V15" s="9"/>
+      <c r="W15" s="27"/>
+      <c r="X15" s="9"/>
+      <c r="Y15" s="9"/>
+      <c r="Z15" s="9"/>
+      <c r="AA15" s="27"/>
+      <c r="AB15" s="9"/>
+      <c r="AC15" s="9"/>
+      <c r="AD15" s="9"/>
+      <c r="AE15" s="27"/>
+      <c r="AF15" s="9"/>
+      <c r="AG15" s="9"/>
+      <c r="AH15" s="9"/>
+      <c r="AI15" s="9"/>
+      <c r="AJ15" s="27"/>
+      <c r="AK15" s="24"/>
+    </row>
+    <row r="16" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A16" s="48" t="s">
+        <v>50</v>
+      </c>
+      <c r="B16" s="48"/>
+      <c r="C16" s="48"/>
+      <c r="D16" s="49"/>
+      <c r="E16" s="2">
+        <v>3</v>
+      </c>
+      <c r="F16" s="2">
+        <v>3</v>
+      </c>
+      <c r="G16" s="19">
+        <v>3</v>
+      </c>
+      <c r="H16" s="4"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="44"/>
+      <c r="K16" s="14"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="26"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1"/>
+      <c r="R16" s="1"/>
+      <c r="S16" s="26"/>
+      <c r="T16" s="1"/>
+      <c r="U16" s="1"/>
+      <c r="V16" s="1"/>
+      <c r="W16" s="26"/>
+      <c r="X16" s="1"/>
+      <c r="Y16" s="1"/>
+      <c r="Z16" s="1"/>
+      <c r="AA16" s="26"/>
+      <c r="AB16" s="1"/>
+      <c r="AC16" s="1"/>
+      <c r="AD16" s="1"/>
+      <c r="AE16" s="26"/>
+      <c r="AF16" s="1"/>
+      <c r="AG16" s="1"/>
+      <c r="AH16" s="1"/>
+      <c r="AI16" s="1"/>
+      <c r="AJ16" s="26"/>
+      <c r="AK16" s="3"/>
+    </row>
+    <row r="17" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A17" s="48" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" s="48"/>
+      <c r="C17" s="48"/>
+      <c r="D17" s="49"/>
+      <c r="E17" s="2">
+        <v>4</v>
+      </c>
+      <c r="F17" s="2">
+        <v>15</v>
+      </c>
+      <c r="G17" s="19"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="26"/>
+      <c r="K17" s="14"/>
+      <c r="L17" s="14"/>
+      <c r="M17" s="14"/>
+      <c r="N17" s="39"/>
+      <c r="O17" s="15"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1"/>
+      <c r="R17" s="1"/>
+      <c r="S17" s="26"/>
+      <c r="T17" s="1"/>
+      <c r="U17" s="1"/>
+      <c r="V17" s="1"/>
+      <c r="W17" s="26"/>
+      <c r="X17" s="1"/>
+      <c r="Y17" s="1"/>
+      <c r="Z17" s="1"/>
+      <c r="AA17" s="26"/>
+      <c r="AB17" s="1"/>
+      <c r="AC17" s="1"/>
+      <c r="AD17" s="1"/>
+      <c r="AE17" s="26"/>
+      <c r="AF17" s="1"/>
+      <c r="AG17" s="1"/>
+      <c r="AH17" s="1"/>
+      <c r="AI17" s="1"/>
+      <c r="AJ17" s="26"/>
+      <c r="AK17" s="3"/>
+    </row>
+    <row r="18" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A18" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" s="48"/>
+      <c r="C18" s="48"/>
+      <c r="D18" s="49"/>
+      <c r="E18" s="2">
+        <v>10</v>
+      </c>
+      <c r="F18" s="2">
+        <v>2</v>
+      </c>
+      <c r="G18" s="19">
+        <v>10</v>
+      </c>
+      <c r="H18" s="4"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="26"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="14"/>
+      <c r="M18" s="14"/>
+      <c r="N18" s="39"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="1"/>
+      <c r="R18" s="1"/>
+      <c r="S18" s="26"/>
+      <c r="T18" s="1"/>
+      <c r="U18" s="1"/>
+      <c r="V18" s="1"/>
+      <c r="W18" s="26"/>
+      <c r="X18" s="1"/>
+      <c r="Y18" s="1"/>
+      <c r="Z18" s="1"/>
+      <c r="AA18" s="26"/>
+      <c r="AB18" s="1"/>
+      <c r="AC18" s="1"/>
+      <c r="AD18" s="1"/>
+      <c r="AE18" s="26"/>
+      <c r="AF18" s="1"/>
+      <c r="AG18" s="1"/>
+      <c r="AH18" s="1"/>
+      <c r="AI18" s="1"/>
+      <c r="AJ18" s="26"/>
+      <c r="AK18" s="3"/>
+    </row>
+    <row r="19" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A19" s="48" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" s="48"/>
+      <c r="C19" s="48"/>
+      <c r="D19" s="49"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="19">
+        <v>12</v>
+      </c>
+      <c r="H19" s="4"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="26"/>
+      <c r="K19" s="14"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="30"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="1"/>
+      <c r="R19" s="1"/>
+      <c r="S19" s="26"/>
+      <c r="T19" s="1"/>
+      <c r="U19" s="1"/>
+      <c r="V19" s="1"/>
+      <c r="W19" s="26"/>
+      <c r="X19" s="1"/>
+      <c r="Y19" s="1"/>
+      <c r="Z19" s="1"/>
+      <c r="AA19" s="26"/>
+      <c r="AB19" s="1"/>
+      <c r="AC19" s="1"/>
+      <c r="AD19" s="1"/>
+      <c r="AE19" s="26"/>
+      <c r="AF19" s="1"/>
+      <c r="AG19" s="1"/>
+      <c r="AH19" s="1"/>
+      <c r="AI19" s="1"/>
+      <c r="AJ19" s="26"/>
+      <c r="AK19" s="3"/>
+    </row>
+    <row r="20" spans="1:37" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="54" t="s">
+        <v>42</v>
+      </c>
+      <c r="B20" s="54"/>
+      <c r="C20" s="54"/>
+      <c r="D20" s="54"/>
+      <c r="E20" s="34">
+        <f>E16+E17+E18+E19</f>
+        <v>17</v>
+      </c>
+      <c r="F20" s="34">
+        <f t="shared" ref="F20:G20" si="2">F16+F17+F18+F19</f>
+        <v>20</v>
+      </c>
+      <c r="G20" s="34">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="H20" s="23"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="27"/>
+      <c r="K20" s="9"/>
+      <c r="L20" s="9"/>
+      <c r="M20" s="9"/>
+      <c r="N20" s="27"/>
+      <c r="O20" s="45"/>
+      <c r="P20" s="9"/>
+      <c r="Q20" s="9"/>
+      <c r="R20" s="9"/>
+      <c r="S20" s="27"/>
+      <c r="T20" s="9"/>
+      <c r="U20" s="9"/>
+      <c r="V20" s="9"/>
+      <c r="W20" s="27"/>
+      <c r="X20" s="9"/>
+      <c r="Y20" s="9"/>
+      <c r="Z20" s="9"/>
+      <c r="AA20" s="27"/>
+      <c r="AB20" s="9"/>
+      <c r="AC20" s="9"/>
+      <c r="AD20" s="9"/>
+      <c r="AE20" s="27"/>
+      <c r="AF20" s="9"/>
+      <c r="AG20" s="9"/>
+      <c r="AH20" s="9"/>
+      <c r="AI20" s="9"/>
+      <c r="AJ20" s="27"/>
+      <c r="AK20" s="24"/>
+    </row>
+    <row r="21" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A21" s="55" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" s="55"/>
+      <c r="C21" s="55"/>
+      <c r="D21" s="56"/>
+      <c r="E21" s="18">
+        <v>13</v>
+      </c>
+      <c r="F21" s="2">
+        <v>30</v>
+      </c>
+      <c r="G21" s="19"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="26"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="26"/>
+      <c r="O21" s="14"/>
+      <c r="P21" s="14"/>
+      <c r="Q21" s="14"/>
+      <c r="R21" s="14"/>
+      <c r="S21" s="44"/>
+      <c r="T21" s="43"/>
+      <c r="U21" s="43"/>
+      <c r="V21" s="43"/>
+      <c r="W21" s="44"/>
+      <c r="X21" s="43"/>
+      <c r="Y21" s="43"/>
+      <c r="Z21" s="43"/>
+      <c r="AA21" s="44"/>
+      <c r="AB21" s="43"/>
+      <c r="AC21" s="43"/>
+      <c r="AD21" s="43"/>
+      <c r="AE21" s="44"/>
+      <c r="AF21" s="1"/>
+      <c r="AG21" s="1"/>
+      <c r="AH21" s="1"/>
+      <c r="AI21" s="1"/>
+      <c r="AJ21" s="26"/>
+      <c r="AK21" s="3"/>
+    </row>
+    <row r="22" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A22" s="48" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22" s="48"/>
+      <c r="C22" s="48"/>
+      <c r="D22" s="49"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="19">
+        <v>5</v>
+      </c>
+      <c r="H22" s="4"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="26"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="26"/>
+      <c r="O22" s="14"/>
+      <c r="P22" s="1"/>
+      <c r="Q22" s="1"/>
+      <c r="R22" s="1"/>
+      <c r="S22" s="26"/>
+      <c r="T22" s="1"/>
+      <c r="U22" s="1"/>
+      <c r="V22" s="1"/>
+      <c r="W22" s="26"/>
+      <c r="X22" s="1"/>
+      <c r="Y22" s="1"/>
+      <c r="Z22" s="1"/>
+      <c r="AA22" s="26"/>
+      <c r="AB22" s="1"/>
+      <c r="AC22" s="1"/>
+      <c r="AD22" s="1"/>
+      <c r="AE22" s="26"/>
+      <c r="AF22" s="1"/>
+      <c r="AG22" s="1"/>
+      <c r="AH22" s="1"/>
+      <c r="AI22" s="1"/>
+      <c r="AJ22" s="26"/>
+      <c r="AK22" s="3"/>
+    </row>
+    <row r="23" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A23" s="48" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23" s="48"/>
+      <c r="C23" s="48"/>
+      <c r="D23" s="49"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="19">
+        <v>10</v>
+      </c>
+      <c r="H23" s="4"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="26"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="26"/>
+      <c r="O23" s="1"/>
+      <c r="P23" s="14"/>
+      <c r="Q23" s="1"/>
+      <c r="R23" s="1"/>
+      <c r="S23" s="26"/>
+      <c r="T23" s="1"/>
+      <c r="U23" s="1"/>
+      <c r="V23" s="1"/>
+      <c r="W23" s="26"/>
+      <c r="X23" s="1"/>
+      <c r="Y23" s="1"/>
+      <c r="Z23" s="1"/>
+      <c r="AA23" s="26"/>
+      <c r="AB23" s="1"/>
+      <c r="AC23" s="1"/>
+      <c r="AD23" s="1"/>
+      <c r="AE23" s="26"/>
+      <c r="AF23" s="1"/>
+      <c r="AG23" s="1"/>
+      <c r="AH23" s="1"/>
+      <c r="AI23" s="1"/>
+      <c r="AJ23" s="26"/>
+      <c r="AK23" s="3"/>
+    </row>
+    <row r="24" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A24" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24" s="48"/>
+      <c r="C24" s="48"/>
+      <c r="D24" s="49"/>
+      <c r="E24" s="2">
+        <v>20</v>
+      </c>
+      <c r="F24" s="2"/>
+      <c r="G24" s="19">
+        <v>10</v>
+      </c>
+      <c r="H24" s="4"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="26"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="26"/>
+      <c r="O24" s="1"/>
+      <c r="P24" s="1"/>
+      <c r="Q24" s="14"/>
+      <c r="R24" s="14"/>
+      <c r="S24" s="30"/>
+      <c r="T24" s="46"/>
+      <c r="U24" s="47"/>
+      <c r="V24" s="43"/>
+      <c r="W24" s="44"/>
+      <c r="X24" s="43"/>
+      <c r="Y24" s="43"/>
+      <c r="Z24" s="43"/>
+      <c r="AA24" s="44"/>
+      <c r="AB24" s="43"/>
+      <c r="AC24" s="43"/>
+      <c r="AD24" s="43"/>
+      <c r="AE24" s="44"/>
+      <c r="AF24" s="1"/>
+      <c r="AG24" s="1"/>
+      <c r="AH24" s="1"/>
+      <c r="AI24" s="1"/>
+      <c r="AJ24" s="26"/>
+      <c r="AK24" s="3"/>
+    </row>
+    <row r="25" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A25" s="48" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25" s="48"/>
+      <c r="C25" s="48"/>
+      <c r="D25" s="49"/>
+      <c r="E25" s="2">
+        <v>5</v>
+      </c>
+      <c r="F25" s="2">
+        <v>5</v>
+      </c>
+      <c r="G25" s="19">
+        <v>5</v>
+      </c>
+      <c r="H25" s="4"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="26"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="26"/>
+      <c r="O25" s="1"/>
+      <c r="P25" s="1"/>
+      <c r="Q25" s="1"/>
+      <c r="R25" s="1"/>
+      <c r="S25" s="30"/>
+      <c r="T25" s="1"/>
+      <c r="U25" s="1"/>
+      <c r="V25" s="1"/>
+      <c r="W25" s="26"/>
+      <c r="X25" s="1"/>
+      <c r="Y25" s="1"/>
+      <c r="Z25" s="1"/>
+      <c r="AA25" s="26"/>
+      <c r="AB25" s="1"/>
+      <c r="AC25" s="1"/>
+      <c r="AD25" s="1"/>
+      <c r="AE25" s="26"/>
+      <c r="AF25" s="1"/>
+      <c r="AG25" s="1"/>
+      <c r="AH25" s="1"/>
+      <c r="AI25" s="1"/>
+      <c r="AJ25" s="26"/>
+      <c r="AK25" s="3"/>
+    </row>
+    <row r="26" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A26" s="48" t="s">
+        <v>41</v>
+      </c>
+      <c r="B26" s="48"/>
+      <c r="C26" s="48"/>
+      <c r="D26" s="49"/>
+      <c r="E26" s="2">
+        <v>40</v>
+      </c>
+      <c r="F26" s="2">
+        <v>40</v>
+      </c>
+      <c r="G26" s="19">
+        <v>30</v>
+      </c>
+      <c r="H26" s="4"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="26"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="26"/>
+      <c r="O26" s="1"/>
+      <c r="P26" s="1"/>
+      <c r="Q26" s="1"/>
+      <c r="R26" s="1"/>
+      <c r="S26" s="26"/>
+      <c r="T26" s="14"/>
+      <c r="U26" s="14"/>
+      <c r="V26" s="14"/>
+      <c r="W26" s="30"/>
+      <c r="X26" s="14"/>
+      <c r="Y26" s="43"/>
+      <c r="Z26" s="43"/>
+      <c r="AA26" s="44"/>
+      <c r="AB26" s="43"/>
+      <c r="AC26" s="43"/>
+      <c r="AD26" s="43"/>
+      <c r="AE26" s="44"/>
+      <c r="AF26" s="1"/>
+      <c r="AG26" s="1"/>
+      <c r="AH26" s="1"/>
+      <c r="AI26" s="1"/>
+      <c r="AJ26" s="26"/>
+      <c r="AK26" s="3"/>
+    </row>
+    <row r="27" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A27" s="48" t="s">
+        <v>34</v>
+      </c>
+      <c r="B27" s="48"/>
+      <c r="C27" s="48"/>
+      <c r="D27" s="49"/>
+      <c r="E27" s="2">
+        <v>5</v>
+      </c>
+      <c r="F27" s="2">
+        <v>5</v>
+      </c>
+      <c r="G27" s="19">
+        <v>5</v>
+      </c>
+      <c r="H27" s="4"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="26"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+      <c r="N27" s="26"/>
+      <c r="O27" s="1"/>
+      <c r="P27" s="1"/>
+      <c r="Q27" s="1"/>
+      <c r="R27" s="1"/>
+      <c r="S27" s="26"/>
+      <c r="T27" s="1"/>
+      <c r="U27" s="1"/>
+      <c r="V27" s="1"/>
+      <c r="W27" s="26"/>
+      <c r="X27" s="1"/>
+      <c r="Y27" s="1"/>
+      <c r="Z27" s="14"/>
+      <c r="AA27" s="44"/>
+      <c r="AB27" s="43"/>
+      <c r="AC27" s="1"/>
+      <c r="AD27" s="1"/>
+      <c r="AE27" s="26"/>
+      <c r="AF27" s="1"/>
+      <c r="AG27" s="1"/>
+      <c r="AH27" s="1"/>
+      <c r="AI27" s="1"/>
+      <c r="AJ27" s="26"/>
+      <c r="AK27" s="3"/>
+    </row>
+    <row r="28" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A28" s="48" t="s">
+        <v>35</v>
+      </c>
+      <c r="B28" s="48"/>
+      <c r="C28" s="48"/>
+      <c r="D28" s="49"/>
+      <c r="E28" s="2">
+        <v>5</v>
+      </c>
+      <c r="F28" s="2">
+        <v>5</v>
+      </c>
+      <c r="G28" s="19">
+        <v>5</v>
+      </c>
+      <c r="H28" s="4"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="26"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="26"/>
+      <c r="O28" s="1"/>
+      <c r="P28" s="1"/>
+      <c r="Q28" s="1"/>
+      <c r="R28" s="1"/>
+      <c r="S28" s="26"/>
+      <c r="T28" s="1"/>
+      <c r="U28" s="1"/>
+      <c r="V28" s="1"/>
+      <c r="W28" s="26"/>
+      <c r="X28" s="1"/>
+      <c r="Y28" s="1"/>
+      <c r="Z28" s="1"/>
+      <c r="AA28" s="26"/>
+      <c r="AB28" s="14"/>
+      <c r="AC28" s="15"/>
+      <c r="AD28" s="1"/>
+      <c r="AE28" s="26"/>
+      <c r="AF28" s="1"/>
+      <c r="AG28" s="1"/>
+      <c r="AH28" s="1"/>
+      <c r="AI28" s="1"/>
+      <c r="AJ28" s="26"/>
+      <c r="AK28" s="3"/>
+    </row>
+    <row r="29" spans="1:37" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="50" t="s">
+        <v>39</v>
+      </c>
+      <c r="B29" s="50"/>
+      <c r="C29" s="50"/>
+      <c r="D29" s="51"/>
+      <c r="E29" s="32">
+        <f>E21+E22+E23+E24+E25+E26+E27+E28</f>
+        <v>88</v>
+      </c>
+      <c r="F29" s="32">
+        <f t="shared" ref="F29:G29" si="3">F21+F22+F23+F24+F25+F26+F27+F28</f>
+        <v>85</v>
+      </c>
+      <c r="G29" s="32">
+        <f t="shared" si="3"/>
+        <v>70</v>
+      </c>
+      <c r="H29" s="23"/>
+      <c r="I29" s="9"/>
+      <c r="J29" s="27"/>
+      <c r="K29" s="9"/>
+      <c r="L29" s="9"/>
+      <c r="M29" s="9"/>
+      <c r="N29" s="27"/>
+      <c r="O29" s="9"/>
+      <c r="P29" s="9"/>
+      <c r="Q29" s="9"/>
+      <c r="R29" s="9"/>
+      <c r="S29" s="27"/>
+      <c r="T29" s="9"/>
+      <c r="U29" s="9"/>
+      <c r="V29" s="9"/>
+      <c r="W29" s="27"/>
+      <c r="X29" s="9"/>
+      <c r="Y29" s="9"/>
+      <c r="Z29" s="9"/>
+      <c r="AA29" s="27"/>
+      <c r="AB29" s="9"/>
+      <c r="AC29" s="70"/>
+      <c r="AD29" s="70"/>
+      <c r="AE29" s="71"/>
+      <c r="AF29" s="9"/>
+      <c r="AG29" s="9"/>
+      <c r="AH29" s="9"/>
+      <c r="AI29" s="9"/>
+      <c r="AJ29" s="27"/>
+      <c r="AK29" s="24"/>
+    </row>
+    <row r="30" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A30" s="48" t="s">
+        <v>36</v>
+      </c>
+      <c r="B30" s="48"/>
+      <c r="C30" s="48"/>
+      <c r="D30" s="49"/>
+      <c r="E30" s="2">
+        <v>15</v>
+      </c>
+      <c r="F30" s="2">
+        <v>15</v>
+      </c>
+      <c r="G30" s="19">
+        <v>20</v>
+      </c>
+      <c r="H30" s="4"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="26"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="26"/>
+      <c r="O30" s="1"/>
+      <c r="P30" s="1"/>
+      <c r="Q30" s="1"/>
+      <c r="R30" s="1"/>
+      <c r="S30" s="26"/>
+      <c r="T30" s="1"/>
+      <c r="U30" s="1"/>
+      <c r="V30" s="1"/>
+      <c r="W30" s="26"/>
+      <c r="X30" s="1"/>
+      <c r="Y30" s="1"/>
+      <c r="Z30" s="1"/>
+      <c r="AA30" s="26"/>
+      <c r="AB30" s="1"/>
+      <c r="AC30" s="17"/>
+      <c r="AD30" s="14"/>
+      <c r="AE30" s="30"/>
+      <c r="AF30" s="1"/>
+      <c r="AG30" s="1"/>
+      <c r="AH30" s="1"/>
+      <c r="AI30" s="1"/>
+      <c r="AJ30" s="26"/>
+      <c r="AK30" s="3"/>
+    </row>
+    <row r="31" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A31" s="48" t="s">
+        <v>37</v>
+      </c>
+      <c r="B31" s="48"/>
+      <c r="C31" s="48"/>
+      <c r="D31" s="49"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2">
+        <v>5</v>
+      </c>
+      <c r="H31" s="4"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="26"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="26"/>
+      <c r="O31" s="1"/>
+      <c r="P31" s="1"/>
+      <c r="Q31" s="1"/>
+      <c r="R31" s="1"/>
+      <c r="S31" s="26"/>
+      <c r="T31" s="1"/>
+      <c r="U31" s="1"/>
+      <c r="V31" s="1"/>
+      <c r="W31" s="26"/>
+      <c r="X31" s="1"/>
+      <c r="Y31" s="1"/>
+      <c r="Z31" s="1"/>
+      <c r="AA31" s="26"/>
+      <c r="AB31" s="1"/>
+      <c r="AC31" s="1"/>
+      <c r="AD31" s="1"/>
+      <c r="AE31" s="41"/>
+      <c r="AF31" s="1"/>
+      <c r="AG31" s="1"/>
+      <c r="AH31" s="1"/>
+      <c r="AI31" s="1"/>
+      <c r="AJ31" s="26"/>
+      <c r="AK31" s="3"/>
+    </row>
+    <row r="32" spans="1:37" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="50" t="s">
+        <v>38</v>
+      </c>
+      <c r="B32" s="50"/>
+      <c r="C32" s="50"/>
+      <c r="D32" s="51"/>
+      <c r="E32" s="34">
+        <f>E30+E31</f>
+        <v>15</v>
+      </c>
+      <c r="F32" s="32">
+        <f t="shared" ref="F32:G32" si="4">F30+F31</f>
+        <v>15</v>
+      </c>
+      <c r="G32" s="32">
+        <f t="shared" si="4"/>
+        <v>25</v>
+      </c>
+      <c r="H32" s="23"/>
+      <c r="I32" s="9"/>
+      <c r="J32" s="27"/>
+      <c r="K32" s="9"/>
+      <c r="L32" s="9"/>
+      <c r="M32" s="9"/>
+      <c r="N32" s="27"/>
+      <c r="O32" s="9"/>
+      <c r="P32" s="9"/>
+      <c r="Q32" s="9"/>
+      <c r="R32" s="9"/>
+      <c r="S32" s="27"/>
+      <c r="T32" s="9"/>
+      <c r="U32" s="9"/>
+      <c r="V32" s="9"/>
+      <c r="W32" s="27"/>
+      <c r="X32" s="9"/>
+      <c r="Y32" s="9"/>
+      <c r="Z32" s="9"/>
+      <c r="AA32" s="27"/>
+      <c r="AB32" s="9"/>
+      <c r="AC32" s="9"/>
+      <c r="AD32" s="9"/>
+      <c r="AE32" s="38"/>
+      <c r="AF32" s="42"/>
+      <c r="AG32" s="9"/>
+      <c r="AH32" s="9"/>
+      <c r="AI32" s="9"/>
+      <c r="AJ32" s="27"/>
+      <c r="AK32" s="24"/>
+    </row>
+    <row r="33" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A33" s="48" t="s">
+        <v>43</v>
+      </c>
+      <c r="B33" s="48"/>
+      <c r="C33" s="48"/>
+      <c r="D33" s="49"/>
+      <c r="E33" s="2">
+        <v>40</v>
+      </c>
+      <c r="F33" s="2">
+        <v>40</v>
+      </c>
+      <c r="G33" s="2">
+        <v>40</v>
+      </c>
+      <c r="H33" s="4"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="26"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+      <c r="N33" s="26"/>
+      <c r="O33" s="1"/>
+      <c r="P33" s="1"/>
+      <c r="Q33" s="43"/>
+      <c r="R33" s="43"/>
+      <c r="S33" s="44"/>
+      <c r="T33" s="43"/>
+      <c r="U33" s="43"/>
+      <c r="V33" s="43"/>
+      <c r="W33" s="44"/>
+      <c r="X33" s="43"/>
+      <c r="Y33" s="43"/>
+      <c r="Z33" s="43"/>
+      <c r="AA33" s="44"/>
+      <c r="AB33" s="43"/>
+      <c r="AC33" s="43"/>
+      <c r="AD33" s="43"/>
+      <c r="AE33" s="44"/>
+      <c r="AF33" s="1"/>
+      <c r="AG33" s="17"/>
+      <c r="AH33" s="17"/>
+      <c r="AI33" s="17"/>
+      <c r="AJ33" s="26"/>
+      <c r="AK33" s="3"/>
+    </row>
+    <row r="34" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A34" s="48" t="s">
+        <v>44</v>
+      </c>
+      <c r="B34" s="48"/>
+      <c r="C34" s="48"/>
+      <c r="D34" s="49"/>
+      <c r="E34" s="2">
+        <v>5</v>
+      </c>
+      <c r="F34" s="2">
+        <v>5</v>
+      </c>
+      <c r="G34" s="2">
+        <v>5</v>
+      </c>
+      <c r="H34" s="4"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="26"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
+      <c r="N34" s="26"/>
+      <c r="O34" s="1"/>
+      <c r="P34" s="1"/>
+      <c r="Q34" s="1"/>
+      <c r="R34" s="1"/>
+      <c r="S34" s="26"/>
+      <c r="T34" s="1"/>
+      <c r="U34" s="1"/>
+      <c r="V34" s="1"/>
+      <c r="W34" s="26"/>
+      <c r="X34" s="1"/>
+      <c r="Y34" s="1"/>
+      <c r="Z34" s="1"/>
+      <c r="AA34" s="26"/>
+      <c r="AB34" s="1"/>
+      <c r="AC34" s="1"/>
+      <c r="AD34" s="1"/>
+      <c r="AE34" s="26"/>
+      <c r="AF34" s="1"/>
+      <c r="AG34" s="1"/>
+      <c r="AH34" s="1"/>
+      <c r="AI34" s="1"/>
+      <c r="AJ34" s="41"/>
+      <c r="AK34" s="3"/>
+    </row>
+    <row r="35" spans="1:37" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="50" t="s">
+        <v>45</v>
+      </c>
+      <c r="B35" s="50"/>
+      <c r="C35" s="50"/>
+      <c r="D35" s="51"/>
+      <c r="E35" s="34">
+        <f>E33+E34</f>
+        <v>45</v>
+      </c>
+      <c r="F35" s="32">
+        <f t="shared" ref="F35:G35" si="5">F33+F34</f>
+        <v>45</v>
+      </c>
+      <c r="G35" s="32">
+        <f t="shared" si="5"/>
+        <v>45</v>
+      </c>
+      <c r="H35" s="23"/>
+      <c r="I35" s="9"/>
+      <c r="J35" s="27"/>
+      <c r="K35" s="9"/>
+      <c r="L35" s="9"/>
+      <c r="M35" s="9"/>
+      <c r="N35" s="27"/>
+      <c r="O35" s="9"/>
+      <c r="P35" s="9"/>
+      <c r="Q35" s="9"/>
+      <c r="R35" s="9"/>
+      <c r="S35" s="27"/>
+      <c r="T35" s="9"/>
+      <c r="U35" s="9"/>
+      <c r="V35" s="9"/>
+      <c r="W35" s="27"/>
+      <c r="X35" s="9"/>
+      <c r="Y35" s="9"/>
+      <c r="Z35" s="9"/>
+      <c r="AA35" s="27"/>
+      <c r="AB35" s="9"/>
+      <c r="AC35" s="9"/>
+      <c r="AD35" s="9"/>
+      <c r="AE35" s="27"/>
+      <c r="AF35" s="9"/>
+      <c r="AG35" s="9"/>
+      <c r="AH35" s="9"/>
+      <c r="AI35" s="9"/>
+      <c r="AJ35" s="40"/>
+      <c r="AK35" s="36"/>
+    </row>
+    <row r="36" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A36" s="52" t="s">
+        <v>46</v>
+      </c>
+      <c r="B36" s="52"/>
+      <c r="C36" s="52"/>
+      <c r="D36" s="53"/>
+      <c r="E36" s="35">
+        <f>E12+E15+E20+E29+E32+E35</f>
+        <v>185</v>
+      </c>
+      <c r="F36" s="35">
+        <f t="shared" ref="F36:G36" si="6">F12+F15+F20+F29+F32+F35</f>
+        <v>185</v>
+      </c>
+      <c r="G36" s="35">
+        <f t="shared" si="6"/>
+        <v>185</v>
+      </c>
+      <c r="H36" s="4"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="26"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+      <c r="M36" s="1"/>
+      <c r="N36" s="26"/>
+      <c r="O36" s="1"/>
+      <c r="P36" s="1"/>
+      <c r="Q36" s="1"/>
+      <c r="R36" s="1"/>
+      <c r="S36" s="26"/>
+      <c r="T36" s="1"/>
+      <c r="U36" s="1"/>
+      <c r="V36" s="1"/>
+      <c r="W36" s="26"/>
+      <c r="X36" s="1"/>
+      <c r="Y36" s="1"/>
+      <c r="Z36" s="1"/>
+      <c r="AA36" s="26"/>
+      <c r="AB36" s="1"/>
+      <c r="AC36" s="1"/>
+      <c r="AD36" s="1"/>
+      <c r="AE36" s="26"/>
+      <c r="AF36" s="1"/>
+      <c r="AG36" s="1"/>
+      <c r="AH36" s="1"/>
+      <c r="AI36" s="1"/>
+      <c r="AJ36" s="26"/>
+      <c r="AK36" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="49">
+    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A34:D34"/>
+    <mergeCell ref="A35:D35"/>
+    <mergeCell ref="A36:D36"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="A29:D29"/>
+    <mergeCell ref="A30:D30"/>
+    <mergeCell ref="A31:D31"/>
+    <mergeCell ref="A32:D32"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="A23:D23"/>
+    <mergeCell ref="A24:D24"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="O5:S5"/>
+    <mergeCell ref="T5:W5"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="K5:N5"/>
+    <mergeCell ref="X5:AA5"/>
+    <mergeCell ref="AB5:AE5"/>
+    <mergeCell ref="AF5:AJ5"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="AJ4:AK4"/>
+    <mergeCell ref="N1:S1"/>
+    <mergeCell ref="N2:S2"/>
+    <mergeCell ref="N3:S3"/>
+    <mergeCell ref="A1:G3"/>
+    <mergeCell ref="V1:AA1"/>
+    <mergeCell ref="V2:AA2"/>
+    <mergeCell ref="V3:AA3"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="H5:J5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
 </file>